--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
 2.产生</t>
   </si>
   <si>
-    <t xml:space="preserve">pile   </t>
+    <t>pile</t>
   </si>
   <si>
     <t>[paɪl]</t>
@@ -13458,12 +13458,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -13503,7 +13503,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13517,13 +13548,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -13532,25 +13556,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13569,6 +13579,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -13576,9 +13602,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13593,23 +13618,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13625,29 +13641,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13735,7 +13728,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13753,19 +13836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13777,25 +13848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13807,13 +13860,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13825,85 +13890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13914,21 +13907,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -13975,6 +13953,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -13989,6 +13982,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -13999,166 +14007,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14552,8 +14545,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
@@ -14608,7 +14601,7 @@
     </row>
     <row r="4" ht="48" spans="1:5">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -14693,7 +14686,7 @@
     </row>
     <row r="10" ht="48" spans="1:5">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -14862,7 +14855,7 @@
     </row>
     <row r="22" ht="48" spans="1:5">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>68</v>
@@ -14975,7 +14968,7 @@
     </row>
     <row r="30" ht="48" spans="1:5">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>96</v>
@@ -15021,7 +15014,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>107</v>
@@ -15114,7 +15107,7 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" ht="48" hidden="1" spans="2:5">
+    <row r="40" ht="35" hidden="1" spans="2:5">
       <c r="B40" s="1" t="s">
         <v>129</v>
       </c>
@@ -15237,7 +15230,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>156</v>
@@ -15350,7 +15343,7 @@
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" ht="48" spans="1:5">
+    <row r="57" ht="38" spans="1:5">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -15406,7 +15399,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>194</v>
@@ -16041,7 +16034,7 @@
       </c>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" ht="48" hidden="1" spans="2:5">
+    <row r="109" ht="38" hidden="1" spans="2:5">
       <c r="B109" s="1" t="s">
         <v>351</v>
       </c>
@@ -16442,7 +16435,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="140" ht="48" hidden="1" spans="2:5">
+    <row r="140" ht="36" hidden="1" spans="2:5">
       <c r="B140" s="1" t="s">
         <v>457</v>
       </c>
@@ -16550,7 +16543,7 @@
       </c>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" ht="48" hidden="1" spans="2:5">
+    <row r="149" ht="36" hidden="1" spans="2:5">
       <c r="B149" s="1" t="s">
         <v>484</v>
       </c>
@@ -17058,7 +17051,7 @@
       </c>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" ht="48" hidden="1" spans="2:5">
+    <row r="191" ht="36" hidden="1" spans="2:5">
       <c r="B191" s="1" t="s">
         <v>612</v>
       </c>
@@ -17120,7 +17113,7 @@
       </c>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" ht="48" hidden="1" spans="2:5">
+    <row r="196" ht="38" hidden="1" spans="2:5">
       <c r="B196" s="1" t="s">
         <v>628</v>
       </c>
@@ -18340,7 +18333,7 @@
       </c>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" ht="48" hidden="1" spans="2:5">
+    <row r="295" ht="36" hidden="1" spans="2:5">
       <c r="B295" s="1" t="s">
         <v>938</v>
       </c>
@@ -18500,7 +18493,7 @@
       </c>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" ht="48" hidden="1" spans="2:5">
+    <row r="308" ht="38" hidden="1" spans="2:5">
       <c r="B308" s="1" t="s">
         <v>979</v>
       </c>
@@ -18892,7 +18885,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="340" ht="48" hidden="1" spans="2:5">
+    <row r="340" ht="38" hidden="1" spans="2:5">
       <c r="B340" s="1" t="s">
         <v>1079</v>
       </c>
@@ -19042,7 +19035,7 @@
       </c>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" ht="48" hidden="1" spans="2:5">
+    <row r="352" ht="38" hidden="1" spans="2:5">
       <c r="B352" s="1" t="s">
         <v>1118</v>
       </c>
@@ -19114,7 +19107,7 @@
       </c>
       <c r="E357" s="5"/>
     </row>
-    <row r="358" ht="48" hidden="1" spans="2:5">
+    <row r="358" ht="36" hidden="1" spans="2:5">
       <c r="B358" s="1" t="s">
         <v>1136</v>
       </c>
@@ -19222,7 +19215,7 @@
       </c>
       <c r="E366" s="5"/>
     </row>
-    <row r="367" ht="48" hidden="1" spans="2:5">
+    <row r="367" ht="38" hidden="1" spans="2:5">
       <c r="B367" s="1" t="s">
         <v>1163</v>
       </c>
@@ -19626,7 +19619,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="400" ht="48" hidden="1" spans="2:5">
+    <row r="400" ht="38" hidden="1" spans="2:5">
       <c r="B400" s="1" t="s">
         <v>1266</v>
       </c>
@@ -19762,7 +19755,7 @@
       </c>
       <c r="E410" s="5"/>
     </row>
-    <row r="411" ht="48" hidden="1" spans="2:5">
+    <row r="411" ht="36" hidden="1" spans="2:5">
       <c r="B411" s="1" t="s">
         <v>1300</v>
       </c>
@@ -19920,7 +19913,7 @@
       </c>
       <c r="E423" s="5"/>
     </row>
-    <row r="424" ht="48" hidden="1" spans="2:5">
+    <row r="424" ht="35" hidden="1" spans="2:5">
       <c r="B424" s="1" t="s">
         <v>1340</v>
       </c>
@@ -20018,7 +20011,7 @@
       </c>
       <c r="E431" s="5"/>
     </row>
-    <row r="432" ht="48" hidden="1" spans="2:5">
+    <row r="432" ht="36" hidden="1" spans="2:5">
       <c r="B432" s="1" t="s">
         <v>1365</v>
       </c>
@@ -20240,7 +20233,7 @@
       </c>
       <c r="E449" s="5"/>
     </row>
-    <row r="450" ht="48" hidden="1" spans="2:5">
+    <row r="450" ht="36" hidden="1" spans="2:5">
       <c r="B450" s="1" t="s">
         <v>1422</v>
       </c>
@@ -20388,7 +20381,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="462" ht="48" hidden="1" spans="2:5">
+    <row r="462" hidden="1" spans="2:5">
       <c r="B462" s="1" t="s">
         <v>1460</v>
       </c>
@@ -21094,7 +21087,7 @@
       </c>
       <c r="E519" s="5"/>
     </row>
-    <row r="520" ht="48" hidden="1" spans="2:5">
+    <row r="520" ht="36" hidden="1" spans="2:5">
       <c r="B520" s="1" t="s">
         <v>1638</v>
       </c>
@@ -21106,7 +21099,7 @@
       </c>
       <c r="E520" s="5"/>
     </row>
-    <row r="521" ht="48" hidden="1" spans="2:5">
+    <row r="521" ht="36" hidden="1" spans="2:5">
       <c r="B521" s="1" t="s">
         <v>1641</v>
       </c>
@@ -21286,7 +21279,7 @@
       </c>
       <c r="E535" s="5"/>
     </row>
-    <row r="536" ht="48" hidden="1" spans="2:5">
+    <row r="536" ht="36" hidden="1" spans="2:5">
       <c r="B536" s="1" t="s">
         <v>1686</v>
       </c>
@@ -22690,7 +22683,7 @@
       </c>
       <c r="E650" s="5"/>
     </row>
-    <row r="651" ht="48" hidden="1" spans="2:5">
+    <row r="651" ht="38" hidden="1" spans="2:5">
       <c r="B651" s="1" t="s">
         <v>2038</v>
       </c>
@@ -23566,7 +23559,7 @@
       </c>
       <c r="E720" s="5"/>
     </row>
-    <row r="721" ht="48" hidden="1" spans="2:5">
+    <row r="721" ht="36" hidden="1" spans="2:5">
       <c r="B721" s="1" t="s">
         <v>2266</v>
       </c>
@@ -24278,7 +24271,7 @@
       </c>
       <c r="E779" s="5"/>
     </row>
-    <row r="780" ht="48" hidden="1" spans="2:5">
+    <row r="780" ht="36" hidden="1" spans="2:5">
       <c r="B780" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24350,7 +24343,7 @@
       </c>
       <c r="E785" s="5"/>
     </row>
-    <row r="786" ht="48" hidden="1" spans="2:5">
+    <row r="786" ht="35" hidden="1" spans="2:5">
       <c r="B786" s="1" t="s">
         <v>2462</v>
       </c>
@@ -24534,7 +24527,7 @@
       </c>
       <c r="E800" s="5"/>
     </row>
-    <row r="801" ht="48" hidden="1" spans="2:5">
+    <row r="801" ht="35" hidden="1" spans="2:5">
       <c r="B801" s="1" t="s">
         <v>2509</v>
       </c>
@@ -24956,7 +24949,7 @@
       </c>
       <c r="E835" s="5"/>
     </row>
-    <row r="836" ht="48" hidden="1" spans="2:5">
+    <row r="836" ht="34" hidden="1" spans="2:5">
       <c r="B836" s="1" t="s">
         <v>2615</v>
       </c>
@@ -25220,7 +25213,7 @@
       </c>
       <c r="E857" s="5"/>
     </row>
-    <row r="858" ht="48" hidden="1" spans="2:5">
+    <row r="858" ht="34" hidden="1" spans="2:5">
       <c r="B858" s="1" t="s">
         <v>2681</v>
       </c>
@@ -25436,7 +25429,7 @@
       </c>
       <c r="E875" s="5"/>
     </row>
-    <row r="876" ht="48" hidden="1" spans="2:5">
+    <row r="876" ht="36" hidden="1" spans="2:5">
       <c r="B876" s="1" t="s">
         <v>2735</v>
       </c>
@@ -28650,7 +28643,7 @@
       </c>
       <c r="E1142" s="5"/>
     </row>
-    <row r="1143" ht="48" hidden="1" spans="2:5">
+    <row r="1143" ht="34" hidden="1" spans="2:5">
       <c r="B1143" s="1" t="s">
         <v>3538</v>
       </c>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -13458,10 +13458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -13516,8 +13516,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -13532,45 +13577,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -13581,7 +13587,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13589,7 +13603,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13603,7 +13617,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13611,9 +13625,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13624,23 +13638,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13716,37 +13716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13758,19 +13728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13782,49 +13746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13848,13 +13770,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13866,37 +13896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13919,11 +13919,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13933,6 +13954,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13952,47 +13988,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14010,19 +14010,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14031,73 +14031,73 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14106,49 +14106,49 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -14227,12 +14227,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -14248,8 +14243,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>39608</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>357687</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>119562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14272,8 +14267,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8051800" y="304800"/>
-          <a:ext cx="4839970" cy="2186305"/>
+          <a:off x="9091930" y="238125"/>
+          <a:ext cx="5440045" cy="1548130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14290,7 +14285,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -14537,6 +14532,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -14545,17 +14541,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5037037037037" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14587,7 +14583,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="48" hidden="1" spans="2:5">
+    <row r="3" ht="37.5" hidden="1" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -14599,9 +14595,9 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="48" spans="1:5">
+    <row r="4" ht="37.5" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -14616,9 +14612,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="48" spans="1:5">
+    <row r="5" hidden="1" spans="1:5">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -14633,9 +14629,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="48" spans="1:5">
+    <row r="6" ht="37.5" hidden="1" spans="1:5">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -14648,7 +14644,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="48" hidden="1" spans="2:5">
+    <row r="7" ht="37.5" hidden="1" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -14660,7 +14656,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="48" hidden="1" spans="2:5">
+    <row r="8" ht="37.5" hidden="1" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -14672,7 +14668,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="48" hidden="1" spans="2:5">
+    <row r="9" ht="37.5" hidden="1" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -14684,9 +14680,9 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="48" spans="1:5">
+    <row r="10" ht="37.5" spans="1:5">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -14699,7 +14695,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="48" hidden="1" spans="2:5">
+    <row r="11" ht="37.5" hidden="1" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -14711,7 +14707,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="48" hidden="1" spans="2:9">
+    <row r="12" ht="37.5" hidden="1" spans="2:9">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -14727,7 +14723,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" ht="48" hidden="1" spans="2:9">
+    <row r="13" ht="37.5" hidden="1" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -14743,7 +14739,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" ht="48" hidden="1" spans="2:5">
+    <row r="14" ht="37.5" hidden="1" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -14755,9 +14751,9 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="48" spans="1:5">
+    <row r="15" ht="37.5" hidden="1" spans="1:5">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -14772,7 +14768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" ht="48" hidden="1" spans="2:5">
+    <row r="16" ht="37.5" hidden="1" spans="2:5">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -14784,9 +14780,9 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" ht="48" spans="1:5">
+    <row r="17" ht="37.5" hidden="1" spans="1:5">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>53</v>
@@ -14799,7 +14795,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" ht="48" hidden="1" spans="2:5">
+    <row r="18" ht="37.5" hidden="1" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -14811,9 +14807,9 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" ht="48" spans="1:5">
+    <row r="19" hidden="1" spans="1:5">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>59</v>
@@ -14838,9 +14834,9 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" hidden="1" spans="1:5">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>65</v>
@@ -14853,9 +14849,9 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" ht="48" spans="1:5">
+    <row r="22" ht="37.5" spans="1:5">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>68</v>
@@ -14870,7 +14866,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" ht="34" hidden="1" spans="2:5">
+    <row r="23" ht="30" hidden="1" spans="2:5">
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -14882,9 +14878,9 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" ht="34" spans="1:5">
+    <row r="24" ht="30" hidden="1" spans="1:5">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>75</v>
@@ -14935,9 +14931,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" ht="48" spans="1:5">
+    <row r="28" hidden="1" spans="1:5">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>88</v>
@@ -14966,9 +14962,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" ht="48" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>96</v>
@@ -14995,9 +14991,9 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>103</v>
@@ -15012,9 +15008,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>107</v>
@@ -15027,9 +15023,9 @@
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>110</v>
@@ -15066,9 +15062,9 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" ht="34" spans="1:5">
+    <row r="37" ht="30" hidden="1" spans="1:5">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>119</v>
@@ -15081,7 +15077,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" ht="48" hidden="1" spans="2:5">
+    <row r="38" ht="37.5" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
@@ -15095,7 +15091,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" ht="35" hidden="1" spans="2:5">
+    <row r="39" hidden="1" spans="2:5">
       <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
@@ -15107,7 +15103,7 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" ht="35" hidden="1" spans="2:5">
+    <row r="40" ht="30" hidden="1" spans="2:5">
       <c r="B40" s="1" t="s">
         <v>129</v>
       </c>
@@ -15121,7 +15117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" ht="36" hidden="1" spans="2:5">
+    <row r="41" hidden="1" spans="2:5">
       <c r="B41" s="1" t="s">
         <v>132</v>
       </c>
@@ -15133,7 +15129,7 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" ht="36" hidden="1" spans="2:5">
+    <row r="42" ht="30" hidden="1" spans="2:5">
       <c r="B42" s="1" t="s">
         <v>135</v>
       </c>
@@ -15157,9 +15153,9 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" ht="48" spans="1:5">
+    <row r="44" ht="37.5" hidden="1" spans="1:5">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>140</v>
@@ -15184,9 +15180,9 @@
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" hidden="1" spans="1:5">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>146</v>
@@ -15211,9 +15207,9 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>152</v>
@@ -15228,9 +15224,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" hidden="1" spans="1:5">
       <c r="A49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>156</v>
@@ -15245,9 +15241,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" hidden="1" spans="1:5">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>160</v>
@@ -15260,7 +15256,7 @@
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" ht="36" hidden="1" spans="2:5">
+    <row r="51" hidden="1" spans="2:5">
       <c r="B51" s="1" t="s">
         <v>163</v>
       </c>
@@ -15272,9 +15268,9 @@
       </c>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" hidden="1" spans="1:5">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>166</v>
@@ -15287,9 +15283,9 @@
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" ht="43" spans="1:5">
+    <row r="53" ht="37.5" hidden="1" spans="1:5">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>169</v>
@@ -15316,7 +15312,7 @@
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" ht="48" hidden="1" spans="2:5">
+    <row r="55" ht="37.5" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>176</v>
       </c>
@@ -15328,9 +15324,9 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" hidden="1" spans="1:5">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>179</v>
@@ -15343,9 +15339,9 @@
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" ht="38" spans="1:5">
+    <row r="57" ht="30" hidden="1" spans="1:5">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>182</v>
@@ -15358,9 +15354,9 @@
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" ht="48" spans="1:5">
+    <row r="58" hidden="1" spans="1:5">
       <c r="A58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>185</v>
@@ -15397,9 +15393,9 @@
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" hidden="1" spans="1:5">
       <c r="A61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>194</v>
@@ -15412,7 +15408,7 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" ht="48" hidden="1" spans="2:5">
+    <row r="62" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>197</v>
       </c>
@@ -15436,7 +15432,7 @@
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" ht="48" hidden="1" spans="2:5">
+    <row r="64" hidden="1" spans="2:5">
       <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
@@ -15478,7 +15474,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" ht="62" hidden="1" spans="2:5">
+    <row r="67" ht="56.25" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>215</v>
       </c>
@@ -15504,7 +15500,7 @@
       </c>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" ht="35" hidden="1" spans="2:5">
+    <row r="69" hidden="1" spans="2:5">
       <c r="B69" s="1" t="s">
         <v>222</v>
       </c>
@@ -15528,9 +15524,9 @@
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" ht="48" spans="1:5">
+    <row r="71" hidden="1" spans="1:5">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>228</v>
@@ -15557,9 +15553,9 @@
       </c>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" hidden="1" spans="1:5">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>235</v>
@@ -15572,9 +15568,9 @@
       </c>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" hidden="1" spans="1:5">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>238</v>
@@ -15587,9 +15583,9 @@
       </c>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" ht="48" spans="1:5">
+    <row r="75" hidden="1" spans="1:5">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>241</v>
@@ -15618,9 +15614,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" ht="36" spans="1:5">
+    <row r="77" ht="30" hidden="1" spans="1:5">
       <c r="A77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>249</v>
@@ -15671,7 +15667,7 @@
       </c>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" ht="48" hidden="1" spans="2:5">
+    <row r="81" hidden="1" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>262</v>
       </c>
@@ -15685,9 +15681,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" hidden="1" spans="1:5">
       <c r="A82" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>266</v>
@@ -15700,9 +15696,9 @@
       </c>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" hidden="1" spans="1:5">
       <c r="A83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>269</v>
@@ -15739,7 +15735,7 @@
       </c>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" ht="48" hidden="1" spans="2:5">
+    <row r="86" hidden="1" spans="2:5">
       <c r="B86" s="1" t="s">
         <v>278</v>
       </c>
@@ -15751,7 +15747,7 @@
       </c>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" ht="38" hidden="1" spans="2:5">
+    <row r="87" ht="30" hidden="1" spans="2:5">
       <c r="B87" s="1" t="s">
         <v>281</v>
       </c>
@@ -15765,7 +15761,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="88" ht="37" hidden="1" spans="2:5">
+    <row r="88" ht="30" hidden="1" spans="2:5">
       <c r="B88" s="1" t="s">
         <v>285</v>
       </c>
@@ -15777,9 +15773,9 @@
       </c>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" hidden="1" spans="1:5">
       <c r="A89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>288</v>
@@ -15820,9 +15816,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" ht="34" spans="1:5">
+    <row r="92" ht="30" hidden="1" spans="1:5">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>298</v>
@@ -15859,7 +15855,7 @@
       </c>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" ht="36" hidden="1" spans="2:5">
+    <row r="95" ht="30" hidden="1" spans="2:5">
       <c r="B95" s="1" t="s">
         <v>307</v>
       </c>
@@ -15897,9 +15893,9 @@
       </c>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" ht="36" spans="1:5">
+    <row r="98" ht="30" hidden="1" spans="1:5">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>317</v>
@@ -15936,7 +15932,7 @@
       </c>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" ht="48" hidden="1" spans="2:5">
+    <row r="101" hidden="1" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>326</v>
       </c>
@@ -15948,7 +15944,10 @@
       </c>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" ht="36" hidden="1" spans="2:5">
+    <row r="102" ht="30" spans="1:5">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>329</v>
       </c>
@@ -15962,7 +15961,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="2:5">
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>333</v>
       </c>
@@ -15986,7 +15988,7 @@
       </c>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" ht="48" hidden="1" spans="2:5">
+    <row r="105" hidden="1" spans="2:5">
       <c r="B105" s="1" t="s">
         <v>339</v>
       </c>
@@ -15998,7 +16000,10 @@
       </c>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" hidden="1" spans="2:5">
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>342</v>
       </c>
@@ -16034,7 +16039,10 @@
       </c>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" ht="38" hidden="1" spans="2:5">
+    <row r="109" ht="30" spans="1:5">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>351</v>
       </c>
@@ -16058,7 +16066,7 @@
       </c>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" ht="48" hidden="1" spans="2:5">
+    <row r="111" hidden="1" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>357</v>
       </c>
@@ -16098,7 +16106,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="114" ht="36" hidden="1" spans="2:5">
+    <row r="114" ht="30" spans="1:5">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>368</v>
       </c>
@@ -16112,7 +16123,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" ht="48" hidden="1" spans="2:5">
+    <row r="115" ht="37.5" hidden="1" spans="2:5">
       <c r="B115" s="1" t="s">
         <v>372</v>
       </c>
@@ -16138,7 +16149,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="117" ht="36" hidden="1" spans="2:5">
+    <row r="117" hidden="1" spans="2:5">
       <c r="B117" s="1" t="s">
         <v>379</v>
       </c>
@@ -16162,7 +16173,7 @@
       </c>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" ht="48" hidden="1" spans="2:5">
+    <row r="119" ht="37.5" hidden="1" spans="2:5">
       <c r="B119" s="1" t="s">
         <v>385</v>
       </c>
@@ -16262,7 +16273,7 @@
       </c>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" ht="48" hidden="1" spans="2:5">
+    <row r="127" hidden="1" spans="2:5">
       <c r="B127" s="1" t="s">
         <v>411</v>
       </c>
@@ -16274,10 +16285,7 @@
       </c>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" hidden="1" spans="1:5">
-      <c r="A128" s="1" t="s">
-        <v>95</v>
-      </c>
+    <row r="128" hidden="1" spans="2:5">
       <c r="B128" s="1" t="s">
         <v>414</v>
       </c>
@@ -16291,7 +16299,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="129" ht="48" hidden="1" spans="2:5">
+    <row r="129" hidden="1" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>418</v>
       </c>
@@ -16303,7 +16311,10 @@
       </c>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" ht="34" hidden="1" spans="2:5">
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>421</v>
       </c>
@@ -16339,7 +16350,10 @@
       </c>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" hidden="1" spans="2:5">
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
       <c r="B133" s="1" t="s">
         <v>430</v>
       </c>
@@ -16367,7 +16381,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="135" ht="48" hidden="1" spans="2:5">
+    <row r="135" ht="37.5" hidden="1" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>438</v>
       </c>
@@ -16381,7 +16395,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="136" ht="48" hidden="1" spans="2:5">
+    <row r="136" hidden="1" spans="2:5">
       <c r="B136" s="1" t="s">
         <v>442</v>
       </c>
@@ -16395,7 +16409,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="2:5">
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>1</v>
+      </c>
       <c r="B137" s="1" t="s">
         <v>446</v>
       </c>
@@ -16435,7 +16452,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="140" ht="36" hidden="1" spans="2:5">
+    <row r="140" hidden="1" spans="2:5">
       <c r="B140" s="1" t="s">
         <v>457</v>
       </c>
@@ -16447,7 +16464,10 @@
       </c>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" hidden="1" spans="2:5">
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
       <c r="B141" s="1" t="s">
         <v>460</v>
       </c>
@@ -16459,7 +16479,7 @@
       </c>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" ht="48" hidden="1" spans="2:5">
+    <row r="142" ht="37.5" hidden="1" spans="2:5">
       <c r="B142" s="1" t="s">
         <v>463</v>
       </c>
@@ -16483,7 +16503,10 @@
       </c>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" hidden="1" spans="2:5">
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
       <c r="B144" s="1" t="s">
         <v>469</v>
       </c>
@@ -16495,7 +16518,10 @@
       </c>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" hidden="1" spans="2:5">
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
       <c r="B145" s="1" t="s">
         <v>472</v>
       </c>
@@ -16531,7 +16557,10 @@
       </c>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" hidden="1" spans="2:5">
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
       <c r="B148" s="1" t="s">
         <v>481</v>
       </c>
@@ -16543,7 +16572,10 @@
       </c>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" ht="36" hidden="1" spans="2:5">
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>1</v>
+      </c>
       <c r="B149" s="1" t="s">
         <v>484</v>
       </c>
@@ -16555,7 +16587,7 @@
       </c>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" ht="35" hidden="1" spans="2:5">
+    <row r="150" hidden="1" spans="2:5">
       <c r="B150" s="1" t="s">
         <v>487</v>
       </c>
@@ -16579,7 +16611,7 @@
       </c>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" ht="48" hidden="1" spans="2:5">
+    <row r="152" ht="37.5" hidden="1" spans="2:5">
       <c r="B152" s="1" t="s">
         <v>493</v>
       </c>
@@ -16591,7 +16623,7 @@
       </c>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" ht="48" hidden="1" spans="2:5">
+    <row r="153" ht="37.5" hidden="1" spans="2:5">
       <c r="B153" s="1" t="s">
         <v>496</v>
       </c>
@@ -16639,7 +16671,7 @@
       </c>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" ht="43" hidden="1" spans="2:5">
+    <row r="157" ht="37.5" hidden="1" spans="2:5">
       <c r="B157" s="1" t="s">
         <v>508</v>
       </c>
@@ -16665,7 +16697,10 @@
       </c>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" hidden="1" spans="2:5">
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>1</v>
+      </c>
       <c r="B159" s="1" t="s">
         <v>515</v>
       </c>
@@ -16689,7 +16724,10 @@
       </c>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" ht="48" hidden="1" spans="2:5">
+    <row r="161" ht="37.5" spans="1:5">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
       <c r="B161" s="1" t="s">
         <v>521</v>
       </c>
@@ -16701,7 +16739,10 @@
       </c>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" ht="48" hidden="1" spans="2:5">
+    <row r="162" ht="37.5" spans="1:5">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
       <c r="B162" s="1" t="s">
         <v>524</v>
       </c>
@@ -16713,7 +16754,10 @@
       </c>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" hidden="1" spans="2:5">
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
       <c r="B163" s="1" t="s">
         <v>527</v>
       </c>
@@ -16725,7 +16769,10 @@
       </c>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" hidden="1" spans="2:5">
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>1</v>
+      </c>
       <c r="B164" s="1" t="s">
         <v>530</v>
       </c>
@@ -16737,7 +16784,7 @@
       </c>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" ht="38" hidden="1" spans="2:5">
+    <row r="165" hidden="1" spans="2:5">
       <c r="B165" s="1" t="s">
         <v>533</v>
       </c>
@@ -16763,7 +16810,7 @@
       </c>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" ht="48" hidden="1" spans="2:5">
+    <row r="167" ht="37.5" hidden="1" spans="2:5">
       <c r="B167" s="1" t="s">
         <v>540</v>
       </c>
@@ -16787,7 +16834,10 @@
       </c>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" ht="48" hidden="1" spans="2:5">
+    <row r="169" ht="37.5" spans="1:5">
+      <c r="A169" s="1">
+        <v>1</v>
+      </c>
       <c r="B169" s="1" t="s">
         <v>546</v>
       </c>
@@ -16799,7 +16849,10 @@
       </c>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" ht="48" hidden="1" spans="2:5">
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>1</v>
+      </c>
       <c r="B170" s="1" t="s">
         <v>549</v>
       </c>
@@ -16811,7 +16864,7 @@
       </c>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" ht="48" hidden="1" spans="2:5">
+    <row r="171" ht="37.5" hidden="1" spans="2:5">
       <c r="B171" s="1" t="s">
         <v>552</v>
       </c>
@@ -16943,7 +16996,10 @@
       </c>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" hidden="1" spans="2:5">
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>1</v>
+      </c>
       <c r="B182" s="1" t="s">
         <v>585</v>
       </c>
@@ -16955,7 +17011,10 @@
       </c>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" hidden="1" spans="2:5">
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
       <c r="B183" s="1" t="s">
         <v>588</v>
       </c>
@@ -16967,7 +17026,10 @@
       </c>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" hidden="1" spans="2:5">
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>1</v>
+      </c>
       <c r="B184" s="1" t="s">
         <v>591</v>
       </c>
@@ -17027,7 +17089,10 @@
       </c>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" hidden="1" spans="2:5">
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>1</v>
+      </c>
       <c r="B189" s="1" t="s">
         <v>606</v>
       </c>
@@ -17039,7 +17104,10 @@
       </c>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" hidden="1" spans="2:5">
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
       <c r="B190" s="1" t="s">
         <v>609</v>
       </c>
@@ -17051,7 +17119,7 @@
       </c>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" ht="36" hidden="1" spans="2:5">
+    <row r="191" ht="30" hidden="1" spans="2:5">
       <c r="B191" s="1" t="s">
         <v>612</v>
       </c>
@@ -17077,7 +17145,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="193" ht="48" hidden="1" spans="2:5">
+    <row r="193" ht="37.5" hidden="1" spans="2:5">
       <c r="B193" s="1" t="s">
         <v>619</v>
       </c>
@@ -17101,7 +17169,10 @@
       </c>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" hidden="1" spans="2:5">
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
       <c r="B195" s="1" t="s">
         <v>625</v>
       </c>
@@ -17113,7 +17184,7 @@
       </c>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" ht="38" hidden="1" spans="2:5">
+    <row r="196" ht="30" hidden="1" spans="2:5">
       <c r="B196" s="1" t="s">
         <v>628</v>
       </c>
@@ -17137,7 +17208,7 @@
       </c>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" ht="34" hidden="1" spans="2:5">
+    <row r="198" ht="30" hidden="1" spans="2:5">
       <c r="B198" s="1" t="s">
         <v>634</v>
       </c>
@@ -17151,7 +17222,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="2:5">
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
       <c r="B199" s="1" t="s">
         <v>638</v>
       </c>
@@ -17165,7 +17239,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="200" ht="34" hidden="1" spans="2:5">
+    <row r="200" hidden="1" spans="2:5">
       <c r="B200" s="1" t="s">
         <v>641</v>
       </c>
@@ -17213,7 +17287,7 @@
       </c>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" ht="36" hidden="1" spans="2:5">
+    <row r="204" ht="30" hidden="1" spans="2:5">
       <c r="B204" s="1" t="s">
         <v>653</v>
       </c>
@@ -17225,7 +17299,7 @@
       </c>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" hidden="1" spans="2:5">
+    <row r="205" ht="30" hidden="1" spans="2:5">
       <c r="B205" s="1" t="s">
         <v>656</v>
       </c>
@@ -17299,7 +17373,7 @@
       </c>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" ht="62" hidden="1" spans="2:5">
+    <row r="211" ht="37.5" hidden="1" spans="2:5">
       <c r="B211" s="1" t="s">
         <v>674</v>
       </c>
@@ -17337,7 +17411,7 @@
       </c>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" ht="48" hidden="1" spans="2:5">
+    <row r="214" hidden="1" spans="2:5">
       <c r="B214" s="1" t="s">
         <v>684</v>
       </c>
@@ -17363,7 +17437,7 @@
       </c>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" ht="34" hidden="1" spans="2:5">
+    <row r="216" hidden="1" spans="2:5">
       <c r="B216" s="1" t="s">
         <v>691</v>
       </c>
@@ -17413,7 +17487,7 @@
       </c>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" ht="48" hidden="1" spans="2:5">
+    <row r="220" hidden="1" spans="2:5">
       <c r="B220" s="1" t="s">
         <v>704</v>
       </c>
@@ -17475,7 +17549,7 @@
       </c>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" ht="48" hidden="1" spans="2:5">
+    <row r="225" hidden="1" spans="2:5">
       <c r="B225" s="1" t="s">
         <v>720</v>
       </c>
@@ -17537,7 +17611,7 @@
       </c>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" ht="34" hidden="1" spans="2:5">
+    <row r="230" hidden="1" spans="2:5">
       <c r="B230" s="1" t="s">
         <v>736</v>
       </c>
@@ -17549,7 +17623,7 @@
       </c>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" ht="48" hidden="1" spans="2:5">
+    <row r="231" ht="37.5" hidden="1" spans="2:5">
       <c r="B231" s="1" t="s">
         <v>739</v>
       </c>
@@ -17719,7 +17793,7 @@
       </c>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" ht="36" hidden="1" spans="2:5">
+    <row r="245" hidden="1" spans="2:5">
       <c r="B245" s="1" t="s">
         <v>782</v>
       </c>
@@ -17731,7 +17805,7 @@
       </c>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" ht="34" hidden="1" spans="2:5">
+    <row r="246" hidden="1" spans="2:5">
       <c r="B246" s="1" t="s">
         <v>785</v>
       </c>
@@ -17829,7 +17903,7 @@
       </c>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" ht="48" hidden="1" spans="2:5">
+    <row r="254" hidden="1" spans="2:5">
       <c r="B254" s="1" t="s">
         <v>809</v>
       </c>
@@ -17865,7 +17939,7 @@
       </c>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" ht="36" hidden="1" spans="2:5">
+    <row r="257" ht="30" hidden="1" spans="2:5">
       <c r="B257" s="1" t="s">
         <v>818</v>
       </c>
@@ -17901,7 +17975,7 @@
       </c>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" ht="48" hidden="1" spans="2:5">
+    <row r="260" hidden="1" spans="2:5">
       <c r="B260" s="1" t="s">
         <v>827</v>
       </c>
@@ -18029,7 +18103,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="270" ht="48" hidden="1" spans="2:5">
+    <row r="270" ht="37.5" hidden="1" spans="2:5">
       <c r="B270" s="1" t="s">
         <v>861</v>
       </c>
@@ -18077,7 +18151,7 @@
       </c>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" ht="48" hidden="1" spans="2:5">
+    <row r="274" ht="30" hidden="1" spans="2:5">
       <c r="B274" s="1" t="s">
         <v>873</v>
       </c>
@@ -18173,7 +18247,7 @@
       </c>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" ht="34" hidden="1" spans="2:5">
+    <row r="282" hidden="1" spans="2:5">
       <c r="B282" s="1" t="s">
         <v>897</v>
       </c>
@@ -18197,7 +18271,7 @@
       </c>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" ht="53" hidden="1" spans="2:5">
+    <row r="284" ht="30" hidden="1" spans="2:5">
       <c r="B284" s="1" t="s">
         <v>903</v>
       </c>
@@ -18221,7 +18295,7 @@
       </c>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" ht="48" hidden="1" spans="2:5">
+    <row r="286" hidden="1" spans="2:5">
       <c r="B286" s="1" t="s">
         <v>909</v>
       </c>
@@ -18233,7 +18307,7 @@
       </c>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" ht="48" hidden="1" spans="2:5">
+    <row r="287" hidden="1" spans="2:5">
       <c r="B287" s="1" t="s">
         <v>912</v>
       </c>
@@ -18257,7 +18331,7 @@
       </c>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" ht="48" hidden="1" spans="2:5">
+    <row r="289" hidden="1" spans="2:5">
       <c r="B289" s="1" t="s">
         <v>918</v>
       </c>
@@ -18271,7 +18345,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="290" ht="48" hidden="1" spans="2:5">
+    <row r="290" ht="30" hidden="1" spans="2:5">
       <c r="B290" s="1" t="s">
         <v>922</v>
       </c>
@@ -18307,7 +18381,7 @@
       </c>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" ht="36" hidden="1" spans="2:5">
+    <row r="293" hidden="1" spans="2:5">
       <c r="B293" s="1" t="s">
         <v>931</v>
       </c>
@@ -18333,7 +18407,7 @@
       </c>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" ht="36" hidden="1" spans="2:5">
+    <row r="295" ht="30" hidden="1" spans="2:5">
       <c r="B295" s="1" t="s">
         <v>938</v>
       </c>
@@ -18429,7 +18503,7 @@
       </c>
       <c r="E302" s="5"/>
     </row>
-    <row r="303" ht="34" hidden="1" spans="2:5">
+    <row r="303" ht="30" hidden="1" spans="2:5">
       <c r="B303" s="1" t="s">
         <v>962</v>
       </c>
@@ -18441,7 +18515,7 @@
       </c>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" ht="76" hidden="1" spans="2:5">
+    <row r="304" ht="56.25" hidden="1" spans="2:5">
       <c r="B304" s="1" t="s">
         <v>965</v>
       </c>
@@ -18493,7 +18567,7 @@
       </c>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" ht="38" hidden="1" spans="2:5">
+    <row r="308" ht="30" hidden="1" spans="2:5">
       <c r="B308" s="1" t="s">
         <v>979</v>
       </c>
@@ -18505,7 +18579,7 @@
       </c>
       <c r="E308" s="5"/>
     </row>
-    <row r="309" ht="35" hidden="1" spans="2:5">
+    <row r="309" hidden="1" spans="2:5">
       <c r="B309" s="1" t="s">
         <v>982</v>
       </c>
@@ -18543,7 +18617,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="312" ht="43" hidden="1" spans="2:5">
+    <row r="312" ht="37.5" hidden="1" spans="2:5">
       <c r="B312" s="1" t="s">
         <v>992</v>
       </c>
@@ -18557,7 +18631,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="313" ht="48" hidden="1" spans="2:5">
+    <row r="313" hidden="1" spans="2:5">
       <c r="B313" s="1" t="s">
         <v>996</v>
       </c>
@@ -18581,7 +18655,7 @@
       </c>
       <c r="E314" s="5"/>
     </row>
-    <row r="315" ht="36" hidden="1" spans="2:5">
+    <row r="315" hidden="1" spans="2:5">
       <c r="B315" s="1" t="s">
         <v>1002</v>
       </c>
@@ -18605,7 +18679,7 @@
       </c>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" ht="48" hidden="1" spans="2:5">
+    <row r="317" hidden="1" spans="2:5">
       <c r="B317" s="1" t="s">
         <v>1008</v>
       </c>
@@ -18653,7 +18727,7 @@
       </c>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" ht="36" hidden="1" spans="2:5">
+    <row r="321" hidden="1" spans="2:5">
       <c r="B321" s="1" t="s">
         <v>1020</v>
       </c>
@@ -18665,7 +18739,7 @@
       </c>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" ht="36" hidden="1" spans="2:5">
+    <row r="322" hidden="1" spans="2:5">
       <c r="B322" s="1" t="s">
         <v>1023</v>
       </c>
@@ -18713,7 +18787,7 @@
       </c>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" ht="38" hidden="1" spans="2:5">
+    <row r="326" hidden="1" spans="2:5">
       <c r="B326" s="1" t="s">
         <v>1035</v>
       </c>
@@ -18725,7 +18799,7 @@
       </c>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" ht="38" hidden="1" spans="2:5">
+    <row r="327" hidden="1" spans="2:5">
       <c r="B327" s="1" t="s">
         <v>1038</v>
       </c>
@@ -18761,7 +18835,7 @@
       </c>
       <c r="E329" s="5"/>
     </row>
-    <row r="330" ht="55" hidden="1" spans="2:5">
+    <row r="330" ht="30" hidden="1" spans="2:5">
       <c r="B330" s="1" t="s">
         <v>1047</v>
       </c>
@@ -18773,7 +18847,7 @@
       </c>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" ht="48" hidden="1" spans="2:5">
+    <row r="331" hidden="1" spans="2:5">
       <c r="B331" s="1" t="s">
         <v>1050</v>
       </c>
@@ -18847,7 +18921,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="337" ht="36" hidden="1" spans="2:5">
+    <row r="337" hidden="1" spans="2:5">
       <c r="B337" s="1" t="s">
         <v>1069</v>
       </c>
@@ -18859,7 +18933,7 @@
       </c>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" ht="35" hidden="1" spans="2:5">
+    <row r="338" hidden="1" spans="2:5">
       <c r="B338" s="1" t="s">
         <v>1072</v>
       </c>
@@ -18885,7 +18959,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="340" ht="38" hidden="1" spans="2:5">
+    <row r="340" ht="30" hidden="1" spans="2:5">
       <c r="B340" s="1" t="s">
         <v>1079</v>
       </c>
@@ -18897,7 +18971,7 @@
       </c>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" ht="38" hidden="1" spans="2:5">
+    <row r="341" hidden="1" spans="2:5">
       <c r="B341" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18959,7 +19033,7 @@
       </c>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" ht="38" hidden="1" spans="2:5">
+    <row r="346" ht="30" hidden="1" spans="2:5">
       <c r="B346" s="1" t="s">
         <v>1098</v>
       </c>
@@ -18983,7 +19057,7 @@
       </c>
       <c r="E347" s="5"/>
     </row>
-    <row r="348" ht="34" hidden="1" spans="2:5">
+    <row r="348" ht="30" hidden="1" spans="2:5">
       <c r="B348" s="1" t="s">
         <v>1104</v>
       </c>
@@ -18997,7 +19071,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="349" ht="76" hidden="1" spans="2:5">
+    <row r="349" ht="56.25" hidden="1" spans="2:5">
       <c r="B349" s="1" t="s">
         <v>1108</v>
       </c>
@@ -19035,7 +19109,7 @@
       </c>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" ht="38" hidden="1" spans="2:5">
+    <row r="352" ht="30" hidden="1" spans="2:5">
       <c r="B352" s="1" t="s">
         <v>1118</v>
       </c>
@@ -19059,7 +19133,7 @@
       </c>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" ht="36" hidden="1" spans="2:5">
+    <row r="354" ht="30" hidden="1" spans="2:5">
       <c r="B354" s="1" t="s">
         <v>1124</v>
       </c>
@@ -19107,7 +19181,7 @@
       </c>
       <c r="E357" s="5"/>
     </row>
-    <row r="358" ht="36" hidden="1" spans="2:5">
+    <row r="358" ht="30" hidden="1" spans="2:5">
       <c r="B358" s="1" t="s">
         <v>1136</v>
       </c>
@@ -19215,7 +19289,7 @@
       </c>
       <c r="E366" s="5"/>
     </row>
-    <row r="367" ht="38" hidden="1" spans="2:5">
+    <row r="367" ht="30" hidden="1" spans="2:5">
       <c r="B367" s="1" t="s">
         <v>1163</v>
       </c>
@@ -19227,7 +19301,7 @@
       </c>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" ht="38" hidden="1" spans="2:5">
+    <row r="368" hidden="1" spans="2:5">
       <c r="B368" s="1" t="s">
         <v>1166</v>
       </c>
@@ -19265,7 +19339,7 @@
       </c>
       <c r="E370" s="5"/>
     </row>
-    <row r="371" ht="48" hidden="1" spans="2:5">
+    <row r="371" ht="37.5" hidden="1" spans="2:5">
       <c r="B371" s="1" t="s">
         <v>1176</v>
       </c>
@@ -19375,7 +19449,7 @@
       </c>
       <c r="E379" s="5"/>
     </row>
-    <row r="380" ht="48" hidden="1" spans="2:5">
+    <row r="380" ht="37.5" hidden="1" spans="2:5">
       <c r="B380" s="1" t="s">
         <v>1204</v>
       </c>
@@ -19387,7 +19461,7 @@
       </c>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" ht="36" hidden="1" spans="2:5">
+    <row r="381" hidden="1" spans="2:5">
       <c r="B381" s="1" t="s">
         <v>1207</v>
       </c>
@@ -19423,7 +19497,7 @@
       </c>
       <c r="E383" s="5"/>
     </row>
-    <row r="384" ht="38" hidden="1" spans="2:5">
+    <row r="384" hidden="1" spans="2:5">
       <c r="B384" s="1" t="s">
         <v>1216</v>
       </c>
@@ -19435,7 +19509,7 @@
       </c>
       <c r="E384" s="5"/>
     </row>
-    <row r="385" ht="48" hidden="1" spans="2:5">
+    <row r="385" ht="37.5" hidden="1" spans="2:5">
       <c r="B385" s="1" t="s">
         <v>1219</v>
       </c>
@@ -19483,7 +19557,7 @@
       </c>
       <c r="E388" s="5"/>
     </row>
-    <row r="389" ht="36" hidden="1" spans="2:5">
+    <row r="389" ht="30" hidden="1" spans="2:5">
       <c r="B389" s="1" t="s">
         <v>1231</v>
       </c>
@@ -19507,7 +19581,7 @@
       </c>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" ht="37" hidden="1" spans="2:5">
+    <row r="391" ht="30" hidden="1" spans="2:5">
       <c r="B391" s="1" t="s">
         <v>1237</v>
       </c>
@@ -19519,7 +19593,7 @@
       </c>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" ht="35" hidden="1" spans="2:5">
+    <row r="392" ht="30" hidden="1" spans="2:5">
       <c r="B392" s="1" t="s">
         <v>1240</v>
       </c>
@@ -19579,7 +19653,7 @@
       </c>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" ht="48" hidden="1" spans="2:5">
+    <row r="397" ht="37.5" hidden="1" spans="2:5">
       <c r="B397" s="1" t="s">
         <v>1255</v>
       </c>
@@ -19605,7 +19679,7 @@
       </c>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" ht="38" hidden="1" spans="2:5">
+    <row r="399" ht="37.5" hidden="1" spans="2:5">
       <c r="B399" s="1" t="s">
         <v>1262</v>
       </c>
@@ -19619,7 +19693,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="400" ht="38" hidden="1" spans="2:5">
+    <row r="400" ht="30" hidden="1" spans="2:5">
       <c r="B400" s="1" t="s">
         <v>1266</v>
       </c>
@@ -19667,7 +19741,7 @@
       </c>
       <c r="E403" s="5"/>
     </row>
-    <row r="404" ht="36" hidden="1" spans="2:5">
+    <row r="404" hidden="1" spans="2:5">
       <c r="B404" s="1" t="s">
         <v>1278</v>
       </c>
@@ -19681,7 +19755,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="405" ht="36" hidden="1" spans="2:5">
+    <row r="405" hidden="1" spans="2:5">
       <c r="B405" s="1" t="s">
         <v>1282</v>
       </c>
@@ -19755,7 +19829,7 @@
       </c>
       <c r="E410" s="5"/>
     </row>
-    <row r="411" ht="36" hidden="1" spans="2:5">
+    <row r="411" ht="30" hidden="1" spans="2:5">
       <c r="B411" s="1" t="s">
         <v>1300</v>
       </c>
@@ -19779,7 +19853,7 @@
       </c>
       <c r="E412" s="5"/>
     </row>
-    <row r="413" ht="38" hidden="1" spans="2:5">
+    <row r="413" hidden="1" spans="2:5">
       <c r="B413" s="1" t="s">
         <v>1306</v>
       </c>
@@ -19791,7 +19865,7 @@
       </c>
       <c r="E413" s="5"/>
     </row>
-    <row r="414" ht="48" hidden="1" spans="2:5">
+    <row r="414" ht="37.5" hidden="1" spans="2:5">
       <c r="B414" s="1" t="s">
         <v>1309</v>
       </c>
@@ -19839,7 +19913,7 @@
       </c>
       <c r="E417" s="5"/>
     </row>
-    <row r="418" ht="48" hidden="1" spans="2:5">
+    <row r="418" hidden="1" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>1321</v>
       </c>
@@ -19901,7 +19975,7 @@
       </c>
       <c r="E422" s="5"/>
     </row>
-    <row r="423" ht="38" hidden="1" spans="2:5">
+    <row r="423" hidden="1" spans="2:5">
       <c r="B423" s="1" t="s">
         <v>1337</v>
       </c>
@@ -19913,7 +19987,7 @@
       </c>
       <c r="E423" s="5"/>
     </row>
-    <row r="424" ht="35" hidden="1" spans="2:5">
+    <row r="424" hidden="1" spans="2:5">
       <c r="B424" s="1" t="s">
         <v>1340</v>
       </c>
@@ -19961,7 +20035,7 @@
       </c>
       <c r="E427" s="5"/>
     </row>
-    <row r="428" ht="36" hidden="1" spans="2:5">
+    <row r="428" ht="30" hidden="1" spans="2:5">
       <c r="B428" s="1" t="s">
         <v>1352</v>
       </c>
@@ -19973,7 +20047,7 @@
       </c>
       <c r="E428" s="5"/>
     </row>
-    <row r="429" ht="36" hidden="1" spans="2:5">
+    <row r="429" hidden="1" spans="2:5">
       <c r="B429" s="1" t="s">
         <v>1355</v>
       </c>
@@ -19985,7 +20059,7 @@
       </c>
       <c r="E429" s="5"/>
     </row>
-    <row r="430" ht="48" hidden="1" spans="2:5">
+    <row r="430" ht="37.5" hidden="1" spans="2:5">
       <c r="B430" s="1" t="s">
         <v>1358</v>
       </c>
@@ -20011,7 +20085,7 @@
       </c>
       <c r="E431" s="5"/>
     </row>
-    <row r="432" ht="36" hidden="1" spans="2:5">
+    <row r="432" ht="30" hidden="1" spans="2:5">
       <c r="B432" s="1" t="s">
         <v>1365</v>
       </c>
@@ -20061,7 +20135,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="436" ht="34" hidden="1" spans="2:5">
+    <row r="436" hidden="1" spans="2:5">
       <c r="B436" s="1" t="s">
         <v>1378</v>
       </c>
@@ -20109,7 +20183,7 @@
       </c>
       <c r="E439" s="5"/>
     </row>
-    <row r="440" ht="36" hidden="1" spans="2:5">
+    <row r="440" hidden="1" spans="2:5">
       <c r="B440" s="1" t="s">
         <v>1390</v>
       </c>
@@ -20121,7 +20195,7 @@
       </c>
       <c r="E440" s="5"/>
     </row>
-    <row r="441" ht="48" hidden="1" spans="2:5">
+    <row r="441" hidden="1" spans="2:5">
       <c r="B441" s="1" t="s">
         <v>1393</v>
       </c>
@@ -20159,7 +20233,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="444" ht="62" hidden="1" spans="2:5">
+    <row r="444" ht="37.5" hidden="1" spans="2:5">
       <c r="B444" s="1" t="s">
         <v>1403</v>
       </c>
@@ -20233,7 +20307,7 @@
       </c>
       <c r="E449" s="5"/>
     </row>
-    <row r="450" ht="36" hidden="1" spans="2:5">
+    <row r="450" ht="30" hidden="1" spans="2:5">
       <c r="B450" s="1" t="s">
         <v>1422</v>
       </c>
@@ -20257,7 +20331,7 @@
       </c>
       <c r="E451" s="5"/>
     </row>
-    <row r="452" ht="55" hidden="1" spans="2:5">
+    <row r="452" ht="45" hidden="1" spans="2:5">
       <c r="B452" s="1" t="s">
         <v>1428</v>
       </c>
@@ -20281,7 +20355,7 @@
       </c>
       <c r="E453" s="5"/>
     </row>
-    <row r="454" ht="36" hidden="1" spans="2:5">
+    <row r="454" hidden="1" spans="2:5">
       <c r="B454" s="1" t="s">
         <v>1434</v>
       </c>
@@ -20343,7 +20417,7 @@
       </c>
       <c r="E458" s="5"/>
     </row>
-    <row r="459" ht="36" hidden="1" spans="2:5">
+    <row r="459" ht="30" hidden="1" spans="2:5">
       <c r="B459" s="1" t="s">
         <v>1450</v>
       </c>
@@ -20405,7 +20479,7 @@
       </c>
       <c r="E463" s="5"/>
     </row>
-    <row r="464" ht="36" hidden="1" spans="2:5">
+    <row r="464" ht="30" hidden="1" spans="2:5">
       <c r="B464" s="1" t="s">
         <v>1466</v>
       </c>
@@ -20417,7 +20491,7 @@
       </c>
       <c r="E464" s="5"/>
     </row>
-    <row r="465" ht="53" hidden="1" spans="2:5">
+    <row r="465" ht="30" hidden="1" spans="2:5">
       <c r="B465" s="1" t="s">
         <v>1469</v>
       </c>
@@ -20465,7 +20539,7 @@
       </c>
       <c r="E468" s="5"/>
     </row>
-    <row r="469" ht="48" hidden="1" spans="2:5">
+    <row r="469" hidden="1" spans="2:5">
       <c r="B469" s="1" t="s">
         <v>1481</v>
       </c>
@@ -20503,7 +20577,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="472" ht="36" hidden="1" spans="2:5">
+    <row r="472" hidden="1" spans="2:5">
       <c r="B472" s="1" t="s">
         <v>1491</v>
       </c>
@@ -20515,7 +20589,7 @@
       </c>
       <c r="E472" s="5"/>
     </row>
-    <row r="473" ht="38" hidden="1" spans="2:5">
+    <row r="473" hidden="1" spans="2:5">
       <c r="B473" s="1" t="s">
         <v>1494</v>
       </c>
@@ -20599,7 +20673,7 @@
       </c>
       <c r="E479" s="5"/>
     </row>
-    <row r="480" ht="48" hidden="1" spans="2:5">
+    <row r="480" hidden="1" spans="2:5">
       <c r="B480" s="1" t="s">
         <v>1515</v>
       </c>
@@ -20611,7 +20685,7 @@
       </c>
       <c r="E480" s="5"/>
     </row>
-    <row r="481" ht="36" hidden="1" spans="2:5">
+    <row r="481" hidden="1" spans="2:5">
       <c r="B481" s="1" t="s">
         <v>1518</v>
       </c>
@@ -20623,7 +20697,7 @@
       </c>
       <c r="E481" s="5"/>
     </row>
-    <row r="482" ht="38" hidden="1" spans="2:5">
+    <row r="482" ht="30" hidden="1" spans="2:5">
       <c r="B482" s="1" t="s">
         <v>1521</v>
       </c>
@@ -20697,7 +20771,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="488" ht="38" hidden="1" spans="2:5">
+    <row r="488" ht="30" hidden="1" spans="2:5">
       <c r="B488" s="1" t="s">
         <v>1539</v>
       </c>
@@ -20745,7 +20819,7 @@
       </c>
       <c r="E491" s="5"/>
     </row>
-    <row r="492" ht="36" hidden="1" spans="2:5">
+    <row r="492" hidden="1" spans="2:5">
       <c r="B492" s="1" t="s">
         <v>1551</v>
       </c>
@@ -20781,7 +20855,7 @@
       </c>
       <c r="E494" s="5"/>
     </row>
-    <row r="495" ht="38" hidden="1" spans="2:5">
+    <row r="495" ht="30" hidden="1" spans="2:5">
       <c r="B495" s="1" t="s">
         <v>1560</v>
       </c>
@@ -21001,7 +21075,7 @@
       </c>
       <c r="E512" s="5"/>
     </row>
-    <row r="513" ht="36" hidden="1" spans="2:5">
+    <row r="513" hidden="1" spans="2:5">
       <c r="B513" s="1" t="s">
         <v>1616</v>
       </c>
@@ -21087,7 +21161,7 @@
       </c>
       <c r="E519" s="5"/>
     </row>
-    <row r="520" ht="36" hidden="1" spans="2:5">
+    <row r="520" ht="30" hidden="1" spans="2:5">
       <c r="B520" s="1" t="s">
         <v>1638</v>
       </c>
@@ -21099,7 +21173,7 @@
       </c>
       <c r="E520" s="5"/>
     </row>
-    <row r="521" ht="36" hidden="1" spans="2:5">
+    <row r="521" ht="30" hidden="1" spans="2:5">
       <c r="B521" s="1" t="s">
         <v>1641</v>
       </c>
@@ -21111,7 +21185,7 @@
       </c>
       <c r="E521" s="5"/>
     </row>
-    <row r="522" ht="34" hidden="1" spans="2:5">
+    <row r="522" hidden="1" spans="2:5">
       <c r="B522" s="1" t="s">
         <v>1644</v>
       </c>
@@ -21171,7 +21245,7 @@
       </c>
       <c r="E526" s="5"/>
     </row>
-    <row r="527" ht="36" hidden="1" spans="2:5">
+    <row r="527" ht="30" hidden="1" spans="2:5">
       <c r="B527" s="1" t="s">
         <v>1659</v>
       </c>
@@ -21183,7 +21257,7 @@
       </c>
       <c r="E527" s="5"/>
     </row>
-    <row r="528" ht="48" hidden="1" spans="2:5">
+    <row r="528" hidden="1" spans="2:5">
       <c r="B528" s="1" t="s">
         <v>1662</v>
       </c>
@@ -21195,7 +21269,7 @@
       </c>
       <c r="E528" s="5"/>
     </row>
-    <row r="529" ht="34" hidden="1" spans="2:5">
+    <row r="529" hidden="1" spans="2:5">
       <c r="B529" s="1" t="s">
         <v>1665</v>
       </c>
@@ -21207,7 +21281,7 @@
       </c>
       <c r="E529" s="5"/>
     </row>
-    <row r="530" ht="48" hidden="1" spans="2:5">
+    <row r="530" hidden="1" spans="2:5">
       <c r="B530" s="1" t="s">
         <v>1668</v>
       </c>
@@ -21279,7 +21353,7 @@
       </c>
       <c r="E535" s="5"/>
     </row>
-    <row r="536" ht="36" hidden="1" spans="2:5">
+    <row r="536" ht="30" hidden="1" spans="2:5">
       <c r="B536" s="1" t="s">
         <v>1686</v>
       </c>
@@ -21341,7 +21415,7 @@
       </c>
       <c r="E540" s="5"/>
     </row>
-    <row r="541" ht="34" hidden="1" spans="2:5">
+    <row r="541" hidden="1" spans="2:5">
       <c r="B541" s="1" t="s">
         <v>1701</v>
       </c>
@@ -21449,7 +21523,7 @@
       </c>
       <c r="E549" s="5"/>
     </row>
-    <row r="550" ht="35" hidden="1" spans="2:5">
+    <row r="550" hidden="1" spans="2:5">
       <c r="B550" s="1" t="s">
         <v>1728</v>
       </c>
@@ -21605,7 +21679,7 @@
       </c>
       <c r="E562" s="5"/>
     </row>
-    <row r="563" ht="36" hidden="1" spans="2:5">
+    <row r="563" ht="30" hidden="1" spans="2:5">
       <c r="B563" s="1" t="s">
         <v>1767</v>
       </c>
@@ -21653,7 +21727,7 @@
       </c>
       <c r="E566" s="5"/>
     </row>
-    <row r="567" ht="48" hidden="1" spans="2:5">
+    <row r="567" hidden="1" spans="2:5">
       <c r="B567" s="1" t="s">
         <v>1779</v>
       </c>
@@ -21665,7 +21739,7 @@
       </c>
       <c r="E567" s="5"/>
     </row>
-    <row r="568" ht="36" hidden="1" spans="2:5">
+    <row r="568" hidden="1" spans="2:5">
       <c r="B568" s="1" t="s">
         <v>1782</v>
       </c>
@@ -21677,7 +21751,7 @@
       </c>
       <c r="E568" s="5"/>
     </row>
-    <row r="569" ht="38" hidden="1" spans="2:5">
+    <row r="569" ht="30" hidden="1" spans="2:5">
       <c r="B569" s="1" t="s">
         <v>1785</v>
       </c>
@@ -21689,7 +21763,7 @@
       </c>
       <c r="E569" s="5"/>
     </row>
-    <row r="570" ht="48" hidden="1" spans="2:5">
+    <row r="570" ht="37.5" hidden="1" spans="2:5">
       <c r="B570" s="1" t="s">
         <v>1788</v>
       </c>
@@ -21739,7 +21813,7 @@
       </c>
       <c r="E573" s="5"/>
     </row>
-    <row r="574" ht="48" hidden="1" spans="2:5">
+    <row r="574" hidden="1" spans="2:5">
       <c r="B574" s="1" t="s">
         <v>1801</v>
       </c>
@@ -21803,7 +21877,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="579" ht="48" hidden="1" spans="2:5">
+    <row r="579" ht="37.5" hidden="1" spans="2:5">
       <c r="B579" s="1" t="s">
         <v>1818</v>
       </c>
@@ -22049,7 +22123,7 @@
       </c>
       <c r="E598" s="5"/>
     </row>
-    <row r="599" ht="36" hidden="1" spans="2:5">
+    <row r="599" hidden="1" spans="2:5">
       <c r="B599" s="1" t="s">
         <v>1879</v>
       </c>
@@ -22233,7 +22307,7 @@
       </c>
       <c r="E613" s="5"/>
     </row>
-    <row r="614" ht="36" hidden="1" spans="2:5">
+    <row r="614" ht="30" hidden="1" spans="2:5">
       <c r="B614" s="1" t="s">
         <v>1926</v>
       </c>
@@ -22245,7 +22319,7 @@
       </c>
       <c r="E614" s="5"/>
     </row>
-    <row r="615" ht="48" hidden="1" spans="2:5">
+    <row r="615" ht="37.5" hidden="1" spans="2:5">
       <c r="B615" s="1" t="s">
         <v>1929</v>
       </c>
@@ -22305,7 +22379,7 @@
       </c>
       <c r="E619" s="5"/>
     </row>
-    <row r="620" ht="48" hidden="1" spans="2:5">
+    <row r="620" hidden="1" spans="2:5">
       <c r="B620" s="1" t="s">
         <v>1944</v>
       </c>
@@ -22377,7 +22451,7 @@
       </c>
       <c r="E625" s="5"/>
     </row>
-    <row r="626" ht="48" hidden="1" spans="2:5">
+    <row r="626" hidden="1" spans="2:5">
       <c r="B626" s="1" t="s">
         <v>1961</v>
       </c>
@@ -22401,7 +22475,7 @@
       </c>
       <c r="E627" s="5"/>
     </row>
-    <row r="628" ht="35" hidden="1" spans="2:5">
+    <row r="628" hidden="1" spans="2:5">
       <c r="B628" s="1" t="s">
         <v>1967</v>
       </c>
@@ -22499,7 +22573,7 @@
       </c>
       <c r="E635" s="5"/>
     </row>
-    <row r="636" ht="37" hidden="1" spans="2:5">
+    <row r="636" ht="30" hidden="1" spans="2:5">
       <c r="B636" s="1" t="s">
         <v>1992</v>
       </c>
@@ -22535,7 +22609,7 @@
       </c>
       <c r="E638" s="5"/>
     </row>
-    <row r="639" ht="143" hidden="1" spans="2:5">
+    <row r="639" ht="112.5" hidden="1" spans="2:5">
       <c r="B639" s="1" t="s">
         <v>2001</v>
       </c>
@@ -22597,7 +22671,7 @@
       </c>
       <c r="E643" s="5"/>
     </row>
-    <row r="644" ht="36" hidden="1" spans="2:5">
+    <row r="644" hidden="1" spans="2:5">
       <c r="B644" s="1" t="s">
         <v>2017</v>
       </c>
@@ -22633,7 +22707,7 @@
       </c>
       <c r="E646" s="5"/>
     </row>
-    <row r="647" ht="34" hidden="1" spans="2:5">
+    <row r="647" hidden="1" spans="2:5">
       <c r="B647" s="1" t="s">
         <v>2025</v>
       </c>
@@ -22683,7 +22757,7 @@
       </c>
       <c r="E650" s="5"/>
     </row>
-    <row r="651" ht="38" hidden="1" spans="2:5">
+    <row r="651" ht="30" hidden="1" spans="2:5">
       <c r="B651" s="1" t="s">
         <v>2038</v>
       </c>
@@ -22831,7 +22905,7 @@
       </c>
       <c r="E662" s="5"/>
     </row>
-    <row r="663" ht="62" hidden="1" spans="2:5">
+    <row r="663" ht="37.5" hidden="1" spans="2:5">
       <c r="B663" s="1" t="s">
         <v>2076</v>
       </c>
@@ -22909,7 +22983,7 @@
       </c>
       <c r="E668" s="5"/>
     </row>
-    <row r="669" ht="38" hidden="1" spans="2:5">
+    <row r="669" ht="37.5" hidden="1" spans="2:5">
       <c r="B669" s="1" t="s">
         <v>2097</v>
       </c>
@@ -22935,7 +23009,7 @@
       </c>
       <c r="E670" s="5"/>
     </row>
-    <row r="671" ht="95" hidden="1" spans="2:5">
+    <row r="671" ht="56.25" hidden="1" spans="2:5">
       <c r="B671" s="1" t="s">
         <v>2104</v>
       </c>
@@ -23009,7 +23083,7 @@
       </c>
       <c r="E676" s="5"/>
     </row>
-    <row r="677" ht="35" hidden="1" spans="2:5">
+    <row r="677" hidden="1" spans="2:5">
       <c r="B677" s="1" t="s">
         <v>2123</v>
       </c>
@@ -23109,7 +23183,7 @@
       </c>
       <c r="E684" s="5"/>
     </row>
-    <row r="685" ht="36" hidden="1" spans="2:5">
+    <row r="685" ht="30" hidden="1" spans="2:5">
       <c r="B685" s="1" t="s">
         <v>2149</v>
       </c>
@@ -23159,7 +23233,7 @@
       </c>
       <c r="E688" s="5"/>
     </row>
-    <row r="689" ht="48" hidden="1" spans="2:5">
+    <row r="689" hidden="1" spans="2:5">
       <c r="B689" s="1" t="s">
         <v>2162</v>
       </c>
@@ -23183,7 +23257,7 @@
       </c>
       <c r="E690" s="5"/>
     </row>
-    <row r="691" ht="48" hidden="1" spans="2:5">
+    <row r="691" hidden="1" spans="2:5">
       <c r="B691" s="1" t="s">
         <v>2168</v>
       </c>
@@ -23357,7 +23431,7 @@
       </c>
       <c r="E704" s="5"/>
     </row>
-    <row r="705" ht="48" hidden="1" spans="2:5">
+    <row r="705" hidden="1" spans="2:5">
       <c r="B705" s="1" t="s">
         <v>2213</v>
       </c>
@@ -23447,7 +23521,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="712" ht="124" hidden="1" spans="2:5">
+    <row r="712" ht="75" hidden="1" spans="2:5">
       <c r="B712" s="1" t="s">
         <v>2237</v>
       </c>
@@ -23461,7 +23535,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="713" ht="34" hidden="1" spans="2:5">
+    <row r="713" hidden="1" spans="2:5">
       <c r="B713" s="1" t="s">
         <v>2241</v>
       </c>
@@ -23473,7 +23547,7 @@
       </c>
       <c r="E713" s="5"/>
     </row>
-    <row r="714" ht="48" hidden="1" spans="2:5">
+    <row r="714" hidden="1" spans="2:5">
       <c r="B714" s="1" t="s">
         <v>2244</v>
       </c>
@@ -23559,7 +23633,7 @@
       </c>
       <c r="E720" s="5"/>
     </row>
-    <row r="721" ht="36" hidden="1" spans="2:5">
+    <row r="721" ht="30" hidden="1" spans="2:5">
       <c r="B721" s="1" t="s">
         <v>2266</v>
       </c>
@@ -23765,7 +23839,7 @@
       </c>
       <c r="E737" s="5"/>
     </row>
-    <row r="738" ht="34" hidden="1" spans="2:5">
+    <row r="738" hidden="1" spans="2:5">
       <c r="B738" s="1" t="s">
         <v>2318</v>
       </c>
@@ -24103,7 +24177,7 @@
       </c>
       <c r="E765" s="5"/>
     </row>
-    <row r="766" ht="34" hidden="1" spans="2:5">
+    <row r="766" hidden="1" spans="2:5">
       <c r="B766" s="1" t="s">
         <v>2402</v>
       </c>
@@ -24271,7 +24345,7 @@
       </c>
       <c r="E779" s="5"/>
     </row>
-    <row r="780" ht="36" hidden="1" spans="2:5">
+    <row r="780" hidden="1" spans="2:5">
       <c r="B780" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24331,7 +24405,7 @@
       </c>
       <c r="E784" s="5"/>
     </row>
-    <row r="785" ht="48" hidden="1" spans="2:5">
+    <row r="785" hidden="1" spans="2:5">
       <c r="B785" s="1" t="s">
         <v>2459</v>
       </c>
@@ -24343,7 +24417,7 @@
       </c>
       <c r="E785" s="5"/>
     </row>
-    <row r="786" ht="35" hidden="1" spans="2:5">
+    <row r="786" ht="30" hidden="1" spans="2:5">
       <c r="B786" s="1" t="s">
         <v>2462</v>
       </c>
@@ -24455,7 +24529,7 @@
       </c>
       <c r="E794" s="5"/>
     </row>
-    <row r="795" ht="34" hidden="1" spans="2:5">
+    <row r="795" hidden="1" spans="2:5">
       <c r="B795" s="1" t="s">
         <v>2491</v>
       </c>
@@ -24527,7 +24601,7 @@
       </c>
       <c r="E800" s="5"/>
     </row>
-    <row r="801" ht="35" hidden="1" spans="2:5">
+    <row r="801" hidden="1" spans="2:5">
       <c r="B801" s="1" t="s">
         <v>2509</v>
       </c>
@@ -24697,7 +24771,7 @@
       </c>
       <c r="E814" s="5"/>
     </row>
-    <row r="815" ht="36" hidden="1" spans="2:5">
+    <row r="815" hidden="1" spans="2:5">
       <c r="B815" s="1" t="s">
         <v>2552</v>
       </c>
@@ -24745,7 +24819,7 @@
       </c>
       <c r="E818" s="5"/>
     </row>
-    <row r="819" ht="36" hidden="1" spans="2:5">
+    <row r="819" hidden="1" spans="2:5">
       <c r="B819" s="1" t="s">
         <v>2564</v>
       </c>
@@ -24865,7 +24939,7 @@
       </c>
       <c r="E828" s="5"/>
     </row>
-    <row r="829" ht="37" hidden="1" spans="2:5">
+    <row r="829" hidden="1" spans="2:5">
       <c r="B829" s="1" t="s">
         <v>2594</v>
       </c>
@@ -24937,7 +25011,7 @@
       </c>
       <c r="E834" s="5"/>
     </row>
-    <row r="835" ht="36" hidden="1" spans="2:5">
+    <row r="835" hidden="1" spans="2:5">
       <c r="B835" s="1" t="s">
         <v>2612</v>
       </c>
@@ -24949,7 +25023,7 @@
       </c>
       <c r="E835" s="5"/>
     </row>
-    <row r="836" ht="34" hidden="1" spans="2:5">
+    <row r="836" ht="30" hidden="1" spans="2:5">
       <c r="B836" s="1" t="s">
         <v>2615</v>
       </c>
@@ -25081,7 +25155,7 @@
       </c>
       <c r="E846" s="5"/>
     </row>
-    <row r="847" ht="34" hidden="1" spans="2:5">
+    <row r="847" hidden="1" spans="2:5">
       <c r="B847" s="1" t="s">
         <v>2648</v>
       </c>
@@ -25129,7 +25203,7 @@
       </c>
       <c r="E850" s="5"/>
     </row>
-    <row r="851" ht="36" hidden="1" spans="2:5">
+    <row r="851" hidden="1" spans="2:5">
       <c r="B851" s="1" t="s">
         <v>2660</v>
       </c>
@@ -25189,7 +25263,7 @@
       </c>
       <c r="E855" s="5"/>
     </row>
-    <row r="856" ht="36" hidden="1" spans="2:5">
+    <row r="856" ht="30" hidden="1" spans="2:5">
       <c r="B856" s="1" t="s">
         <v>2675</v>
       </c>
@@ -25213,7 +25287,7 @@
       </c>
       <c r="E857" s="5"/>
     </row>
-    <row r="858" ht="34" hidden="1" spans="2:5">
+    <row r="858" ht="30" hidden="1" spans="2:5">
       <c r="B858" s="1" t="s">
         <v>2681</v>
       </c>
@@ -25225,7 +25299,7 @@
       </c>
       <c r="E858" s="5"/>
     </row>
-    <row r="859" ht="36" hidden="1" spans="2:5">
+    <row r="859" ht="30" hidden="1" spans="2:5">
       <c r="B859" s="1" t="s">
         <v>2684</v>
       </c>
@@ -25249,7 +25323,7 @@
       </c>
       <c r="E860" s="5"/>
     </row>
-    <row r="861" ht="48" hidden="1" spans="2:5">
+    <row r="861" hidden="1" spans="2:5">
       <c r="B861" s="1" t="s">
         <v>2690</v>
       </c>
@@ -25309,7 +25383,7 @@
       </c>
       <c r="E865" s="5"/>
     </row>
-    <row r="866" ht="34" hidden="1" spans="2:5">
+    <row r="866" hidden="1" spans="2:5">
       <c r="B866" s="1" t="s">
         <v>2705</v>
       </c>
@@ -25405,7 +25479,7 @@
       </c>
       <c r="E873" s="5"/>
     </row>
-    <row r="874" ht="48" hidden="1" spans="2:5">
+    <row r="874" ht="30" hidden="1" spans="2:5">
       <c r="B874" s="1" t="s">
         <v>2729</v>
       </c>
@@ -25429,7 +25503,7 @@
       </c>
       <c r="E875" s="5"/>
     </row>
-    <row r="876" ht="36" hidden="1" spans="2:5">
+    <row r="876" hidden="1" spans="2:5">
       <c r="B876" s="1" t="s">
         <v>2735</v>
       </c>
@@ -25465,7 +25539,7 @@
       </c>
       <c r="E878" s="5"/>
     </row>
-    <row r="879" ht="34" hidden="1" spans="2:5">
+    <row r="879" hidden="1" spans="2:5">
       <c r="B879" s="1" t="s">
         <v>2744</v>
       </c>
@@ -25477,7 +25551,7 @@
       </c>
       <c r="E879" s="5"/>
     </row>
-    <row r="880" ht="38" hidden="1" spans="2:5">
+    <row r="880" ht="30" hidden="1" spans="2:5">
       <c r="B880" s="1" t="s">
         <v>2747</v>
       </c>
@@ -25633,7 +25707,7 @@
       </c>
       <c r="E892" s="5"/>
     </row>
-    <row r="893" ht="36" hidden="1" spans="2:5">
+    <row r="893" hidden="1" spans="2:5">
       <c r="B893" s="1" t="s">
         <v>2785</v>
       </c>
@@ -25669,7 +25743,7 @@
       </c>
       <c r="E895" s="5"/>
     </row>
-    <row r="896" ht="34" hidden="1" spans="2:5">
+    <row r="896" ht="30" hidden="1" spans="2:5">
       <c r="B896" s="1" t="s">
         <v>2794</v>
       </c>
@@ -25777,7 +25851,7 @@
       </c>
       <c r="E904" s="5"/>
     </row>
-    <row r="905" ht="36" hidden="1" spans="2:5">
+    <row r="905" ht="30" hidden="1" spans="2:5">
       <c r="B905" s="1" t="s">
         <v>2821</v>
       </c>
@@ -25885,7 +25959,7 @@
       </c>
       <c r="E913" s="5"/>
     </row>
-    <row r="914" ht="34" hidden="1" spans="2:5">
+    <row r="914" hidden="1" spans="2:5">
       <c r="B914" s="1" t="s">
         <v>2848</v>
       </c>
@@ -25921,7 +25995,7 @@
       </c>
       <c r="E916" s="5"/>
     </row>
-    <row r="917" ht="36" hidden="1" spans="2:5">
+    <row r="917" hidden="1" spans="2:5">
       <c r="B917" s="1" t="s">
         <v>2857</v>
       </c>
@@ -25969,7 +26043,7 @@
       </c>
       <c r="E920" s="5"/>
     </row>
-    <row r="921" ht="38" hidden="1" spans="2:5">
+    <row r="921" ht="30" hidden="1" spans="2:5">
       <c r="B921" s="1" t="s">
         <v>2869</v>
       </c>
@@ -26137,7 +26211,7 @@
       </c>
       <c r="E934" s="5"/>
     </row>
-    <row r="935" ht="48" hidden="1" spans="2:5">
+    <row r="935" ht="37.5" hidden="1" spans="2:5">
       <c r="B935" s="1" t="s">
         <v>2911</v>
       </c>
@@ -26221,7 +26295,7 @@
       </c>
       <c r="E941" s="5"/>
     </row>
-    <row r="942" ht="34" hidden="1" spans="2:5">
+    <row r="942" ht="30" hidden="1" spans="2:5">
       <c r="B942" s="1" t="s">
         <v>2932</v>
       </c>
@@ -26413,7 +26487,7 @@
       </c>
       <c r="E957" s="5"/>
     </row>
-    <row r="958" ht="36" hidden="1" spans="2:5">
+    <row r="958" hidden="1" spans="2:5">
       <c r="B958" s="1" t="s">
         <v>2980</v>
       </c>
@@ -26497,7 +26571,7 @@
       </c>
       <c r="E964" s="5"/>
     </row>
-    <row r="965" ht="48" hidden="1" spans="2:5">
+    <row r="965" hidden="1" spans="2:5">
       <c r="B965" s="1" t="s">
         <v>3001</v>
       </c>
@@ -26545,7 +26619,7 @@
       </c>
       <c r="E968" s="5"/>
     </row>
-    <row r="969" ht="36" hidden="1" spans="2:5">
+    <row r="969" ht="30" hidden="1" spans="2:5">
       <c r="B969" s="1" t="s">
         <v>3013</v>
       </c>
@@ -26629,7 +26703,7 @@
       </c>
       <c r="E975" s="5"/>
     </row>
-    <row r="976" ht="37" hidden="1" spans="2:5">
+    <row r="976" hidden="1" spans="2:5">
       <c r="B976" s="1" t="s">
         <v>3034</v>
       </c>
@@ -26641,7 +26715,7 @@
       </c>
       <c r="E976" s="5"/>
     </row>
-    <row r="977" ht="48" hidden="1" spans="2:5">
+    <row r="977" hidden="1" spans="2:5">
       <c r="B977" s="1" t="s">
         <v>3037</v>
       </c>
@@ -26701,7 +26775,7 @@
       </c>
       <c r="E981" s="5"/>
     </row>
-    <row r="982" ht="36" hidden="1" spans="2:5">
+    <row r="982" hidden="1" spans="2:5">
       <c r="B982" s="1" t="s">
         <v>3052</v>
       </c>
@@ -26737,7 +26811,7 @@
       </c>
       <c r="E984" s="5"/>
     </row>
-    <row r="985" ht="35" hidden="1" spans="2:5">
+    <row r="985" hidden="1" spans="2:5">
       <c r="B985" s="1" t="s">
         <v>3061</v>
       </c>
@@ -26773,7 +26847,7 @@
       </c>
       <c r="E987" s="5"/>
     </row>
-    <row r="988" ht="34" hidden="1" spans="2:5">
+    <row r="988" hidden="1" spans="2:5">
       <c r="B988" s="1" t="s">
         <v>3070</v>
       </c>
@@ -26845,7 +26919,7 @@
       </c>
       <c r="E993" s="5"/>
     </row>
-    <row r="994" ht="34" hidden="1" spans="2:5">
+    <row r="994" hidden="1" spans="2:5">
       <c r="B994" s="1" t="s">
         <v>3088</v>
       </c>
@@ -26917,7 +26991,7 @@
       </c>
       <c r="E999" s="5"/>
     </row>
-    <row r="1000" ht="34" hidden="1" spans="2:5">
+    <row r="1000" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
         <v>3106</v>
       </c>
@@ -26965,7 +27039,7 @@
       </c>
       <c r="E1003" s="5"/>
     </row>
-    <row r="1004" ht="48" hidden="1" spans="2:5">
+    <row r="1004" hidden="1" spans="2:5">
       <c r="B1004" s="1" t="s">
         <v>3118</v>
       </c>
@@ -27109,7 +27183,7 @@
       </c>
       <c r="E1015" s="5"/>
     </row>
-    <row r="1016" ht="48" hidden="1" spans="2:5">
+    <row r="1016" ht="37.5" hidden="1" spans="2:5">
       <c r="B1016" s="1" t="s">
         <v>3154</v>
       </c>
@@ -27231,7 +27305,7 @@
       </c>
       <c r="E1025" s="5"/>
     </row>
-    <row r="1026" ht="38" hidden="1" spans="2:5">
+    <row r="1026" ht="30" hidden="1" spans="2:5">
       <c r="B1026" s="1" t="s">
         <v>3185</v>
       </c>
@@ -27363,7 +27437,7 @@
       </c>
       <c r="E1036" s="5"/>
     </row>
-    <row r="1037" ht="38" hidden="1" spans="2:5">
+    <row r="1037" hidden="1" spans="2:5">
       <c r="B1037" s="1" t="s">
         <v>3218</v>
       </c>
@@ -27375,7 +27449,7 @@
       </c>
       <c r="E1037" s="5"/>
     </row>
-    <row r="1038" ht="34" hidden="1" spans="2:5">
+    <row r="1038" hidden="1" spans="2:5">
       <c r="B1038" s="1" t="s">
         <v>3221</v>
       </c>
@@ -28161,7 +28235,7 @@
       </c>
       <c r="E1102" s="5"/>
     </row>
-    <row r="1103" ht="36" hidden="1" spans="2:5">
+    <row r="1103" hidden="1" spans="2:5">
       <c r="B1103" s="1" t="s">
         <v>3418</v>
       </c>
@@ -28173,7 +28247,7 @@
       </c>
       <c r="E1103" s="5"/>
     </row>
-    <row r="1104" ht="34" hidden="1" spans="2:5">
+    <row r="1104" hidden="1" spans="2:5">
       <c r="B1104" s="1" t="s">
         <v>3421</v>
       </c>
@@ -28197,7 +28271,7 @@
       </c>
       <c r="E1105" s="5"/>
     </row>
-    <row r="1106" ht="35" hidden="1" spans="2:5">
+    <row r="1106" ht="30" hidden="1" spans="2:5">
       <c r="B1106" s="1" t="s">
         <v>3427</v>
       </c>
@@ -28209,7 +28283,7 @@
       </c>
       <c r="E1106" s="5"/>
     </row>
-    <row r="1107" ht="48" hidden="1" spans="2:5">
+    <row r="1107" hidden="1" spans="2:5">
       <c r="B1107" s="1" t="s">
         <v>3430</v>
       </c>
@@ -28221,7 +28295,7 @@
       </c>
       <c r="E1107" s="5"/>
     </row>
-    <row r="1108" ht="48" hidden="1" spans="2:5">
+    <row r="1108" hidden="1" spans="2:5">
       <c r="B1108" s="1" t="s">
         <v>3433</v>
       </c>
@@ -28305,7 +28379,7 @@
       </c>
       <c r="E1114" s="5"/>
     </row>
-    <row r="1115" ht="48" hidden="1" spans="2:5">
+    <row r="1115" ht="37.5" hidden="1" spans="2:5">
       <c r="B1115" s="1" t="s">
         <v>3454</v>
       </c>
@@ -28415,7 +28489,7 @@
       </c>
       <c r="E1123" s="5"/>
     </row>
-    <row r="1124" ht="48" hidden="1" spans="2:5">
+    <row r="1124" hidden="1" spans="2:5">
       <c r="B1124" s="1" t="s">
         <v>3481</v>
       </c>
@@ -28475,7 +28549,7 @@
       </c>
       <c r="E1128" s="5"/>
     </row>
-    <row r="1129" ht="48" hidden="1" spans="2:5">
+    <row r="1129" hidden="1" spans="2:5">
       <c r="B1129" s="1" t="s">
         <v>3496</v>
       </c>
@@ -28511,7 +28585,7 @@
       </c>
       <c r="E1131" s="5"/>
     </row>
-    <row r="1132" ht="36" hidden="1" spans="2:5">
+    <row r="1132" hidden="1" spans="2:5">
       <c r="B1132" s="1" t="s">
         <v>3505</v>
       </c>
@@ -28643,7 +28717,7 @@
       </c>
       <c r="E1142" s="5"/>
     </row>
-    <row r="1143" ht="34" hidden="1" spans="2:5">
+    <row r="1143" hidden="1" spans="2:5">
       <c r="B1143" s="1" t="s">
         <v>3538</v>
       </c>
@@ -28691,7 +28765,7 @@
       </c>
       <c r="E1146" s="5"/>
     </row>
-    <row r="1147" ht="34" hidden="1" spans="2:5">
+    <row r="1147" ht="30" hidden="1" spans="2:5">
       <c r="B1147" s="1" t="s">
         <v>3550</v>
       </c>
@@ -28775,7 +28849,7 @@
       </c>
       <c r="E1153" s="5"/>
     </row>
-    <row r="1154" ht="34" hidden="1" spans="2:5">
+    <row r="1154" hidden="1" spans="2:5">
       <c r="B1154" s="1" t="s">
         <v>3570</v>
       </c>
@@ -28799,7 +28873,7 @@
       </c>
       <c r="E1155" s="5"/>
     </row>
-    <row r="1156" ht="48" hidden="1" spans="2:5">
+    <row r="1156" hidden="1" spans="2:5">
       <c r="B1156" s="1" t="s">
         <v>3576</v>
       </c>
@@ -28811,7 +28885,7 @@
       </c>
       <c r="E1156" s="5"/>
     </row>
-    <row r="1157" ht="48" hidden="1" spans="2:5">
+    <row r="1157" hidden="1" spans="2:5">
       <c r="B1157" s="1" t="s">
         <v>3579</v>
       </c>
@@ -28979,7 +29053,7 @@
       </c>
       <c r="E1170" s="5"/>
     </row>
-    <row r="1171" ht="34" hidden="1" spans="2:5">
+    <row r="1171" ht="30" hidden="1" spans="2:5">
       <c r="B1171" s="1" t="s">
         <v>3621</v>
       </c>
@@ -29171,7 +29245,7 @@
       </c>
       <c r="E1186" s="5"/>
     </row>
-    <row r="1187" ht="36" hidden="1" spans="2:5">
+    <row r="1187" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
         <v>3669</v>
       </c>
@@ -29183,7 +29257,7 @@
       </c>
       <c r="E1187" s="5"/>
     </row>
-    <row r="1188" ht="36" hidden="1" spans="2:5">
+    <row r="1188" ht="30" hidden="1" spans="2:5">
       <c r="B1188" s="1" t="s">
         <v>3672</v>
       </c>
@@ -29329,7 +29403,7 @@
       </c>
       <c r="E1199" s="5"/>
     </row>
-    <row r="1200" ht="36" hidden="1" spans="2:5">
+    <row r="1200" ht="30" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
         <v>3709</v>
       </c>
@@ -29511,7 +29585,7 @@
       </c>
       <c r="E1214" s="5"/>
     </row>
-    <row r="1215" ht="36" hidden="1" spans="2:5">
+    <row r="1215" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
         <v>3755</v>
       </c>
@@ -29535,7 +29609,7 @@
       </c>
       <c r="E1216" s="5"/>
     </row>
-    <row r="1217" ht="36" hidden="1" spans="2:5">
+    <row r="1217" hidden="1" spans="2:5">
       <c r="B1217" s="1" t="s">
         <v>3761</v>
       </c>
@@ -29643,7 +29717,7 @@
       </c>
       <c r="E1225" s="5"/>
     </row>
-    <row r="1226" ht="36" hidden="1" spans="2:5">
+    <row r="1226" hidden="1" spans="2:5">
       <c r="B1226" s="1" t="s">
         <v>3788</v>
       </c>
@@ -29667,7 +29741,7 @@
       </c>
       <c r="E1227" s="5"/>
     </row>
-    <row r="1228" ht="36" hidden="1" spans="2:5">
+    <row r="1228" hidden="1" spans="2:5">
       <c r="B1228" s="1" t="s">
         <v>3794</v>
       </c>
@@ -29717,7 +29791,7 @@
       </c>
       <c r="E1231" s="5"/>
     </row>
-    <row r="1232" ht="34" hidden="1" spans="2:5">
+    <row r="1232" hidden="1" spans="2:5">
       <c r="B1232" s="1" t="s">
         <v>3807</v>
       </c>
@@ -29849,7 +29923,7 @@
       </c>
       <c r="E1242" s="5"/>
     </row>
-    <row r="1243" ht="34" hidden="1" spans="2:5">
+    <row r="1243" hidden="1" spans="2:5">
       <c r="B1243" s="1" t="s">
         <v>3840</v>
       </c>
@@ -29913,7 +29987,7 @@
       </c>
       <c r="E1247" s="5"/>
     </row>
-    <row r="1248" ht="48" hidden="1" spans="2:5">
+    <row r="1248" ht="37.5" hidden="1" spans="2:5">
       <c r="B1248" s="1" t="s">
         <v>3857</v>
       </c>
@@ -29961,7 +30035,7 @@
       </c>
       <c r="E1251" s="5"/>
     </row>
-    <row r="1252" ht="38" hidden="1" spans="2:5">
+    <row r="1252" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>3869</v>
       </c>
@@ -29999,7 +30073,7 @@
       </c>
       <c r="E1254" s="5"/>
     </row>
-    <row r="1255" ht="48" hidden="1" spans="2:5">
+    <row r="1255" hidden="1" spans="2:5">
       <c r="B1255" s="1" t="s">
         <v>3879</v>
       </c>
@@ -30071,7 +30145,7 @@
       </c>
       <c r="E1260" s="5"/>
     </row>
-    <row r="1261" ht="48" hidden="1" spans="2:5">
+    <row r="1261" ht="37.5" hidden="1" spans="2:5">
       <c r="B1261" s="1" t="s">
         <v>3897</v>
       </c>
@@ -30107,7 +30181,7 @@
       </c>
       <c r="E1263" s="5"/>
     </row>
-    <row r="1264" ht="36" hidden="1" spans="2:5">
+    <row r="1264" ht="30" hidden="1" spans="2:5">
       <c r="B1264" s="1" t="s">
         <v>3906</v>
       </c>
@@ -30263,7 +30337,7 @@
       </c>
       <c r="E1276" s="5"/>
     </row>
-    <row r="1277" ht="35" hidden="1" spans="2:5">
+    <row r="1277" hidden="1" spans="2:5">
       <c r="B1277" s="1" t="s">
         <v>3945</v>
       </c>
@@ -30323,7 +30397,7 @@
       </c>
       <c r="E1281" s="5"/>
     </row>
-    <row r="1282" ht="34" hidden="1" spans="2:5">
+    <row r="1282" hidden="1" spans="2:5">
       <c r="B1282" s="1" t="s">
         <v>3960</v>
       </c>
@@ -30335,7 +30409,7 @@
       </c>
       <c r="E1282" s="5"/>
     </row>
-    <row r="1283" ht="35" hidden="1" spans="2:5">
+    <row r="1283" hidden="1" spans="2:5">
       <c r="B1283" s="1" t="s">
         <v>3963</v>
       </c>
@@ -30431,7 +30505,7 @@
       </c>
       <c r="E1290" s="5"/>
     </row>
-    <row r="1291" ht="48" hidden="1" spans="2:5">
+    <row r="1291" hidden="1" spans="2:5">
       <c r="B1291" s="1" t="s">
         <v>3987</v>
       </c>
@@ -30469,7 +30543,7 @@
       </c>
       <c r="E1293" s="5"/>
     </row>
-    <row r="1294" ht="38" hidden="1" spans="2:5">
+    <row r="1294" ht="30" hidden="1" spans="2:5">
       <c r="B1294" s="1" t="s">
         <v>3996</v>
       </c>
@@ -30529,7 +30603,7 @@
       </c>
       <c r="E1298" s="5"/>
     </row>
-    <row r="1299" ht="37" hidden="1" spans="2:5">
+    <row r="1299" ht="30" hidden="1" spans="2:5">
       <c r="B1299" s="1" t="s">
         <v>4011</v>
       </c>
@@ -30553,7 +30627,7 @@
       </c>
       <c r="E1300" s="5"/>
     </row>
-    <row r="1301" ht="48" hidden="1" spans="2:4">
+    <row r="1301" ht="37.5" hidden="1" spans="2:4">
       <c r="B1301" s="1" t="s">
         <v>4017</v>
       </c>
@@ -30613,7 +30687,7 @@
       </c>
       <c r="E1305" s="5"/>
     </row>
-    <row r="1306" ht="72" hidden="1" spans="2:4">
+    <row r="1306" ht="56.25" hidden="1" spans="2:4">
       <c r="B1306" s="1" t="s">
         <v>4033</v>
       </c>
@@ -30672,7 +30746,7 @@
       </c>
       <c r="E1310" s="5"/>
     </row>
-    <row r="1311" ht="48" hidden="1" spans="2:4">
+    <row r="1311" ht="37.5" hidden="1" spans="2:4">
       <c r="B1311" s="1" t="s">
         <v>4048</v>
       </c>
@@ -30683,7 +30757,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="1312" ht="48" hidden="1" spans="2:4">
+    <row r="1312" ht="37.5" hidden="1" spans="2:4">
       <c r="B1312" s="1" t="s">
         <v>4050</v>
       </c>
@@ -30694,7 +30768,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="1313" ht="48" hidden="1" spans="2:4">
+    <row r="1313" ht="37.5" hidden="1" spans="2:4">
       <c r="B1313" s="1" t="s">
         <v>4053</v>
       </c>
@@ -30741,7 +30815,7 @@
       </c>
       <c r="E1316" s="5"/>
     </row>
-    <row r="1317" ht="36" hidden="1" spans="2:5">
+    <row r="1317" ht="30" hidden="1" spans="2:5">
       <c r="B1317" s="1" t="s">
         <v>4065</v>
       </c>
@@ -30767,7 +30841,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="1319" ht="48" hidden="1" spans="2:4">
+    <row r="1319" ht="37.5" hidden="1" spans="2:4">
       <c r="B1319" s="1" t="s">
         <v>4072</v>
       </c>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -13613,9 +13613,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -13664,6 +13664,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -13678,16 +13701,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13702,25 +13725,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13734,7 +13749,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13748,48 +13778,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13876,13 +13876,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13894,61 +14014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13960,67 +14032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14038,25 +14050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14075,6 +14075,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14114,11 +14123,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14133,21 +14148,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -14170,145 +14170,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -14388,11 +14388,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -14432,8 +14427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15918815" y="274955"/>
-          <a:ext cx="4839970" cy="1948180"/>
+          <a:off x="17866360" y="238125"/>
+          <a:ext cx="5440045" cy="1243330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14450,7 +14445,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -14697,6 +14692,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -14705,17 +14701,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="D473" sqref="D473"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.575" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5037037037037" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14748,7 +14744,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="48" hidden="1" spans="2:5">
+    <row r="3" ht="37.5" hidden="1" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -14760,7 +14756,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="48" hidden="1" spans="1:5">
+    <row r="4" ht="37.5" hidden="1" spans="1:5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -14777,7 +14773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="48" hidden="1" spans="1:5">
+    <row r="5" hidden="1" spans="1:5">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -14794,7 +14790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="48" hidden="1" spans="1:5">
+    <row r="6" ht="37.5" hidden="1" spans="1:5">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -14809,7 +14805,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="48" hidden="1" spans="2:5">
+    <row r="7" ht="37.5" hidden="1" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -14821,7 +14817,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="48" hidden="1" spans="2:5">
+    <row r="8" ht="37.5" hidden="1" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -14833,7 +14829,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="48" hidden="1" spans="2:5">
+    <row r="9" ht="37.5" hidden="1" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -14845,7 +14841,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="48" hidden="1" spans="1:5">
+    <row r="10" ht="37.5" hidden="1" spans="1:5">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -14860,7 +14856,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="48" hidden="1" spans="2:5">
+    <row r="11" ht="37.5" hidden="1" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -14872,7 +14868,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="48" hidden="1" spans="2:9">
+    <row r="12" ht="37.5" hidden="1" spans="2:9">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -14888,7 +14884,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" ht="48" hidden="1" spans="2:9">
+    <row r="13" ht="37.5" hidden="1" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -14904,7 +14900,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" ht="48" hidden="1" spans="2:5">
+    <row r="14" ht="37.5" hidden="1" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -14916,7 +14912,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="48" hidden="1" spans="1:5">
+    <row r="15" ht="37.5" hidden="1" spans="1:5">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -14933,7 +14929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" ht="48" hidden="1" spans="2:5">
+    <row r="16" ht="37.5" hidden="1" spans="2:5">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -14945,7 +14941,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" ht="48" hidden="1" spans="1:5">
+    <row r="17" ht="37.5" hidden="1" spans="1:5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -14960,7 +14956,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" ht="48" hidden="1" spans="2:5">
+    <row r="18" ht="37.5" hidden="1" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -14972,7 +14968,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" ht="48" hidden="1" spans="1:5">
+    <row r="19" hidden="1" spans="1:5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -15014,7 +15010,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" ht="48" hidden="1" spans="1:5">
+    <row r="22" ht="37.5" hidden="1" spans="1:5">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -15096,9 +15092,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" ht="48" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>88</v>
@@ -15127,7 +15123,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" ht="48" hidden="1" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -15242,7 +15238,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" ht="48" hidden="1" spans="2:5">
+    <row r="38" ht="37.5" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
@@ -15318,7 +15314,7 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" ht="48" hidden="1" spans="1:5">
+    <row r="44" ht="37.5" hidden="1" spans="1:5">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -15448,7 +15444,7 @@
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" ht="43" hidden="1" spans="1:5">
+    <row r="53" ht="37.5" hidden="1" spans="1:5">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -15477,7 +15473,7 @@
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" ht="48" hidden="1" spans="2:5">
+    <row r="55" ht="37.5" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>176</v>
       </c>
@@ -15519,7 +15515,7 @@
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" ht="48" hidden="1" spans="1:5">
+    <row r="58" hidden="1" spans="1:5">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -15560,7 +15556,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>194</v>
@@ -15573,7 +15569,7 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" ht="48" hidden="1" spans="2:5">
+    <row r="62" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>197</v>
       </c>
@@ -15597,7 +15593,7 @@
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" ht="48" hidden="1" spans="2:5">
+    <row r="64" hidden="1" spans="2:5">
       <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
@@ -15639,7 +15635,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" ht="62" hidden="1" spans="2:5">
+    <row r="67" ht="56.25" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>215</v>
       </c>
@@ -15689,7 +15685,7 @@
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" ht="48" hidden="1" spans="1:5">
+    <row r="71" hidden="1" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -15748,7 +15744,7 @@
       </c>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" ht="48" hidden="1" spans="1:5">
+    <row r="75" hidden="1" spans="1:5">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -15832,7 +15828,7 @@
       </c>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" ht="48" hidden="1" spans="2:5">
+    <row r="81" hidden="1" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>262</v>
       </c>
@@ -15900,7 +15896,7 @@
       </c>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" ht="48" hidden="1" spans="2:5">
+    <row r="86" hidden="1" spans="2:5">
       <c r="B86" s="1" t="s">
         <v>278</v>
       </c>
@@ -16097,7 +16093,7 @@
       </c>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" ht="48" hidden="1" spans="2:5">
+    <row r="101" hidden="1" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>326</v>
       </c>
@@ -16111,7 +16107,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>329</v>
@@ -16155,7 +16151,7 @@
       </c>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" ht="48" hidden="1" spans="2:5">
+    <row r="105" hidden="1" spans="2:5">
       <c r="B105" s="1" t="s">
         <v>340</v>
       </c>
@@ -16169,7 +16165,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>343</v>
@@ -16233,7 +16229,7 @@
       </c>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" ht="48" hidden="1" spans="2:5">
+    <row r="111" hidden="1" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>358</v>
       </c>
@@ -16290,7 +16286,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="115" ht="48" hidden="1" spans="2:5">
+    <row r="115" ht="37.5" hidden="1" spans="2:5">
       <c r="B115" s="1" t="s">
         <v>373</v>
       </c>
@@ -16340,7 +16336,7 @@
       </c>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" ht="48" hidden="1" spans="2:5">
+    <row r="119" ht="37.5" hidden="1" spans="2:5">
       <c r="B119" s="1" t="s">
         <v>386</v>
       </c>
@@ -16440,7 +16436,7 @@
       </c>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" ht="48" hidden="1" spans="2:5">
+    <row r="127" hidden="1" spans="2:5">
       <c r="B127" s="1" t="s">
         <v>412</v>
       </c>
@@ -16466,7 +16462,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="129" ht="48" hidden="1" spans="2:5">
+    <row r="129" hidden="1" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>419</v>
       </c>
@@ -16548,7 +16544,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="135" ht="48" hidden="1" spans="2:5">
+    <row r="135" ht="37.5" hidden="1" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>439</v>
       </c>
@@ -16562,7 +16558,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" ht="48" hidden="1" spans="2:5">
+    <row r="136" hidden="1" spans="2:5">
       <c r="B136" s="1" t="s">
         <v>443</v>
       </c>
@@ -16646,7 +16642,7 @@
       </c>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" ht="48" hidden="1" spans="2:5">
+    <row r="142" ht="37.5" hidden="1" spans="2:5">
       <c r="B142" s="1" t="s">
         <v>464</v>
       </c>
@@ -16778,7 +16774,7 @@
       </c>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" ht="48" hidden="1" spans="2:5">
+    <row r="152" ht="37.5" hidden="1" spans="2:5">
       <c r="B152" s="1" t="s">
         <v>494</v>
       </c>
@@ -16790,7 +16786,7 @@
       </c>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" ht="48" hidden="1" spans="2:5">
+    <row r="153" ht="37.5" hidden="1" spans="2:5">
       <c r="B153" s="1" t="s">
         <v>497</v>
       </c>
@@ -16838,7 +16834,7 @@
       </c>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" ht="43" hidden="1" spans="2:5">
+    <row r="157" ht="37.5" hidden="1" spans="2:5">
       <c r="B157" s="1" t="s">
         <v>509</v>
       </c>
@@ -16891,7 +16887,7 @@
       </c>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" ht="48" hidden="1" spans="1:5">
+    <row r="161" ht="37.5" hidden="1" spans="1:5">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -16906,7 +16902,7 @@
       </c>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" ht="48" hidden="1" spans="1:5">
+    <row r="162" ht="37.5" hidden="1" spans="1:5">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -16951,7 +16947,7 @@
       </c>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" ht="38" hidden="1" spans="2:5">
+    <row r="165" hidden="1" spans="2:5">
       <c r="B165" s="1" t="s">
         <v>534</v>
       </c>
@@ -16977,7 +16973,7 @@
       </c>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" ht="48" hidden="1" spans="2:5">
+    <row r="167" ht="37.5" hidden="1" spans="2:5">
       <c r="B167" s="1" t="s">
         <v>541</v>
       </c>
@@ -17001,7 +16997,7 @@
       </c>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" ht="48" hidden="1" spans="1:5">
+    <row r="169" ht="37.5" hidden="1" spans="1:5">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -17016,7 +17012,7 @@
       </c>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" ht="48" hidden="1" spans="1:5">
+    <row r="170" hidden="1" spans="1:5">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -17031,7 +17027,7 @@
       </c>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" ht="48" hidden="1" spans="2:5">
+    <row r="171" ht="37.5" hidden="1" spans="2:5">
       <c r="B171" s="1" t="s">
         <v>553</v>
       </c>
@@ -17165,7 +17161,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>586</v>
@@ -17271,7 +17267,7 @@
       </c>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" ht="48" hidden="1" spans="1:5">
+    <row r="190" hidden="1" spans="1:5">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -17314,7 +17310,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="193" ht="48" hidden="1" spans="2:5">
+    <row r="193" ht="37.5" hidden="1" spans="2:5">
       <c r="B193" s="1" t="s">
         <v>621</v>
       </c>
@@ -17560,7 +17556,7 @@
       </c>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" ht="62" hidden="1" spans="1:5">
+    <row r="211" ht="37.5" hidden="1" spans="1:5">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -17591,7 +17587,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>683</v>
@@ -17604,7 +17600,7 @@
       </c>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" ht="48" hidden="1" spans="1:5">
+    <row r="214" hidden="1" spans="1:5">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -17650,7 +17646,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>696</v>
@@ -17689,7 +17685,7 @@
       </c>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" ht="48" hidden="1" spans="1:5">
+    <row r="220" hidden="1" spans="1:5">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -17723,7 +17719,7 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>713</v>
@@ -17760,7 +17756,7 @@
       </c>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" ht="48" hidden="1" spans="2:5">
+    <row r="225" hidden="1" spans="2:5">
       <c r="B225" s="1" t="s">
         <v>722</v>
       </c>
@@ -17843,7 +17839,7 @@
       </c>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" ht="48" hidden="1" spans="1:5">
+    <row r="231" ht="37.5" hidden="1" spans="1:5">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -18147,7 +18143,7 @@
       </c>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" ht="48" hidden="1" spans="1:5">
+    <row r="254" hidden="1" spans="1:5">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -18222,7 +18218,7 @@
       </c>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" ht="48" hidden="1" spans="1:5">
+    <row r="260" hidden="1" spans="1:5">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -18364,7 +18360,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="270" ht="48" hidden="1" spans="1:5">
+    <row r="270" ht="37.5" hidden="1" spans="1:5">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -18421,7 +18417,7 @@
       </c>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" ht="48" hidden="1" spans="2:5">
+    <row r="274" hidden="1" spans="2:5">
       <c r="B274" s="1" t="s">
         <v>876</v>
       </c>
@@ -18580,7 +18576,7 @@
       </c>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" ht="48" hidden="1" spans="2:5">
+    <row r="286" hidden="1" spans="2:5">
       <c r="B286" s="1" t="s">
         <v>912</v>
       </c>
@@ -18592,7 +18588,7 @@
       </c>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" ht="48" hidden="1" spans="1:5">
+    <row r="287" hidden="1" spans="1:5">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -18619,7 +18615,7 @@
       </c>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" ht="48" hidden="1" spans="1:5">
+    <row r="289" hidden="1" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -18636,7 +18632,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="290" ht="48" hidden="1" spans="1:5">
+    <row r="290" hidden="1" spans="1:5">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -18665,7 +18661,7 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>931</v>
@@ -18824,7 +18820,7 @@
       </c>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" ht="76" hidden="1" spans="1:5">
+    <row r="304" ht="56.25" hidden="1" spans="1:5">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -18896,7 +18892,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>985</v>
@@ -18923,7 +18919,7 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>991</v>
@@ -18938,7 +18934,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="312" ht="43" hidden="1" spans="2:5">
+    <row r="312" ht="37.5" hidden="1" spans="2:5">
       <c r="B312" s="1" t="s">
         <v>995</v>
       </c>
@@ -18952,9 +18948,9 @@
         <v>998</v>
       </c>
     </row>
-    <row r="313" ht="48" spans="1:5">
+    <row r="313" spans="1:5">
       <c r="A313" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>999</v>
@@ -19006,7 +19002,7 @@
       </c>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" ht="48" hidden="1" spans="2:5">
+    <row r="317" hidden="1" spans="2:5">
       <c r="B317" s="1" t="s">
         <v>1011</v>
       </c>
@@ -19044,7 +19040,7 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>1020</v>
@@ -19059,7 +19055,7 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>1023</v>
@@ -19074,7 +19070,7 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>1026</v>
@@ -19189,9 +19185,9 @@
       </c>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" ht="48" spans="1:5">
+    <row r="331" spans="1:5">
       <c r="A331" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1053</v>
@@ -19206,7 +19202,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>1056</v>
@@ -19315,7 +19311,7 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>1082</v>
@@ -19328,9 +19324,9 @@
       </c>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" ht="38" spans="1:5">
+    <row r="341" spans="1:5">
       <c r="A341" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>1085</v>
@@ -19434,7 +19430,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="349" ht="76" hidden="1" spans="2:5">
+    <row r="349" ht="56.25" hidden="1" spans="2:5">
       <c r="B349" s="1" t="s">
         <v>1111</v>
       </c>
@@ -19450,7 +19446,7 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1115</v>
@@ -19477,7 +19473,7 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>1121</v>
@@ -19507,7 +19503,7 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1127</v>
@@ -19522,7 +19518,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1130</v>
@@ -19636,7 +19632,7 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1157</v>
@@ -19688,7 +19684,7 @@
       </c>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" ht="38" hidden="1" spans="2:5">
+    <row r="368" hidden="1" spans="2:5">
       <c r="B368" s="1" t="s">
         <v>1169</v>
       </c>
@@ -19702,7 +19698,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="369" ht="48" hidden="1" spans="1:5">
+    <row r="369" hidden="1" spans="1:5">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -19731,7 +19727,7 @@
       </c>
       <c r="E370" s="5"/>
     </row>
-    <row r="371" ht="48" hidden="1" spans="2:5">
+    <row r="371" ht="37.5" hidden="1" spans="2:5">
       <c r="B371" s="1" t="s">
         <v>1180</v>
       </c>
@@ -19760,7 +19756,7 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>1186</v>
@@ -19775,7 +19771,7 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>1189</v>
@@ -19853,7 +19849,7 @@
       </c>
       <c r="E379" s="5"/>
     </row>
-    <row r="380" ht="48" hidden="1" spans="2:5">
+    <row r="380" ht="37.5" hidden="1" spans="2:5">
       <c r="B380" s="1" t="s">
         <v>1208</v>
       </c>
@@ -19916,7 +19912,7 @@
       </c>
       <c r="E384" s="5"/>
     </row>
-    <row r="385" ht="48" hidden="1" spans="1:5">
+    <row r="385" ht="37.5" hidden="1" spans="1:5">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -19935,7 +19931,7 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>1227</v>
@@ -19974,7 +19970,7 @@
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>1236</v>
@@ -20040,7 +20036,7 @@
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1251</v>
@@ -20070,7 +20066,7 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1257</v>
@@ -20083,9 +20079,9 @@
       </c>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" ht="48" spans="1:5">
+    <row r="397" ht="37.5" spans="1:5">
       <c r="A397" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>1260</v>
@@ -20112,7 +20108,7 @@
       </c>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" ht="38" hidden="1" spans="2:5">
+    <row r="399" ht="37.5" hidden="1" spans="2:5">
       <c r="B399" s="1" t="s">
         <v>1267</v>
       </c>
@@ -20319,7 +20315,7 @@
       </c>
       <c r="E413" s="5"/>
     </row>
-    <row r="414" ht="48" hidden="1" spans="2:5">
+    <row r="414" ht="37.5" hidden="1" spans="2:5">
       <c r="B414" s="1" t="s">
         <v>1314</v>
       </c>
@@ -20367,7 +20363,7 @@
       </c>
       <c r="E417" s="5"/>
     </row>
-    <row r="418" ht="48" hidden="1" spans="2:5">
+    <row r="418" hidden="1" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>1326</v>
       </c>
@@ -20519,7 +20515,7 @@
       </c>
       <c r="E429" s="5"/>
     </row>
-    <row r="430" ht="48" spans="1:5">
+    <row r="430" ht="37.5" spans="1:5">
       <c r="A430" s="1">
         <v>1</v>
       </c>
@@ -20658,7 +20654,7 @@
       </c>
       <c r="E440" s="5"/>
     </row>
-    <row r="441" ht="48" spans="1:5">
+    <row r="441" spans="1:5">
       <c r="A441" s="1">
         <v>1</v>
       </c>
@@ -20702,7 +20698,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="444" ht="62" hidden="1" spans="2:5">
+    <row r="444" ht="37.5" hidden="1" spans="2:5">
       <c r="B444" s="1" t="s">
         <v>1408</v>
       </c>
@@ -20806,7 +20802,7 @@
       </c>
       <c r="E451" s="5"/>
     </row>
-    <row r="452" ht="48" hidden="1" spans="2:5">
+    <row r="452" ht="37.5" hidden="1" spans="2:5">
       <c r="B452" s="1" t="s">
         <v>1433</v>
       </c>
@@ -21038,7 +21034,7 @@
       </c>
       <c r="E468" s="5"/>
     </row>
-    <row r="469" ht="48" spans="1:5">
+    <row r="469" spans="1:5">
       <c r="A469" s="1">
         <v>1</v>
       </c>
@@ -21184,7 +21180,7 @@
       </c>
       <c r="E479" s="5"/>
     </row>
-    <row r="480" ht="48" spans="1:5">
+    <row r="480" spans="1:5">
       <c r="A480" s="1">
         <v>1</v>
       </c>
@@ -21801,7 +21797,7 @@
       </c>
       <c r="E527" s="5"/>
     </row>
-    <row r="528" ht="48" hidden="1" spans="2:5">
+    <row r="528" hidden="1" spans="2:5">
       <c r="B528" s="1" t="s">
         <v>1667</v>
       </c>
@@ -21825,7 +21821,7 @@
       </c>
       <c r="E529" s="5"/>
     </row>
-    <row r="530" ht="48" hidden="1" spans="2:5">
+    <row r="530" hidden="1" spans="2:5">
       <c r="B530" s="1" t="s">
         <v>1673</v>
       </c>
@@ -22271,7 +22267,7 @@
       </c>
       <c r="E566" s="5"/>
     </row>
-    <row r="567" ht="48" hidden="1" spans="2:5">
+    <row r="567" hidden="1" spans="2:5">
       <c r="B567" s="1" t="s">
         <v>1784</v>
       </c>
@@ -22307,7 +22303,7 @@
       </c>
       <c r="E569" s="5"/>
     </row>
-    <row r="570" ht="48" hidden="1" spans="2:5">
+    <row r="570" ht="37.5" hidden="1" spans="2:5">
       <c r="B570" s="1" t="s">
         <v>1793</v>
       </c>
@@ -22357,7 +22353,7 @@
       </c>
       <c r="E573" s="5"/>
     </row>
-    <row r="574" ht="48" hidden="1" spans="2:5">
+    <row r="574" hidden="1" spans="2:5">
       <c r="B574" s="1" t="s">
         <v>1806</v>
       </c>
@@ -22421,7 +22417,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="579" ht="48" hidden="1" spans="2:5">
+    <row r="579" ht="37.5" hidden="1" spans="2:5">
       <c r="B579" s="1" t="s">
         <v>1823</v>
       </c>
@@ -22863,7 +22859,7 @@
       </c>
       <c r="E614" s="5"/>
     </row>
-    <row r="615" ht="48" hidden="1" spans="2:5">
+    <row r="615" ht="37.5" hidden="1" spans="2:5">
       <c r="B615" s="1" t="s">
         <v>1934</v>
       </c>
@@ -22923,7 +22919,7 @@
       </c>
       <c r="E619" s="5"/>
     </row>
-    <row r="620" ht="48" hidden="1" spans="2:5">
+    <row r="620" hidden="1" spans="2:5">
       <c r="B620" s="1" t="s">
         <v>1949</v>
       </c>
@@ -22995,7 +22991,7 @@
       </c>
       <c r="E625" s="5"/>
     </row>
-    <row r="626" ht="48" hidden="1" spans="2:5">
+    <row r="626" hidden="1" spans="2:5">
       <c r="B626" s="1" t="s">
         <v>1966</v>
       </c>
@@ -23153,7 +23149,7 @@
       </c>
       <c r="E638" s="5"/>
     </row>
-    <row r="639" ht="143" hidden="1" spans="2:5">
+    <row r="639" ht="112.5" hidden="1" spans="2:5">
       <c r="B639" s="1" t="s">
         <v>2006</v>
       </c>
@@ -23449,7 +23445,7 @@
       </c>
       <c r="E662" s="5"/>
     </row>
-    <row r="663" ht="62" hidden="1" spans="2:5">
+    <row r="663" ht="37.5" hidden="1" spans="2:5">
       <c r="B663" s="1" t="s">
         <v>2081</v>
       </c>
@@ -23527,7 +23523,7 @@
       </c>
       <c r="E668" s="5"/>
     </row>
-    <row r="669" ht="38" hidden="1" spans="2:5">
+    <row r="669" ht="37.5" hidden="1" spans="2:5">
       <c r="B669" s="1" t="s">
         <v>2102</v>
       </c>
@@ -23553,7 +23549,7 @@
       </c>
       <c r="E670" s="5"/>
     </row>
-    <row r="671" ht="95" hidden="1" spans="2:5">
+    <row r="671" ht="56.25" hidden="1" spans="2:5">
       <c r="B671" s="1" t="s">
         <v>2109</v>
       </c>
@@ -23777,7 +23773,7 @@
       </c>
       <c r="E688" s="5"/>
     </row>
-    <row r="689" ht="48" hidden="1" spans="2:5">
+    <row r="689" hidden="1" spans="2:5">
       <c r="B689" s="1" t="s">
         <v>2167</v>
       </c>
@@ -23801,7 +23797,7 @@
       </c>
       <c r="E690" s="5"/>
     </row>
-    <row r="691" ht="48" hidden="1" spans="2:5">
+    <row r="691" hidden="1" spans="2:5">
       <c r="B691" s="1" t="s">
         <v>2173</v>
       </c>
@@ -23975,7 +23971,7 @@
       </c>
       <c r="E704" s="5"/>
     </row>
-    <row r="705" ht="48" hidden="1" spans="2:5">
+    <row r="705" hidden="1" spans="2:5">
       <c r="B705" s="1" t="s">
         <v>2218</v>
       </c>
@@ -24065,7 +24061,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="712" ht="124" hidden="1" spans="2:5">
+    <row r="712" ht="75" hidden="1" spans="2:5">
       <c r="B712" s="1" t="s">
         <v>2242</v>
       </c>
@@ -24091,7 +24087,7 @@
       </c>
       <c r="E713" s="5"/>
     </row>
-    <row r="714" ht="48" hidden="1" spans="2:5">
+    <row r="714" hidden="1" spans="2:5">
       <c r="B714" s="1" t="s">
         <v>2249</v>
       </c>
@@ -24949,7 +24945,7 @@
       </c>
       <c r="E784" s="5"/>
     </row>
-    <row r="785" ht="48" hidden="1" spans="2:5">
+    <row r="785" hidden="1" spans="2:5">
       <c r="B785" s="1" t="s">
         <v>2464</v>
       </c>
@@ -25867,7 +25863,7 @@
       </c>
       <c r="E860" s="5"/>
     </row>
-    <row r="861" ht="48" hidden="1" spans="2:5">
+    <row r="861" hidden="1" spans="2:5">
       <c r="B861" s="1" t="s">
         <v>2695</v>
       </c>
@@ -26023,7 +26019,7 @@
       </c>
       <c r="E873" s="5"/>
     </row>
-    <row r="874" ht="48" hidden="1" spans="2:5">
+    <row r="874" hidden="1" spans="2:5">
       <c r="B874" s="1" t="s">
         <v>2734</v>
       </c>
@@ -26755,7 +26751,7 @@
       </c>
       <c r="E934" s="5"/>
     </row>
-    <row r="935" ht="48" hidden="1" spans="2:5">
+    <row r="935" ht="37.5" hidden="1" spans="2:5">
       <c r="B935" s="1" t="s">
         <v>2916</v>
       </c>
@@ -27115,7 +27111,7 @@
       </c>
       <c r="E964" s="5"/>
     </row>
-    <row r="965" ht="48" hidden="1" spans="2:5">
+    <row r="965" hidden="1" spans="2:5">
       <c r="B965" s="1" t="s">
         <v>3006</v>
       </c>
@@ -27259,7 +27255,7 @@
       </c>
       <c r="E976" s="5"/>
     </row>
-    <row r="977" ht="48" hidden="1" spans="2:5">
+    <row r="977" hidden="1" spans="2:5">
       <c r="B977" s="1" t="s">
         <v>3042</v>
       </c>
@@ -27583,7 +27579,7 @@
       </c>
       <c r="E1003" s="5"/>
     </row>
-    <row r="1004" ht="48" hidden="1" spans="2:5">
+    <row r="1004" hidden="1" spans="2:5">
       <c r="B1004" s="1" t="s">
         <v>3123</v>
       </c>
@@ -27727,7 +27723,7 @@
       </c>
       <c r="E1015" s="5"/>
     </row>
-    <row r="1016" ht="48" hidden="1" spans="2:5">
+    <row r="1016" ht="37.5" hidden="1" spans="2:5">
       <c r="B1016" s="1" t="s">
         <v>3159</v>
       </c>
@@ -28827,7 +28823,7 @@
       </c>
       <c r="E1106" s="5"/>
     </row>
-    <row r="1107" ht="48" hidden="1" spans="2:5">
+    <row r="1107" hidden="1" spans="2:5">
       <c r="B1107" s="1" t="s">
         <v>3435</v>
       </c>
@@ -28839,7 +28835,7 @@
       </c>
       <c r="E1107" s="5"/>
     </row>
-    <row r="1108" ht="48" hidden="1" spans="2:5">
+    <row r="1108" hidden="1" spans="2:5">
       <c r="B1108" s="1" t="s">
         <v>3438</v>
       </c>
@@ -28923,7 +28919,7 @@
       </c>
       <c r="E1114" s="5"/>
     </row>
-    <row r="1115" ht="48" hidden="1" spans="2:5">
+    <row r="1115" ht="37.5" hidden="1" spans="2:5">
       <c r="B1115" s="1" t="s">
         <v>3459</v>
       </c>
@@ -29033,7 +29029,7 @@
       </c>
       <c r="E1123" s="5"/>
     </row>
-    <row r="1124" ht="48" hidden="1" spans="2:5">
+    <row r="1124" hidden="1" spans="2:5">
       <c r="B1124" s="1" t="s">
         <v>3486</v>
       </c>
@@ -29093,7 +29089,7 @@
       </c>
       <c r="E1128" s="5"/>
     </row>
-    <row r="1129" ht="48" hidden="1" spans="2:5">
+    <row r="1129" hidden="1" spans="2:5">
       <c r="B1129" s="1" t="s">
         <v>3501</v>
       </c>
@@ -29417,7 +29413,7 @@
       </c>
       <c r="E1155" s="5"/>
     </row>
-    <row r="1156" ht="48" hidden="1" spans="2:5">
+    <row r="1156" hidden="1" spans="2:5">
       <c r="B1156" s="1" t="s">
         <v>3581</v>
       </c>
@@ -29429,7 +29425,7 @@
       </c>
       <c r="E1156" s="5"/>
     </row>
-    <row r="1157" ht="48" hidden="1" spans="2:5">
+    <row r="1157" hidden="1" spans="2:5">
       <c r="B1157" s="1" t="s">
         <v>3584</v>
       </c>
@@ -30531,7 +30527,7 @@
       </c>
       <c r="E1247" s="5"/>
     </row>
-    <row r="1248" ht="48" hidden="1" spans="2:5">
+    <row r="1248" ht="37.5" hidden="1" spans="2:5">
       <c r="B1248" s="1" t="s">
         <v>3862</v>
       </c>
@@ -30579,7 +30575,7 @@
       </c>
       <c r="E1251" s="5"/>
     </row>
-    <row r="1252" ht="38" hidden="1" spans="2:5">
+    <row r="1252" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>3874</v>
       </c>
@@ -30617,7 +30613,7 @@
       </c>
       <c r="E1254" s="5"/>
     </row>
-    <row r="1255" ht="48" hidden="1" spans="2:5">
+    <row r="1255" hidden="1" spans="2:5">
       <c r="B1255" s="1" t="s">
         <v>3884</v>
       </c>
@@ -30689,7 +30685,7 @@
       </c>
       <c r="E1260" s="5"/>
     </row>
-    <row r="1261" ht="48" hidden="1" spans="2:5">
+    <row r="1261" ht="37.5" hidden="1" spans="2:5">
       <c r="B1261" s="1" t="s">
         <v>3902</v>
       </c>
@@ -31049,7 +31045,7 @@
       </c>
       <c r="E1290" s="5"/>
     </row>
-    <row r="1291" ht="48" hidden="1" spans="2:5">
+    <row r="1291" hidden="1" spans="2:5">
       <c r="B1291" s="1" t="s">
         <v>3992</v>
       </c>
@@ -31231,7 +31227,7 @@
       </c>
       <c r="E1305" s="5"/>
     </row>
-    <row r="1306" ht="72" hidden="1" spans="2:4">
+    <row r="1306" ht="56.25" hidden="1" spans="2:4">
       <c r="B1306" s="1" t="s">
         <v>4038</v>
       </c>
@@ -31385,7 +31381,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="1319" ht="48" hidden="1" spans="2:4">
+    <row r="1319" ht="37.5" hidden="1" spans="2:4">
       <c r="B1319" s="1" t="s">
         <v>4077</v>
       </c>
@@ -31465,6 +31461,7 @@
     <hyperlink ref="C219" r:id="rId2" display="[rɪˈmuvəl]"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920" tabRatio="500"/>
+    <workbookView windowWidth="13545" windowHeight="4755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4107">
   <si>
     <t>标记</t>
   </si>
@@ -9189,6 +9189,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>giraffe</t>
     </r>
     <r>
@@ -10405,6 +10411,19 @@
   </si>
   <si>
     <t>滑动，下滑</t>
+  </si>
+  <si>
+    <r>
+      <t>slope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斜坡</t>
+    </r>
   </si>
   <si>
     <t>fantasy</t>
@@ -14113,12 +14132,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -14164,22 +14183,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14192,24 +14210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14224,7 +14226,84 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -14239,71 +14318,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14370,6 +14389,11 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -14395,25 +14419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14431,7 +14443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14443,7 +14461,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14455,7 +14491,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14467,97 +14539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14573,6 +14555,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -14583,35 +14607,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14635,7 +14650,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14665,166 +14704,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14904,11 +14928,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -14924,8 +14943,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>382508</xdr:colOff>
-      <xdr:row>483</xdr:row>
-      <xdr:rowOff>89717</xdr:rowOff>
+      <xdr:row>670</xdr:row>
+      <xdr:rowOff>327842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14948,8 +14967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15918815" y="238125"/>
-          <a:ext cx="4839970" cy="2594610"/>
+          <a:off x="17866360" y="238125"/>
+          <a:ext cx="5440045" cy="1518285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14966,7 +14985,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -15213,6 +15232,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -15221,17 +15241,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="A890" sqref="A890:D890"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D671" sqref="D671"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.575" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5037037037037" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15264,7 +15284,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="48" hidden="1" spans="2:5">
+    <row r="3" ht="37.5" hidden="1" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -15276,7 +15296,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="48" hidden="1" spans="1:5">
+    <row r="4" ht="37.5" hidden="1" spans="1:5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -15293,7 +15313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="48" hidden="1" spans="1:5">
+    <row r="5" hidden="1" spans="1:5">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -15310,7 +15330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="48" hidden="1" spans="1:5">
+    <row r="6" ht="37.5" hidden="1" spans="1:5">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -15325,7 +15345,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="48" hidden="1" spans="2:5">
+    <row r="7" ht="37.5" hidden="1" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -15337,7 +15357,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="48" hidden="1" spans="2:5">
+    <row r="8" ht="37.5" hidden="1" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -15349,7 +15369,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="48" hidden="1" spans="2:5">
+    <row r="9" ht="37.5" hidden="1" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -15361,7 +15381,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="48" hidden="1" spans="1:5">
+    <row r="10" ht="37.5" hidden="1" spans="1:5">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -15376,7 +15396,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="48" hidden="1" spans="2:5">
+    <row r="11" ht="37.5" hidden="1" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -15388,7 +15408,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="48" hidden="1" spans="2:9">
+    <row r="12" ht="37.5" hidden="1" spans="2:9">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -15404,7 +15424,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" ht="48" hidden="1" spans="2:9">
+    <row r="13" ht="37.5" hidden="1" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -15420,7 +15440,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" ht="48" hidden="1" spans="2:5">
+    <row r="14" ht="37.5" hidden="1" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -15432,7 +15452,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="48" hidden="1" spans="1:5">
+    <row r="15" ht="37.5" hidden="1" spans="1:5">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -15449,7 +15469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" ht="48" hidden="1" spans="2:5">
+    <row r="16" ht="37.5" hidden="1" spans="2:5">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -15461,7 +15481,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="48" hidden="1" spans="1:5">
+    <row r="17" ht="37.5" hidden="1" spans="1:5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -15476,7 +15496,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="48" hidden="1" spans="2:5">
+    <row r="18" ht="37.5" hidden="1" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -15488,7 +15508,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="48" hidden="1" spans="1:5">
+    <row r="19" hidden="1" spans="1:5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -15530,7 +15550,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="48" hidden="1" spans="1:5">
+    <row r="22" ht="37.5" hidden="1" spans="1:5">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -15612,7 +15632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" ht="48" hidden="1" spans="1:5">
+    <row r="28" hidden="1" spans="1:5">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -15643,7 +15663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" ht="48" hidden="1" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -15758,7 +15778,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" ht="48" hidden="1" spans="2:5">
+    <row r="38" ht="37.5" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
@@ -15834,7 +15854,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="48" hidden="1" spans="1:5">
+    <row r="44" ht="37.5" hidden="1" spans="1:5">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -15964,7 +15984,7 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" ht="43" hidden="1" spans="1:5">
+    <row r="53" ht="37.5" hidden="1" spans="1:5">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -15993,7 +16013,7 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" ht="48" hidden="1" spans="2:5">
+    <row r="55" ht="37.5" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>176</v>
       </c>
@@ -16035,7 +16055,7 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" ht="48" hidden="1" spans="1:5">
+    <row r="58" hidden="1" spans="1:5">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -16089,7 +16109,7 @@
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" ht="48" hidden="1" spans="2:5">
+    <row r="62" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>197</v>
       </c>
@@ -16113,7 +16133,7 @@
       </c>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" ht="48" hidden="1" spans="2:5">
+    <row r="64" hidden="1" spans="2:5">
       <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
@@ -16155,7 +16175,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" ht="62" hidden="1" spans="2:5">
+    <row r="67" ht="56.25" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>215</v>
       </c>
@@ -16205,7 +16225,7 @@
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" ht="48" hidden="1" spans="1:5">
+    <row r="71" hidden="1" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -16264,7 +16284,7 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" ht="48" hidden="1" spans="1:5">
+    <row r="75" hidden="1" spans="1:5">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -16348,7 +16368,7 @@
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" ht="48" hidden="1" spans="2:5">
+    <row r="81" hidden="1" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>262</v>
       </c>
@@ -16416,7 +16436,7 @@
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" ht="48" hidden="1" spans="2:5">
+    <row r="86" hidden="1" spans="2:5">
       <c r="B86" s="1" t="s">
         <v>278</v>
       </c>
@@ -16613,7 +16633,7 @@
       </c>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" ht="48" hidden="1" spans="2:5">
+    <row r="101" hidden="1" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>326</v>
       </c>
@@ -16671,7 +16691,7 @@
       </c>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" ht="48" hidden="1" spans="2:5">
+    <row r="105" hidden="1" spans="2:5">
       <c r="B105" s="1" t="s">
         <v>340</v>
       </c>
@@ -16748,7 +16768,7 @@
       </c>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" ht="48" hidden="1" spans="2:5">
+    <row r="111" hidden="1" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>358</v>
       </c>
@@ -16805,7 +16825,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="115" ht="48" hidden="1" spans="2:5">
+    <row r="115" ht="37.5" hidden="1" spans="2:5">
       <c r="B115" s="1" t="s">
         <v>373</v>
       </c>
@@ -16855,7 +16875,7 @@
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" ht="48" hidden="1" spans="2:5">
+    <row r="119" ht="37.5" hidden="1" spans="2:5">
       <c r="B119" s="1" t="s">
         <v>386</v>
       </c>
@@ -16955,7 +16975,7 @@
       </c>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" ht="48" hidden="1" spans="2:5">
+    <row r="127" hidden="1" spans="2:5">
       <c r="B127" s="1" t="s">
         <v>412</v>
       </c>
@@ -16981,7 +17001,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="129" ht="48" hidden="1" spans="2:5">
+    <row r="129" hidden="1" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>419</v>
       </c>
@@ -17063,7 +17083,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="135" ht="48" hidden="1" spans="2:5">
+    <row r="135" ht="37.5" hidden="1" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>439</v>
       </c>
@@ -17077,7 +17097,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" ht="48" hidden="1" spans="2:5">
+    <row r="136" hidden="1" spans="2:5">
       <c r="B136" s="1" t="s">
         <v>443</v>
       </c>
@@ -17161,7 +17181,7 @@
       </c>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" ht="48" hidden="1" spans="2:5">
+    <row r="142" ht="37.5" hidden="1" spans="2:5">
       <c r="B142" s="1" t="s">
         <v>464</v>
       </c>
@@ -17293,7 +17313,7 @@
       </c>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" ht="48" hidden="1" spans="2:5">
+    <row r="152" ht="37.5" hidden="1" spans="2:5">
       <c r="B152" s="1" t="s">
         <v>494</v>
       </c>
@@ -17305,7 +17325,7 @@
       </c>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" ht="48" hidden="1" spans="2:5">
+    <row r="153" ht="37.5" hidden="1" spans="2:5">
       <c r="B153" s="1" t="s">
         <v>497</v>
       </c>
@@ -17353,7 +17373,7 @@
       </c>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" ht="43" hidden="1" spans="2:5">
+    <row r="157" ht="37.5" hidden="1" spans="2:5">
       <c r="B157" s="1" t="s">
         <v>509</v>
       </c>
@@ -17406,7 +17426,7 @@
       </c>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" ht="48" hidden="1" spans="1:5">
+    <row r="161" ht="37.5" hidden="1" spans="1:5">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -17421,7 +17441,7 @@
       </c>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" ht="48" hidden="1" spans="1:5">
+    <row r="162" ht="37.5" hidden="1" spans="1:5">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -17466,7 +17486,7 @@
       </c>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" ht="38" hidden="1" spans="2:5">
+    <row r="165" hidden="1" spans="2:5">
       <c r="B165" s="1" t="s">
         <v>534</v>
       </c>
@@ -17492,7 +17512,7 @@
       </c>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" ht="48" hidden="1" spans="2:5">
+    <row r="167" ht="37.5" hidden="1" spans="2:5">
       <c r="B167" s="1" t="s">
         <v>541</v>
       </c>
@@ -17516,7 +17536,7 @@
       </c>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" ht="48" hidden="1" spans="1:5">
+    <row r="169" ht="37.5" hidden="1" spans="1:5">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -17531,7 +17551,7 @@
       </c>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" ht="48" hidden="1" spans="1:5">
+    <row r="170" hidden="1" spans="1:5">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -17546,7 +17566,7 @@
       </c>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" ht="48" hidden="1" spans="2:5">
+    <row r="171" ht="37.5" hidden="1" spans="2:5">
       <c r="B171" s="1" t="s">
         <v>553</v>
       </c>
@@ -17785,7 +17805,7 @@
       </c>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" ht="48" hidden="1" spans="1:5">
+    <row r="190" hidden="1" spans="1:5">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -17828,7 +17848,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="193" ht="48" hidden="1" spans="2:5">
+    <row r="193" ht="37.5" hidden="1" spans="2:5">
       <c r="B193" s="1" t="s">
         <v>621</v>
       </c>
@@ -18074,7 +18094,7 @@
       </c>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" ht="62" hidden="1" spans="1:5">
+    <row r="211" ht="37.5" hidden="1" spans="1:5">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -18117,7 +18137,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="214" ht="48" hidden="1" spans="1:5">
+    <row r="214" hidden="1" spans="1:5">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -18202,7 +18222,7 @@
       </c>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" ht="48" hidden="1" spans="1:5">
+    <row r="220" hidden="1" spans="1:5">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -18272,7 +18292,7 @@
       </c>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" ht="48" hidden="1" spans="2:5">
+    <row r="225" hidden="1" spans="2:5">
       <c r="B225" s="1" t="s">
         <v>722</v>
       </c>
@@ -18355,7 +18375,7 @@
       </c>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" ht="48" hidden="1" spans="1:5">
+    <row r="231" ht="37.5" hidden="1" spans="1:5">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -18659,7 +18679,7 @@
       </c>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" ht="48" hidden="1" spans="1:5">
+    <row r="254" hidden="1" spans="1:5">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -18734,7 +18754,7 @@
       </c>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" ht="48" hidden="1" spans="1:5">
+    <row r="260" hidden="1" spans="1:5">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -18876,7 +18896,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="270" ht="48" hidden="1" spans="1:5">
+    <row r="270" ht="37.5" hidden="1" spans="1:5">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -18933,7 +18953,7 @@
       </c>
       <c r="E273" s="6"/>
     </row>
-    <row r="274" ht="48" hidden="1" spans="2:5">
+    <row r="274" hidden="1" spans="2:5">
       <c r="B274" s="1" t="s">
         <v>876</v>
       </c>
@@ -19092,7 +19112,7 @@
       </c>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" ht="48" hidden="1" spans="2:5">
+    <row r="286" hidden="1" spans="2:5">
       <c r="B286" s="1" t="s">
         <v>912</v>
       </c>
@@ -19104,7 +19124,7 @@
       </c>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" ht="48" hidden="1" spans="1:5">
+    <row r="287" hidden="1" spans="1:5">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -19131,7 +19151,7 @@
       </c>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" ht="48" hidden="1" spans="1:5">
+    <row r="289" hidden="1" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -19148,7 +19168,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="290" ht="48" hidden="1" spans="1:5">
+    <row r="290" hidden="1" spans="1:5">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -19336,7 +19356,7 @@
       </c>
       <c r="E303" s="6"/>
     </row>
-    <row r="304" ht="76" hidden="1" spans="1:5">
+    <row r="304" ht="56.25" hidden="1" spans="1:5">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -19449,7 +19469,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="312" ht="43" hidden="1" spans="2:5">
+    <row r="312" ht="37.5" hidden="1" spans="2:5">
       <c r="B312" s="1" t="s">
         <v>995</v>
       </c>
@@ -19463,7 +19483,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="313" ht="48" hidden="1" spans="1:4">
+    <row r="313" hidden="1" spans="1:4">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -19516,7 +19536,7 @@
       </c>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" ht="48" hidden="1" spans="2:5">
+    <row r="317" hidden="1" spans="2:5">
       <c r="B317" s="1" t="s">
         <v>1011</v>
       </c>
@@ -19698,9 +19718,9 @@
       </c>
       <c r="E330" s="6"/>
     </row>
-    <row r="331" ht="48" spans="1:4">
+    <row r="331" hidden="1" spans="1:4">
       <c r="A331" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1053</v>
@@ -19835,7 +19855,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="341" ht="38" hidden="1" spans="1:5">
+    <row r="341" hidden="1" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -19941,7 +19961,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="349" ht="76" hidden="1" spans="2:5">
+    <row r="349" ht="56.25" hidden="1" spans="2:5">
       <c r="B349" s="1" t="s">
         <v>1111</v>
       </c>
@@ -20194,7 +20214,7 @@
       </c>
       <c r="E367" s="6"/>
     </row>
-    <row r="368" ht="38" hidden="1" spans="2:5">
+    <row r="368" hidden="1" spans="2:5">
       <c r="B368" s="1" t="s">
         <v>1169</v>
       </c>
@@ -20208,7 +20228,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="369" ht="48" hidden="1" spans="1:5">
+    <row r="369" hidden="1" spans="1:5">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -20237,7 +20257,7 @@
       </c>
       <c r="E370" s="6"/>
     </row>
-    <row r="371" ht="48" hidden="1" spans="2:5">
+    <row r="371" ht="37.5" hidden="1" spans="2:5">
       <c r="B371" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20358,7 +20378,7 @@
       </c>
       <c r="E379" s="6"/>
     </row>
-    <row r="380" ht="48" hidden="1" spans="2:5">
+    <row r="380" ht="37.5" hidden="1" spans="2:5">
       <c r="B380" s="1" t="s">
         <v>1208</v>
       </c>
@@ -20421,7 +20441,7 @@
       </c>
       <c r="E384" s="6"/>
     </row>
-    <row r="385" ht="48" hidden="1" spans="1:5">
+    <row r="385" ht="37.5" hidden="1" spans="1:5">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -20477,9 +20497,9 @@
       </c>
       <c r="E388" s="6"/>
     </row>
-    <row r="389" ht="120" spans="1:5">
+    <row r="389" ht="75" hidden="1" spans="1:5">
       <c r="A389" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>1236</v>
@@ -20589,7 +20609,7 @@
       </c>
       <c r="E396" s="6"/>
     </row>
-    <row r="397" ht="48" hidden="1" spans="1:5">
+    <row r="397" ht="37.5" hidden="1" spans="1:5">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -20618,7 +20638,7 @@
       </c>
       <c r="E398" s="6"/>
     </row>
-    <row r="399" ht="38" hidden="1" spans="2:5">
+    <row r="399" ht="37.5" hidden="1" spans="2:5">
       <c r="B399" s="1" t="s">
         <v>1268</v>
       </c>
@@ -20822,7 +20842,7 @@
       </c>
       <c r="E413" s="6"/>
     </row>
-    <row r="414" ht="48" hidden="1" spans="2:5">
+    <row r="414" ht="37.5" hidden="1" spans="2:5">
       <c r="B414" s="1" t="s">
         <v>1316</v>
       </c>
@@ -20870,7 +20890,7 @@
       </c>
       <c r="E417" s="6"/>
     </row>
-    <row r="418" ht="48" hidden="1" spans="2:5">
+    <row r="418" hidden="1" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>1328</v>
       </c>
@@ -21021,7 +21041,7 @@
       </c>
       <c r="E429" s="6"/>
     </row>
-    <row r="430" ht="48" hidden="1" spans="1:5">
+    <row r="430" ht="37.5" hidden="1" spans="1:5">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -21160,7 +21180,7 @@
       </c>
       <c r="E440" s="6"/>
     </row>
-    <row r="441" ht="48" hidden="1" spans="2:4">
+    <row r="441" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1400</v>
       </c>
@@ -21199,7 +21219,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="444" ht="62" hidden="1" spans="2:5">
+    <row r="444" ht="37.5" hidden="1" spans="2:5">
       <c r="B444" s="1" t="s">
         <v>1410</v>
       </c>
@@ -21302,7 +21322,7 @@
       </c>
       <c r="E451" s="6"/>
     </row>
-    <row r="452" ht="48" hidden="1" spans="2:5">
+    <row r="452" ht="37.5" hidden="1" spans="2:5">
       <c r="B452" s="1" t="s">
         <v>1435</v>
       </c>
@@ -21370,9 +21390,9 @@
       </c>
       <c r="E456" s="6"/>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" hidden="1" spans="1:4">
       <c r="A457" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>1451</v>
@@ -21530,7 +21550,7 @@
       </c>
       <c r="E468" s="6"/>
     </row>
-    <row r="469" ht="48" hidden="1" spans="1:4">
+    <row r="469" hidden="1" spans="1:4">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -21673,7 +21693,7 @@
       </c>
       <c r="E479" s="6"/>
     </row>
-    <row r="480" ht="48" hidden="1" spans="1:5">
+    <row r="480" hidden="1" spans="1:5">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -21732,9 +21752,9 @@
       </c>
       <c r="E483" s="6"/>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" hidden="1" spans="1:4">
       <c r="A484" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>1534</v>
@@ -21746,9 +21766,9 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" hidden="1" spans="1:4">
       <c r="A485" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>1537</v>
@@ -21875,9 +21895,9 @@
       </c>
       <c r="E494" s="6"/>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" hidden="1" spans="1:4">
       <c r="A495" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>1567</v>
@@ -21984,7 +22004,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1592</v>
@@ -22008,9 +22028,9 @@
       </c>
       <c r="E504" s="6"/>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" hidden="1" spans="1:4">
       <c r="A505" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>1598</v>
@@ -22317,7 +22337,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="528" ht="48" hidden="1" spans="1:4">
+    <row r="528" hidden="1" spans="1:4">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -22343,7 +22363,7 @@
       </c>
       <c r="E529" s="6"/>
     </row>
-    <row r="530" ht="48" hidden="1" spans="2:5">
+    <row r="530" hidden="1" spans="2:5">
       <c r="B530" s="1" t="s">
         <v>1677</v>
       </c>
@@ -22435,9 +22455,9 @@
       </c>
       <c r="E536" s="6"/>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" hidden="1" spans="1:4">
       <c r="A537" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>1699</v>
@@ -22558,9 +22578,9 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" hidden="1" spans="1:4">
       <c r="A546" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>1727</v>
@@ -22838,7 +22858,7 @@
       </c>
       <c r="E566" s="6"/>
     </row>
-    <row r="567" ht="48" hidden="1" spans="1:4">
+    <row r="567" hidden="1" spans="1:4">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -22876,7 +22896,7 @@
       </c>
       <c r="E569" s="6"/>
     </row>
-    <row r="570" ht="48" hidden="1" spans="1:5">
+    <row r="570" ht="37.5" hidden="1" spans="1:5">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -22938,7 +22958,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="574" ht="48" hidden="1" spans="2:5">
+    <row r="574" hidden="1" spans="2:5">
       <c r="B574" s="1" t="s">
         <v>1815</v>
       </c>
@@ -22988,9 +23008,9 @@
       </c>
       <c r="E577" s="6"/>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" hidden="1" spans="1:5">
       <c r="A578" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>1828</v>
@@ -23005,7 +23025,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="579" ht="48" hidden="1" spans="2:5">
+    <row r="579" ht="37.5" hidden="1" spans="2:5">
       <c r="B579" s="1" t="s">
         <v>1832</v>
       </c>
@@ -23133,7 +23153,7 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>1863</v>
@@ -23420,9 +23440,9 @@
       </c>
       <c r="E610" s="6"/>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" hidden="1" spans="1:4">
       <c r="A611" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>1930</v>
@@ -23451,9 +23471,9 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" hidden="1" spans="1:4">
       <c r="A613" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>1937</v>
@@ -23477,7 +23497,7 @@
       </c>
       <c r="E614" s="6"/>
     </row>
-    <row r="615" ht="48" hidden="1" spans="2:5">
+    <row r="615" ht="37.5" hidden="1" spans="2:5">
       <c r="B615" s="1" t="s">
         <v>1943</v>
       </c>
@@ -23535,7 +23555,7 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>1955</v>
@@ -23547,7 +23567,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="620" ht="48" hidden="1" spans="2:5">
+    <row r="620" hidden="1" spans="2:5">
       <c r="B620" s="1" t="s">
         <v>1958</v>
       </c>
@@ -23625,7 +23645,7 @@
       </c>
       <c r="E625" s="6"/>
     </row>
-    <row r="626" ht="48" hidden="1" spans="1:5">
+    <row r="626" hidden="1" spans="1:5">
       <c r="A626" s="1">
         <v>0</v>
       </c>
@@ -23652,9 +23672,9 @@
       </c>
       <c r="E627" s="6"/>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" hidden="1" spans="1:4">
       <c r="A628" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>1982</v>
@@ -23731,9 +23751,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" hidden="1" spans="1:4">
       <c r="A634" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>2001</v>
@@ -23783,9 +23803,9 @@
       </c>
       <c r="E637" s="6"/>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" hidden="1" spans="1:4">
       <c r="A638" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>2013</v>
@@ -23797,7 +23817,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="639" ht="143" hidden="1" spans="1:5">
+    <row r="639" ht="112.5" hidden="1" spans="1:5">
       <c r="A639" s="1">
         <v>0</v>
       </c>
@@ -23931,9 +23951,9 @@
       </c>
       <c r="E648" s="6"/>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" hidden="1" spans="1:5">
       <c r="A649" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>2046</v>
@@ -24118,7 +24138,7 @@
       </c>
       <c r="E662" s="6"/>
     </row>
-    <row r="663" ht="62" hidden="1" spans="2:5">
+    <row r="663" ht="37.5" hidden="1" spans="2:5">
       <c r="B663" s="1" t="s">
         <v>2092</v>
       </c>
@@ -24196,7 +24216,7 @@
       </c>
       <c r="E668" s="6"/>
     </row>
-    <row r="669" ht="38" hidden="1" spans="2:5">
+    <row r="669" ht="37.5" hidden="1" spans="2:5">
       <c r="B669" s="1" t="s">
         <v>2113</v>
       </c>
@@ -24222,9 +24242,9 @@
       </c>
       <c r="E670" s="6"/>
     </row>
-    <row r="671" ht="96" spans="1:5">
+    <row r="671" ht="75" spans="1:5">
       <c r="A671" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>2120</v>
@@ -24292,7 +24312,7 @@
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>2136</v>
@@ -24466,9 +24486,9 @@
       </c>
       <c r="E688" s="6"/>
     </row>
-    <row r="689" ht="48" spans="1:4">
+    <row r="689" spans="1:4">
       <c r="A689" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>2178</v>
@@ -24495,7 +24515,7 @@
       </c>
       <c r="E690" s="6"/>
     </row>
-    <row r="691" ht="48" hidden="1" spans="2:5">
+    <row r="691" hidden="1" spans="2:5">
       <c r="B691" s="1" t="s">
         <v>2184</v>
       </c>
@@ -24536,7 +24556,7 @@
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>2193</v>
@@ -24687,7 +24707,7 @@
       </c>
       <c r="E704" s="6"/>
     </row>
-    <row r="705" ht="48" hidden="1" spans="2:5">
+    <row r="705" hidden="1" spans="2:5">
       <c r="B705" s="1" t="s">
         <v>2229</v>
       </c>
@@ -24741,7 +24761,7 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>2242</v>
@@ -24781,9 +24801,9 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="712" ht="120" spans="1:5">
+    <row r="712" ht="93.75" spans="1:5">
       <c r="A712" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>2253</v>
@@ -24843,7 +24863,7 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>2267</v>
@@ -24871,7 +24891,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2273</v>
@@ -25050,7 +25070,7 @@
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>2316</v>
@@ -25064,7 +25084,7 @@
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>2319</v>
@@ -25116,7 +25136,7 @@
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>2331</v>
@@ -25204,7 +25224,7 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>2353</v>
@@ -25454,7 +25474,7 @@
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>2412</v>
@@ -25466,9 +25486,9 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" hidden="1" spans="1:4">
       <c r="A765" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>2415</v>
@@ -25546,7 +25566,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2433</v>
@@ -25708,7 +25728,7 @@
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>2472</v>
@@ -25720,7 +25740,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="785" ht="48" hidden="1" spans="2:5">
+    <row r="785" hidden="1" spans="2:5">
       <c r="B785" s="1" t="s">
         <v>2475</v>
       </c>
@@ -25825,7 +25845,7 @@
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>2501</v>
@@ -25863,7 +25883,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2510</v>
@@ -25973,7 +25993,7 @@
     </row>
     <row r="805" spans="1:5">
       <c r="A805" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>2537</v>
@@ -26010,9 +26030,9 @@
       </c>
       <c r="E807" s="6"/>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" hidden="1" spans="1:5">
       <c r="A808" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>2546</v>
@@ -26065,7 +26085,7 @@
     </row>
     <row r="812" spans="1:5">
       <c r="A812" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>2559</v>
@@ -26102,9 +26122,9 @@
       </c>
       <c r="E814" s="6"/>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" hidden="1" spans="1:5">
       <c r="A815" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>2568</v>
@@ -26177,9 +26197,9 @@
       </c>
       <c r="E820" s="6"/>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" hidden="1" spans="1:5">
       <c r="A821" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B821" s="1" t="s">
         <v>2586</v>
@@ -26192,9 +26212,9 @@
       </c>
       <c r="E821" s="6"/>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" hidden="1" spans="1:5">
       <c r="A822" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>2589</v>
@@ -26219,9 +26239,9 @@
       </c>
       <c r="E823" s="6"/>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" hidden="1" spans="1:5">
       <c r="A824" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B824" s="1" t="s">
         <v>2595</v>
@@ -26236,7 +26256,7 @@
     </row>
     <row r="825" spans="1:5">
       <c r="A825" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>2598</v>
@@ -26273,9 +26293,9 @@
       </c>
       <c r="E827" s="6"/>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" hidden="1" spans="1:5">
       <c r="A828" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>2607</v>
@@ -26290,9 +26310,9 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" hidden="1" spans="1:5">
       <c r="A829" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>2611</v>
@@ -26307,7 +26327,7 @@
     </row>
     <row r="830" spans="1:5">
       <c r="A830" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>2614</v>
@@ -26334,7 +26354,7 @@
     </row>
     <row r="832" spans="1:5">
       <c r="A832" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>2620</v>
@@ -26359,9 +26379,9 @@
       </c>
       <c r="E833" s="6"/>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" hidden="1" spans="1:5">
       <c r="A834" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>2626</v>
@@ -26500,9 +26520,9 @@
       </c>
       <c r="E844" s="6"/>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" hidden="1" spans="1:5">
       <c r="A845" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B845" s="1" t="s">
         <v>2659</v>
@@ -26515,9 +26535,9 @@
       </c>
       <c r="E845" s="6"/>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" hidden="1" spans="1:5">
       <c r="A846" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>2662</v>
@@ -26592,7 +26612,7 @@
     </row>
     <row r="852" spans="1:5">
       <c r="A852" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>2680</v>
@@ -26607,9 +26627,9 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" hidden="1" spans="1:5">
       <c r="A853" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>2684</v>
@@ -26706,7 +26726,7 @@
       </c>
       <c r="E860" s="6"/>
     </row>
-    <row r="861" ht="48" hidden="1" spans="2:5">
+    <row r="861" hidden="1" spans="2:5">
       <c r="B861" s="1" t="s">
         <v>2708</v>
       </c>
@@ -26766,9 +26786,9 @@
       </c>
       <c r="E865" s="6"/>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" hidden="1" spans="1:5">
       <c r="A866" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>2723</v>
@@ -26793,9 +26813,9 @@
       </c>
       <c r="E867" s="6"/>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" hidden="1" spans="1:5">
       <c r="A868" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B868" s="1" t="s">
         <v>2729</v>
@@ -26810,7 +26830,7 @@
     </row>
     <row r="869" spans="1:5">
       <c r="A869" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>2732</v>
@@ -26825,7 +26845,7 @@
     </row>
     <row r="870" spans="1:5">
       <c r="A870" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>2735</v>
@@ -26874,7 +26894,7 @@
       </c>
       <c r="E873" s="6"/>
     </row>
-    <row r="874" ht="48" hidden="1" spans="2:5">
+    <row r="874" hidden="1" spans="2:5">
       <c r="B874" s="1" t="s">
         <v>2747</v>
       </c>
@@ -26886,9 +26906,9 @@
       </c>
       <c r="E874" s="6"/>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" hidden="1" spans="1:5">
       <c r="A875" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B875" s="1" t="s">
         <v>2750</v>
@@ -26949,9 +26969,9 @@
       </c>
       <c r="E879" s="6"/>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" hidden="1" spans="1:5">
       <c r="A880" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B880" s="1" t="s">
         <v>2765</v>
@@ -26964,9 +26984,9 @@
       </c>
       <c r="E880" s="6"/>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" hidden="1" spans="1:5">
       <c r="A881" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>2768</v>
@@ -26981,7 +27001,7 @@
     </row>
     <row r="882" spans="1:5">
       <c r="A882" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>2771</v>
@@ -27020,7 +27040,7 @@
     </row>
     <row r="885" spans="1:5">
       <c r="A885" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>2779</v>
@@ -27083,7 +27103,7 @@
     </row>
     <row r="890" spans="1:5">
       <c r="A890" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>2794</v>
@@ -27192,9 +27212,9 @@
       </c>
       <c r="E898" s="6"/>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" hidden="1" spans="1:5">
       <c r="A899" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B899" s="1" t="s">
         <v>2821</v>
@@ -27243,7 +27263,10 @@
       </c>
       <c r="E902" s="6"/>
     </row>
-    <row r="903" hidden="1" spans="2:5">
+    <row r="903" spans="1:5">
+      <c r="A903" s="1">
+        <v>1</v>
+      </c>
       <c r="B903" s="1" t="s">
         <v>2833</v>
       </c>
@@ -27387,7 +27410,10 @@
       </c>
       <c r="E914" s="6"/>
     </row>
-    <row r="915" hidden="1" spans="2:5">
+    <row r="915" spans="1:5">
+      <c r="A915" s="1">
+        <v>1</v>
+      </c>
       <c r="B915" s="1" t="s">
         <v>2869</v>
       </c>
@@ -27399,7 +27425,10 @@
       </c>
       <c r="E915" s="6"/>
     </row>
-    <row r="916" hidden="1" spans="2:5">
+    <row r="916" spans="1:5">
+      <c r="A916" s="1">
+        <v>1</v>
+      </c>
       <c r="B916" s="1" t="s">
         <v>2872</v>
       </c>
@@ -27483,7 +27512,10 @@
       </c>
       <c r="E922" s="6"/>
     </row>
-    <row r="923" hidden="1" spans="2:5">
+    <row r="923" spans="1:5">
+      <c r="A923" s="1">
+        <v>1</v>
+      </c>
       <c r="B923" s="1" t="s">
         <v>2893</v>
       </c>
@@ -27519,7 +27551,10 @@
       </c>
       <c r="E925" s="6"/>
     </row>
-    <row r="926" hidden="1" spans="2:5">
+    <row r="926" spans="1:5">
+      <c r="A926" s="1">
+        <v>1</v>
+      </c>
       <c r="B926" s="1" t="s">
         <v>2902</v>
       </c>
@@ -27531,7 +27566,10 @@
       </c>
       <c r="E926" s="6"/>
     </row>
-    <row r="927" hidden="1" spans="2:5">
+    <row r="927" spans="1:5">
+      <c r="A927" s="1">
+        <v>1</v>
+      </c>
       <c r="B927" s="1" t="s">
         <v>2905</v>
       </c>
@@ -27543,7 +27581,10 @@
       </c>
       <c r="E927" s="6"/>
     </row>
-    <row r="928" hidden="1" spans="2:5">
+    <row r="928" spans="1:5">
+      <c r="A928" s="1">
+        <v>1</v>
+      </c>
       <c r="B928" s="1" t="s">
         <v>2908</v>
       </c>
@@ -27603,7 +27644,10 @@
       </c>
       <c r="E932" s="6"/>
     </row>
-    <row r="933" hidden="1" spans="2:5">
+    <row r="933" spans="1:5">
+      <c r="A933" s="1">
+        <v>1</v>
+      </c>
       <c r="B933" s="1" t="s">
         <v>2923</v>
       </c>
@@ -27615,7 +27659,10 @@
       </c>
       <c r="E933" s="6"/>
     </row>
-    <row r="934" hidden="1" spans="2:5">
+    <row r="934" spans="1:5">
+      <c r="A934" s="1">
+        <v>1</v>
+      </c>
       <c r="B934" s="1" t="s">
         <v>2926</v>
       </c>
@@ -27627,7 +27674,10 @@
       </c>
       <c r="E934" s="6"/>
     </row>
-    <row r="935" ht="48" hidden="1" spans="2:5">
+    <row r="935" ht="37.5" spans="1:5">
+      <c r="A935" s="1">
+        <v>1</v>
+      </c>
       <c r="B935" s="1" t="s">
         <v>2929</v>
       </c>
@@ -27651,7 +27701,10 @@
       </c>
       <c r="E936" s="6"/>
     </row>
-    <row r="937" hidden="1" spans="2:5">
+    <row r="937" spans="1:5">
+      <c r="A937" s="1">
+        <v>1</v>
+      </c>
       <c r="B937" s="1" t="s">
         <v>2935</v>
       </c>
@@ -27663,7 +27716,10 @@
       </c>
       <c r="E937" s="6"/>
     </row>
-    <row r="938" hidden="1" spans="2:5">
+    <row r="938" spans="1:5">
+      <c r="A938" s="1">
+        <v>1</v>
+      </c>
       <c r="B938" s="1" t="s">
         <v>2938</v>
       </c>
@@ -27711,7 +27767,10 @@
       </c>
       <c r="E941" s="6"/>
     </row>
-    <row r="942" hidden="1" spans="2:5">
+    <row r="942" spans="1:5">
+      <c r="A942" s="1">
+        <v>1</v>
+      </c>
       <c r="B942" s="1" t="s">
         <v>2950</v>
       </c>
@@ -27735,7 +27794,10 @@
       </c>
       <c r="E943" s="6"/>
     </row>
-    <row r="944" hidden="1" spans="2:5">
+    <row r="944" spans="1:5">
+      <c r="A944" s="1">
+        <v>1</v>
+      </c>
       <c r="B944" s="1" t="s">
         <v>2956</v>
       </c>
@@ -27745,1665 +27807,1715 @@
       <c r="D944" s="1" t="s">
         <v>2958</v>
       </c>
-      <c r="E944" s="6"/>
-    </row>
-    <row r="945" hidden="1" spans="2:5">
+      <c r="E944" s="6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5">
+      <c r="A945" s="1">
+        <v>1</v>
+      </c>
       <c r="B945" s="1" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="C945" s="5" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="E945" s="6"/>
     </row>
-    <row r="946" hidden="1" spans="2:5">
+    <row r="946" spans="1:5">
+      <c r="A946" s="1">
+        <v>1</v>
+      </c>
       <c r="B946" s="1" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="C946" s="5" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="E946" s="6"/>
     </row>
-    <row r="947" hidden="1" spans="2:5">
+    <row r="947" spans="1:5">
+      <c r="A947" s="1">
+        <v>1</v>
+      </c>
       <c r="B947" s="1" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="C947" s="5" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="D947" s="1" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="E947" s="6"/>
     </row>
     <row r="948" hidden="1" spans="2:5">
       <c r="B948" s="1" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="C948" s="5" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="D948" s="1" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="E948" s="6"/>
     </row>
     <row r="949" hidden="1" spans="2:5">
       <c r="B949" s="1" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="C949" s="5" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="D949" s="1" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="E949" s="6"/>
     </row>
     <row r="950" hidden="1" spans="2:5">
       <c r="B950" s="1" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="C950" s="5" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="D950" s="1" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="E950" s="6"/>
     </row>
     <row r="951" hidden="1" spans="2:5">
       <c r="B951" s="1" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="C951" s="5" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="D951" s="1" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="E951" s="6"/>
     </row>
     <row r="952" hidden="1" spans="2:5">
       <c r="B952" s="1" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="C952" s="5" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="D952" s="1" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="E952" s="6"/>
     </row>
-    <row r="953" hidden="1" spans="2:5">
+    <row r="953" spans="1:5">
+      <c r="A953" s="1">
+        <v>1</v>
+      </c>
       <c r="B953" s="1" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="C953" s="5" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="D953" s="1" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="E953" s="6"/>
     </row>
-    <row r="954" hidden="1" spans="2:5">
+    <row r="954" spans="1:5">
+      <c r="A954" s="1">
+        <v>1</v>
+      </c>
       <c r="B954" s="1" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="C954" s="5" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="D954" s="1" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="E954" s="6"/>
     </row>
     <row r="955" hidden="1" spans="2:5">
       <c r="B955" s="1" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="C955" s="5" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="D955" s="1" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="E955" s="6"/>
     </row>
-    <row r="956" hidden="1" spans="2:5">
+    <row r="956" spans="1:5">
+      <c r="A956" s="1">
+        <v>1</v>
+      </c>
       <c r="B956" s="1" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="C956" s="5" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="D956" s="1" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="E956" s="6"/>
     </row>
     <row r="957" hidden="1" spans="2:5">
       <c r="B957" s="1" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="C957" s="5" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="D957" s="1" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="E957" s="6"/>
     </row>
-    <row r="958" hidden="1" spans="2:5">
+    <row r="958" spans="1:5">
+      <c r="A958" s="1">
+        <v>1</v>
+      </c>
       <c r="B958" s="1" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="C958" s="5" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="D958" s="1" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E958" s="6"/>
     </row>
     <row r="959" hidden="1" spans="2:5">
       <c r="B959" s="1" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C959" s="5" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D959" s="1" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="E959" s="6"/>
     </row>
     <row r="960" hidden="1" spans="2:5">
       <c r="B960" s="1" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C960" s="5" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="E960" s="6"/>
     </row>
     <row r="961" hidden="1" spans="2:5">
       <c r="B961" s="1" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="C961" s="5" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="D961" s="1" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="E961" s="6"/>
     </row>
     <row r="962" hidden="1" spans="2:5">
       <c r="B962" s="1" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C962" s="5" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="E962" s="6"/>
     </row>
     <row r="963" hidden="1" spans="2:5">
       <c r="B963" s="1" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="C963" s="5" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="D963" s="1" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="E963" s="6"/>
     </row>
-    <row r="964" hidden="1" spans="2:5">
+    <row r="964" spans="1:5">
+      <c r="A964" s="1">
+        <v>1</v>
+      </c>
       <c r="B964" s="1" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C964" s="5" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="E964" s="6"/>
     </row>
-    <row r="965" ht="48" hidden="1" spans="2:5">
+    <row r="965" spans="1:5">
+      <c r="A965" s="1">
+        <v>1</v>
+      </c>
       <c r="B965" s="1" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="C965" s="5" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="D965" s="1" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="E965" s="6"/>
     </row>
-    <row r="966" hidden="1" spans="2:5">
+    <row r="966" spans="1:5">
+      <c r="A966" s="1">
+        <v>1</v>
+      </c>
       <c r="B966" s="1" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="C966" s="5" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="D966" s="1" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="E966" s="6"/>
     </row>
     <row r="967" hidden="1" spans="2:5">
       <c r="B967" s="1" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="C967" s="5" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="D967" s="1" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="E967" s="6"/>
     </row>
     <row r="968" hidden="1" spans="2:5">
       <c r="B968" s="1" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C968" s="5" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="E968" s="6"/>
     </row>
     <row r="969" hidden="1" spans="2:5">
       <c r="B969" s="1" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="C969" s="5" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="D969" s="1" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="E969" s="6"/>
     </row>
     <row r="970" hidden="1" spans="2:5">
       <c r="B970" s="1" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="C970" s="5" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="D970" s="1" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="E970" s="6"/>
     </row>
     <row r="971" hidden="1" spans="2:5">
       <c r="B971" s="1" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="C971" s="5" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="E971" s="6"/>
     </row>
     <row r="972" hidden="1" spans="2:5">
       <c r="B972" s="1" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="C972" s="5" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="D972" s="1" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="E972" s="6"/>
     </row>
     <row r="973" hidden="1" spans="2:5">
       <c r="B973" s="1" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="C973" s="5" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="E973" s="6"/>
     </row>
     <row r="974" hidden="1" spans="2:5">
       <c r="B974" s="1" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C974" s="5" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="D974" s="1" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="E974" s="6"/>
     </row>
-    <row r="975" hidden="1" spans="2:5">
+    <row r="975" spans="1:5">
+      <c r="A975" s="1">
+        <v>1</v>
+      </c>
       <c r="B975" s="1" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="C975" s="5" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="D975" s="1" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="E975" s="6"/>
     </row>
     <row r="976" hidden="1" spans="2:5">
       <c r="B976" s="1" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="C976" s="5" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="D976" s="1" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="E976" s="6"/>
     </row>
-    <row r="977" ht="48" hidden="1" spans="2:5">
+    <row r="977" hidden="1" spans="2:5">
       <c r="B977" s="1" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="C977" s="5" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="D977" s="1" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="E977" s="6"/>
     </row>
     <row r="978" hidden="1" spans="2:5">
       <c r="B978" s="1" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C978" s="5" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="D978" s="1" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="E978" s="6"/>
     </row>
     <row r="979" hidden="1" spans="2:5">
       <c r="B979" s="1" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="C979" s="5" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="D979" s="1" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="E979" s="6"/>
     </row>
     <row r="980" hidden="1" spans="2:5">
       <c r="B980" s="1" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="C980" s="5" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="E980" s="6"/>
     </row>
-    <row r="981" hidden="1" spans="2:5">
+    <row r="981" spans="1:5">
+      <c r="A981" s="1">
+        <v>1</v>
+      </c>
       <c r="B981" s="1" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="C981" s="5" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="E981" s="6"/>
     </row>
-    <row r="982" hidden="1" spans="2:5">
+    <row r="982" spans="1:5">
+      <c r="A982" s="1">
+        <v>1</v>
+      </c>
       <c r="B982" s="1" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="C982" s="5" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="E982" s="6"/>
     </row>
     <row r="983" hidden="1" spans="2:5">
       <c r="B983" s="1" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="C983" s="5" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="E983" s="6"/>
     </row>
     <row r="984" hidden="1" spans="2:5">
       <c r="B984" s="1" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="C984" s="5" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="E984" s="6"/>
     </row>
-    <row r="985" hidden="1" spans="2:5">
+    <row r="985" spans="1:5">
+      <c r="A985" s="1">
+        <v>1</v>
+      </c>
       <c r="B985" s="1" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C985" s="5" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="E985" s="6"/>
     </row>
     <row r="986" hidden="1" spans="2:5">
       <c r="B986" s="1" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C986" s="5" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="E986" s="6"/>
     </row>
     <row r="987" hidden="1" spans="2:5">
       <c r="B987" s="1" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C987" s="5" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="D987" s="1" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="E987" s="6"/>
     </row>
     <row r="988" hidden="1" spans="2:5">
       <c r="B988" s="1" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C988" s="5" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="D988" s="1" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="E988" s="6"/>
     </row>
     <row r="989" hidden="1" spans="2:5">
       <c r="B989" s="1" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="C989" s="5" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="D989" s="1" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="E989" s="6"/>
     </row>
-    <row r="990" hidden="1" spans="2:5">
+    <row r="990" spans="1:5">
+      <c r="A990" s="1">
+        <v>1</v>
+      </c>
       <c r="B990" s="1" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="C990" s="5" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="E990" s="6"/>
     </row>
     <row r="991" hidden="1" spans="2:5">
       <c r="B991" s="1" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="C991" s="5" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="D991" s="1" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="E991" s="6"/>
     </row>
-    <row r="992" hidden="1" spans="2:5">
+    <row r="992" spans="1:5">
+      <c r="A992" s="1">
+        <v>1</v>
+      </c>
       <c r="B992" s="1" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="C992" s="5" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="D992" s="1" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="E992" s="6"/>
     </row>
     <row r="993" hidden="1" spans="2:5">
       <c r="B993" s="1" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="C993" s="5" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D993" s="1" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="E993" s="6"/>
     </row>
     <row r="994" hidden="1" spans="2:5">
       <c r="B994" s="1" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="C994" s="5" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="D994" s="1" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="E994" s="6"/>
     </row>
     <row r="995" hidden="1" spans="2:5">
       <c r="B995" s="1" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="C995" s="5" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="D995" s="1" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="E995" s="6"/>
     </row>
     <row r="996" hidden="1" spans="2:5">
       <c r="B996" s="1" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="C996" s="5" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="D996" s="1" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="E996" s="6"/>
     </row>
     <row r="997" hidden="1" spans="2:5">
       <c r="B997" s="1" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="C997" s="5" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="D997" s="1" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="E997" s="6"/>
     </row>
     <row r="998" hidden="1" spans="2:5">
       <c r="B998" s="1" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C998" s="5" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="D998" s="1" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="E998" s="6"/>
     </row>
     <row r="999" hidden="1" spans="2:5">
       <c r="B999" s="1" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="C999" s="5" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="D999" s="1" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="E999" s="6"/>
     </row>
     <row r="1000" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C1000" s="5" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="D1000" s="1" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="E1000" s="6"/>
     </row>
     <row r="1001" hidden="1" spans="2:5">
       <c r="B1001" s="1" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="C1001" s="5" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="D1001" s="1" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="E1001" s="6"/>
     </row>
     <row r="1002" hidden="1" spans="2:5">
       <c r="B1002" s="1" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C1002" s="5" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="D1002" s="1" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="E1002" s="6"/>
     </row>
     <row r="1003" hidden="1" spans="2:5">
       <c r="B1003" s="1" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="C1003" s="5" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="E1003" s="6"/>
     </row>
-    <row r="1004" ht="48" hidden="1" spans="2:5">
+    <row r="1004" hidden="1" spans="2:5">
       <c r="B1004" s="1" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E1004" s="6"/>
     </row>
     <row r="1005" hidden="1" spans="2:5">
       <c r="B1005" s="1" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C1005" s="5" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="D1005" s="1" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E1005" s="6"/>
     </row>
     <row r="1006" hidden="1" spans="2:5">
       <c r="B1006" s="1" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C1006" s="5" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="E1006" s="6"/>
     </row>
     <row r="1007" hidden="1" spans="2:5">
       <c r="B1007" s="1" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="C1007" s="5" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="D1007" s="1" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="E1007" s="6"/>
     </row>
     <row r="1008" hidden="1" spans="2:5">
       <c r="B1008" s="1" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C1008" s="5" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="D1008" s="1" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="E1008" s="6"/>
     </row>
     <row r="1009" hidden="1" spans="2:5">
       <c r="B1009" s="1" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="C1009" s="5" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="D1009" s="1" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="E1009" s="6"/>
     </row>
     <row r="1010" hidden="1" spans="2:5">
       <c r="B1010" s="1" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="C1010" s="5" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="D1010" s="1" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="E1010" s="6"/>
     </row>
     <row r="1011" hidden="1" spans="2:5">
       <c r="B1011" s="1" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="C1011" s="5" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="D1011" s="1" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="E1011" s="6"/>
     </row>
     <row r="1012" hidden="1" spans="2:5">
       <c r="B1012" s="1" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C1012" s="5" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="D1012" s="1" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="E1012" s="6"/>
     </row>
     <row r="1013" hidden="1" spans="2:5">
       <c r="B1013" s="1" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="C1013" s="5" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="D1013" s="1" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="E1013" s="6"/>
     </row>
     <row r="1014" hidden="1" spans="2:5">
       <c r="B1014" s="1" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C1014" s="5" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="D1014" s="1" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="E1014" s="6"/>
     </row>
     <row r="1015" hidden="1" spans="2:5">
       <c r="B1015" s="1" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="C1015" s="5" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="E1015" s="6"/>
     </row>
-    <row r="1016" ht="48" hidden="1" spans="2:5">
+    <row r="1016" ht="37.5" hidden="1" spans="2:5">
       <c r="B1016" s="1" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C1016" s="5" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="D1016" s="1" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="E1016" s="6"/>
     </row>
     <row r="1017" hidden="1" spans="2:5">
       <c r="B1017" s="1" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="C1017" s="5" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="D1017" s="1" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="E1017" s="6"/>
     </row>
     <row r="1018" hidden="1" spans="2:5">
       <c r="B1018" s="1" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="C1018" s="5" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="D1018" s="1" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="E1018" s="6" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="1019" hidden="1" spans="2:5">
       <c r="B1019" s="1" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="C1019" s="5" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="D1019" s="1" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="E1019" s="6"/>
     </row>
     <row r="1020" hidden="1" spans="2:5">
       <c r="B1020" s="1" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="C1020" s="5" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="D1020" s="1" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="E1020" s="6"/>
     </row>
     <row r="1021" hidden="1" spans="2:5">
       <c r="B1021" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="C1021" s="5" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="D1021" s="1" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="E1021" s="6"/>
     </row>
     <row r="1022" hidden="1" spans="2:5">
       <c r="B1022" s="1" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="C1022" s="5" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="D1022" s="1" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="E1022" s="6"/>
     </row>
     <row r="1023" hidden="1" spans="2:5">
       <c r="B1023" s="1" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="C1023" s="5" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="D1023" s="1" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="E1023" s="6"/>
     </row>
     <row r="1024" hidden="1" spans="2:5">
       <c r="B1024" s="1" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="C1024" s="5" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="D1024" s="1" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="E1024" s="6"/>
     </row>
     <row r="1025" hidden="1" spans="2:5">
       <c r="B1025" s="1" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="C1025" s="5" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D1025" s="1" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="E1025" s="6"/>
     </row>
     <row r="1026" hidden="1" spans="2:5">
       <c r="B1026" s="1" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="C1026" s="5" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="D1026" s="1" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="E1026" s="6"/>
     </row>
     <row r="1027" hidden="1" spans="2:5">
       <c r="B1027" s="1" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="D1027" s="1" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="E1027" s="6"/>
     </row>
     <row r="1028" hidden="1" spans="2:5">
       <c r="B1028" s="1" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="C1028" s="5" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="D1028" s="1" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="E1028" s="6"/>
     </row>
     <row r="1029" hidden="1" spans="2:5">
       <c r="B1029" s="1" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="D1029" s="1" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="E1029" s="6"/>
     </row>
     <row r="1030" hidden="1" spans="2:5">
       <c r="B1030" s="1" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="C1030" s="5" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="D1030" s="1" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="E1030" s="6"/>
     </row>
     <row r="1031" hidden="1" spans="2:5">
       <c r="B1031" s="1" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="C1031" s="5" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="D1031" s="1" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="E1031" s="6"/>
     </row>
     <row r="1032" hidden="1" spans="2:5">
       <c r="B1032" s="1" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="C1032" s="5" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="D1032" s="1" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="E1032" s="6"/>
     </row>
     <row r="1033" hidden="1" spans="2:5">
       <c r="B1033" s="1" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="D1033" s="1" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="E1033" s="6"/>
     </row>
     <row r="1034" hidden="1" spans="2:5">
       <c r="B1034" s="1" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="C1034" s="5" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="D1034" s="1" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="E1034" s="6"/>
     </row>
     <row r="1035" hidden="1" spans="2:5">
       <c r="B1035" s="1" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="C1035" s="5" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="E1035" s="6"/>
     </row>
     <row r="1036" hidden="1" spans="2:5">
       <c r="B1036" s="1" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C1036" s="5" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="D1036" s="1" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="E1036" s="6"/>
     </row>
     <row r="1037" hidden="1" spans="2:5">
       <c r="B1037" s="1" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C1037" s="5" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="D1037" s="1" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="E1037" s="6"/>
     </row>
     <row r="1038" hidden="1" spans="2:5">
       <c r="B1038" s="1" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="C1038" s="5" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="D1038" s="1" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="E1038" s="6"/>
     </row>
     <row r="1039" hidden="1" spans="2:5">
       <c r="B1039" s="1" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C1039" s="5" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="D1039" s="1" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="E1039" s="6"/>
     </row>
     <row r="1040" hidden="1" spans="2:5">
       <c r="B1040" s="1" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="C1040" s="5" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="D1040" s="1" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="E1040" s="6"/>
     </row>
     <row r="1041" hidden="1" spans="2:5">
       <c r="B1041" s="1" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="C1041" s="5" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="D1041" s="1" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="E1041" s="6"/>
     </row>
     <row r="1042" hidden="1" spans="2:5">
       <c r="B1042" s="1" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="C1042" s="5" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="D1042" s="1" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="E1042" s="6"/>
     </row>
     <row r="1043" hidden="1" spans="2:5">
       <c r="B1043" s="1" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="C1043" s="5" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="D1043" s="1" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="E1043" s="6"/>
     </row>
     <row r="1044" hidden="1" spans="2:5">
       <c r="B1044" s="1" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="C1044" s="5" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="D1044" s="1" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="E1044" s="6"/>
     </row>
     <row r="1045" hidden="1" spans="2:5">
       <c r="B1045" s="1" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="C1045" s="5" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="D1045" s="1" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="E1045" s="6"/>
     </row>
     <row r="1046" hidden="1" spans="2:5">
       <c r="B1046" s="1" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="D1046" s="1" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="E1046" s="6"/>
     </row>
     <row r="1047" hidden="1" spans="2:5">
       <c r="B1047" s="1" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="C1047" s="5" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="D1047" s="1" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="E1047" s="6"/>
     </row>
     <row r="1048" hidden="1" spans="2:5">
       <c r="B1048" s="1" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="C1048" s="5" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="D1048" s="1" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="E1048" s="6"/>
     </row>
     <row r="1049" hidden="1" spans="2:5">
       <c r="B1049" s="1" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="C1049" s="5" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="D1049" s="1" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="E1049" s="6"/>
     </row>
     <row r="1050" hidden="1" spans="2:5">
       <c r="B1050" s="1" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="C1050" s="5" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="D1050" s="1" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="E1050" s="6"/>
     </row>
     <row r="1051" hidden="1" spans="2:5">
       <c r="B1051" s="1" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="C1051" s="5" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="D1051" s="1" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="E1051" s="6"/>
     </row>
     <row r="1052" hidden="1" spans="2:5">
       <c r="B1052" s="1" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="C1052" s="5" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="D1052" s="1" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="E1052" s="6"/>
     </row>
     <row r="1053" hidden="1" spans="2:5">
       <c r="B1053" s="1" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="C1053" s="5" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="D1053" s="1" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="E1053" s="6" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="1054" hidden="1" spans="2:5">
       <c r="B1054" s="1" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C1054" s="5" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="D1054" s="1" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="E1054" s="6"/>
     </row>
     <row r="1055" hidden="1" spans="2:5">
       <c r="B1055" s="1" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="C1055" s="5" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="D1055" s="1" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="E1055" s="6"/>
     </row>
     <row r="1056" hidden="1" spans="2:5">
       <c r="B1056" s="1" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="C1056" s="5" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="D1056" s="1" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="E1056" s="6"/>
     </row>
     <row r="1057" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="C1057" s="5" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="D1057" s="1" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="E1057" s="6"/>
     </row>
     <row r="1058" hidden="1" spans="2:5">
       <c r="B1058" s="1" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="C1058" s="5" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="D1058" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="E1058" s="6"/>
     </row>
     <row r="1059" hidden="1" spans="2:5">
       <c r="B1059" s="1" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="C1059" s="5" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="D1059" s="1" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="E1059" s="6"/>
     </row>
     <row r="1060" hidden="1" spans="2:5">
       <c r="B1060" s="1" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="C1060" s="5" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1060" s="1" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1060" s="6"/>
     </row>
     <row r="1061" hidden="1" spans="2:5">
       <c r="B1061" s="1" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="C1061" s="5" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="D1061" s="1" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="E1061" s="6"/>
     </row>
     <row r="1062" hidden="1" spans="2:5">
       <c r="B1062" s="1" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="C1062" s="5" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="D1062" s="1" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="E1062" s="6"/>
     </row>
     <row r="1063" hidden="1" spans="2:5">
       <c r="B1063" s="1" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="C1063" s="5" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="D1063" s="1" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="E1063" s="6"/>
     </row>
     <row r="1064" hidden="1" spans="2:5">
       <c r="B1064" s="1" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="C1064" s="5" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="D1064" s="1" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="E1064" s="6"/>
     </row>
     <row r="1065" hidden="1" spans="2:5">
       <c r="B1065" s="1" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="C1065" s="5" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="D1065" s="1" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="E1065" s="6"/>
     </row>
     <row r="1066" hidden="1" spans="2:5">
       <c r="B1066" s="1" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="C1066" s="5" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="D1066" s="1" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="E1066" s="6"/>
     </row>
     <row r="1067" hidden="1" spans="2:5">
       <c r="B1067" s="1" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="C1067" s="5" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="D1067" s="1" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="E1067" s="6"/>
     </row>
     <row r="1068" hidden="1" spans="2:5">
       <c r="B1068" s="1" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="C1068" s="5" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="D1068" s="1" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="E1068" s="6"/>
     </row>
     <row r="1069" hidden="1" spans="2:5">
       <c r="B1069" s="1" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="C1069" s="5" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="D1069" s="1" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="E1069" s="6"/>
     </row>
     <row r="1070" hidden="1" spans="2:5">
       <c r="B1070" s="1" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="C1070" s="5" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="D1070" s="1" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="E1070" s="6"/>
     </row>
     <row r="1071" hidden="1" spans="2:5">
       <c r="B1071" s="1" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="C1071" s="5" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="E1071" s="6"/>
     </row>
     <row r="1072" hidden="1" spans="2:5">
       <c r="B1072" s="1" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="C1072" s="5" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="D1072" s="1" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="E1072" s="6"/>
     </row>
     <row r="1073" hidden="1" spans="2:5">
       <c r="B1073" s="1" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="C1073" s="5" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="D1073" s="1" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="E1073" s="6"/>
     </row>
     <row r="1074" hidden="1" spans="2:5">
       <c r="B1074" s="1" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="C1074" s="5" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="D1074" s="1" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="E1074" s="6"/>
     </row>
     <row r="1075" hidden="1" spans="2:5">
       <c r="B1075" s="1" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="C1075" s="5" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1075" s="1" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1075" s="6"/>
     </row>
     <row r="1076" hidden="1" spans="2:5">
       <c r="B1076" s="1" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="C1076" s="5" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="D1076" s="1" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="E1076" s="6"/>
     </row>
     <row r="1077" hidden="1" spans="2:5">
       <c r="B1077" s="1" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="C1077" s="5" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="D1077" s="1" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="E1077" s="6"/>
     </row>
     <row r="1078" hidden="1" spans="2:5">
       <c r="B1078" s="1" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="C1078" s="5" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="D1078" s="1" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="E1078" s="6"/>
     </row>
     <row r="1079" hidden="1" spans="2:5">
       <c r="B1079" s="1" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="C1079" s="5" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="D1079" s="1" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="E1079" s="6"/>
     </row>
     <row r="1080" hidden="1" spans="2:5">
       <c r="B1080" s="1" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="C1080" s="5" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="E1080" s="6"/>
     </row>
     <row r="1081" hidden="1" spans="2:5">
       <c r="B1081" s="1" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="C1081" s="5" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="D1081" s="1" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="E1081" s="6"/>
     </row>
     <row r="1082" hidden="1" spans="2:5">
       <c r="B1082" s="1" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C1082" s="5" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="D1082" s="1" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="E1082" s="6"/>
     </row>
@@ -29412,2536 +29524,2536 @@
         <v>159</v>
       </c>
       <c r="C1083" s="5" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="D1083" s="1" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="E1083" s="6"/>
     </row>
     <row r="1084" hidden="1" spans="2:5">
       <c r="B1084" s="1" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="C1084" s="5" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="D1084" s="1" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="E1084" s="6"/>
     </row>
     <row r="1085" hidden="1" spans="2:5">
       <c r="B1085" s="1" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="C1085" s="5" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1085" s="1" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1085" s="6" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1086" hidden="1" spans="2:5">
       <c r="B1086" s="1" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="C1086" s="5" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="D1086" s="1" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="E1086" s="6" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1087" hidden="1" spans="2:5">
       <c r="B1087" s="1" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="C1087" s="5" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="D1087" s="1" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="E1087" s="6"/>
     </row>
     <row r="1088" hidden="1" spans="2:5">
       <c r="B1088" s="1" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="C1088" s="5" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="D1088" s="1" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="E1088" s="6"/>
     </row>
     <row r="1089" hidden="1" spans="2:5">
       <c r="B1089" s="1" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="C1089" s="5" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="E1089" s="6"/>
     </row>
     <row r="1090" hidden="1" spans="2:5">
       <c r="B1090" s="1" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="C1090" s="5" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="D1090" s="1" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="E1090" s="6"/>
     </row>
     <row r="1091" hidden="1" spans="2:5">
       <c r="B1091" s="1" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="C1091" s="5" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="D1091" s="1" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="E1091" s="6"/>
     </row>
     <row r="1092" hidden="1" spans="2:5">
       <c r="B1092" s="1" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="C1092" s="5" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="D1092" s="1" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="E1092" s="6"/>
     </row>
     <row r="1093" hidden="1" spans="2:5">
       <c r="B1093" s="1" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="C1093" s="5" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="D1093" s="1" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="E1093" s="6"/>
     </row>
     <row r="1094" hidden="1" spans="2:5">
       <c r="B1094" s="1" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="C1094" s="5" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="D1094" s="1" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="E1094" s="6"/>
     </row>
     <row r="1095" hidden="1" spans="2:5">
       <c r="B1095" s="1" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="C1095" s="5" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="D1095" s="1" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="E1095" s="6"/>
     </row>
     <row r="1096" hidden="1" spans="2:5">
       <c r="B1096" s="1" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="C1096" s="5" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="D1096" s="1" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="E1096" s="6"/>
     </row>
     <row r="1097" hidden="1" spans="2:5">
       <c r="B1097" s="1" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="C1097" s="5" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="E1097" s="6"/>
     </row>
     <row r="1098" hidden="1" spans="2:5">
       <c r="B1098" s="1" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="C1098" s="5" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="D1098" s="1" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="E1098" s="6"/>
     </row>
     <row r="1099" hidden="1" spans="2:5">
       <c r="B1099" s="1" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="C1099" s="5" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="D1099" s="1" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="E1099" s="6"/>
     </row>
     <row r="1100" hidden="1" spans="2:5">
       <c r="B1100" s="1" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="C1100" s="5" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="D1100" s="1" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="E1100" s="6"/>
     </row>
     <row r="1101" hidden="1" spans="2:5">
       <c r="B1101" s="1" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="C1101" s="5" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="D1101" s="1" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="E1101" s="6"/>
     </row>
     <row r="1102" hidden="1" spans="2:5">
       <c r="B1102" s="1" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="C1102" s="5" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="E1102" s="6"/>
     </row>
     <row r="1103" hidden="1" spans="2:5">
       <c r="B1103" s="1" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="E1103" s="6"/>
     </row>
     <row r="1104" hidden="1" spans="2:5">
       <c r="B1104" s="1" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="E1104" s="6"/>
     </row>
     <row r="1105" hidden="1" spans="2:5">
       <c r="B1105" s="1" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="D1105" s="1" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="E1105" s="6"/>
     </row>
     <row r="1106" hidden="1" spans="2:5">
       <c r="B1106" s="1" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="D1106" s="1" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="E1106" s="6"/>
     </row>
-    <row r="1107" ht="48" hidden="1" spans="2:5">
+    <row r="1107" hidden="1" spans="2:5">
       <c r="B1107" s="1" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="D1107" s="1" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E1107" s="6"/>
     </row>
-    <row r="1108" ht="48" hidden="1" spans="2:5">
+    <row r="1108" hidden="1" spans="2:5">
       <c r="B1108" s="1" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="E1108" s="6"/>
     </row>
     <row r="1109" hidden="1" spans="2:5">
       <c r="B1109" s="1" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="D1109" s="1" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="E1109" s="6"/>
     </row>
     <row r="1110" hidden="1" spans="2:5">
       <c r="B1110" s="1" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="D1110" s="1" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="E1110" s="6"/>
     </row>
     <row r="1111" hidden="1" spans="2:5">
       <c r="B1111" s="1" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="D1111" s="1" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="E1111" s="6"/>
     </row>
     <row r="1112" hidden="1" spans="2:5">
       <c r="B1112" s="1" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="D1112" s="1" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="E1112" s="6"/>
     </row>
     <row r="1113" hidden="1" spans="2:5">
       <c r="B1113" s="1" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="D1113" s="1" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="E1113" s="6"/>
     </row>
     <row r="1114" hidden="1" spans="2:5">
       <c r="B1114" s="1" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="D1114" s="1" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="E1114" s="6"/>
     </row>
-    <row r="1115" ht="48" hidden="1" spans="2:5">
+    <row r="1115" ht="37.5" hidden="1" spans="2:5">
       <c r="B1115" s="1" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="D1115" s="1" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="E1115" s="6"/>
     </row>
     <row r="1116" hidden="1" spans="2:5">
       <c r="B1116" s="1" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="D1116" s="1" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="E1116" s="6"/>
     </row>
     <row r="1117" hidden="1" spans="2:5">
       <c r="B1117" s="1" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="D1117" s="1" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="E1117" s="6" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="1118" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="C1118" s="5" t="s">
         <v>764</v>
       </c>
       <c r="D1118" s="1" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="E1118" s="6"/>
     </row>
     <row r="1119" hidden="1" spans="2:5">
       <c r="B1119" s="1" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="E1119" s="6"/>
     </row>
     <row r="1120" hidden="1" spans="2:5">
       <c r="B1120" s="1" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="E1120" s="6"/>
     </row>
     <row r="1121" hidden="1" spans="2:5">
       <c r="B1121" s="1" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="E1121" s="6"/>
     </row>
     <row r="1122" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="D1122" s="1" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="E1122" s="6"/>
     </row>
     <row r="1123" hidden="1" spans="2:5">
       <c r="B1123" s="1" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="D1123" s="1" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="E1123" s="6"/>
     </row>
-    <row r="1124" ht="48" hidden="1" spans="2:5">
+    <row r="1124" hidden="1" spans="2:5">
       <c r="B1124" s="1" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="D1124" s="1" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="E1124" s="6"/>
     </row>
     <row r="1125" hidden="1" spans="2:5">
       <c r="B1125" s="1" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="D1125" s="1" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="E1125" s="6"/>
     </row>
     <row r="1126" hidden="1" spans="2:5">
       <c r="B1126" s="1" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="D1126" s="1" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="E1126" s="6"/>
     </row>
     <row r="1127" hidden="1" spans="2:5">
       <c r="B1127" s="1" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="D1127" s="1" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="E1127" s="6"/>
     </row>
     <row r="1128" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="D1128" s="1" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="E1128" s="6"/>
     </row>
-    <row r="1129" ht="48" hidden="1" spans="2:5">
+    <row r="1129" hidden="1" spans="2:5">
       <c r="B1129" s="1" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="D1129" s="1" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="E1129" s="6"/>
     </row>
     <row r="1130" hidden="1" spans="2:5">
       <c r="B1130" s="1" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="D1130" s="1" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="E1130" s="6"/>
     </row>
     <row r="1131" hidden="1" spans="2:5">
       <c r="B1131" s="1" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="D1131" s="1" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="E1131" s="6"/>
     </row>
     <row r="1132" hidden="1" spans="2:5">
       <c r="B1132" s="1" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="D1132" s="1" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="E1132" s="6"/>
     </row>
     <row r="1133" hidden="1" spans="2:5">
       <c r="B1133" s="1" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="D1133" s="1" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="E1133" s="6"/>
     </row>
     <row r="1134" hidden="1" spans="2:5">
       <c r="B1134" s="1" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="D1134" s="1" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="E1134" s="6"/>
     </row>
     <row r="1135" hidden="1" spans="2:5">
       <c r="B1135" s="1" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="D1135" s="1" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="E1135" s="6"/>
     </row>
     <row r="1136" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="D1136" s="1" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="E1136" s="6"/>
     </row>
     <row r="1137" hidden="1" spans="2:5">
       <c r="B1137" s="1" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="D1137" s="1" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="E1137" s="6"/>
     </row>
     <row r="1138" hidden="1" spans="2:5">
       <c r="B1138" s="1" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="D1138" s="1" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="E1138" s="6"/>
     </row>
     <row r="1139" hidden="1" spans="2:5">
       <c r="B1139" s="1" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="E1139" s="6"/>
     </row>
     <row r="1140" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="D1140" s="1" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="E1140" s="6"/>
     </row>
     <row r="1141" hidden="1" spans="2:5">
       <c r="B1141" s="1" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="E1141" s="6"/>
     </row>
     <row r="1142" hidden="1" spans="2:5">
       <c r="B1142" s="1" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="D1142" s="1" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="E1142" s="6"/>
     </row>
     <row r="1143" hidden="1" spans="2:5">
       <c r="B1143" s="1" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="E1143" s="6"/>
     </row>
     <row r="1144" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="D1144" s="1" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="E1144" s="6"/>
     </row>
     <row r="1145" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="D1145" s="1" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="E1145" s="6"/>
     </row>
     <row r="1146" hidden="1" spans="2:5">
       <c r="B1146" s="1" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="E1146" s="6"/>
     </row>
     <row r="1147" hidden="1" spans="2:5">
       <c r="B1147" s="1" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="D1147" s="1" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="E1147" s="6"/>
     </row>
     <row r="1148" hidden="1" spans="2:5">
       <c r="B1148" s="1" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="D1148" s="1" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="E1148" s="6"/>
     </row>
     <row r="1149" hidden="1" spans="2:5">
       <c r="B1149" s="1" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="E1149" s="6"/>
     </row>
     <row r="1150" hidden="1" spans="2:5">
       <c r="B1150" s="1" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="D1150" s="1" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="E1150" s="6"/>
     </row>
     <row r="1151" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C1151" s="5" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1151" s="1" t="s">
         <v>3580</v>
-      </c>
-      <c r="C1151" s="5" t="s">
-        <v>3581</v>
-      </c>
-      <c r="D1151" s="1" t="s">
-        <v>3579</v>
       </c>
       <c r="E1151" s="6"/>
     </row>
     <row r="1152" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="D1152" s="1" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="E1152" s="6"/>
     </row>
     <row r="1153" hidden="1" spans="2:5">
       <c r="B1153" s="1" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="E1153" s="6"/>
     </row>
     <row r="1154" hidden="1" spans="2:5">
       <c r="B1154" s="1" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="D1154" s="1" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="E1154" s="6"/>
     </row>
     <row r="1155" hidden="1" spans="2:5">
       <c r="B1155" s="1" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="D1155" s="1" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="E1155" s="6"/>
     </row>
-    <row r="1156" ht="48" hidden="1" spans="2:5">
+    <row r="1156" hidden="1" spans="2:5">
       <c r="B1156" s="1" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="D1156" s="1" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="E1156" s="6"/>
     </row>
-    <row r="1157" ht="48" hidden="1" spans="2:5">
+    <row r="1157" hidden="1" spans="2:5">
       <c r="B1157" s="1" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="D1157" s="1" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="E1157" s="6"/>
     </row>
     <row r="1158" hidden="1" spans="2:5">
       <c r="B1158" s="1" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="D1158" s="1" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="E1158" s="6"/>
     </row>
     <row r="1159" hidden="1" spans="2:5">
       <c r="B1159" s="1" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="D1159" s="1" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="E1159" s="6"/>
     </row>
     <row r="1160" hidden="1" spans="2:5">
       <c r="B1160" s="1" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="D1160" s="1" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="E1160" s="6"/>
     </row>
     <row r="1161" hidden="1" spans="2:5">
       <c r="B1161" s="1" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="D1161" s="1" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="E1161" s="6"/>
     </row>
     <row r="1162" hidden="1" spans="2:5">
       <c r="B1162" s="1" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="E1162" s="6"/>
     </row>
     <row r="1163" hidden="1" spans="2:5">
       <c r="B1163" s="1" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="D1163" s="1" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="E1163" s="6"/>
     </row>
     <row r="1164" hidden="1" spans="2:5">
       <c r="B1164" s="1" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="E1164" s="6"/>
     </row>
     <row r="1165" hidden="1" spans="2:5">
       <c r="B1165" s="1" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="E1165" s="6"/>
     </row>
     <row r="1166" hidden="1" spans="2:5">
       <c r="B1166" s="1" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="D1166" s="1" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="E1166" s="6"/>
     </row>
     <row r="1167" hidden="1" spans="2:5">
       <c r="B1167" s="1" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="D1167" s="1" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="E1167" s="6"/>
     </row>
     <row r="1168" hidden="1" spans="2:5">
       <c r="B1168" s="1" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="D1168" s="1" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="E1168" s="6"/>
     </row>
     <row r="1169" hidden="1" spans="2:5">
       <c r="B1169" s="1" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="E1169" s="6"/>
     </row>
     <row r="1170" hidden="1" spans="2:5">
       <c r="B1170" s="1" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="D1170" s="1" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="E1170" s="6"/>
     </row>
     <row r="1171" hidden="1" spans="2:5">
       <c r="B1171" s="1" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="D1171" s="1" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="E1171" s="6"/>
     </row>
     <row r="1172" hidden="1" spans="2:5">
       <c r="B1172" s="1" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="D1172" s="1" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="E1172" s="6"/>
     </row>
     <row r="1173" hidden="1" spans="2:5">
       <c r="B1173" s="1" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="D1173" s="1" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="E1173" s="6"/>
     </row>
     <row r="1174" hidden="1" spans="2:5">
       <c r="B1174" s="1" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="E1174" s="6"/>
     </row>
     <row r="1175" hidden="1" spans="2:5">
       <c r="B1175" s="1" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="D1175" s="1" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="E1175" s="6"/>
     </row>
     <row r="1176" hidden="1" spans="2:5">
       <c r="B1176" s="1" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="D1176" s="1" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="E1176" s="6"/>
     </row>
     <row r="1177" hidden="1" spans="2:5">
       <c r="B1177" s="1" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="D1177" s="1" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="E1177" s="6"/>
     </row>
     <row r="1178" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="D1178" s="1" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="E1178" s="6"/>
     </row>
     <row r="1179" hidden="1" spans="2:5">
       <c r="B1179" s="1" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="D1179" s="1" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="E1179" s="6"/>
     </row>
     <row r="1180" hidden="1" spans="2:5">
       <c r="B1180" s="1" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="D1180" s="1" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="E1180" s="6"/>
     </row>
     <row r="1181" hidden="1" spans="2:5">
       <c r="B1181" s="1" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="D1181" s="1" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="E1181" s="6"/>
     </row>
     <row r="1182" hidden="1" spans="2:5">
       <c r="B1182" s="1" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="D1182" s="1" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="E1182" s="6"/>
     </row>
     <row r="1183" hidden="1" spans="2:5">
       <c r="B1183" s="1" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="D1183" s="1" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="E1183" s="6"/>
     </row>
     <row r="1184" hidden="1" spans="2:5">
       <c r="B1184" s="1" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="D1184" s="1" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="E1184" s="6"/>
     </row>
     <row r="1185" hidden="1" spans="2:5">
       <c r="B1185" s="1" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="D1185" s="1" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="E1185" s="6"/>
     </row>
     <row r="1186" hidden="1" spans="2:5">
       <c r="B1186" s="1" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="D1186" s="1" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="E1186" s="6"/>
     </row>
     <row r="1187" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="E1187" s="6"/>
     </row>
     <row r="1188" hidden="1" spans="2:5">
       <c r="B1188" s="1" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="D1188" s="1" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="E1188" s="6"/>
     </row>
     <row r="1189" hidden="1" spans="2:5">
       <c r="B1189" s="1" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="E1189" s="6"/>
     </row>
     <row r="1190" hidden="1" spans="2:5">
       <c r="B1190" s="1" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="D1190" s="1" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="E1190" s="6"/>
     </row>
     <row r="1191" hidden="1" spans="2:5">
       <c r="B1191" s="1" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="D1191" s="1" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="E1191" s="6"/>
     </row>
     <row r="1192" hidden="1" spans="2:5">
       <c r="B1192" s="1" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="D1192" s="1" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="E1192" s="6"/>
     </row>
     <row r="1193" hidden="1" spans="2:5">
       <c r="B1193" s="1" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="D1193" s="1" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="E1193" s="6"/>
     </row>
     <row r="1194" hidden="1" spans="2:5">
       <c r="B1194" s="1" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="D1194" s="1" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="E1194" s="6"/>
     </row>
     <row r="1195" hidden="1" spans="2:5">
       <c r="B1195" s="1" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="D1195" s="1" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="E1195" s="6"/>
     </row>
     <row r="1196" hidden="1" spans="2:5">
       <c r="B1196" s="1" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="D1196" s="1" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="E1196" s="6"/>
     </row>
     <row r="1197" hidden="1" spans="2:5">
       <c r="B1197" s="1" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="D1197" s="1" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="E1197" s="6"/>
     </row>
     <row r="1198" hidden="1" spans="2:5">
       <c r="B1198" s="1" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="D1198" s="1" t="s">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="E1198" s="6" t="s">
-        <v>3723</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="1199" hidden="1" spans="2:5">
       <c r="B1199" s="1" t="s">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="D1199" s="1" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="E1199" s="6"/>
     </row>
     <row r="1200" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="D1200" s="1" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="E1200" s="6" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="1201" hidden="1" spans="2:5">
       <c r="B1201" s="1" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="D1201" s="1" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="E1201" s="6"/>
     </row>
     <row r="1202" hidden="1" spans="2:5">
       <c r="B1202" s="1" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="D1202" s="1" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E1202" s="6"/>
     </row>
     <row r="1203" hidden="1" spans="2:5">
       <c r="B1203" s="1" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="D1203" s="1" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="E1203" s="6"/>
     </row>
     <row r="1204" hidden="1" spans="2:5">
       <c r="B1204" s="1" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="D1204" s="1" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="E1204" s="6"/>
     </row>
     <row r="1205" hidden="1" spans="2:5">
       <c r="B1205" s="1" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="D1205" s="1" t="s">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="E1205" s="6"/>
     </row>
     <row r="1206" hidden="1" spans="2:5">
       <c r="B1206" s="1" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="E1206" s="6"/>
     </row>
     <row r="1207" hidden="1" spans="2:5">
       <c r="B1207" s="1" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="D1207" s="1" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="E1207" s="6"/>
     </row>
     <row r="1208" hidden="1" spans="2:5">
       <c r="B1208" s="1" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="D1208" s="1" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="E1208" s="6"/>
     </row>
     <row r="1209" hidden="1" spans="2:5">
       <c r="B1209" s="1" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="D1209" s="1" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="E1209" s="6"/>
     </row>
     <row r="1210" hidden="1" spans="2:5">
       <c r="B1210" s="1" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="D1210" s="1" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="E1210" s="6"/>
     </row>
     <row r="1211" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="D1211" s="1" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="E1211" s="6"/>
     </row>
     <row r="1212" hidden="1" spans="2:5">
       <c r="B1212" s="1" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="D1212" s="1" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="E1212" s="6"/>
     </row>
     <row r="1213" hidden="1" spans="2:5">
       <c r="B1213" s="1" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="D1213" s="1" t="s">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="E1213" s="6"/>
     </row>
     <row r="1214" hidden="1" spans="2:5">
       <c r="B1214" s="1" t="s">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="D1214" s="1" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="E1214" s="6"/>
     </row>
     <row r="1215" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="D1215" s="1" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="E1215" s="6"/>
     </row>
     <row r="1216" hidden="1" spans="2:5">
       <c r="B1216" s="1" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="D1216" s="1" t="s">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="E1216" s="6"/>
     </row>
     <row r="1217" hidden="1" spans="2:5">
       <c r="B1217" s="1" t="s">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="D1217" s="1" t="s">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="E1217" s="6"/>
     </row>
     <row r="1218" hidden="1" spans="2:5">
       <c r="B1218" s="1" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
       <c r="D1218" s="1" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="E1218" s="6"/>
     </row>
     <row r="1219" hidden="1" spans="2:5">
       <c r="B1219" s="1" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
       <c r="D1219" s="1" t="s">
-        <v>3787</v>
+        <v>3788</v>
       </c>
       <c r="E1219" s="6"/>
     </row>
     <row r="1220" hidden="1" spans="2:5">
       <c r="B1220" s="1" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="D1220" s="1" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="E1220" s="6"/>
     </row>
     <row r="1221" hidden="1" spans="2:5">
       <c r="B1221" s="1" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="D1221" s="1" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="E1221" s="6"/>
     </row>
     <row r="1222" hidden="1" spans="2:5">
       <c r="B1222" s="1" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="D1222" s="1" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="E1222" s="6"/>
     </row>
     <row r="1223" hidden="1" spans="2:5">
       <c r="B1223" s="1" t="s">
-        <v>3797</v>
+        <v>3798</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="D1223" s="1" t="s">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="E1223" s="6"/>
     </row>
     <row r="1224" hidden="1" spans="2:5">
       <c r="B1224" s="1" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="D1224" s="1" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="E1224" s="6"/>
     </row>
     <row r="1225" hidden="1" spans="2:5">
       <c r="B1225" s="1" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="D1225" s="1" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="E1225" s="6"/>
     </row>
     <row r="1226" hidden="1" spans="2:5">
       <c r="B1226" s="1" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="D1226" s="1" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="E1226" s="6"/>
     </row>
     <row r="1227" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="D1227" s="1" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="E1227" s="6"/>
     </row>
     <row r="1228" hidden="1" spans="2:5">
       <c r="B1228" s="1" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="D1228" s="1" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="E1228" s="6"/>
     </row>
     <row r="1229" hidden="1" spans="2:5">
       <c r="B1229" s="1" t="s">
-        <v>3815</v>
+        <v>3816</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="D1229" s="1" t="s">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="E1229" s="6" t="s">
-        <v>3818</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1230" hidden="1" spans="2:5">
       <c r="B1230" s="1" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>3820</v>
+        <v>3821</v>
       </c>
       <c r="D1230" s="1" t="s">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="E1230" s="6"/>
     </row>
     <row r="1231" hidden="1" spans="2:5">
       <c r="B1231" s="1" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="D1231" s="1" t="s">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="E1231" s="6"/>
     </row>
     <row r="1232" hidden="1" spans="2:5">
       <c r="B1232" s="1" t="s">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>3826</v>
+        <v>3827</v>
       </c>
       <c r="D1232" s="1" t="s">
-        <v>3827</v>
+        <v>3828</v>
       </c>
       <c r="E1232" s="6"/>
     </row>
     <row r="1233" hidden="1" spans="2:5">
       <c r="B1233" s="1" t="s">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="D1233" s="1" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="E1233" s="6"/>
     </row>
     <row r="1234" hidden="1" spans="2:5">
       <c r="B1234" s="1" t="s">
-        <v>3831</v>
+        <v>3832</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="D1234" s="1" t="s">
-        <v>3833</v>
+        <v>3834</v>
       </c>
       <c r="E1234" s="6"/>
     </row>
     <row r="1235" hidden="1" spans="2:5">
       <c r="B1235" s="1" t="s">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>3835</v>
+        <v>3836</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>3836</v>
+        <v>3837</v>
       </c>
       <c r="E1235" s="6"/>
     </row>
     <row r="1236" hidden="1" spans="2:5">
       <c r="B1236" s="1" t="s">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="D1236" s="1" t="s">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="E1236" s="6"/>
     </row>
     <row r="1237" hidden="1" spans="2:5">
       <c r="B1237" s="1" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="D1237" s="1" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="E1237" s="6"/>
     </row>
     <row r="1238" hidden="1" spans="2:5">
       <c r="B1238" s="1" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="D1238" s="1" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="E1238" s="6"/>
     </row>
     <row r="1239" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="D1239" s="1" t="s">
-        <v>3848</v>
+        <v>3849</v>
       </c>
       <c r="E1239" s="6"/>
     </row>
     <row r="1240" hidden="1" spans="2:5">
       <c r="B1240" s="1" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="D1240" s="1" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="E1240" s="6"/>
     </row>
     <row r="1241" hidden="1" spans="2:5">
       <c r="B1241" s="1" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
       <c r="D1241" s="1" t="s">
-        <v>3854</v>
+        <v>3855</v>
       </c>
       <c r="E1241" s="6"/>
     </row>
     <row r="1242" hidden="1" spans="2:5">
       <c r="B1242" s="1" t="s">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="D1242" s="1" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="E1242" s="6"/>
     </row>
     <row r="1243" hidden="1" spans="2:5">
       <c r="B1243" s="1" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="D1243" s="1" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="E1243" s="6" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="1244" hidden="1" spans="2:5">
       <c r="B1244" s="1" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="D1244" s="1" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="E1244" s="6"/>
     </row>
     <row r="1245" hidden="1" spans="2:5">
       <c r="B1245" s="1" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="E1245" s="6" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1246" hidden="1" spans="2:5">
       <c r="B1246" s="1" t="s">
-        <v>3869</v>
+        <v>3870</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="D1246" s="1" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="E1246" s="6"/>
     </row>
     <row r="1247" hidden="1" spans="2:5">
       <c r="B1247" s="1" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="D1247" s="1" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="E1247" s="6"/>
     </row>
-    <row r="1248" ht="48" hidden="1" spans="2:5">
+    <row r="1248" ht="37.5" hidden="1" spans="2:5">
       <c r="B1248" s="1" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="D1248" s="1" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="E1248" s="6"/>
     </row>
     <row r="1249" hidden="1" spans="2:5">
       <c r="B1249" s="1" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
       <c r="D1249" s="1" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
       <c r="E1249" s="6"/>
     </row>
     <row r="1250" hidden="1" spans="2:5">
       <c r="B1250" s="1" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="D1250" s="1" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="E1250" s="6"/>
     </row>
     <row r="1251" hidden="1" spans="2:5">
       <c r="B1251" s="1" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="D1251" s="1" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="E1251" s="6"/>
     </row>
-    <row r="1252" ht="38" hidden="1" spans="2:5">
+    <row r="1252" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D1252" s="1" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E1252" s="6" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1253" hidden="1" spans="2:5">
       <c r="B1253" s="1" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="D1253" s="1" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="E1253" s="6"/>
     </row>
     <row r="1254" hidden="1" spans="2:5">
       <c r="B1254" s="1" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="D1254" s="1" t="s">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="E1254" s="6"/>
     </row>
-    <row r="1255" ht="48" hidden="1" spans="2:5">
+    <row r="1255" hidden="1" spans="2:5">
       <c r="B1255" s="1" t="s">
-        <v>3897</v>
+        <v>3898</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>3898</v>
+        <v>3899</v>
       </c>
       <c r="D1255" s="1" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="E1255" s="6"/>
     </row>
     <row r="1256" hidden="1" spans="2:5">
       <c r="B1256" s="1" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="D1256" s="1" t="s">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="E1256" s="6"/>
     </row>
     <row r="1257" hidden="1" spans="2:5">
       <c r="B1257" s="1" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="D1257" s="1" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="E1257" s="6"/>
     </row>
     <row r="1258" hidden="1" spans="2:5">
       <c r="B1258" s="1" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="D1258" s="1" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="E1258" s="6"/>
     </row>
     <row r="1259" hidden="1" spans="2:5">
       <c r="B1259" s="1" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="D1259" s="1" t="s">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="E1259" s="6"/>
     </row>
     <row r="1260" hidden="1" spans="2:5">
       <c r="B1260" s="1" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="D1260" s="1" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="E1260" s="6"/>
     </row>
-    <row r="1261" ht="48" hidden="1" spans="2:5">
+    <row r="1261" ht="37.5" hidden="1" spans="2:5">
       <c r="B1261" s="1" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="D1261" s="1" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="E1261" s="6"/>
     </row>
     <row r="1262" hidden="1" spans="2:5">
       <c r="B1262" s="1" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="E1262" s="6"/>
     </row>
     <row r="1263" hidden="1" spans="2:5">
       <c r="B1263" s="1" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="D1263" s="1" t="s">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="E1263" s="6"/>
     </row>
     <row r="1264" hidden="1" spans="2:5">
       <c r="B1264" s="1" t="s">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="D1264" s="1" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="E1264" s="6"/>
     </row>
     <row r="1265" hidden="1" spans="2:5">
       <c r="B1265" s="1" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>3928</v>
+        <v>3929</v>
       </c>
       <c r="D1265" s="1" t="s">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="E1265" s="6"/>
     </row>
     <row r="1266" hidden="1" spans="2:5">
       <c r="B1266" s="1" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="D1266" s="1" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="E1266" s="6"/>
     </row>
     <row r="1267" hidden="1" spans="2:5">
       <c r="B1267" s="1" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="E1267" s="6"/>
     </row>
     <row r="1268" hidden="1" spans="2:5">
       <c r="B1268" s="1" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="D1268" s="1" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="E1268" s="6"/>
     </row>
     <row r="1269" hidden="1" spans="2:5">
       <c r="B1269" s="1" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="D1269" s="1" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="E1269" s="6"/>
     </row>
     <row r="1270" hidden="1" spans="2:5">
       <c r="B1270" s="1" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="D1270" s="1" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="E1270" s="6"/>
     </row>
     <row r="1271" hidden="1" spans="2:5">
       <c r="B1271" s="1" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="D1271" s="1" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="E1271" s="6"/>
     </row>
     <row r="1272" hidden="1" spans="2:5">
       <c r="B1272" s="1" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="D1272" s="1" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="E1272" s="6"/>
     </row>
     <row r="1273" hidden="1" spans="2:5">
       <c r="B1273" s="1" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="D1273" s="1" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="E1273" s="6"/>
     </row>
     <row r="1274" hidden="1" spans="2:5">
       <c r="B1274" s="1" t="s">
-        <v>3954</v>
+        <v>3955</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="D1274" s="1" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="E1274" s="6"/>
     </row>
     <row r="1275" hidden="1" spans="2:5">
       <c r="B1275" s="1" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="E1275" s="6"/>
     </row>
     <row r="1276" hidden="1" spans="2:5">
       <c r="B1276" s="1" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="E1276" s="6"/>
     </row>
     <row r="1277" hidden="1" spans="2:5">
       <c r="B1277" s="1" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="D1277" s="1" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="E1277" s="6"/>
     </row>
     <row r="1278" hidden="1" spans="2:5">
       <c r="B1278" s="1" t="s">
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="D1278" s="1" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="E1278" s="6"/>
     </row>
     <row r="1279" hidden="1" spans="2:5">
       <c r="B1279" s="1" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="D1279" s="1" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="E1279" s="6"/>
     </row>
     <row r="1280" hidden="1" spans="2:5">
       <c r="B1280" s="1" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>3973</v>
+        <v>3974</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="E1280" s="6"/>
     </row>
     <row r="1281" hidden="1" spans="2:5">
       <c r="B1281" s="1" t="s">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>3976</v>
+        <v>3977</v>
       </c>
       <c r="D1281" s="1" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="E1281" s="6"/>
     </row>
     <row r="1282" hidden="1" spans="2:5">
       <c r="B1282" s="1" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
       <c r="D1282" s="1" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="E1282" s="6"/>
     </row>
     <row r="1283" hidden="1" spans="2:5">
       <c r="B1283" s="1" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="D1283" s="1" t="s">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="E1283" s="6"/>
     </row>
     <row r="1284" hidden="1" spans="2:5">
       <c r="B1284" s="1" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="E1284" s="6"/>
     </row>
     <row r="1285" hidden="1" spans="2:5">
       <c r="B1285" s="1" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>3988</v>
+        <v>3989</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>3989</v>
+        <v>3990</v>
       </c>
       <c r="E1285" s="6"/>
     </row>
     <row r="1286" hidden="1" spans="2:5">
       <c r="B1286" s="1" t="s">
-        <v>3990</v>
+        <v>3991</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>3991</v>
+        <v>3992</v>
       </c>
       <c r="D1286" s="1" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="E1286" s="6"/>
     </row>
     <row r="1287" hidden="1" spans="2:5">
       <c r="B1287" s="1" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="D1287" s="1" t="s">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="E1287" s="6"/>
     </row>
     <row r="1288" hidden="1" spans="2:5">
       <c r="B1288" s="1" t="s">
-        <v>3996</v>
+        <v>3997</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="D1288" s="1" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="E1288" s="6"/>
     </row>
     <row r="1289" hidden="1" spans="2:5">
       <c r="B1289" s="1" t="s">
-        <v>3999</v>
+        <v>4000</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="E1289" s="6"/>
     </row>
     <row r="1290" hidden="1" spans="2:5">
       <c r="B1290" s="1" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="D1290" s="1" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="E1290" s="6"/>
     </row>
-    <row r="1291" ht="48" hidden="1" spans="2:5">
+    <row r="1291" hidden="1" spans="2:5">
       <c r="B1291" s="1" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="E1291" s="6"/>
     </row>
     <row r="1292" hidden="1" spans="2:5">
       <c r="B1292" s="1" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="D1292" s="1" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="E1292" s="6" t="s">
         <v>95</v>
@@ -31949,383 +32061,383 @@
     </row>
     <row r="1293" hidden="1" spans="2:5">
       <c r="B1293" s="1" t="s">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="C1293" s="5" t="s">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="E1293" s="6"/>
     </row>
     <row r="1294" hidden="1" spans="2:5">
       <c r="B1294" s="1" t="s">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="C1294" s="5" t="s">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="D1294" s="1" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
       <c r="E1294" s="6"/>
     </row>
     <row r="1295" hidden="1" spans="2:5">
       <c r="B1295" s="1" t="s">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C1295" s="5" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="D1295" s="1" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="E1295" s="6"/>
     </row>
     <row r="1296" hidden="1" spans="2:5">
       <c r="B1296" s="1" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="C1296" s="5" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="D1296" s="1" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="E1296" s="6"/>
     </row>
     <row r="1297" hidden="1" spans="2:5">
       <c r="B1297" s="1" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C1297" s="5" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="E1297" s="6"/>
     </row>
     <row r="1298" hidden="1" spans="2:5">
       <c r="B1298" s="1" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="C1298" s="5" t="s">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="D1298" s="1" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="E1298" s="6"/>
     </row>
     <row r="1299" hidden="1" spans="2:5">
       <c r="B1299" s="1" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C1299" s="5" t="s">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="E1299" s="6"/>
     </row>
     <row r="1300" hidden="1" spans="2:5">
       <c r="B1300" s="1" t="s">
-        <v>4032</v>
+        <v>4033</v>
       </c>
       <c r="C1300" s="5" t="s">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="E1300" s="6"/>
     </row>
     <row r="1301" hidden="1" spans="2:5">
       <c r="B1301" s="1" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="E1301" s="1"/>
     </row>
     <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="D1302" s="1" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="E1302" s="1"/>
     </row>
     <row r="1303" hidden="1" spans="2:5">
       <c r="B1303" s="1" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="C1303" s="5" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="D1303" s="1" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="E1303" s="6" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1304" hidden="1" spans="2:5">
       <c r="B1304" s="1" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="C1304" s="5" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="D1304" s="1" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="E1304" s="6"/>
     </row>
     <row r="1305" hidden="1" spans="2:5">
       <c r="B1305" s="1" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="C1305" s="5" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="D1305" s="1" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="E1305" s="6"/>
     </row>
-    <row r="1306" ht="72" hidden="1" spans="2:5">
+    <row r="1306" ht="56.25" hidden="1" spans="2:5">
       <c r="B1306" s="1" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="E1306" s="1"/>
     </row>
     <row r="1307" hidden="1" spans="2:5">
       <c r="B1307" s="1" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="C1307" s="5" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="D1307" s="1" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="E1307" s="6"/>
     </row>
     <row r="1308" hidden="1" spans="2:5">
       <c r="B1308" s="1" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="C1308" s="5" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="E1308" s="6"/>
     </row>
     <row r="1309" hidden="1" spans="2:5">
       <c r="B1309" s="1" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="C1309" s="5" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="E1309" s="6"/>
     </row>
     <row r="1310" hidden="1" spans="2:5">
       <c r="B1310" s="1" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="C1310" s="5" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="D1310" s="1" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="E1310" s="6"/>
     </row>
     <row r="1311" hidden="1" spans="2:5">
       <c r="B1311" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C1311" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="D1311" s="1" t="s">
         <v>4066</v>
-      </c>
-      <c r="C1311" s="1" t="s">
-        <v>4067</v>
-      </c>
-      <c r="D1311" s="1" t="s">
-        <v>4065</v>
       </c>
       <c r="E1311" s="1"/>
     </row>
     <row r="1312" hidden="1" spans="2:5">
       <c r="B1312" s="1" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="D1312" s="1" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E1312" s="1"/>
     </row>
     <row r="1313" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="D1313" s="1" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E1313" s="1"/>
     </row>
     <row r="1314" hidden="1" spans="2:5">
       <c r="B1314" s="1" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="C1314" s="5" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="D1314" s="1" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="E1314" s="6"/>
     </row>
     <row r="1315" hidden="1" spans="2:5">
       <c r="B1315" s="1" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="D1315" s="1" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="E1315" s="6"/>
     </row>
     <row r="1316" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="C1316" s="5" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="D1316" s="1" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="E1316" s="6"/>
     </row>
     <row r="1317" hidden="1" spans="2:5">
       <c r="B1317" s="1" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="D1317" s="1" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="E1317" s="6"/>
     </row>
     <row r="1318" hidden="1" spans="2:5">
       <c r="B1318" s="1" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="D1318" s="1" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="E1318" s="6" t="s">
-        <v>4089</v>
-      </c>
-    </row>
-    <row r="1319" ht="48" hidden="1" spans="2:5">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="1319" ht="37.5" hidden="1" spans="2:5">
       <c r="B1319" s="1" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="D1319" s="1" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="E1319" s="1"/>
     </row>
     <row r="1320" hidden="1" spans="2:5">
       <c r="B1320" s="1" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="D1320" s="1" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="E1320" s="6"/>
     </row>
     <row r="1321" hidden="1" spans="2:5">
       <c r="B1321" s="1" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="C1321" s="5" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="D1321" s="1" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="E1321" s="6"/>
     </row>
     <row r="1322" hidden="1" spans="2:5">
       <c r="B1322" s="1" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="D1322" s="1" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="E1322" s="1"/>
     </row>
     <row r="1323" hidden="1" spans="2:5">
       <c r="B1323" s="1" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="D1323" s="1" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="E1323" s="1"/>
     </row>
     <row r="1324" hidden="1" spans="2:5">
       <c r="B1324" s="1" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="E1324" s="1"/>
     </row>
@@ -32337,6 +32449,7 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15000" tabRatio="500"/>
+    <workbookView windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114">
   <si>
     <t>标记</t>
   </si>
@@ -7784,12 +7784,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Avenir"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">get rid of </t>
     </r>
     <r>
@@ -7998,12 +7992,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Avenir"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">The match was postponed to the following Saturday because of bad weather. </t>
     </r>
     <r>
@@ -9862,7 +9850,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Avenir"/>
         <charset val="134"/>
       </rPr>
       <t>pine</t>
@@ -10197,6 +10185,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>spirit</t>
     </r>
     <r>
@@ -10488,12 +10482,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t>slope</t>
     </r>
     <r>
@@ -11254,7 +11242,54 @@
     <t>联邦的，联合的</t>
   </si>
   <si>
-    <t>FBI</t>
+    <r>
+      <t>FBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bureau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>局，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">investigation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调查</t>
+    </r>
   </si>
   <si>
     <t>union</t>
@@ -11336,6 +11371,20 @@
   </si>
   <si>
     <t>漫步，徘徊</t>
+  </si>
+  <si>
+    <r>
+      <t>wonder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>惊奇</t>
+    </r>
   </si>
   <si>
     <t>spear</t>
@@ -11814,6 +11863,20 @@
     <t>轻敲，开凿，水龙头</t>
   </si>
   <si>
+    <r>
+      <t>trap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陷阱</t>
+    </r>
+  </si>
+  <si>
     <t>trend</t>
   </si>
   <si>
@@ -12047,6 +12110,20 @@
   </si>
   <si>
     <t>神圣的，庄严的</t>
+  </si>
+  <si>
+    <r>
+      <t>scare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>害怕</t>
+    </r>
   </si>
   <si>
     <t>trial</t>
@@ -14213,10 +14290,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -14264,7 +14341,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14278,40 +14383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14320,13 +14394,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14341,6 +14408,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -14348,8 +14423,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14371,7 +14454,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14379,29 +14462,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14489,6 +14566,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -14501,37 +14626,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14543,13 +14674,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14561,13 +14710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14579,91 +14734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14686,6 +14763,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -14697,6 +14798,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14726,205 +14857,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15321,8 +15398,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A944" workbookViewId="0">
-      <selection activeCell="E964" sqref="E964"/>
+    <sheetView tabSelected="1" topLeftCell="A712" workbookViewId="0">
+      <selection activeCell="C1025" sqref="C1025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
@@ -22084,7 +22161,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1592</v>
@@ -23233,7 +23310,7 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>1863</v>
@@ -23448,7 +23525,7 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>1912</v>
@@ -24324,7 +24401,7 @@
     </row>
     <row r="671" ht="96" spans="1:5">
       <c r="A671" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>2120</v>
@@ -24392,7 +24469,7 @@
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>2136</v>
@@ -24568,7 +24645,7 @@
     </row>
     <row r="689" ht="48" spans="1:4">
       <c r="A689" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>2178</v>
@@ -24636,7 +24713,7 @@
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>2193</v>
@@ -24841,7 +24918,7 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>2242</v>
@@ -24883,7 +24960,7 @@
     </row>
     <row r="712" ht="120" spans="1:5">
       <c r="A712" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>2253</v>
@@ -24941,9 +25018,9 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" hidden="1" spans="1:4">
       <c r="A716" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B716" s="1" t="s">
         <v>2267</v>
@@ -24971,7 +25048,7 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2273</v>
@@ -25153,7 +25230,7 @@
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>2317</v>
@@ -25167,7 +25244,7 @@
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>2320</v>
@@ -25219,7 +25296,7 @@
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>2332</v>
@@ -25307,7 +25384,7 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>2354</v>
@@ -25809,9 +25886,9 @@
       </c>
       <c r="E783" s="6"/>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" hidden="1" spans="1:4">
       <c r="A784" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>2473</v>
@@ -25926,9 +26003,9 @@
       </c>
       <c r="E792" s="6"/>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" hidden="1" spans="1:4">
       <c r="A793" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>2502</v>
@@ -25966,7 +26043,7 @@
     </row>
     <row r="796" spans="1:5">
       <c r="A796" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2511</v>
@@ -26077,9 +26154,9 @@
       </c>
       <c r="E804" s="6"/>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:4">
       <c r="A805" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>2539</v>
@@ -26090,7 +26167,6 @@
       <c r="D805" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="E805" s="6"/>
     </row>
     <row r="806" hidden="1" spans="2:5">
       <c r="B806" s="1" t="s">
@@ -26169,9 +26245,9 @@
       </c>
       <c r="E811" s="6"/>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:4">
       <c r="A812" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>2561</v>
@@ -26182,7 +26258,6 @@
       <c r="D812" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="E812" s="6"/>
     </row>
     <row r="813" hidden="1" spans="2:5">
       <c r="B813" s="1" t="s">
@@ -26340,9 +26415,9 @@
       </c>
       <c r="E824" s="6"/>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:4">
       <c r="A825" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>2600</v>
@@ -26353,7 +26428,6 @@
       <c r="D825" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="E825" s="6"/>
     </row>
     <row r="826" hidden="1" spans="2:5">
       <c r="B826" s="1" t="s">
@@ -26411,9 +26485,9 @@
       </c>
       <c r="E829" s="6"/>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:4">
       <c r="A830" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>2616</v>
@@ -26424,7 +26498,6 @@
       <c r="D830" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="E830" s="6"/>
     </row>
     <row r="831" hidden="1" spans="2:5">
       <c r="B831" s="1" t="s">
@@ -26438,9 +26511,9 @@
       </c>
       <c r="E831" s="6"/>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:4">
       <c r="A832" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>2622</v>
@@ -26451,7 +26524,6 @@
       <c r="D832" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="E832" s="6"/>
     </row>
     <row r="833" hidden="1" spans="2:5">
       <c r="B833" s="1" t="s">
@@ -26504,7 +26576,7 @@
       </c>
       <c r="E836" s="6"/>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:4">
       <c r="A837" s="1">
         <v>1</v>
       </c>
@@ -26517,7 +26589,6 @@
       <c r="D837" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="E837" s="6"/>
     </row>
     <row r="838" hidden="1" spans="2:5">
       <c r="B838" s="1" t="s">
@@ -26543,9 +26614,9 @@
       </c>
       <c r="E839" s="6"/>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" hidden="1" spans="1:5">
       <c r="A840" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>2646</v>
@@ -26698,7 +26769,7 @@
     </row>
     <row r="852" spans="1:5">
       <c r="A852" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>2682</v>
@@ -26709,7 +26780,7 @@
       <c r="D852" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="E852" s="6" t="s">
+      <c r="E852" s="2" t="s">
         <v>2685</v>
       </c>
     </row>
@@ -26914,9 +26985,9 @@
       </c>
       <c r="E868" s="6"/>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:4">
       <c r="A869" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>2734</v>
@@ -26927,11 +26998,10 @@
       <c r="D869" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="E869" s="6"/>
-    </row>
-    <row r="870" spans="1:5">
+    </row>
+    <row r="870" spans="1:4">
       <c r="A870" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>2737</v>
@@ -26942,7 +27012,6 @@
       <c r="D870" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="E870" s="6"/>
     </row>
     <row r="871" hidden="1" spans="2:5">
       <c r="B871" s="1" t="s">
@@ -27085,9 +27154,9 @@
       </c>
       <c r="E881" s="6"/>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:4">
       <c r="A882" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>2773</v>
@@ -27098,7 +27167,6 @@
       <c r="D882" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="E882" s="6"/>
     </row>
     <row r="883" hidden="1" spans="2:5">
       <c r="B883" s="1" t="s">
@@ -27126,7 +27194,7 @@
     </row>
     <row r="885" spans="1:5">
       <c r="A885" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>2781</v>
@@ -27137,7 +27205,7 @@
       <c r="D885" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="E885" s="6" t="s">
+      <c r="E885" s="2" t="s">
         <v>2784</v>
       </c>
     </row>
@@ -27189,9 +27257,9 @@
       </c>
       <c r="E889" s="6"/>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:4">
       <c r="A890" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>2797</v>
@@ -27202,7 +27270,6 @@
       <c r="D890" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="E890" s="6"/>
     </row>
     <row r="891" hidden="1" spans="2:5">
       <c r="B891" s="1" t="s">
@@ -27351,9 +27418,9 @@
       </c>
       <c r="E902" s="6"/>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" hidden="1" spans="1:5">
       <c r="A903" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B903" s="1" t="s">
         <v>2836</v>
@@ -27498,9 +27565,9 @@
       </c>
       <c r="E914" s="6"/>
     </row>
-    <row r="915" spans="1:5">
+    <row r="915" hidden="1" spans="1:5">
       <c r="A915" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>2872</v>
@@ -27515,9 +27582,9 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="916" spans="1:5">
+    <row r="916" hidden="1" spans="1:5">
       <c r="A916" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>2876</v>
@@ -27602,9 +27669,9 @@
       </c>
       <c r="E922" s="6"/>
     </row>
-    <row r="923" spans="1:5">
+    <row r="923" hidden="1" spans="1:5">
       <c r="A923" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B923" s="1" t="s">
         <v>2897</v>
@@ -27641,9 +27708,9 @@
       </c>
       <c r="E925" s="6"/>
     </row>
-    <row r="926" spans="1:5">
+    <row r="926" spans="1:4">
       <c r="A926" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>2906</v>
@@ -27654,11 +27721,10 @@
       <c r="D926" s="1" t="s">
         <v>2908</v>
       </c>
-      <c r="E926" s="6"/>
-    </row>
-    <row r="927" spans="1:5">
+    </row>
+    <row r="927" hidden="1" spans="1:5">
       <c r="A927" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B927" s="1" t="s">
         <v>2909</v>
@@ -27671,9 +27737,9 @@
       </c>
       <c r="E927" s="6"/>
     </row>
-    <row r="928" spans="1:5">
+    <row r="928" spans="1:4">
       <c r="A928" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>2912</v>
@@ -27684,7 +27750,6 @@
       <c r="D928" s="1" t="s">
         <v>2914</v>
       </c>
-      <c r="E928" s="6"/>
     </row>
     <row r="929" hidden="1" spans="2:5">
       <c r="B929" s="1" t="s">
@@ -27734,9 +27799,9 @@
       </c>
       <c r="E932" s="6"/>
     </row>
-    <row r="933" spans="1:5">
+    <row r="933" hidden="1" spans="1:5">
       <c r="A933" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B933" s="1" t="s">
         <v>2927</v>
@@ -27749,9 +27814,9 @@
       </c>
       <c r="E933" s="6"/>
     </row>
-    <row r="934" spans="1:5">
+    <row r="934" spans="1:4">
       <c r="A934" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B934" s="1" t="s">
         <v>2930</v>
@@ -27762,11 +27827,10 @@
       <c r="D934" s="1" t="s">
         <v>2932</v>
       </c>
-      <c r="E934" s="6"/>
-    </row>
-    <row r="935" ht="48" spans="1:5">
+    </row>
+    <row r="935" ht="48" hidden="1" spans="1:5">
       <c r="A935" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B935" s="1" t="s">
         <v>2933</v>
@@ -27791,9 +27855,9 @@
       </c>
       <c r="E936" s="6"/>
     </row>
-    <row r="937" spans="1:5">
+    <row r="937" hidden="1" spans="1:5">
       <c r="A937" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B937" s="1" t="s">
         <v>2939</v>
@@ -27806,9 +27870,9 @@
       </c>
       <c r="E937" s="6"/>
     </row>
-    <row r="938" spans="1:5">
+    <row r="938" spans="1:4">
       <c r="A938" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B938" s="1" t="s">
         <v>2942</v>
@@ -27819,7 +27883,6 @@
       <c r="D938" s="1" t="s">
         <v>2944</v>
       </c>
-      <c r="E938" s="6"/>
     </row>
     <row r="939" hidden="1" spans="2:5">
       <c r="B939" s="1" t="s">
@@ -27857,9 +27920,9 @@
       </c>
       <c r="E941" s="6"/>
     </row>
-    <row r="942" spans="1:5">
+    <row r="942" hidden="1" spans="1:5">
       <c r="A942" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B942" s="1" t="s">
         <v>2954</v>
@@ -27886,7 +27949,7 @@
     </row>
     <row r="944" spans="1:5">
       <c r="A944" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B944" s="1" t="s">
         <v>2960</v>
@@ -27897,13 +27960,13 @@
       <c r="D944" s="1" t="s">
         <v>2962</v>
       </c>
-      <c r="E944" s="6" t="s">
+      <c r="E944" s="2" t="s">
         <v>2963</v>
       </c>
     </row>
-    <row r="945" spans="1:5">
+    <row r="945" hidden="1" spans="1:5">
       <c r="A945" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B945" s="1" t="s">
         <v>2964</v>
@@ -27916,9 +27979,9 @@
       </c>
       <c r="E945" s="6"/>
     </row>
-    <row r="946" spans="1:5">
+    <row r="946" hidden="1" spans="1:5">
       <c r="A946" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B946" s="1" t="s">
         <v>2967</v>
@@ -27931,9 +27994,9 @@
       </c>
       <c r="E946" s="6"/>
     </row>
-    <row r="947" spans="1:5">
+    <row r="947" hidden="1" spans="1:5">
       <c r="A947" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B947" s="1" t="s">
         <v>2970</v>
@@ -28006,9 +28069,9 @@
       </c>
       <c r="E952" s="6"/>
     </row>
-    <row r="953" spans="1:5">
+    <row r="953" hidden="1" spans="1:5">
       <c r="A953" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B953" s="1" t="s">
         <v>2988</v>
@@ -28021,9 +28084,9 @@
       </c>
       <c r="E953" s="6"/>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" hidden="1" spans="1:5">
       <c r="A954" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B954" s="1" t="s">
         <v>2991</v>
@@ -28048,9 +28111,9 @@
       </c>
       <c r="E955" s="6"/>
     </row>
-    <row r="956" spans="1:5">
+    <row r="956" hidden="1" spans="1:5">
       <c r="A956" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B956" s="1" t="s">
         <v>2997</v>
@@ -28075,9 +28138,9 @@
       </c>
       <c r="E957" s="6"/>
     </row>
-    <row r="958" spans="1:5">
+    <row r="958" hidden="1" spans="1:5">
       <c r="A958" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B958" s="1" t="s">
         <v>3003</v>
@@ -28150,9 +28213,9 @@
       </c>
       <c r="E963" s="6"/>
     </row>
-    <row r="964" spans="1:5">
+    <row r="964" hidden="1" spans="1:5">
       <c r="A964" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B964" s="1" t="s">
         <v>3021</v>
@@ -28165,9 +28228,9 @@
       </c>
       <c r="E964" s="6"/>
     </row>
-    <row r="965" ht="48" spans="1:5">
+    <row r="965" ht="48" hidden="1" spans="1:5">
       <c r="A965" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B965" s="1" t="s">
         <v>3024</v>
@@ -28180,9 +28243,9 @@
       </c>
       <c r="E965" s="6"/>
     </row>
-    <row r="966" spans="1:5">
+    <row r="966" hidden="1" spans="1:5">
       <c r="A966" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B966" s="1" t="s">
         <v>3027</v>
@@ -28291,9 +28354,9 @@
       </c>
       <c r="E974" s="6"/>
     </row>
-    <row r="975" spans="1:5">
+    <row r="975" spans="1:4">
       <c r="A975" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>3054</v>
@@ -28304,7 +28367,6 @@
       <c r="D975" s="1" t="s">
         <v>3056</v>
       </c>
-      <c r="E975" s="6"/>
     </row>
     <row r="976" hidden="1" spans="2:5">
       <c r="B976" s="1" t="s">
@@ -28366,9 +28428,9 @@
       </c>
       <c r="E980" s="6"/>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" hidden="1" spans="1:5">
       <c r="A981" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B981" s="1" t="s">
         <v>3072</v>
@@ -28381,9 +28443,9 @@
       </c>
       <c r="E981" s="6"/>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" hidden="1" spans="1:5">
       <c r="A982" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B982" s="1" t="s">
         <v>3075</v>
@@ -28420,9 +28482,9 @@
       </c>
       <c r="E984" s="6"/>
     </row>
-    <row r="985" spans="1:5">
+    <row r="985" spans="1:4">
       <c r="A985" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B985" s="1" t="s">
         <v>3084</v>
@@ -28433,7 +28495,6 @@
       <c r="D985" s="1" t="s">
         <v>3086</v>
       </c>
-      <c r="E985" s="6"/>
     </row>
     <row r="986" hidden="1" spans="2:5">
       <c r="B986" s="1" t="s">
@@ -28483,9 +28544,9 @@
       </c>
       <c r="E989" s="6"/>
     </row>
-    <row r="990" spans="1:5">
+    <row r="990" hidden="1" spans="1:5">
       <c r="A990" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B990" s="1" t="s">
         <v>3099</v>
@@ -28510,9 +28571,9 @@
       </c>
       <c r="E991" s="6"/>
     </row>
-    <row r="992" spans="1:5">
+    <row r="992" hidden="1" spans="1:5">
       <c r="A992" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B992" s="1" t="s">
         <v>3105</v>
@@ -28657,7 +28718,10 @@
       </c>
       <c r="E1003" s="6"/>
     </row>
-    <row r="1004" ht="48" hidden="1" spans="2:5">
+    <row r="1004" ht="48" spans="1:4">
+      <c r="A1004" s="1">
+        <v>1</v>
+      </c>
       <c r="B1004" s="1" t="s">
         <v>3141</v>
       </c>
@@ -28667,7 +28731,6 @@
       <c r="D1004" s="1" t="s">
         <v>3143</v>
       </c>
-      <c r="E1004" s="6"/>
     </row>
     <row r="1005" hidden="1" spans="2:5">
       <c r="B1005" s="1" t="s">
@@ -28705,7 +28768,10 @@
       </c>
       <c r="E1007" s="6"/>
     </row>
-    <row r="1008" hidden="1" spans="2:5">
+    <row r="1008" spans="1:4">
+      <c r="A1008" s="1">
+        <v>1</v>
+      </c>
       <c r="B1008" s="1" t="s">
         <v>3153</v>
       </c>
@@ -28715,7 +28781,6 @@
       <c r="D1008" s="1" t="s">
         <v>3155</v>
       </c>
-      <c r="E1008" s="6"/>
     </row>
     <row r="1009" hidden="1" spans="2:5">
       <c r="B1009" s="1" t="s">
@@ -28825,7 +28890,10 @@
       </c>
       <c r="E1017" s="6"/>
     </row>
-    <row r="1018" hidden="1" spans="2:5">
+    <row r="1018" ht="48" spans="1:5">
+      <c r="A1018" s="1">
+        <v>1</v>
+      </c>
       <c r="B1018" s="1" t="s">
         <v>3183</v>
       </c>
@@ -28835,7 +28903,7 @@
       <c r="D1018" s="1" t="s">
         <v>3185</v>
       </c>
-      <c r="E1018" s="6" t="s">
+      <c r="E1018" s="2" t="s">
         <v>3186</v>
       </c>
     </row>
@@ -28875,7 +28943,10 @@
       </c>
       <c r="E1021" s="6"/>
     </row>
-    <row r="1022" hidden="1" spans="2:5">
+    <row r="1022" spans="1:4">
+      <c r="A1022" s="1">
+        <v>1</v>
+      </c>
       <c r="B1022" s="1" t="s">
         <v>3196</v>
       </c>
@@ -28885,7 +28956,6 @@
       <c r="D1022" s="1" t="s">
         <v>3198</v>
       </c>
-      <c r="E1022" s="6"/>
     </row>
     <row r="1023" hidden="1" spans="2:5">
       <c r="B1023" s="1" t="s">
@@ -28911,7 +28981,10 @@
       </c>
       <c r="E1024" s="6"/>
     </row>
-    <row r="1025" hidden="1" spans="2:5">
+    <row r="1025" spans="1:4">
+      <c r="A1025" s="1">
+        <v>1</v>
+      </c>
       <c r="B1025" s="1" t="s">
         <v>3205</v>
       </c>
@@ -28921,7 +28994,6 @@
       <c r="D1025" s="1" t="s">
         <v>3207</v>
       </c>
-      <c r="E1025" s="6"/>
     </row>
     <row r="1026" hidden="1" spans="2:5">
       <c r="B1026" s="1" t="s">
@@ -28935,7 +29007,10 @@
       </c>
       <c r="E1026" s="6"/>
     </row>
-    <row r="1027" hidden="1" spans="2:5">
+    <row r="1027" spans="1:5">
+      <c r="A1027" s="1">
+        <v>1</v>
+      </c>
       <c r="B1027" s="1" t="s">
         <v>3211</v>
       </c>
@@ -28945,3205 +29020,3273 @@
       <c r="D1027" s="1" t="s">
         <v>3213</v>
       </c>
-      <c r="E1027" s="6"/>
-    </row>
-    <row r="1028" hidden="1" spans="2:5">
+      <c r="E1027" s="2" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4">
+      <c r="A1028" s="1">
+        <v>1</v>
+      </c>
       <c r="B1028" s="1" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="C1028" s="5" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="D1028" s="1" t="s">
-        <v>3216</v>
-      </c>
-      <c r="E1028" s="6"/>
+        <v>3217</v>
+      </c>
     </row>
     <row r="1029" hidden="1" spans="2:5">
       <c r="B1029" s="1" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1029" s="1" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1029" s="6"/>
     </row>
-    <row r="1030" hidden="1" spans="2:5">
+    <row r="1030" spans="1:4">
+      <c r="A1030" s="1">
+        <v>1</v>
+      </c>
       <c r="B1030" s="1" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="C1030" s="5" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="D1030" s="1" t="s">
-        <v>3222</v>
-      </c>
-      <c r="E1030" s="6"/>
+        <v>3223</v>
+      </c>
     </row>
     <row r="1031" hidden="1" spans="2:5">
       <c r="B1031" s="1" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="C1031" s="5" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="D1031" s="1" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="E1031" s="6"/>
     </row>
     <row r="1032" hidden="1" spans="2:5">
       <c r="B1032" s="1" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="C1032" s="5" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="D1032" s="1" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="E1032" s="6"/>
     </row>
     <row r="1033" hidden="1" spans="2:5">
       <c r="B1033" s="1" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="D1033" s="1" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="E1033" s="6"/>
     </row>
     <row r="1034" hidden="1" spans="2:5">
       <c r="B1034" s="1" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="C1034" s="5" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="D1034" s="1" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="E1034" s="6"/>
     </row>
-    <row r="1035" hidden="1" spans="2:5">
+    <row r="1035" spans="1:4">
+      <c r="A1035" s="1">
+        <v>1</v>
+      </c>
       <c r="B1035" s="1" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="C1035" s="5" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="E1035" s="6"/>
-    </row>
-    <row r="1036" hidden="1" spans="2:5">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4">
+      <c r="A1036" s="1">
+        <v>1</v>
+      </c>
       <c r="B1036" s="1" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="C1036" s="5" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="D1036" s="1" t="s">
-        <v>3240</v>
-      </c>
-      <c r="E1036" s="6"/>
-    </row>
-    <row r="1037" hidden="1" spans="2:5">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4">
+      <c r="A1037" s="1">
+        <v>1</v>
+      </c>
       <c r="B1037" s="1" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="C1037" s="5" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="D1037" s="1" t="s">
-        <v>3243</v>
-      </c>
-      <c r="E1037" s="6"/>
-    </row>
-    <row r="1038" hidden="1" spans="2:5">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4">
+      <c r="A1038" s="1">
+        <v>1</v>
+      </c>
       <c r="B1038" s="1" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1038" s="5" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="D1038" s="1" t="s">
-        <v>3246</v>
-      </c>
-      <c r="E1038" s="6"/>
+        <v>3247</v>
+      </c>
     </row>
     <row r="1039" hidden="1" spans="2:5">
       <c r="B1039" s="1" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="C1039" s="5" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="D1039" s="1" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="E1039" s="6"/>
     </row>
     <row r="1040" hidden="1" spans="2:5">
       <c r="B1040" s="1" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="C1040" s="5" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="D1040" s="1" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="E1040" s="6"/>
     </row>
     <row r="1041" hidden="1" spans="2:5">
       <c r="B1041" s="1" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="C1041" s="5" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="D1041" s="1" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="E1041" s="6"/>
     </row>
     <row r="1042" hidden="1" spans="2:5">
       <c r="B1042" s="1" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="C1042" s="5" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="D1042" s="1" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="E1042" s="6"/>
     </row>
     <row r="1043" hidden="1" spans="2:5">
       <c r="B1043" s="1" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="C1043" s="5" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="D1043" s="1" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E1043" s="6"/>
     </row>
     <row r="1044" hidden="1" spans="2:5">
       <c r="B1044" s="1" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="C1044" s="5" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="D1044" s="1" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="E1044" s="6"/>
     </row>
-    <row r="1045" hidden="1" spans="2:5">
+    <row r="1045" spans="1:4">
+      <c r="A1045" s="1">
+        <v>1</v>
+      </c>
       <c r="B1045" s="1" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="C1045" s="5" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D1045" s="1" t="s">
-        <v>3267</v>
-      </c>
-      <c r="E1045" s="6"/>
+        <v>3268</v>
+      </c>
     </row>
     <row r="1046" hidden="1" spans="2:5">
       <c r="B1046" s="1" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="D1046" s="1" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="E1046" s="6"/>
     </row>
     <row r="1047" hidden="1" spans="2:5">
       <c r="B1047" s="1" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="C1047" s="5" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="D1047" s="1" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="E1047" s="6"/>
     </row>
     <row r="1048" hidden="1" spans="2:5">
       <c r="B1048" s="1" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="C1048" s="5" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="D1048" s="1" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="E1048" s="6"/>
     </row>
     <row r="1049" hidden="1" spans="2:5">
       <c r="B1049" s="1" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="C1049" s="5" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="D1049" s="1" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="E1049" s="6"/>
     </row>
-    <row r="1050" hidden="1" spans="2:5">
+    <row r="1050" spans="1:4">
+      <c r="A1050" s="1">
+        <v>1</v>
+      </c>
       <c r="B1050" s="1" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="C1050" s="5" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="D1050" s="1" t="s">
-        <v>3282</v>
-      </c>
-      <c r="E1050" s="6"/>
-    </row>
-    <row r="1051" hidden="1" spans="2:5">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4">
+      <c r="A1051" s="1">
+        <v>1</v>
+      </c>
       <c r="B1051" s="1" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="C1051" s="5" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="D1051" s="1" t="s">
-        <v>3285</v>
-      </c>
-      <c r="E1051" s="6"/>
-    </row>
-    <row r="1052" hidden="1" spans="2:5">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4">
+      <c r="A1052" s="1">
+        <v>1</v>
+      </c>
       <c r="B1052" s="1" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="C1052" s="5" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="D1052" s="1" t="s">
-        <v>3288</v>
-      </c>
-      <c r="E1052" s="6"/>
+        <v>3289</v>
+      </c>
     </row>
     <row r="1053" hidden="1" spans="2:5">
       <c r="B1053" s="1" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="C1053" s="5" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="D1053" s="1" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="E1053" s="6" t="s">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="1054" hidden="1" spans="2:5">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4">
+      <c r="A1054" s="1">
+        <v>1</v>
+      </c>
       <c r="B1054" s="1" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="C1054" s="5" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="D1054" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="E1054" s="6"/>
-    </row>
-    <row r="1055" hidden="1" spans="2:5">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4">
+      <c r="A1055" s="1">
+        <v>1</v>
+      </c>
       <c r="B1055" s="1" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="C1055" s="5" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="D1055" s="1" t="s">
-        <v>3298</v>
-      </c>
-      <c r="E1055" s="6"/>
+        <v>3299</v>
+      </c>
     </row>
     <row r="1056" hidden="1" spans="2:5">
       <c r="B1056" s="1" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="C1056" s="5" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="D1056" s="1" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="E1056" s="6"/>
     </row>
     <row r="1057" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="C1057" s="5" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="D1057" s="1" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="E1057" s="6"/>
     </row>
     <row r="1058" hidden="1" spans="2:5">
       <c r="B1058" s="1" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="C1058" s="5" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="D1058" s="1" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="E1058" s="6"/>
     </row>
     <row r="1059" hidden="1" spans="2:5">
       <c r="B1059" s="1" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="C1059" s="5" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="D1059" s="1" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="E1059" s="6"/>
     </row>
-    <row r="1060" hidden="1" spans="2:5">
+    <row r="1060" spans="1:4">
+      <c r="A1060" s="1">
+        <v>1</v>
+      </c>
       <c r="B1060" s="1" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="C1060" s="5" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="D1060" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E1060" s="6"/>
+        <v>3314</v>
+      </c>
     </row>
     <row r="1061" hidden="1" spans="2:5">
       <c r="B1061" s="1" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="C1061" s="5" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="D1061" s="1" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="E1061" s="6"/>
     </row>
     <row r="1062" hidden="1" spans="2:5">
       <c r="B1062" s="1" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="C1062" s="5" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="D1062" s="1" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="E1062" s="6"/>
     </row>
     <row r="1063" hidden="1" spans="2:5">
       <c r="B1063" s="1" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="C1063" s="5" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="D1063" s="1" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="E1063" s="6"/>
     </row>
     <row r="1064" hidden="1" spans="2:5">
       <c r="B1064" s="1" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="C1064" s="5" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="D1064" s="1" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="E1064" s="6"/>
     </row>
     <row r="1065" hidden="1" spans="2:5">
       <c r="B1065" s="1" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="C1065" s="5" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="D1065" s="1" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="E1065" s="6"/>
     </row>
     <row r="1066" hidden="1" spans="2:5">
       <c r="B1066" s="1" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="C1066" s="5" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="D1066" s="1" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="E1066" s="6"/>
     </row>
     <row r="1067" hidden="1" spans="2:5">
       <c r="B1067" s="1" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="C1067" s="5" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="D1067" s="1" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="E1067" s="6"/>
     </row>
     <row r="1068" hidden="1" spans="2:5">
       <c r="B1068" s="1" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="C1068" s="5" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="D1068" s="1" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="E1068" s="6"/>
     </row>
     <row r="1069" hidden="1" spans="2:5">
       <c r="B1069" s="1" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="C1069" s="5" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="D1069" s="1" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="E1069" s="6"/>
     </row>
     <row r="1070" hidden="1" spans="2:5">
       <c r="B1070" s="1" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="C1070" s="5" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="D1070" s="1" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="E1070" s="6"/>
     </row>
-    <row r="1071" hidden="1" spans="2:5">
+    <row r="1071" spans="1:4">
+      <c r="A1071" s="1">
+        <v>1</v>
+      </c>
       <c r="B1071" s="1" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="C1071" s="5" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>3346</v>
-      </c>
-      <c r="E1071" s="6"/>
+        <v>3347</v>
+      </c>
     </row>
     <row r="1072" hidden="1" spans="2:5">
       <c r="B1072" s="1" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="C1072" s="5" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="D1072" s="1" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="E1072" s="6"/>
     </row>
-    <row r="1073" hidden="1" spans="2:5">
+    <row r="1073" spans="1:4">
+      <c r="A1073" s="1">
+        <v>1</v>
+      </c>
       <c r="B1073" s="1" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="C1073" s="5" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="D1073" s="1" t="s">
-        <v>3352</v>
-      </c>
-      <c r="E1073" s="6"/>
-    </row>
-    <row r="1074" hidden="1" spans="2:5">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4">
+      <c r="A1074" s="1">
+        <v>1</v>
+      </c>
       <c r="B1074" s="1" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="C1074" s="5" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="D1074" s="1" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E1074" s="6"/>
+        <v>3356</v>
+      </c>
     </row>
     <row r="1075" hidden="1" spans="2:5">
       <c r="B1075" s="1" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="C1075" s="5" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="D1075" s="1" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="E1075" s="6"/>
     </row>
-    <row r="1076" hidden="1" spans="2:5">
+    <row r="1076" spans="1:5">
+      <c r="A1076" s="1">
+        <v>1</v>
+      </c>
       <c r="B1076" s="1" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="C1076" s="5" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="D1076" s="1" t="s">
-        <v>3361</v>
-      </c>
-      <c r="E1076" s="6"/>
+        <v>3362</v>
+      </c>
+      <c r="E1076" s="2" t="s">
+        <v>3363</v>
+      </c>
     </row>
     <row r="1077" hidden="1" spans="2:5">
       <c r="B1077" s="1" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="C1077" s="5" t="s">
-        <v>3363</v>
+        <v>3365</v>
       </c>
       <c r="D1077" s="1" t="s">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="E1077" s="6"/>
     </row>
     <row r="1078" hidden="1" spans="2:5">
       <c r="B1078" s="1" t="s">
-        <v>3365</v>
+        <v>3367</v>
       </c>
       <c r="C1078" s="5" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="D1078" s="1" t="s">
-        <v>3367</v>
+        <v>3369</v>
       </c>
       <c r="E1078" s="6"/>
     </row>
     <row r="1079" hidden="1" spans="2:5">
       <c r="B1079" s="1" t="s">
-        <v>3368</v>
+        <v>3370</v>
       </c>
       <c r="C1079" s="5" t="s">
-        <v>3369</v>
+        <v>3371</v>
       </c>
       <c r="D1079" s="1" t="s">
-        <v>3370</v>
+        <v>3372</v>
       </c>
       <c r="E1079" s="6"/>
     </row>
     <row r="1080" hidden="1" spans="2:5">
       <c r="B1080" s="1" t="s">
-        <v>3371</v>
+        <v>3373</v>
       </c>
       <c r="C1080" s="5" t="s">
-        <v>3372</v>
+        <v>3374</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>3373</v>
+        <v>3375</v>
       </c>
       <c r="E1080" s="6"/>
     </row>
     <row r="1081" hidden="1" spans="2:5">
       <c r="B1081" s="1" t="s">
-        <v>3374</v>
+        <v>3376</v>
       </c>
       <c r="C1081" s="5" t="s">
-        <v>3375</v>
+        <v>3377</v>
       </c>
       <c r="D1081" s="1" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="E1081" s="6"/>
     </row>
     <row r="1082" hidden="1" spans="2:5">
       <c r="B1082" s="1" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="C1082" s="5" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
       <c r="D1082" s="1" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="E1082" s="6"/>
     </row>
-    <row r="1083" hidden="1" spans="2:5">
+    <row r="1083" spans="1:4">
+      <c r="A1083" s="1">
+        <v>1</v>
+      </c>
       <c r="B1083" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C1083" s="5" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="D1083" s="1" t="s">
-        <v>3381</v>
-      </c>
-      <c r="E1083" s="6"/>
+        <v>3383</v>
+      </c>
     </row>
     <row r="1084" hidden="1" spans="2:5">
       <c r="B1084" s="1" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="C1084" s="5" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
       <c r="D1084" s="1" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="E1084" s="6"/>
     </row>
-    <row r="1085" hidden="1" spans="2:5">
+    <row r="1085" spans="1:5">
+      <c r="A1085" s="1">
+        <v>1</v>
+      </c>
       <c r="B1085" s="1" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="C1085" s="5" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="D1085" s="1" t="s">
-        <v>3387</v>
-      </c>
-      <c r="E1085" s="6" t="s">
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="1086" hidden="1" spans="2:5">
+        <v>3389</v>
+      </c>
+      <c r="E1085" s="2" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5">
+      <c r="A1086" s="1">
+        <v>1</v>
+      </c>
       <c r="B1086" s="1" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="C1086" s="5" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="D1086" s="1" t="s">
-        <v>3391</v>
-      </c>
-      <c r="E1086" s="6" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="1087" hidden="1" spans="2:5">
+        <v>3393</v>
+      </c>
+      <c r="E1086" s="2" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4">
+      <c r="A1087" s="1">
+        <v>1</v>
+      </c>
       <c r="B1087" s="1" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="C1087" s="5" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="D1087" s="1" t="s">
-        <v>3395</v>
-      </c>
-      <c r="E1087" s="6"/>
+        <v>3397</v>
+      </c>
     </row>
     <row r="1088" hidden="1" spans="2:5">
       <c r="B1088" s="1" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="C1088" s="5" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="D1088" s="1" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="E1088" s="6"/>
     </row>
     <row r="1089" hidden="1" spans="2:5">
       <c r="B1089" s="1" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="C1089" s="5" t="s">
-        <v>3400</v>
+        <v>3402</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="E1089" s="6"/>
     </row>
-    <row r="1090" hidden="1" spans="2:5">
+    <row r="1090" spans="1:4">
+      <c r="A1090" s="1">
+        <v>1</v>
+      </c>
       <c r="B1090" s="1" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="C1090" s="5" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="D1090" s="1" t="s">
-        <v>3404</v>
-      </c>
-      <c r="E1090" s="6"/>
-    </row>
-    <row r="1091" hidden="1" spans="2:5">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4">
+      <c r="A1091" s="1">
+        <v>1</v>
+      </c>
       <c r="B1091" s="1" t="s">
-        <v>3405</v>
+        <v>3407</v>
       </c>
       <c r="C1091" s="5" t="s">
-        <v>3406</v>
+        <v>3408</v>
       </c>
       <c r="D1091" s="1" t="s">
-        <v>3407</v>
-      </c>
-      <c r="E1091" s="6"/>
-    </row>
-    <row r="1092" hidden="1" spans="2:5">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4">
+      <c r="A1092" s="1">
+        <v>1</v>
+      </c>
       <c r="B1092" s="1" t="s">
-        <v>3408</v>
+        <v>3410</v>
       </c>
       <c r="C1092" s="5" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
       <c r="D1092" s="1" t="s">
-        <v>3410</v>
-      </c>
-      <c r="E1092" s="6"/>
+        <v>3412</v>
+      </c>
     </row>
     <row r="1093" hidden="1" spans="2:5">
       <c r="B1093" s="1" t="s">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="C1093" s="5" t="s">
-        <v>3412</v>
+        <v>3414</v>
       </c>
       <c r="D1093" s="1" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
       <c r="E1093" s="6"/>
     </row>
-    <row r="1094" hidden="1" spans="2:5">
+    <row r="1094" spans="1:4">
+      <c r="A1094" s="1">
+        <v>1</v>
+      </c>
       <c r="B1094" s="1" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="C1094" s="5" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="D1094" s="1" t="s">
-        <v>3416</v>
-      </c>
-      <c r="E1094" s="6"/>
-    </row>
-    <row r="1095" hidden="1" spans="2:5">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4">
+      <c r="A1095" s="1">
+        <v>1</v>
+      </c>
       <c r="B1095" s="1" t="s">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="C1095" s="5" t="s">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="D1095" s="1" t="s">
-        <v>3419</v>
-      </c>
-      <c r="E1095" s="6"/>
-    </row>
-    <row r="1096" hidden="1" spans="2:5">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4">
+      <c r="A1096" s="1">
+        <v>1</v>
+      </c>
       <c r="B1096" s="1" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="C1096" s="5" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="D1096" s="1" t="s">
-        <v>3422</v>
-      </c>
-      <c r="E1096" s="6"/>
+        <v>3424</v>
+      </c>
     </row>
     <row r="1097" hidden="1" spans="2:5">
       <c r="B1097" s="1" t="s">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="C1097" s="5" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>3425</v>
+        <v>3427</v>
       </c>
       <c r="E1097" s="6"/>
     </row>
     <row r="1098" hidden="1" spans="2:5">
       <c r="B1098" s="1" t="s">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="C1098" s="5" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="D1098" s="1" t="s">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="E1098" s="6"/>
     </row>
-    <row r="1099" hidden="1" spans="2:5">
+    <row r="1099" spans="1:4">
+      <c r="A1099" s="1">
+        <v>1</v>
+      </c>
       <c r="B1099" s="1" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="C1099" s="5" t="s">
-        <v>3430</v>
+        <v>3432</v>
       </c>
       <c r="D1099" s="1" t="s">
-        <v>3431</v>
-      </c>
-      <c r="E1099" s="6"/>
-    </row>
-    <row r="1100" hidden="1" spans="2:5">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5">
+      <c r="A1100" s="1">
+        <v>1</v>
+      </c>
       <c r="B1100" s="1" t="s">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="C1100" s="5" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="D1100" s="1" t="s">
-        <v>3434</v>
-      </c>
-      <c r="E1100" s="6"/>
+        <v>3436</v>
+      </c>
+      <c r="E1100" s="2" t="s">
+        <v>3437</v>
+      </c>
     </row>
     <row r="1101" hidden="1" spans="2:5">
       <c r="B1101" s="1" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
       <c r="C1101" s="5" t="s">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="D1101" s="1" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="E1101" s="6"/>
     </row>
     <row r="1102" hidden="1" spans="2:5">
       <c r="B1102" s="1" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="C1102" s="5" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="E1102" s="6"/>
     </row>
     <row r="1103" hidden="1" spans="2:5">
       <c r="B1103" s="1" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
       <c r="E1103" s="6"/>
     </row>
     <row r="1104" hidden="1" spans="2:5">
       <c r="B1104" s="1" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="C1104" s="5" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="E1104" s="6"/>
     </row>
     <row r="1105" hidden="1" spans="2:5">
       <c r="B1105" s="1" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
       <c r="D1105" s="1" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="E1105" s="6"/>
     </row>
     <row r="1106" hidden="1" spans="2:5">
       <c r="B1106" s="1" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="D1106" s="1" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="E1106" s="6"/>
     </row>
     <row r="1107" ht="48" hidden="1" spans="2:5">
       <c r="B1107" s="1" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="D1107" s="1" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="E1107" s="6"/>
     </row>
     <row r="1108" ht="48" hidden="1" spans="2:5">
       <c r="B1108" s="1" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="E1108" s="6"/>
     </row>
     <row r="1109" hidden="1" spans="2:5">
       <c r="B1109" s="1" t="s">
-        <v>3459</v>
+        <v>3462</v>
       </c>
       <c r="C1109" s="5" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="D1109" s="1" t="s">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="E1109" s="6"/>
     </row>
     <row r="1110" hidden="1" spans="2:5">
       <c r="B1110" s="1" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="C1110" s="5" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="D1110" s="1" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="E1110" s="6"/>
     </row>
     <row r="1111" hidden="1" spans="2:5">
       <c r="B1111" s="1" t="s">
-        <v>3465</v>
+        <v>3468</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>3466</v>
+        <v>3469</v>
       </c>
       <c r="D1111" s="1" t="s">
-        <v>3467</v>
+        <v>3470</v>
       </c>
       <c r="E1111" s="6"/>
     </row>
     <row r="1112" hidden="1" spans="2:5">
       <c r="B1112" s="1" t="s">
-        <v>3468</v>
+        <v>3471</v>
       </c>
       <c r="C1112" s="5" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="D1112" s="1" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="E1112" s="6"/>
     </row>
     <row r="1113" hidden="1" spans="2:5">
       <c r="B1113" s="1" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>3472</v>
+        <v>3475</v>
       </c>
       <c r="D1113" s="1" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
       <c r="E1113" s="6"/>
     </row>
     <row r="1114" hidden="1" spans="2:5">
       <c r="B1114" s="1" t="s">
-        <v>3474</v>
+        <v>3477</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="D1114" s="1" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="E1114" s="6"/>
     </row>
     <row r="1115" ht="48" hidden="1" spans="2:5">
       <c r="B1115" s="1" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
       <c r="D1115" s="1" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="E1115" s="6"/>
     </row>
     <row r="1116" hidden="1" spans="2:5">
       <c r="B1116" s="1" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="D1116" s="1" t="s">
-        <v>3482</v>
+        <v>3485</v>
       </c>
       <c r="E1116" s="6"/>
     </row>
     <row r="1117" hidden="1" spans="2:5">
       <c r="B1117" s="1" t="s">
-        <v>3483</v>
+        <v>3486</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="D1117" s="1" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E1117" s="6" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1118" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="C1118" s="5" t="s">
         <v>764</v>
       </c>
       <c r="D1118" s="1" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="E1118" s="6"/>
     </row>
     <row r="1119" hidden="1" spans="2:5">
       <c r="B1119" s="1" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="E1119" s="6"/>
     </row>
     <row r="1120" hidden="1" spans="2:5">
       <c r="B1120" s="1" t="s">
-        <v>3492</v>
+        <v>3495</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="E1120" s="6"/>
     </row>
     <row r="1121" hidden="1" spans="2:5">
       <c r="B1121" s="1" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="E1121" s="6"/>
     </row>
     <row r="1122" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
-        <v>3498</v>
+        <v>3501</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>3499</v>
+        <v>3502</v>
       </c>
       <c r="D1122" s="1" t="s">
-        <v>3500</v>
+        <v>3503</v>
       </c>
       <c r="E1122" s="6"/>
     </row>
     <row r="1123" hidden="1" spans="2:5">
       <c r="B1123" s="1" t="s">
-        <v>3501</v>
+        <v>3504</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>3502</v>
+        <v>3505</v>
       </c>
       <c r="D1123" s="1" t="s">
-        <v>3503</v>
+        <v>3506</v>
       </c>
       <c r="E1123" s="6"/>
     </row>
     <row r="1124" ht="48" hidden="1" spans="2:5">
       <c r="B1124" s="1" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>3505</v>
+        <v>3508</v>
       </c>
       <c r="D1124" s="1" t="s">
-        <v>3506</v>
+        <v>3509</v>
       </c>
       <c r="E1124" s="6"/>
     </row>
     <row r="1125" hidden="1" spans="2:5">
       <c r="B1125" s="1" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="D1125" s="1" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
       <c r="E1125" s="6"/>
     </row>
     <row r="1126" hidden="1" spans="2:5">
       <c r="B1126" s="1" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="D1126" s="1" t="s">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="E1126" s="6"/>
     </row>
     <row r="1127" hidden="1" spans="2:5">
       <c r="B1127" s="1" t="s">
-        <v>3513</v>
+        <v>3516</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>3514</v>
+        <v>3517</v>
       </c>
       <c r="D1127" s="1" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
       <c r="E1127" s="6"/>
     </row>
     <row r="1128" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>3517</v>
+        <v>3520</v>
       </c>
       <c r="D1128" s="1" t="s">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="E1128" s="6"/>
     </row>
     <row r="1129" ht="48" hidden="1" spans="2:5">
       <c r="B1129" s="1" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>3520</v>
+        <v>3523</v>
       </c>
       <c r="D1129" s="1" t="s">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="E1129" s="6"/>
     </row>
     <row r="1130" hidden="1" spans="2:5">
       <c r="B1130" s="1" t="s">
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>3523</v>
+        <v>3526</v>
       </c>
       <c r="D1130" s="1" t="s">
-        <v>3524</v>
+        <v>3527</v>
       </c>
       <c r="E1130" s="6"/>
     </row>
     <row r="1131" hidden="1" spans="2:5">
       <c r="B1131" s="1" t="s">
-        <v>3525</v>
+        <v>3528</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>3526</v>
+        <v>3529</v>
       </c>
       <c r="D1131" s="1" t="s">
-        <v>3527</v>
+        <v>3530</v>
       </c>
       <c r="E1131" s="6"/>
     </row>
     <row r="1132" hidden="1" spans="2:5">
       <c r="B1132" s="1" t="s">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="D1132" s="1" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="E1132" s="6"/>
     </row>
     <row r="1133" hidden="1" spans="2:5">
       <c r="B1133" s="1" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="D1133" s="1" t="s">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="E1133" s="6"/>
     </row>
     <row r="1134" hidden="1" spans="2:5">
       <c r="B1134" s="1" t="s">
-        <v>3534</v>
+        <v>3537</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="D1134" s="1" t="s">
-        <v>3536</v>
+        <v>3539</v>
       </c>
       <c r="E1134" s="6"/>
     </row>
     <row r="1135" hidden="1" spans="2:5">
       <c r="B1135" s="1" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>3538</v>
+        <v>3541</v>
       </c>
       <c r="D1135" s="1" t="s">
-        <v>3539</v>
+        <v>3542</v>
       </c>
       <c r="E1135" s="6"/>
     </row>
     <row r="1136" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
-        <v>3540</v>
+        <v>3543</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="D1136" s="1" t="s">
-        <v>3542</v>
+        <v>3545</v>
       </c>
       <c r="E1136" s="6"/>
     </row>
     <row r="1137" hidden="1" spans="2:5">
       <c r="B1137" s="1" t="s">
-        <v>3543</v>
+        <v>3546</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="D1137" s="1" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="E1137" s="6"/>
     </row>
     <row r="1138" hidden="1" spans="2:5">
       <c r="B1138" s="1" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="D1138" s="1" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="E1138" s="6"/>
     </row>
     <row r="1139" hidden="1" spans="2:5">
       <c r="B1139" s="1" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="E1139" s="6"/>
     </row>
     <row r="1140" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>3553</v>
+        <v>3556</v>
       </c>
       <c r="D1140" s="1" t="s">
-        <v>3554</v>
+        <v>3557</v>
       </c>
       <c r="E1140" s="6"/>
     </row>
     <row r="1141" hidden="1" spans="2:5">
       <c r="B1141" s="1" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="E1141" s="6"/>
     </row>
     <row r="1142" hidden="1" spans="2:5">
       <c r="B1142" s="1" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="D1142" s="1" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="E1142" s="6"/>
     </row>
     <row r="1143" hidden="1" spans="2:5">
       <c r="B1143" s="1" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="E1143" s="6"/>
     </row>
     <row r="1144" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="D1144" s="1" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E1144" s="6"/>
     </row>
     <row r="1145" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>3568</v>
+        <v>3571</v>
       </c>
       <c r="D1145" s="1" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="E1145" s="6"/>
     </row>
     <row r="1146" hidden="1" spans="2:5">
       <c r="B1146" s="1" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
       <c r="E1146" s="6"/>
     </row>
     <row r="1147" hidden="1" spans="2:5">
       <c r="B1147" s="1" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="D1147" s="1" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
       <c r="E1147" s="6"/>
     </row>
     <row r="1148" hidden="1" spans="2:5">
       <c r="B1148" s="1" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="D1148" s="1" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
       <c r="E1148" s="6"/>
     </row>
     <row r="1149" hidden="1" spans="2:5">
       <c r="B1149" s="1" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="E1149" s="6"/>
     </row>
     <row r="1150" hidden="1" spans="2:5">
       <c r="B1150" s="1" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="D1150" s="1" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="E1150" s="6"/>
     </row>
     <row r="1151" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="D1151" s="1" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="E1151" s="6"/>
     </row>
     <row r="1152" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
-        <v>3587</v>
+        <v>3590</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="D1152" s="1" t="s">
-        <v>3589</v>
+        <v>3592</v>
       </c>
       <c r="E1152" s="6"/>
     </row>
     <row r="1153" hidden="1" spans="2:5">
       <c r="B1153" s="1" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
       <c r="E1153" s="6"/>
     </row>
     <row r="1154" hidden="1" spans="2:5">
       <c r="B1154" s="1" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="D1154" s="1" t="s">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="E1154" s="6"/>
     </row>
     <row r="1155" hidden="1" spans="2:5">
       <c r="B1155" s="1" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="D1155" s="1" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="E1155" s="6"/>
     </row>
     <row r="1156" ht="48" hidden="1" spans="2:5">
       <c r="B1156" s="1" t="s">
-        <v>3599</v>
+        <v>3602</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="D1156" s="1" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="E1156" s="6"/>
     </row>
     <row r="1157" ht="48" hidden="1" spans="2:5">
       <c r="B1157" s="1" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="D1157" s="1" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="E1157" s="6"/>
     </row>
     <row r="1158" hidden="1" spans="2:5">
       <c r="B1158" s="1" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>3606</v>
+        <v>3609</v>
       </c>
       <c r="D1158" s="1" t="s">
-        <v>3607</v>
+        <v>3610</v>
       </c>
       <c r="E1158" s="6"/>
     </row>
     <row r="1159" hidden="1" spans="2:5">
       <c r="B1159" s="1" t="s">
-        <v>3608</v>
+        <v>3611</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="D1159" s="1" t="s">
-        <v>3610</v>
+        <v>3613</v>
       </c>
       <c r="E1159" s="6"/>
     </row>
     <row r="1160" hidden="1" spans="2:5">
       <c r="B1160" s="1" t="s">
-        <v>3611</v>
+        <v>3614</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="D1160" s="1" t="s">
-        <v>3613</v>
+        <v>3616</v>
       </c>
       <c r="E1160" s="6"/>
     </row>
     <row r="1161" hidden="1" spans="2:5">
       <c r="B1161" s="1" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="D1161" s="1" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
       <c r="E1161" s="6"/>
     </row>
     <row r="1162" hidden="1" spans="2:5">
       <c r="B1162" s="1" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>3619</v>
+        <v>3622</v>
       </c>
       <c r="E1162" s="6"/>
     </row>
     <row r="1163" hidden="1" spans="2:5">
       <c r="B1163" s="1" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
       <c r="D1163" s="1" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="E1163" s="6"/>
     </row>
     <row r="1164" hidden="1" spans="2:5">
       <c r="B1164" s="1" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="E1164" s="6"/>
     </row>
     <row r="1165" hidden="1" spans="2:5">
       <c r="B1165" s="1" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="E1165" s="6"/>
     </row>
     <row r="1166" hidden="1" spans="2:5">
       <c r="B1166" s="1" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="D1166" s="1" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
       <c r="E1166" s="6"/>
     </row>
     <row r="1167" hidden="1" spans="2:5">
       <c r="B1167" s="1" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="D1167" s="1" t="s">
-        <v>3634</v>
+        <v>3637</v>
       </c>
       <c r="E1167" s="6"/>
     </row>
     <row r="1168" hidden="1" spans="2:5">
       <c r="B1168" s="1" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="D1168" s="1" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="E1168" s="6"/>
     </row>
     <row r="1169" hidden="1" spans="2:5">
       <c r="B1169" s="1" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="E1169" s="6"/>
     </row>
     <row r="1170" hidden="1" spans="2:5">
       <c r="B1170" s="1" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="D1170" s="1" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="E1170" s="6"/>
     </row>
     <row r="1171" hidden="1" spans="2:5">
       <c r="B1171" s="1" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="D1171" s="1" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="E1171" s="6"/>
     </row>
     <row r="1172" hidden="1" spans="2:5">
       <c r="B1172" s="1" t="s">
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="D1172" s="1" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="E1172" s="6"/>
     </row>
     <row r="1173" hidden="1" spans="2:5">
       <c r="B1173" s="1" t="s">
-        <v>3650</v>
+        <v>3653</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="D1173" s="1" t="s">
-        <v>3652</v>
+        <v>3655</v>
       </c>
       <c r="E1173" s="6"/>
     </row>
     <row r="1174" hidden="1" spans="2:5">
       <c r="B1174" s="1" t="s">
-        <v>3653</v>
+        <v>3656</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>3654</v>
+        <v>3657</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="E1174" s="6"/>
     </row>
     <row r="1175" hidden="1" spans="2:5">
       <c r="B1175" s="1" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="D1175" s="1" t="s">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="E1175" s="6"/>
     </row>
     <row r="1176" hidden="1" spans="2:5">
       <c r="B1176" s="1" t="s">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="D1176" s="1" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
       <c r="E1176" s="6"/>
     </row>
     <row r="1177" hidden="1" spans="2:5">
       <c r="B1177" s="1" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="D1177" s="1" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
       <c r="E1177" s="6"/>
     </row>
     <row r="1178" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>3666</v>
+        <v>3669</v>
       </c>
       <c r="D1178" s="1" t="s">
-        <v>3667</v>
+        <v>3670</v>
       </c>
       <c r="E1178" s="6"/>
     </row>
     <row r="1179" hidden="1" spans="2:5">
       <c r="B1179" s="1" t="s">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>3669</v>
+        <v>3672</v>
       </c>
       <c r="D1179" s="1" t="s">
-        <v>3670</v>
+        <v>3673</v>
       </c>
       <c r="E1179" s="6"/>
     </row>
     <row r="1180" hidden="1" spans="2:5">
       <c r="B1180" s="1" t="s">
-        <v>3671</v>
+        <v>3674</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="D1180" s="1" t="s">
-        <v>3673</v>
+        <v>3676</v>
       </c>
       <c r="E1180" s="6"/>
     </row>
     <row r="1181" hidden="1" spans="2:5">
       <c r="B1181" s="1" t="s">
-        <v>3674</v>
+        <v>3677</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="D1181" s="1" t="s">
-        <v>3676</v>
+        <v>3679</v>
       </c>
       <c r="E1181" s="6"/>
     </row>
     <row r="1182" hidden="1" spans="2:5">
       <c r="B1182" s="1" t="s">
-        <v>3677</v>
+        <v>3680</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="D1182" s="1" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="E1182" s="6"/>
     </row>
     <row r="1183" hidden="1" spans="2:5">
       <c r="B1183" s="1" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>3681</v>
+        <v>3684</v>
       </c>
       <c r="D1183" s="1" t="s">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="E1183" s="6"/>
     </row>
     <row r="1184" hidden="1" spans="2:5">
       <c r="B1184" s="1" t="s">
-        <v>3683</v>
+        <v>3686</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>3684</v>
+        <v>3687</v>
       </c>
       <c r="D1184" s="1" t="s">
-        <v>3685</v>
+        <v>3688</v>
       </c>
       <c r="E1184" s="6"/>
     </row>
     <row r="1185" hidden="1" spans="2:5">
       <c r="B1185" s="1" t="s">
-        <v>3686</v>
+        <v>3689</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>3687</v>
+        <v>3690</v>
       </c>
       <c r="D1185" s="1" t="s">
-        <v>3688</v>
+        <v>3691</v>
       </c>
       <c r="E1185" s="6"/>
     </row>
     <row r="1186" hidden="1" spans="2:5">
       <c r="B1186" s="1" t="s">
-        <v>3689</v>
+        <v>3692</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>3690</v>
+        <v>3693</v>
       </c>
       <c r="D1186" s="1" t="s">
-        <v>3691</v>
+        <v>3694</v>
       </c>
       <c r="E1186" s="6"/>
     </row>
     <row r="1187" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
-        <v>3692</v>
+        <v>3695</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>3693</v>
+        <v>3696</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>3694</v>
+        <v>3697</v>
       </c>
       <c r="E1187" s="6"/>
     </row>
     <row r="1188" hidden="1" spans="2:5">
       <c r="B1188" s="1" t="s">
-        <v>3695</v>
+        <v>3698</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>3696</v>
+        <v>3699</v>
       </c>
       <c r="D1188" s="1" t="s">
-        <v>3697</v>
+        <v>3700</v>
       </c>
       <c r="E1188" s="6"/>
     </row>
     <row r="1189" hidden="1" spans="2:5">
       <c r="B1189" s="1" t="s">
-        <v>3698</v>
+        <v>3701</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>3699</v>
+        <v>3702</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="E1189" s="6"/>
     </row>
     <row r="1190" hidden="1" spans="2:5">
       <c r="B1190" s="1" t="s">
-        <v>3701</v>
+        <v>3704</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>3702</v>
+        <v>3705</v>
       </c>
       <c r="D1190" s="1" t="s">
-        <v>3703</v>
+        <v>3706</v>
       </c>
       <c r="E1190" s="6"/>
     </row>
     <row r="1191" hidden="1" spans="2:5">
       <c r="B1191" s="1" t="s">
-        <v>3704</v>
+        <v>3707</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>3705</v>
+        <v>3708</v>
       </c>
       <c r="D1191" s="1" t="s">
-        <v>3706</v>
+        <v>3709</v>
       </c>
       <c r="E1191" s="6"/>
     </row>
     <row r="1192" hidden="1" spans="2:5">
       <c r="B1192" s="1" t="s">
-        <v>3707</v>
+        <v>3710</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>3708</v>
+        <v>3711</v>
       </c>
       <c r="D1192" s="1" t="s">
-        <v>3709</v>
+        <v>3712</v>
       </c>
       <c r="E1192" s="6"/>
     </row>
     <row r="1193" hidden="1" spans="2:5">
       <c r="B1193" s="1" t="s">
-        <v>3710</v>
+        <v>3713</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>3711</v>
+        <v>3714</v>
       </c>
       <c r="D1193" s="1" t="s">
-        <v>3712</v>
+        <v>3715</v>
       </c>
       <c r="E1193" s="6"/>
     </row>
     <row r="1194" hidden="1" spans="2:5">
       <c r="B1194" s="1" t="s">
-        <v>3713</v>
+        <v>3716</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>3714</v>
+        <v>3717</v>
       </c>
       <c r="D1194" s="1" t="s">
-        <v>3715</v>
+        <v>3718</v>
       </c>
       <c r="E1194" s="6"/>
     </row>
     <row r="1195" hidden="1" spans="2:5">
       <c r="B1195" s="1" t="s">
-        <v>3716</v>
+        <v>3719</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>3717</v>
+        <v>3720</v>
       </c>
       <c r="D1195" s="1" t="s">
-        <v>3718</v>
+        <v>3721</v>
       </c>
       <c r="E1195" s="6"/>
     </row>
     <row r="1196" hidden="1" spans="2:5">
       <c r="B1196" s="1" t="s">
-        <v>3719</v>
+        <v>3722</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="D1196" s="1" t="s">
-        <v>3721</v>
+        <v>3724</v>
       </c>
       <c r="E1196" s="6"/>
     </row>
     <row r="1197" hidden="1" spans="2:5">
       <c r="B1197" s="1" t="s">
-        <v>3722</v>
+        <v>3725</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>3723</v>
+        <v>3726</v>
       </c>
       <c r="D1197" s="1" t="s">
-        <v>3724</v>
+        <v>3727</v>
       </c>
       <c r="E1197" s="6"/>
     </row>
     <row r="1198" hidden="1" spans="2:5">
       <c r="B1198" s="1" t="s">
-        <v>3725</v>
+        <v>3728</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>3726</v>
+        <v>3729</v>
       </c>
       <c r="D1198" s="1" t="s">
-        <v>3727</v>
+        <v>3730</v>
       </c>
       <c r="E1198" s="6" t="s">
-        <v>3728</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="1199" hidden="1" spans="2:5">
       <c r="B1199" s="1" t="s">
-        <v>3729</v>
+        <v>3732</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>3730</v>
+        <v>3733</v>
       </c>
       <c r="D1199" s="1" t="s">
-        <v>3731</v>
+        <v>3734</v>
       </c>
       <c r="E1199" s="6"/>
     </row>
     <row r="1200" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
-        <v>3732</v>
+        <v>3735</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>3733</v>
+        <v>3736</v>
       </c>
       <c r="D1200" s="1" t="s">
-        <v>3734</v>
+        <v>3737</v>
       </c>
       <c r="E1200" s="6" t="s">
-        <v>3735</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="1201" hidden="1" spans="2:5">
       <c r="B1201" s="1" t="s">
-        <v>3736</v>
+        <v>3739</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>3737</v>
+        <v>3740</v>
       </c>
       <c r="D1201" s="1" t="s">
-        <v>3738</v>
+        <v>3741</v>
       </c>
       <c r="E1201" s="6"/>
     </row>
     <row r="1202" hidden="1" spans="2:5">
       <c r="B1202" s="1" t="s">
-        <v>3739</v>
+        <v>3742</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>3740</v>
+        <v>3743</v>
       </c>
       <c r="D1202" s="1" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="E1202" s="6"/>
     </row>
     <row r="1203" hidden="1" spans="2:5">
       <c r="B1203" s="1" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>3743</v>
+        <v>3746</v>
       </c>
       <c r="D1203" s="1" t="s">
-        <v>3744</v>
+        <v>3747</v>
       </c>
       <c r="E1203" s="6"/>
     </row>
     <row r="1204" hidden="1" spans="2:5">
       <c r="B1204" s="1" t="s">
-        <v>3745</v>
+        <v>3748</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>3746</v>
+        <v>3749</v>
       </c>
       <c r="D1204" s="1" t="s">
-        <v>3747</v>
+        <v>3750</v>
       </c>
       <c r="E1204" s="6"/>
     </row>
     <row r="1205" hidden="1" spans="2:5">
       <c r="B1205" s="1" t="s">
-        <v>3748</v>
+        <v>3751</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>3749</v>
+        <v>3752</v>
       </c>
       <c r="D1205" s="1" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E1205" s="6"/>
     </row>
     <row r="1206" hidden="1" spans="2:5">
       <c r="B1206" s="1" t="s">
-        <v>3751</v>
+        <v>3754</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>3752</v>
+        <v>3755</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>3753</v>
+        <v>3756</v>
       </c>
       <c r="E1206" s="6"/>
     </row>
     <row r="1207" hidden="1" spans="2:5">
       <c r="B1207" s="1" t="s">
-        <v>3754</v>
+        <v>3757</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="D1207" s="1" t="s">
-        <v>3756</v>
+        <v>3759</v>
       </c>
       <c r="E1207" s="6"/>
     </row>
     <row r="1208" hidden="1" spans="2:5">
       <c r="B1208" s="1" t="s">
-        <v>3757</v>
+        <v>3760</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>3758</v>
+        <v>3761</v>
       </c>
       <c r="D1208" s="1" t="s">
-        <v>3759</v>
+        <v>3762</v>
       </c>
       <c r="E1208" s="6"/>
     </row>
     <row r="1209" hidden="1" spans="2:5">
       <c r="B1209" s="1" t="s">
-        <v>3760</v>
+        <v>3763</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>3761</v>
+        <v>3764</v>
       </c>
       <c r="D1209" s="1" t="s">
-        <v>3762</v>
+        <v>3765</v>
       </c>
       <c r="E1209" s="6"/>
     </row>
     <row r="1210" hidden="1" spans="2:5">
       <c r="B1210" s="1" t="s">
-        <v>3763</v>
+        <v>3766</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>3764</v>
+        <v>3767</v>
       </c>
       <c r="D1210" s="1" t="s">
-        <v>3765</v>
+        <v>3768</v>
       </c>
       <c r="E1210" s="6"/>
     </row>
     <row r="1211" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
-        <v>3766</v>
+        <v>3769</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>3767</v>
+        <v>3770</v>
       </c>
       <c r="D1211" s="1" t="s">
-        <v>3768</v>
+        <v>3771</v>
       </c>
       <c r="E1211" s="6"/>
     </row>
     <row r="1212" hidden="1" spans="2:5">
       <c r="B1212" s="1" t="s">
-        <v>3769</v>
+        <v>3772</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>3770</v>
+        <v>3773</v>
       </c>
       <c r="D1212" s="1" t="s">
-        <v>3771</v>
+        <v>3774</v>
       </c>
       <c r="E1212" s="6"/>
     </row>
     <row r="1213" hidden="1" spans="2:5">
       <c r="B1213" s="1" t="s">
-        <v>3772</v>
+        <v>3775</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>3773</v>
+        <v>3776</v>
       </c>
       <c r="D1213" s="1" t="s">
-        <v>3774</v>
+        <v>3777</v>
       </c>
       <c r="E1213" s="6"/>
     </row>
     <row r="1214" hidden="1" spans="2:5">
       <c r="B1214" s="1" t="s">
-        <v>3775</v>
+        <v>3778</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>3776</v>
+        <v>3779</v>
       </c>
       <c r="D1214" s="1" t="s">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="E1214" s="6"/>
     </row>
     <row r="1215" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
-        <v>3778</v>
+        <v>3781</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>3779</v>
+        <v>3782</v>
       </c>
       <c r="D1215" s="1" t="s">
-        <v>3780</v>
+        <v>3783</v>
       </c>
       <c r="E1215" s="6"/>
     </row>
     <row r="1216" hidden="1" spans="2:5">
       <c r="B1216" s="1" t="s">
-        <v>3781</v>
+        <v>3784</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>3782</v>
+        <v>3785</v>
       </c>
       <c r="D1216" s="1" t="s">
-        <v>3783</v>
+        <v>3786</v>
       </c>
       <c r="E1216" s="6"/>
     </row>
     <row r="1217" hidden="1" spans="2:5">
       <c r="B1217" s="1" t="s">
-        <v>3784</v>
+        <v>3787</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>3785</v>
+        <v>3788</v>
       </c>
       <c r="D1217" s="1" t="s">
-        <v>3786</v>
+        <v>3789</v>
       </c>
       <c r="E1217" s="6"/>
     </row>
     <row r="1218" hidden="1" spans="2:5">
       <c r="B1218" s="1" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>3788</v>
+        <v>3791</v>
       </c>
       <c r="D1218" s="1" t="s">
-        <v>3789</v>
+        <v>3792</v>
       </c>
       <c r="E1218" s="6"/>
     </row>
     <row r="1219" hidden="1" spans="2:5">
       <c r="B1219" s="1" t="s">
-        <v>3790</v>
+        <v>3793</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="D1219" s="1" t="s">
-        <v>3792</v>
+        <v>3795</v>
       </c>
       <c r="E1219" s="6"/>
     </row>
     <row r="1220" hidden="1" spans="2:5">
       <c r="B1220" s="1" t="s">
-        <v>3793</v>
+        <v>3796</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>3794</v>
+        <v>3797</v>
       </c>
       <c r="D1220" s="1" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="E1220" s="6"/>
     </row>
     <row r="1221" hidden="1" spans="2:5">
       <c r="B1221" s="1" t="s">
-        <v>3796</v>
+        <v>3799</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>3797</v>
+        <v>3800</v>
       </c>
       <c r="D1221" s="1" t="s">
-        <v>3798</v>
+        <v>3801</v>
       </c>
       <c r="E1221" s="6"/>
     </row>
     <row r="1222" hidden="1" spans="2:5">
       <c r="B1222" s="1" t="s">
-        <v>3799</v>
+        <v>3802</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>3800</v>
+        <v>3803</v>
       </c>
       <c r="D1222" s="1" t="s">
-        <v>3801</v>
+        <v>3804</v>
       </c>
       <c r="E1222" s="6"/>
     </row>
     <row r="1223" hidden="1" spans="2:5">
       <c r="B1223" s="1" t="s">
-        <v>3802</v>
+        <v>3805</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>3803</v>
+        <v>3806</v>
       </c>
       <c r="D1223" s="1" t="s">
-        <v>3804</v>
+        <v>3807</v>
       </c>
       <c r="E1223" s="6"/>
     </row>
     <row r="1224" hidden="1" spans="2:5">
       <c r="B1224" s="1" t="s">
-        <v>3805</v>
+        <v>3808</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>3806</v>
+        <v>3809</v>
       </c>
       <c r="D1224" s="1" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="E1224" s="6"/>
     </row>
     <row r="1225" hidden="1" spans="2:5">
       <c r="B1225" s="1" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="D1225" s="1" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="E1225" s="6"/>
     </row>
     <row r="1226" hidden="1" spans="2:5">
       <c r="B1226" s="1" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="D1226" s="1" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
       <c r="E1226" s="6"/>
     </row>
     <row r="1227" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>3815</v>
+        <v>3818</v>
       </c>
       <c r="D1227" s="1" t="s">
-        <v>3816</v>
+        <v>3819</v>
       </c>
       <c r="E1227" s="6"/>
     </row>
     <row r="1228" hidden="1" spans="2:5">
       <c r="B1228" s="1" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="D1228" s="1" t="s">
-        <v>3819</v>
+        <v>3822</v>
       </c>
       <c r="E1228" s="6"/>
     </row>
     <row r="1229" hidden="1" spans="2:5">
       <c r="B1229" s="1" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>3821</v>
+        <v>3824</v>
       </c>
       <c r="D1229" s="1" t="s">
-        <v>3822</v>
+        <v>3825</v>
       </c>
       <c r="E1229" s="6" t="s">
-        <v>3823</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1230" hidden="1" spans="2:5">
       <c r="B1230" s="1" t="s">
-        <v>3824</v>
+        <v>3827</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>3825</v>
+        <v>3828</v>
       </c>
       <c r="D1230" s="1" t="s">
-        <v>3826</v>
+        <v>3829</v>
       </c>
       <c r="E1230" s="6"/>
     </row>
     <row r="1231" hidden="1" spans="2:5">
       <c r="B1231" s="1" t="s">
-        <v>3827</v>
+        <v>3830</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>3828</v>
+        <v>3831</v>
       </c>
       <c r="D1231" s="1" t="s">
-        <v>3829</v>
+        <v>3832</v>
       </c>
       <c r="E1231" s="6"/>
     </row>
     <row r="1232" hidden="1" spans="2:5">
       <c r="B1232" s="1" t="s">
-        <v>3830</v>
+        <v>3833</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>3831</v>
+        <v>3834</v>
       </c>
       <c r="D1232" s="1" t="s">
-        <v>3832</v>
+        <v>3835</v>
       </c>
       <c r="E1232" s="6"/>
     </row>
     <row r="1233" hidden="1" spans="2:5">
       <c r="B1233" s="1" t="s">
-        <v>3833</v>
+        <v>3836</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>3834</v>
+        <v>3837</v>
       </c>
       <c r="D1233" s="1" t="s">
-        <v>3835</v>
+        <v>3838</v>
       </c>
       <c r="E1233" s="6"/>
     </row>
     <row r="1234" hidden="1" spans="2:5">
       <c r="B1234" s="1" t="s">
-        <v>3836</v>
+        <v>3839</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>3837</v>
+        <v>3840</v>
       </c>
       <c r="D1234" s="1" t="s">
-        <v>3838</v>
+        <v>3841</v>
       </c>
       <c r="E1234" s="6"/>
     </row>
     <row r="1235" hidden="1" spans="2:5">
       <c r="B1235" s="1" t="s">
-        <v>3839</v>
+        <v>3842</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>3840</v>
+        <v>3843</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>3841</v>
+        <v>3844</v>
       </c>
       <c r="E1235" s="6"/>
     </row>
     <row r="1236" hidden="1" spans="2:5">
       <c r="B1236" s="1" t="s">
-        <v>3842</v>
+        <v>3845</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>3843</v>
+        <v>3846</v>
       </c>
       <c r="D1236" s="1" t="s">
-        <v>3844</v>
+        <v>3847</v>
       </c>
       <c r="E1236" s="6"/>
     </row>
     <row r="1237" hidden="1" spans="2:5">
       <c r="B1237" s="1" t="s">
-        <v>3845</v>
+        <v>3848</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>3846</v>
+        <v>3849</v>
       </c>
       <c r="D1237" s="1" t="s">
-        <v>3847</v>
+        <v>3850</v>
       </c>
       <c r="E1237" s="6"/>
     </row>
     <row r="1238" hidden="1" spans="2:5">
       <c r="B1238" s="1" t="s">
-        <v>3848</v>
+        <v>3851</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>3849</v>
+        <v>3852</v>
       </c>
       <c r="D1238" s="1" t="s">
-        <v>3850</v>
+        <v>3853</v>
       </c>
       <c r="E1238" s="6"/>
     </row>
     <row r="1239" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
-        <v>3851</v>
+        <v>3854</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>3852</v>
+        <v>3855</v>
       </c>
       <c r="D1239" s="1" t="s">
-        <v>3853</v>
+        <v>3856</v>
       </c>
       <c r="E1239" s="6"/>
     </row>
     <row r="1240" hidden="1" spans="2:5">
       <c r="B1240" s="1" t="s">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>3855</v>
+        <v>3858</v>
       </c>
       <c r="D1240" s="1" t="s">
-        <v>3856</v>
+        <v>3859</v>
       </c>
       <c r="E1240" s="6"/>
     </row>
     <row r="1241" hidden="1" spans="2:5">
       <c r="B1241" s="1" t="s">
-        <v>3857</v>
+        <v>3860</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>3858</v>
+        <v>3861</v>
       </c>
       <c r="D1241" s="1" t="s">
-        <v>3859</v>
+        <v>3862</v>
       </c>
       <c r="E1241" s="6"/>
     </row>
     <row r="1242" hidden="1" spans="2:5">
       <c r="B1242" s="1" t="s">
-        <v>3860</v>
+        <v>3863</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>3861</v>
+        <v>3864</v>
       </c>
       <c r="D1242" s="1" t="s">
-        <v>3862</v>
+        <v>3865</v>
       </c>
       <c r="E1242" s="6"/>
     </row>
     <row r="1243" hidden="1" spans="2:5">
       <c r="B1243" s="1" t="s">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>3864</v>
+        <v>3867</v>
       </c>
       <c r="D1243" s="1" t="s">
-        <v>3865</v>
+        <v>3868</v>
       </c>
       <c r="E1243" s="6" t="s">
-        <v>3866</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1244" hidden="1" spans="2:5">
       <c r="B1244" s="1" t="s">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>3868</v>
+        <v>3871</v>
       </c>
       <c r="D1244" s="1" t="s">
-        <v>3869</v>
+        <v>3872</v>
       </c>
       <c r="E1244" s="6"/>
     </row>
     <row r="1245" hidden="1" spans="2:5">
       <c r="B1245" s="1" t="s">
-        <v>3870</v>
+        <v>3873</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>3871</v>
+        <v>3874</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>3872</v>
+        <v>3875</v>
       </c>
       <c r="E1245" s="6" t="s">
-        <v>3873</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1246" hidden="1" spans="2:5">
       <c r="B1246" s="1" t="s">
-        <v>3874</v>
+        <v>3877</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>3875</v>
+        <v>3878</v>
       </c>
       <c r="D1246" s="1" t="s">
-        <v>3876</v>
+        <v>3879</v>
       </c>
       <c r="E1246" s="6"/>
     </row>
     <row r="1247" hidden="1" spans="2:5">
       <c r="B1247" s="1" t="s">
-        <v>3877</v>
+        <v>3880</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>3878</v>
+        <v>3881</v>
       </c>
       <c r="D1247" s="1" t="s">
-        <v>3879</v>
+        <v>3882</v>
       </c>
       <c r="E1247" s="6"/>
     </row>
     <row r="1248" ht="48" hidden="1" spans="2:5">
       <c r="B1248" s="1" t="s">
-        <v>3880</v>
+        <v>3883</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>3881</v>
+        <v>3884</v>
       </c>
       <c r="D1248" s="1" t="s">
-        <v>3882</v>
+        <v>3885</v>
       </c>
       <c r="E1248" s="6"/>
     </row>
     <row r="1249" hidden="1" spans="2:5">
       <c r="B1249" s="1" t="s">
-        <v>3883</v>
+        <v>3886</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>3884</v>
+        <v>3887</v>
       </c>
       <c r="D1249" s="1" t="s">
-        <v>3885</v>
+        <v>3888</v>
       </c>
       <c r="E1249" s="6"/>
     </row>
     <row r="1250" hidden="1" spans="2:5">
       <c r="B1250" s="1" t="s">
-        <v>3886</v>
+        <v>3889</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>3887</v>
+        <v>3890</v>
       </c>
       <c r="D1250" s="1" t="s">
-        <v>3888</v>
+        <v>3891</v>
       </c>
       <c r="E1250" s="6"/>
     </row>
     <row r="1251" hidden="1" spans="2:5">
       <c r="B1251" s="1" t="s">
-        <v>3889</v>
+        <v>3892</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>3890</v>
+        <v>3893</v>
       </c>
       <c r="D1251" s="1" t="s">
-        <v>3891</v>
+        <v>3894</v>
       </c>
       <c r="E1251" s="6"/>
     </row>
     <row r="1252" ht="38" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
-        <v>3892</v>
+        <v>3895</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>3893</v>
+        <v>3896</v>
       </c>
       <c r="D1252" s="1" t="s">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="E1252" s="6" t="s">
-        <v>3895</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1253" hidden="1" spans="2:5">
       <c r="B1253" s="1" t="s">
-        <v>3896</v>
+        <v>3899</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>3897</v>
+        <v>3900</v>
       </c>
       <c r="D1253" s="1" t="s">
-        <v>3898</v>
+        <v>3901</v>
       </c>
       <c r="E1253" s="6"/>
     </row>
     <row r="1254" hidden="1" spans="2:5">
       <c r="B1254" s="1" t="s">
-        <v>3899</v>
+        <v>3902</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>3900</v>
+        <v>3903</v>
       </c>
       <c r="D1254" s="1" t="s">
-        <v>3901</v>
+        <v>3904</v>
       </c>
       <c r="E1254" s="6"/>
     </row>
     <row r="1255" ht="48" hidden="1" spans="2:5">
       <c r="B1255" s="1" t="s">
-        <v>3902</v>
+        <v>3905</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>3903</v>
+        <v>3906</v>
       </c>
       <c r="D1255" s="1" t="s">
-        <v>3904</v>
+        <v>3907</v>
       </c>
       <c r="E1255" s="6"/>
     </row>
     <row r="1256" hidden="1" spans="2:5">
       <c r="B1256" s="1" t="s">
-        <v>3905</v>
+        <v>3908</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>3906</v>
+        <v>3909</v>
       </c>
       <c r="D1256" s="1" t="s">
-        <v>3907</v>
+        <v>3910</v>
       </c>
       <c r="E1256" s="6"/>
     </row>
     <row r="1257" hidden="1" spans="2:5">
       <c r="B1257" s="1" t="s">
-        <v>3908</v>
+        <v>3911</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>3909</v>
+        <v>3912</v>
       </c>
       <c r="D1257" s="1" t="s">
-        <v>3910</v>
+        <v>3913</v>
       </c>
       <c r="E1257" s="6"/>
     </row>
     <row r="1258" hidden="1" spans="2:5">
       <c r="B1258" s="1" t="s">
-        <v>3911</v>
+        <v>3914</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>3912</v>
+        <v>3915</v>
       </c>
       <c r="D1258" s="1" t="s">
-        <v>3913</v>
+        <v>3916</v>
       </c>
       <c r="E1258" s="6"/>
     </row>
     <row r="1259" hidden="1" spans="2:5">
       <c r="B1259" s="1" t="s">
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>3915</v>
+        <v>3918</v>
       </c>
       <c r="D1259" s="1" t="s">
-        <v>3916</v>
+        <v>3919</v>
       </c>
       <c r="E1259" s="6"/>
     </row>
     <row r="1260" hidden="1" spans="2:5">
       <c r="B1260" s="1" t="s">
-        <v>3917</v>
+        <v>3920</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>3918</v>
+        <v>3921</v>
       </c>
       <c r="D1260" s="1" t="s">
-        <v>3919</v>
+        <v>3922</v>
       </c>
       <c r="E1260" s="6"/>
     </row>
     <row r="1261" ht="48" hidden="1" spans="2:5">
       <c r="B1261" s="1" t="s">
-        <v>3920</v>
+        <v>3923</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>3921</v>
+        <v>3924</v>
       </c>
       <c r="D1261" s="1" t="s">
-        <v>3922</v>
+        <v>3925</v>
       </c>
       <c r="E1261" s="6"/>
     </row>
     <row r="1262" hidden="1" spans="2:5">
       <c r="B1262" s="1" t="s">
-        <v>3923</v>
+        <v>3926</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>3924</v>
+        <v>3927</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>3925</v>
+        <v>3928</v>
       </c>
       <c r="E1262" s="6"/>
     </row>
     <row r="1263" hidden="1" spans="2:5">
       <c r="B1263" s="1" t="s">
-        <v>3926</v>
+        <v>3929</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>3927</v>
+        <v>3930</v>
       </c>
       <c r="D1263" s="1" t="s">
-        <v>3928</v>
+        <v>3931</v>
       </c>
       <c r="E1263" s="6"/>
     </row>
     <row r="1264" hidden="1" spans="2:5">
       <c r="B1264" s="1" t="s">
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>3930</v>
+        <v>3933</v>
       </c>
       <c r="D1264" s="1" t="s">
-        <v>3931</v>
+        <v>3934</v>
       </c>
       <c r="E1264" s="6"/>
     </row>
     <row r="1265" hidden="1" spans="2:5">
       <c r="B1265" s="1" t="s">
-        <v>3932</v>
+        <v>3935</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>3933</v>
+        <v>3936</v>
       </c>
       <c r="D1265" s="1" t="s">
-        <v>3934</v>
+        <v>3937</v>
       </c>
       <c r="E1265" s="6"/>
     </row>
     <row r="1266" hidden="1" spans="2:5">
       <c r="B1266" s="1" t="s">
-        <v>3935</v>
+        <v>3938</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>3936</v>
+        <v>3939</v>
       </c>
       <c r="D1266" s="1" t="s">
-        <v>3937</v>
+        <v>3940</v>
       </c>
       <c r="E1266" s="6"/>
     </row>
     <row r="1267" hidden="1" spans="2:5">
       <c r="B1267" s="1" t="s">
-        <v>3938</v>
+        <v>3941</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>3939</v>
+        <v>3942</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>3940</v>
+        <v>3943</v>
       </c>
       <c r="E1267" s="6"/>
     </row>
     <row r="1268" hidden="1" spans="2:5">
       <c r="B1268" s="1" t="s">
-        <v>3941</v>
+        <v>3944</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>3942</v>
+        <v>3945</v>
       </c>
       <c r="D1268" s="1" t="s">
-        <v>3943</v>
+        <v>3946</v>
       </c>
       <c r="E1268" s="6"/>
     </row>
     <row r="1269" hidden="1" spans="2:5">
       <c r="B1269" s="1" t="s">
-        <v>3944</v>
+        <v>3947</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>3945</v>
+        <v>3948</v>
       </c>
       <c r="D1269" s="1" t="s">
-        <v>3946</v>
+        <v>3949</v>
       </c>
       <c r="E1269" s="6"/>
     </row>
     <row r="1270" hidden="1" spans="2:5">
       <c r="B1270" s="1" t="s">
-        <v>3947</v>
+        <v>3950</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>3948</v>
+        <v>3951</v>
       </c>
       <c r="D1270" s="1" t="s">
-        <v>3949</v>
+        <v>3952</v>
       </c>
       <c r="E1270" s="6"/>
     </row>
     <row r="1271" hidden="1" spans="2:5">
       <c r="B1271" s="1" t="s">
-        <v>3950</v>
+        <v>3953</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>3951</v>
+        <v>3954</v>
       </c>
       <c r="D1271" s="1" t="s">
-        <v>3952</v>
+        <v>3955</v>
       </c>
       <c r="E1271" s="6"/>
     </row>
     <row r="1272" hidden="1" spans="2:5">
       <c r="B1272" s="1" t="s">
-        <v>3953</v>
+        <v>3956</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>3954</v>
+        <v>3957</v>
       </c>
       <c r="D1272" s="1" t="s">
-        <v>3955</v>
+        <v>3958</v>
       </c>
       <c r="E1272" s="6"/>
     </row>
     <row r="1273" hidden="1" spans="2:5">
       <c r="B1273" s="1" t="s">
-        <v>3956</v>
+        <v>3959</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>3957</v>
+        <v>3960</v>
       </c>
       <c r="D1273" s="1" t="s">
-        <v>3958</v>
+        <v>3961</v>
       </c>
       <c r="E1273" s="6"/>
     </row>
     <row r="1274" hidden="1" spans="2:5">
       <c r="B1274" s="1" t="s">
-        <v>3959</v>
+        <v>3962</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>3960</v>
+        <v>3963</v>
       </c>
       <c r="D1274" s="1" t="s">
-        <v>3961</v>
+        <v>3964</v>
       </c>
       <c r="E1274" s="6"/>
     </row>
     <row r="1275" hidden="1" spans="2:5">
       <c r="B1275" s="1" t="s">
-        <v>3962</v>
+        <v>3965</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>3963</v>
+        <v>3966</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>3964</v>
+        <v>3967</v>
       </c>
       <c r="E1275" s="6"/>
     </row>
     <row r="1276" hidden="1" spans="2:5">
       <c r="B1276" s="1" t="s">
-        <v>3965</v>
+        <v>3968</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>3966</v>
+        <v>3969</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>3967</v>
+        <v>3970</v>
       </c>
       <c r="E1276" s="6"/>
     </row>
     <row r="1277" hidden="1" spans="2:5">
       <c r="B1277" s="1" t="s">
-        <v>3968</v>
+        <v>3971</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>3969</v>
+        <v>3972</v>
       </c>
       <c r="D1277" s="1" t="s">
-        <v>3970</v>
+        <v>3973</v>
       </c>
       <c r="E1277" s="6"/>
     </row>
     <row r="1278" hidden="1" spans="2:5">
       <c r="B1278" s="1" t="s">
-        <v>3971</v>
+        <v>3974</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>3972</v>
+        <v>3975</v>
       </c>
       <c r="D1278" s="1" t="s">
-        <v>3973</v>
+        <v>3976</v>
       </c>
       <c r="E1278" s="6"/>
     </row>
     <row r="1279" hidden="1" spans="2:5">
       <c r="B1279" s="1" t="s">
-        <v>3974</v>
+        <v>3977</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>3975</v>
+        <v>3978</v>
       </c>
       <c r="D1279" s="1" t="s">
-        <v>3976</v>
+        <v>3979</v>
       </c>
       <c r="E1279" s="6"/>
     </row>
     <row r="1280" hidden="1" spans="2:5">
       <c r="B1280" s="1" t="s">
-        <v>3977</v>
+        <v>3980</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>3978</v>
+        <v>3981</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>3979</v>
+        <v>3982</v>
       </c>
       <c r="E1280" s="6"/>
     </row>
     <row r="1281" hidden="1" spans="2:5">
       <c r="B1281" s="1" t="s">
-        <v>3980</v>
+        <v>3983</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>3981</v>
+        <v>3984</v>
       </c>
       <c r="D1281" s="1" t="s">
-        <v>3982</v>
+        <v>3985</v>
       </c>
       <c r="E1281" s="6"/>
     </row>
     <row r="1282" hidden="1" spans="2:5">
       <c r="B1282" s="1" t="s">
-        <v>3983</v>
+        <v>3986</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>3984</v>
+        <v>3987</v>
       </c>
       <c r="D1282" s="1" t="s">
-        <v>3985</v>
+        <v>3988</v>
       </c>
       <c r="E1282" s="6"/>
     </row>
     <row r="1283" hidden="1" spans="2:5">
       <c r="B1283" s="1" t="s">
-        <v>3986</v>
+        <v>3989</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>3987</v>
+        <v>3990</v>
       </c>
       <c r="D1283" s="1" t="s">
-        <v>3988</v>
+        <v>3991</v>
       </c>
       <c r="E1283" s="6"/>
     </row>
     <row r="1284" hidden="1" spans="2:5">
       <c r="B1284" s="1" t="s">
-        <v>3989</v>
+        <v>3992</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>3990</v>
+        <v>3993</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>3991</v>
+        <v>3994</v>
       </c>
       <c r="E1284" s="6"/>
     </row>
     <row r="1285" hidden="1" spans="2:5">
       <c r="B1285" s="1" t="s">
-        <v>3992</v>
+        <v>3995</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>3993</v>
+        <v>3996</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>3994</v>
+        <v>3997</v>
       </c>
       <c r="E1285" s="6"/>
     </row>
     <row r="1286" hidden="1" spans="2:5">
       <c r="B1286" s="1" t="s">
-        <v>3995</v>
+        <v>3998</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>3996</v>
+        <v>3999</v>
       </c>
       <c r="D1286" s="1" t="s">
-        <v>3997</v>
+        <v>4000</v>
       </c>
       <c r="E1286" s="6"/>
     </row>
     <row r="1287" hidden="1" spans="2:5">
       <c r="B1287" s="1" t="s">
-        <v>3998</v>
+        <v>4001</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>3999</v>
+        <v>4002</v>
       </c>
       <c r="D1287" s="1" t="s">
-        <v>4000</v>
+        <v>4003</v>
       </c>
       <c r="E1287" s="6"/>
     </row>
     <row r="1288" hidden="1" spans="2:5">
       <c r="B1288" s="1" t="s">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>4002</v>
+        <v>4005</v>
       </c>
       <c r="D1288" s="1" t="s">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="E1288" s="6"/>
     </row>
     <row r="1289" hidden="1" spans="2:5">
       <c r="B1289" s="1" t="s">
-        <v>4004</v>
+        <v>4007</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>4005</v>
+        <v>4008</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>4006</v>
+        <v>4009</v>
       </c>
       <c r="E1289" s="6"/>
     </row>
     <row r="1290" hidden="1" spans="2:5">
       <c r="B1290" s="1" t="s">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>4008</v>
+        <v>4011</v>
       </c>
       <c r="D1290" s="1" t="s">
-        <v>4009</v>
+        <v>4012</v>
       </c>
       <c r="E1290" s="6"/>
     </row>
     <row r="1291" ht="48" hidden="1" spans="2:5">
       <c r="B1291" s="1" t="s">
-        <v>4010</v>
+        <v>4013</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>4011</v>
+        <v>4014</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>4012</v>
+        <v>4015</v>
       </c>
       <c r="E1291" s="6"/>
     </row>
     <row r="1292" hidden="1" spans="2:5">
       <c r="B1292" s="1" t="s">
-        <v>4013</v>
+        <v>4016</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>4014</v>
+        <v>4017</v>
       </c>
       <c r="D1292" s="1" t="s">
-        <v>4015</v>
+        <v>4018</v>
       </c>
       <c r="E1292" s="6" t="s">
         <v>95</v>
@@ -32151,383 +32294,383 @@
     </row>
     <row r="1293" hidden="1" spans="2:5">
       <c r="B1293" s="1" t="s">
-        <v>4016</v>
+        <v>4019</v>
       </c>
       <c r="C1293" s="5" t="s">
-        <v>4017</v>
+        <v>4020</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>4018</v>
+        <v>4021</v>
       </c>
       <c r="E1293" s="6"/>
     </row>
     <row r="1294" hidden="1" spans="2:5">
       <c r="B1294" s="1" t="s">
-        <v>4019</v>
+        <v>4022</v>
       </c>
       <c r="C1294" s="5" t="s">
-        <v>4020</v>
+        <v>4023</v>
       </c>
       <c r="D1294" s="1" t="s">
-        <v>4021</v>
+        <v>4024</v>
       </c>
       <c r="E1294" s="6"/>
     </row>
     <row r="1295" hidden="1" spans="2:5">
       <c r="B1295" s="1" t="s">
-        <v>4022</v>
+        <v>4025</v>
       </c>
       <c r="C1295" s="5" t="s">
-        <v>4023</v>
+        <v>4026</v>
       </c>
       <c r="D1295" s="1" t="s">
-        <v>4024</v>
+        <v>4027</v>
       </c>
       <c r="E1295" s="6"/>
     </row>
     <row r="1296" hidden="1" spans="2:5">
       <c r="B1296" s="1" t="s">
-        <v>4025</v>
+        <v>4028</v>
       </c>
       <c r="C1296" s="5" t="s">
-        <v>4026</v>
+        <v>4029</v>
       </c>
       <c r="D1296" s="1" t="s">
-        <v>4027</v>
+        <v>4030</v>
       </c>
       <c r="E1296" s="6"/>
     </row>
     <row r="1297" hidden="1" spans="2:5">
       <c r="B1297" s="1" t="s">
-        <v>4028</v>
+        <v>4031</v>
       </c>
       <c r="C1297" s="5" t="s">
-        <v>4029</v>
+        <v>4032</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>4030</v>
+        <v>4033</v>
       </c>
       <c r="E1297" s="6"/>
     </row>
     <row r="1298" hidden="1" spans="2:5">
       <c r="B1298" s="1" t="s">
-        <v>4031</v>
+        <v>4034</v>
       </c>
       <c r="C1298" s="5" t="s">
-        <v>4032</v>
+        <v>4035</v>
       </c>
       <c r="D1298" s="1" t="s">
-        <v>4033</v>
+        <v>4036</v>
       </c>
       <c r="E1298" s="6"/>
     </row>
     <row r="1299" hidden="1" spans="2:5">
       <c r="B1299" s="1" t="s">
-        <v>4034</v>
+        <v>4037</v>
       </c>
       <c r="C1299" s="5" t="s">
-        <v>4035</v>
+        <v>4038</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>4036</v>
+        <v>4039</v>
       </c>
       <c r="E1299" s="6"/>
     </row>
     <row r="1300" hidden="1" spans="2:5">
       <c r="B1300" s="1" t="s">
-        <v>4037</v>
+        <v>4040</v>
       </c>
       <c r="C1300" s="5" t="s">
-        <v>4038</v>
+        <v>4041</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>4039</v>
+        <v>4042</v>
       </c>
       <c r="E1300" s="6"/>
     </row>
     <row r="1301" hidden="1" spans="2:5">
       <c r="B1301" s="1" t="s">
-        <v>4040</v>
+        <v>4043</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>4041</v>
+        <v>4044</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>4042</v>
+        <v>4045</v>
       </c>
       <c r="E1301" s="1"/>
     </row>
     <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
-        <v>4043</v>
+        <v>4046</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>4044</v>
+        <v>4047</v>
       </c>
       <c r="D1302" s="1" t="s">
-        <v>4045</v>
+        <v>4048</v>
       </c>
       <c r="E1302" s="1"/>
     </row>
     <row r="1303" hidden="1" spans="2:5">
       <c r="B1303" s="1" t="s">
-        <v>4046</v>
+        <v>4049</v>
       </c>
       <c r="C1303" s="5" t="s">
-        <v>4047</v>
+        <v>4050</v>
       </c>
       <c r="D1303" s="1" t="s">
-        <v>4048</v>
+        <v>4051</v>
       </c>
       <c r="E1303" s="6" t="s">
-        <v>4049</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1304" hidden="1" spans="2:5">
       <c r="B1304" s="1" t="s">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C1304" s="5" t="s">
-        <v>4051</v>
+        <v>4054</v>
       </c>
       <c r="D1304" s="1" t="s">
-        <v>4052</v>
+        <v>4055</v>
       </c>
       <c r="E1304" s="6"/>
     </row>
     <row r="1305" hidden="1" spans="2:5">
       <c r="B1305" s="1" t="s">
-        <v>4053</v>
+        <v>4056</v>
       </c>
       <c r="C1305" s="5" t="s">
-        <v>4054</v>
+        <v>4057</v>
       </c>
       <c r="D1305" s="1" t="s">
-        <v>4055</v>
+        <v>4058</v>
       </c>
       <c r="E1305" s="6"/>
     </row>
     <row r="1306" ht="72" hidden="1" spans="2:5">
       <c r="B1306" s="1" t="s">
-        <v>4056</v>
+        <v>4059</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>4057</v>
+        <v>4060</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>4058</v>
+        <v>4061</v>
       </c>
       <c r="E1306" s="1"/>
     </row>
     <row r="1307" hidden="1" spans="2:5">
       <c r="B1307" s="1" t="s">
-        <v>4059</v>
+        <v>4062</v>
       </c>
       <c r="C1307" s="5" t="s">
-        <v>4060</v>
+        <v>4063</v>
       </c>
       <c r="D1307" s="1" t="s">
-        <v>4061</v>
+        <v>4064</v>
       </c>
       <c r="E1307" s="6"/>
     </row>
     <row r="1308" hidden="1" spans="2:5">
       <c r="B1308" s="1" t="s">
-        <v>4062</v>
+        <v>4065</v>
       </c>
       <c r="C1308" s="5" t="s">
-        <v>4063</v>
+        <v>4066</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>4064</v>
+        <v>4067</v>
       </c>
       <c r="E1308" s="6"/>
     </row>
     <row r="1309" hidden="1" spans="2:5">
       <c r="B1309" s="1" t="s">
-        <v>4065</v>
+        <v>4068</v>
       </c>
       <c r="C1309" s="5" t="s">
-        <v>4066</v>
+        <v>4069</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>4067</v>
+        <v>4070</v>
       </c>
       <c r="E1309" s="6"/>
     </row>
     <row r="1310" hidden="1" spans="2:5">
       <c r="B1310" s="1" t="s">
-        <v>4068</v>
+        <v>4071</v>
       </c>
       <c r="C1310" s="5" t="s">
-        <v>4069</v>
+        <v>4072</v>
       </c>
       <c r="D1310" s="1" t="s">
-        <v>4070</v>
+        <v>4073</v>
       </c>
       <c r="E1310" s="6"/>
     </row>
     <row r="1311" hidden="1" spans="2:5">
       <c r="B1311" s="1" t="s">
-        <v>4071</v>
+        <v>4074</v>
       </c>
       <c r="C1311" s="1" t="s">
-        <v>4072</v>
+        <v>4075</v>
       </c>
       <c r="D1311" s="1" t="s">
-        <v>4070</v>
+        <v>4073</v>
       </c>
       <c r="E1311" s="1"/>
     </row>
     <row r="1312" hidden="1" spans="2:5">
       <c r="B1312" s="1" t="s">
-        <v>4073</v>
+        <v>4076</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>4074</v>
+        <v>4077</v>
       </c>
       <c r="D1312" s="1" t="s">
-        <v>4075</v>
+        <v>4078</v>
       </c>
       <c r="E1312" s="1"/>
     </row>
     <row r="1313" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
-        <v>4076</v>
+        <v>4079</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>4077</v>
+        <v>4080</v>
       </c>
       <c r="D1313" s="1" t="s">
-        <v>4078</v>
+        <v>4081</v>
       </c>
       <c r="E1313" s="1"/>
     </row>
     <row r="1314" hidden="1" spans="2:5">
       <c r="B1314" s="1" t="s">
-        <v>4079</v>
+        <v>4082</v>
       </c>
       <c r="C1314" s="5" t="s">
-        <v>4080</v>
+        <v>4083</v>
       </c>
       <c r="D1314" s="1" t="s">
-        <v>4081</v>
+        <v>4084</v>
       </c>
       <c r="E1314" s="6"/>
     </row>
     <row r="1315" hidden="1" spans="2:5">
       <c r="B1315" s="1" t="s">
-        <v>4082</v>
+        <v>4085</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>4083</v>
+        <v>4086</v>
       </c>
       <c r="D1315" s="1" t="s">
-        <v>4084</v>
+        <v>4087</v>
       </c>
       <c r="E1315" s="6"/>
     </row>
     <row r="1316" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
-        <v>4085</v>
+        <v>4088</v>
       </c>
       <c r="C1316" s="5" t="s">
-        <v>4086</v>
+        <v>4089</v>
       </c>
       <c r="D1316" s="1" t="s">
-        <v>4087</v>
+        <v>4090</v>
       </c>
       <c r="E1316" s="6"/>
     </row>
     <row r="1317" hidden="1" spans="2:5">
       <c r="B1317" s="1" t="s">
-        <v>4088</v>
+        <v>4091</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>4089</v>
+        <v>4092</v>
       </c>
       <c r="D1317" s="1" t="s">
-        <v>4090</v>
+        <v>4093</v>
       </c>
       <c r="E1317" s="6"/>
     </row>
     <row r="1318" hidden="1" spans="2:5">
       <c r="B1318" s="1" t="s">
-        <v>4091</v>
+        <v>4094</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>4092</v>
+        <v>4095</v>
       </c>
       <c r="D1318" s="1" t="s">
-        <v>4093</v>
+        <v>4096</v>
       </c>
       <c r="E1318" s="6" t="s">
-        <v>4094</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="1319" ht="48" hidden="1" spans="2:5">
       <c r="B1319" s="1" t="s">
-        <v>4095</v>
+        <v>4098</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>4096</v>
+        <v>4099</v>
       </c>
       <c r="D1319" s="1" t="s">
-        <v>4097</v>
+        <v>4100</v>
       </c>
       <c r="E1319" s="1"/>
     </row>
     <row r="1320" hidden="1" spans="2:5">
       <c r="B1320" s="1" t="s">
-        <v>4098</v>
+        <v>4101</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>4099</v>
+        <v>4102</v>
       </c>
       <c r="D1320" s="1" t="s">
-        <v>4100</v>
+        <v>4103</v>
       </c>
       <c r="E1320" s="6"/>
     </row>
     <row r="1321" hidden="1" spans="2:5">
       <c r="B1321" s="1" t="s">
-        <v>4101</v>
+        <v>4104</v>
       </c>
       <c r="C1321" s="5" t="s">
-        <v>4102</v>
+        <v>4105</v>
       </c>
       <c r="D1321" s="1" t="s">
-        <v>4103</v>
+        <v>4106</v>
       </c>
       <c r="E1321" s="6"/>
     </row>
     <row r="1322" hidden="1" spans="2:5">
       <c r="B1322" s="1" t="s">
-        <v>4104</v>
+        <v>4107</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>4105</v>
+        <v>4108</v>
       </c>
       <c r="D1322" s="1" t="s">
-        <v>4106</v>
+        <v>4109</v>
       </c>
       <c r="E1322" s="1"/>
     </row>
     <row r="1323" hidden="1" spans="2:5">
       <c r="B1323" s="1" t="s">
-        <v>4107</v>
+        <v>4110</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>4108</v>
+        <v>4111</v>
       </c>
       <c r="D1323" s="1" t="s">
-        <v>4109</v>
+        <v>4112</v>
       </c>
       <c r="E1323" s="1"/>
     </row>
     <row r="1324" hidden="1" spans="2:5">
       <c r="B1324" s="1" t="s">
-        <v>4110</v>
+        <v>4113</v>
       </c>
       <c r="E1324" s="1"/>
     </row>
@@ -32539,7 +32682,7 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="5"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -7784,6 +7784,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">get rid of </t>
     </r>
     <r>
@@ -7992,6 +7998,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The match was postponed to the following Saturday because of bad weather. </t>
     </r>
     <r>
@@ -8125,6 +8137,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t>violence</t>
     </r>
     <r>
@@ -8884,6 +8902,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t>ware</t>
     </r>
     <r>
@@ -9835,6 +9859,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t>birch</t>
     </r>
     <r>
@@ -10482,6 +10512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t>slope</t>
     </r>
     <r>
@@ -11243,6 +11279,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t>FBI</t>
     </r>
     <r>
@@ -11374,6 +11416,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t>wonder</t>
     </r>
     <r>
@@ -11864,6 +11912,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t>trap</t>
     </r>
     <r>
@@ -12113,6 +12167,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Avenir"/>
+        <charset val="134"/>
+      </rPr>
       <t>scare</t>
     </r>
     <r>
@@ -14290,10 +14350,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -14354,6 +14414,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -14361,8 +14429,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14375,17 +14444,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14408,7 +14477,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -14417,22 +14494,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14447,38 +14538,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14566,7 +14626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14578,7 +14638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14590,7 +14656,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14602,25 +14728,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14632,7 +14764,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14644,97 +14794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14746,7 +14806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14769,26 +14829,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14813,6 +14869,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14846,36 +14917,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14887,67 +14947,67 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14956,56 +15016,56 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -15026,6 +15086,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15081,11 +15144,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -15102,7 +15160,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>382508</xdr:colOff>
       <xdr:row>670</xdr:row>
-      <xdr:rowOff>327842</xdr:rowOff>
+      <xdr:rowOff>804092</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15125,8 +15183,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15918815" y="238125"/>
-          <a:ext cx="4839970" cy="1918335"/>
+          <a:off x="17866360" y="238125"/>
+          <a:ext cx="5440045" cy="1518285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15143,7 +15201,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -15390,6 +15448,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -15398,17 +15457,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A712" workbookViewId="0">
-      <selection activeCell="C1025" sqref="C1025"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="A1116" workbookViewId="0">
+      <selection activeCell="E1167" sqref="E1167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.575" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5037037037037" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15441,7 +15500,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="48" hidden="1" spans="2:5">
+    <row r="3" ht="37.5" hidden="1" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -15453,7 +15512,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="48" hidden="1" spans="1:5">
+    <row r="4" ht="37.5" hidden="1" spans="1:5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -15470,7 +15529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="48" hidden="1" spans="1:5">
+    <row r="5" hidden="1" spans="1:5">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -15487,7 +15546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="48" hidden="1" spans="1:5">
+    <row r="6" ht="37.5" hidden="1" spans="1:5">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -15502,7 +15561,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="48" hidden="1" spans="2:5">
+    <row r="7" ht="37.5" hidden="1" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -15514,7 +15573,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="48" hidden="1" spans="2:5">
+    <row r="8" ht="37.5" hidden="1" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -15526,7 +15585,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="48" hidden="1" spans="2:5">
+    <row r="9" ht="37.5" hidden="1" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -15538,7 +15597,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="48" hidden="1" spans="1:5">
+    <row r="10" ht="37.5" hidden="1" spans="1:5">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -15553,7 +15612,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="48" hidden="1" spans="2:5">
+    <row r="11" ht="37.5" hidden="1" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -15565,7 +15624,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="48" hidden="1" spans="2:9">
+    <row r="12" ht="37.5" hidden="1" spans="2:9">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -15581,7 +15640,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" ht="48" hidden="1" spans="2:9">
+    <row r="13" ht="37.5" hidden="1" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -15597,7 +15656,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" ht="48" hidden="1" spans="2:5">
+    <row r="14" ht="37.5" hidden="1" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -15609,7 +15668,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="48" hidden="1" spans="1:5">
+    <row r="15" ht="37.5" hidden="1" spans="1:5">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -15626,7 +15685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" ht="48" hidden="1" spans="2:5">
+    <row r="16" ht="37.5" hidden="1" spans="2:5">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -15638,7 +15697,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="48" hidden="1" spans="1:5">
+    <row r="17" ht="37.5" hidden="1" spans="1:5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -15653,7 +15712,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="48" hidden="1" spans="2:5">
+    <row r="18" ht="37.5" hidden="1" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -15665,7 +15724,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="48" hidden="1" spans="1:5">
+    <row r="19" hidden="1" spans="1:5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -15707,7 +15766,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="48" hidden="1" spans="1:5">
+    <row r="22" ht="37.5" hidden="1" spans="1:5">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -15789,7 +15848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" ht="48" hidden="1" spans="1:5">
+    <row r="28" hidden="1" spans="1:5">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -15820,7 +15879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" ht="48" hidden="1" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -15935,7 +15994,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" ht="48" hidden="1" spans="2:5">
+    <row r="38" ht="37.5" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
@@ -16011,7 +16070,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="48" hidden="1" spans="1:5">
+    <row r="44" ht="37.5" hidden="1" spans="1:5">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -16141,7 +16200,7 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" ht="43" hidden="1" spans="1:5">
+    <row r="53" ht="37.5" hidden="1" spans="1:5">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -16170,7 +16229,7 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" ht="48" hidden="1" spans="2:5">
+    <row r="55" ht="37.5" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>176</v>
       </c>
@@ -16212,7 +16271,7 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" ht="48" hidden="1" spans="1:5">
+    <row r="58" hidden="1" spans="1:5">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -16266,7 +16325,7 @@
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" ht="48" hidden="1" spans="2:5">
+    <row r="62" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>197</v>
       </c>
@@ -16290,7 +16349,7 @@
       </c>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" ht="48" hidden="1" spans="2:5">
+    <row r="64" hidden="1" spans="2:5">
       <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
@@ -16332,7 +16391,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" ht="62" hidden="1" spans="2:5">
+    <row r="67" ht="56.25" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>215</v>
       </c>
@@ -16382,7 +16441,7 @@
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" ht="48" hidden="1" spans="1:5">
+    <row r="71" hidden="1" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -16441,7 +16500,7 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" ht="48" hidden="1" spans="1:5">
+    <row r="75" hidden="1" spans="1:5">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -16525,7 +16584,7 @@
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" ht="48" hidden="1" spans="2:5">
+    <row r="81" hidden="1" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>262</v>
       </c>
@@ -16593,7 +16652,7 @@
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" ht="48" hidden="1" spans="2:5">
+    <row r="86" hidden="1" spans="2:5">
       <c r="B86" s="1" t="s">
         <v>278</v>
       </c>
@@ -16790,7 +16849,7 @@
       </c>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" ht="48" hidden="1" spans="2:5">
+    <row r="101" hidden="1" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>326</v>
       </c>
@@ -16848,7 +16907,7 @@
       </c>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" ht="48" hidden="1" spans="2:5">
+    <row r="105" hidden="1" spans="2:5">
       <c r="B105" s="1" t="s">
         <v>340</v>
       </c>
@@ -16925,7 +16984,7 @@
       </c>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" ht="48" hidden="1" spans="2:5">
+    <row r="111" hidden="1" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>358</v>
       </c>
@@ -16982,7 +17041,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="115" ht="48" hidden="1" spans="2:5">
+    <row r="115" ht="37.5" hidden="1" spans="2:5">
       <c r="B115" s="1" t="s">
         <v>373</v>
       </c>
@@ -17032,7 +17091,7 @@
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" ht="48" hidden="1" spans="2:5">
+    <row r="119" ht="37.5" hidden="1" spans="2:5">
       <c r="B119" s="1" t="s">
         <v>386</v>
       </c>
@@ -17132,7 +17191,7 @@
       </c>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" ht="48" hidden="1" spans="2:5">
+    <row r="127" hidden="1" spans="2:5">
       <c r="B127" s="1" t="s">
         <v>412</v>
       </c>
@@ -17158,7 +17217,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="129" ht="48" hidden="1" spans="2:5">
+    <row r="129" hidden="1" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>419</v>
       </c>
@@ -17240,7 +17299,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="135" ht="48" hidden="1" spans="2:5">
+    <row r="135" ht="37.5" hidden="1" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>439</v>
       </c>
@@ -17254,7 +17313,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" ht="48" hidden="1" spans="2:5">
+    <row r="136" hidden="1" spans="2:5">
       <c r="B136" s="1" t="s">
         <v>443</v>
       </c>
@@ -17338,7 +17397,7 @@
       </c>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" ht="48" hidden="1" spans="2:5">
+    <row r="142" ht="37.5" hidden="1" spans="2:5">
       <c r="B142" s="1" t="s">
         <v>464</v>
       </c>
@@ -17470,7 +17529,7 @@
       </c>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" ht="48" hidden="1" spans="2:5">
+    <row r="152" ht="37.5" hidden="1" spans="2:5">
       <c r="B152" s="1" t="s">
         <v>494</v>
       </c>
@@ -17482,7 +17541,7 @@
       </c>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" ht="48" hidden="1" spans="2:5">
+    <row r="153" ht="37.5" hidden="1" spans="2:5">
       <c r="B153" s="1" t="s">
         <v>497</v>
       </c>
@@ -17530,7 +17589,7 @@
       </c>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" ht="43" hidden="1" spans="2:5">
+    <row r="157" ht="37.5" hidden="1" spans="2:5">
       <c r="B157" s="1" t="s">
         <v>509</v>
       </c>
@@ -17583,7 +17642,7 @@
       </c>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" ht="48" hidden="1" spans="1:5">
+    <row r="161" ht="37.5" hidden="1" spans="1:5">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -17598,7 +17657,7 @@
       </c>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" ht="48" hidden="1" spans="1:5">
+    <row r="162" ht="37.5" hidden="1" spans="1:5">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -17643,7 +17702,7 @@
       </c>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" ht="38" hidden="1" spans="2:5">
+    <row r="165" hidden="1" spans="2:5">
       <c r="B165" s="1" t="s">
         <v>534</v>
       </c>
@@ -17669,7 +17728,7 @@
       </c>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" ht="48" hidden="1" spans="2:5">
+    <row r="167" ht="37.5" hidden="1" spans="2:5">
       <c r="B167" s="1" t="s">
         <v>541</v>
       </c>
@@ -17693,7 +17752,7 @@
       </c>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" ht="48" hidden="1" spans="1:5">
+    <row r="169" ht="37.5" hidden="1" spans="1:5">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -17708,7 +17767,7 @@
       </c>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" ht="48" hidden="1" spans="1:5">
+    <row r="170" hidden="1" spans="1:5">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -17723,7 +17782,7 @@
       </c>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" ht="48" hidden="1" spans="2:5">
+    <row r="171" ht="37.5" hidden="1" spans="2:5">
       <c r="B171" s="1" t="s">
         <v>553</v>
       </c>
@@ -17962,7 +18021,7 @@
       </c>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" ht="48" hidden="1" spans="1:5">
+    <row r="190" hidden="1" spans="1:5">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -18005,7 +18064,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="193" ht="48" hidden="1" spans="2:5">
+    <row r="193" ht="37.5" hidden="1" spans="2:5">
       <c r="B193" s="1" t="s">
         <v>621</v>
       </c>
@@ -18251,7 +18310,7 @@
       </c>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" ht="62" hidden="1" spans="1:5">
+    <row r="211" ht="37.5" hidden="1" spans="1:5">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -18294,7 +18353,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="214" ht="48" hidden="1" spans="1:5">
+    <row r="214" hidden="1" spans="1:5">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -18379,7 +18438,7 @@
       </c>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" ht="48" hidden="1" spans="1:5">
+    <row r="220" hidden="1" spans="1:5">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -18449,7 +18508,7 @@
       </c>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" ht="48" hidden="1" spans="2:5">
+    <row r="225" hidden="1" spans="2:5">
       <c r="B225" s="1" t="s">
         <v>722</v>
       </c>
@@ -18532,7 +18591,7 @@
       </c>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" ht="48" hidden="1" spans="1:5">
+    <row r="231" ht="37.5" hidden="1" spans="1:5">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -18836,7 +18895,7 @@
       </c>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" ht="48" hidden="1" spans="1:5">
+    <row r="254" hidden="1" spans="1:5">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -18911,7 +18970,7 @@
       </c>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" ht="48" hidden="1" spans="1:5">
+    <row r="260" hidden="1" spans="1:5">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -19053,7 +19112,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="270" ht="48" hidden="1" spans="1:5">
+    <row r="270" ht="37.5" hidden="1" spans="1:5">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -19110,7 +19169,7 @@
       </c>
       <c r="E273" s="6"/>
     </row>
-    <row r="274" ht="48" hidden="1" spans="2:5">
+    <row r="274" hidden="1" spans="2:5">
       <c r="B274" s="1" t="s">
         <v>876</v>
       </c>
@@ -19269,7 +19328,7 @@
       </c>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" ht="48" hidden="1" spans="2:5">
+    <row r="286" hidden="1" spans="2:5">
       <c r="B286" s="1" t="s">
         <v>912</v>
       </c>
@@ -19281,7 +19340,7 @@
       </c>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" ht="48" hidden="1" spans="1:5">
+    <row r="287" hidden="1" spans="1:5">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -19308,7 +19367,7 @@
       </c>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" ht="48" hidden="1" spans="1:5">
+    <row r="289" hidden="1" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -19325,7 +19384,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="290" ht="48" hidden="1" spans="1:5">
+    <row r="290" hidden="1" spans="1:5">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -19513,7 +19572,7 @@
       </c>
       <c r="E303" s="6"/>
     </row>
-    <row r="304" ht="76" hidden="1" spans="1:5">
+    <row r="304" ht="56.25" hidden="1" spans="1:5">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -19626,7 +19685,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="312" ht="43" hidden="1" spans="2:5">
+    <row r="312" ht="37.5" hidden="1" spans="2:5">
       <c r="B312" s="1" t="s">
         <v>995</v>
       </c>
@@ -19640,7 +19699,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="313" ht="48" hidden="1" spans="1:4">
+    <row r="313" hidden="1" spans="1:4">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -19693,7 +19752,7 @@
       </c>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" ht="48" hidden="1" spans="2:5">
+    <row r="317" hidden="1" spans="2:5">
       <c r="B317" s="1" t="s">
         <v>1011</v>
       </c>
@@ -19875,7 +19934,7 @@
       </c>
       <c r="E330" s="6"/>
     </row>
-    <row r="331" ht="48" hidden="1" spans="1:4">
+    <row r="331" hidden="1" spans="1:4">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -20012,7 +20071,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="341" ht="38" hidden="1" spans="1:5">
+    <row r="341" hidden="1" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -20118,7 +20177,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="349" ht="76" hidden="1" spans="2:5">
+    <row r="349" ht="56.25" hidden="1" spans="2:5">
       <c r="B349" s="1" t="s">
         <v>1111</v>
       </c>
@@ -20371,7 +20430,7 @@
       </c>
       <c r="E367" s="6"/>
     </row>
-    <row r="368" ht="38" hidden="1" spans="2:5">
+    <row r="368" hidden="1" spans="2:5">
       <c r="B368" s="1" t="s">
         <v>1169</v>
       </c>
@@ -20385,7 +20444,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="369" ht="48" hidden="1" spans="1:5">
+    <row r="369" hidden="1" spans="1:5">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -20414,7 +20473,7 @@
       </c>
       <c r="E370" s="6"/>
     </row>
-    <row r="371" ht="48" hidden="1" spans="2:5">
+    <row r="371" ht="37.5" hidden="1" spans="2:5">
       <c r="B371" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20535,7 +20594,7 @@
       </c>
       <c r="E379" s="6"/>
     </row>
-    <row r="380" ht="48" hidden="1" spans="2:5">
+    <row r="380" ht="37.5" hidden="1" spans="2:5">
       <c r="B380" s="1" t="s">
         <v>1208</v>
       </c>
@@ -20598,7 +20657,7 @@
       </c>
       <c r="E384" s="6"/>
     </row>
-    <row r="385" ht="48" hidden="1" spans="1:5">
+    <row r="385" ht="37.5" hidden="1" spans="1:5">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -20654,7 +20713,7 @@
       </c>
       <c r="E388" s="6"/>
     </row>
-    <row r="389" ht="120" hidden="1" spans="1:5">
+    <row r="389" ht="75" hidden="1" spans="1:5">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -20766,7 +20825,7 @@
       </c>
       <c r="E396" s="6"/>
     </row>
-    <row r="397" ht="48" hidden="1" spans="1:5">
+    <row r="397" ht="37.5" hidden="1" spans="1:5">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -20795,7 +20854,7 @@
       </c>
       <c r="E398" s="6"/>
     </row>
-    <row r="399" ht="38" hidden="1" spans="2:5">
+    <row r="399" ht="37.5" hidden="1" spans="2:5">
       <c r="B399" s="1" t="s">
         <v>1268</v>
       </c>
@@ -20999,7 +21058,7 @@
       </c>
       <c r="E413" s="6"/>
     </row>
-    <row r="414" ht="48" hidden="1" spans="2:5">
+    <row r="414" ht="37.5" hidden="1" spans="2:5">
       <c r="B414" s="1" t="s">
         <v>1316</v>
       </c>
@@ -21047,7 +21106,7 @@
       </c>
       <c r="E417" s="6"/>
     </row>
-    <row r="418" ht="48" hidden="1" spans="2:5">
+    <row r="418" hidden="1" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>1328</v>
       </c>
@@ -21198,7 +21257,7 @@
       </c>
       <c r="E429" s="6"/>
     </row>
-    <row r="430" ht="48" hidden="1" spans="1:5">
+    <row r="430" ht="37.5" hidden="1" spans="1:5">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -21337,7 +21396,7 @@
       </c>
       <c r="E440" s="6"/>
     </row>
-    <row r="441" ht="48" hidden="1" spans="2:4">
+    <row r="441" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1400</v>
       </c>
@@ -21376,7 +21435,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="444" ht="62" hidden="1" spans="2:5">
+    <row r="444" ht="37.5" hidden="1" spans="2:5">
       <c r="B444" s="1" t="s">
         <v>1410</v>
       </c>
@@ -21479,7 +21538,7 @@
       </c>
       <c r="E451" s="6"/>
     </row>
-    <row r="452" ht="48" hidden="1" spans="2:5">
+    <row r="452" ht="37.5" hidden="1" spans="2:5">
       <c r="B452" s="1" t="s">
         <v>1435</v>
       </c>
@@ -21707,7 +21766,7 @@
       </c>
       <c r="E468" s="6"/>
     </row>
-    <row r="469" ht="48" hidden="1" spans="1:4">
+    <row r="469" hidden="1" spans="1:4">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -21850,7 +21909,7 @@
       </c>
       <c r="E479" s="6"/>
     </row>
-    <row r="480" ht="48" hidden="1" spans="1:5">
+    <row r="480" hidden="1" spans="1:5">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -22161,7 +22220,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1592</v>
@@ -22494,7 +22553,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="528" ht="48" hidden="1" spans="1:4">
+    <row r="528" hidden="1" spans="1:4">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -22520,7 +22579,7 @@
       </c>
       <c r="E529" s="6"/>
     </row>
-    <row r="530" ht="48" hidden="1" spans="2:5">
+    <row r="530" hidden="1" spans="2:5">
       <c r="B530" s="1" t="s">
         <v>1677</v>
       </c>
@@ -23015,7 +23074,7 @@
       </c>
       <c r="E566" s="6"/>
     </row>
-    <row r="567" ht="48" hidden="1" spans="1:4">
+    <row r="567" hidden="1" spans="1:4">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -23053,7 +23112,7 @@
       </c>
       <c r="E569" s="6"/>
     </row>
-    <row r="570" ht="48" hidden="1" spans="1:5">
+    <row r="570" ht="37.5" hidden="1" spans="1:5">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -23115,7 +23174,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="574" ht="48" hidden="1" spans="2:5">
+    <row r="574" hidden="1" spans="2:5">
       <c r="B574" s="1" t="s">
         <v>1815</v>
       </c>
@@ -23182,7 +23241,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="579" ht="48" hidden="1" spans="2:5">
+    <row r="579" ht="37.5" hidden="1" spans="2:5">
       <c r="B579" s="1" t="s">
         <v>1832</v>
       </c>
@@ -23308,9 +23367,9 @@
       </c>
       <c r="E588" s="6"/>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" hidden="1" spans="1:4">
       <c r="A589" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>1863</v>
@@ -23436,9 +23495,9 @@
       </c>
       <c r="E598" s="6"/>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" hidden="1" spans="1:4">
       <c r="A599" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>1893</v>
@@ -23525,7 +23584,7 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>1912</v>
@@ -23654,7 +23713,7 @@
       </c>
       <c r="E614" s="6"/>
     </row>
-    <row r="615" ht="48" hidden="1" spans="2:5">
+    <row r="615" ht="37.5" hidden="1" spans="2:5">
       <c r="B615" s="1" t="s">
         <v>1943</v>
       </c>
@@ -23712,7 +23771,7 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>1955</v>
@@ -23724,7 +23783,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="620" ht="48" hidden="1" spans="2:5">
+    <row r="620" hidden="1" spans="2:5">
       <c r="B620" s="1" t="s">
         <v>1958</v>
       </c>
@@ -23802,7 +23861,7 @@
       </c>
       <c r="E625" s="6"/>
     </row>
-    <row r="626" ht="48" hidden="1" spans="1:5">
+    <row r="626" hidden="1" spans="1:5">
       <c r="A626" s="1">
         <v>0</v>
       </c>
@@ -23974,7 +24033,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="639" ht="143" hidden="1" spans="1:5">
+    <row r="639" ht="112.5" hidden="1" spans="1:5">
       <c r="A639" s="1">
         <v>0</v>
       </c>
@@ -24295,7 +24354,7 @@
       </c>
       <c r="E662" s="6"/>
     </row>
-    <row r="663" ht="62" hidden="1" spans="2:5">
+    <row r="663" ht="37.5" hidden="1" spans="2:5">
       <c r="B663" s="1" t="s">
         <v>2092</v>
       </c>
@@ -24373,7 +24432,7 @@
       </c>
       <c r="E668" s="6"/>
     </row>
-    <row r="669" ht="38" hidden="1" spans="2:5">
+    <row r="669" ht="37.5" hidden="1" spans="2:5">
       <c r="B669" s="1" t="s">
         <v>2113</v>
       </c>
@@ -24399,9 +24458,9 @@
       </c>
       <c r="E670" s="6"/>
     </row>
-    <row r="671" ht="96" spans="1:5">
+    <row r="671" ht="75" spans="1:5">
       <c r="A671" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>2120</v>
@@ -24469,7 +24528,7 @@
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>2136</v>
@@ -24643,9 +24702,9 @@
       </c>
       <c r="E688" s="6"/>
     </row>
-    <row r="689" ht="48" spans="1:4">
+    <row r="689" hidden="1" spans="1:4">
       <c r="A689" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>2178</v>
@@ -24672,7 +24731,7 @@
       </c>
       <c r="E690" s="6"/>
     </row>
-    <row r="691" ht="48" hidden="1" spans="2:5">
+    <row r="691" hidden="1" spans="2:5">
       <c r="B691" s="1" t="s">
         <v>2184</v>
       </c>
@@ -24711,9 +24770,9 @@
       </c>
       <c r="E693" s="6"/>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" hidden="1" spans="1:5">
       <c r="A694" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>2193</v>
@@ -24864,7 +24923,7 @@
       </c>
       <c r="E704" s="6"/>
     </row>
-    <row r="705" ht="48" hidden="1" spans="2:5">
+    <row r="705" hidden="1" spans="2:5">
       <c r="B705" s="1" t="s">
         <v>2229</v>
       </c>
@@ -24918,7 +24977,7 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>2242</v>
@@ -24958,9 +25017,9 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="712" ht="120" spans="1:5">
+    <row r="712" ht="93.75" spans="1:5">
       <c r="A712" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>2253</v>
@@ -25048,7 +25107,7 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2273</v>
@@ -25230,7 +25289,7 @@
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>2317</v>
@@ -25244,7 +25303,7 @@
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>2320</v>
@@ -25296,7 +25355,7 @@
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>2332</v>
@@ -25384,7 +25443,7 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>2354</v>
@@ -25632,9 +25691,9 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" hidden="1" spans="1:4">
       <c r="A764" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>2413</v>
@@ -25726,7 +25785,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2434</v>
@@ -25900,7 +25959,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="785" ht="48" hidden="1" spans="2:5">
+    <row r="785" hidden="1" spans="2:5">
       <c r="B785" s="1" t="s">
         <v>2476</v>
       </c>
@@ -26043,7 +26102,7 @@
     </row>
     <row r="796" spans="1:5">
       <c r="A796" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2511</v>
@@ -26156,7 +26215,7 @@
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>2539</v>
@@ -26245,9 +26304,9 @@
       </c>
       <c r="E811" s="6"/>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" hidden="1" spans="1:4">
       <c r="A812" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>2561</v>
@@ -26415,9 +26474,9 @@
       </c>
       <c r="E824" s="6"/>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" hidden="1" spans="1:4">
       <c r="A825" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>2600</v>
@@ -26485,9 +26544,9 @@
       </c>
       <c r="E829" s="6"/>
     </row>
-    <row r="830" spans="1:4">
+    <row r="830" hidden="1" spans="1:4">
       <c r="A830" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>2616</v>
@@ -26513,7 +26572,7 @@
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>2622</v>
@@ -26576,9 +26635,9 @@
       </c>
       <c r="E836" s="6"/>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" hidden="1" spans="1:4">
       <c r="A837" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>2637</v>
@@ -26767,9 +26826,9 @@
       </c>
       <c r="E851" s="6"/>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" hidden="1" spans="1:5">
       <c r="A852" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>2682</v>
@@ -26883,7 +26942,7 @@
       </c>
       <c r="E860" s="6"/>
     </row>
-    <row r="861" ht="48" hidden="1" spans="2:5">
+    <row r="861" hidden="1" spans="2:5">
       <c r="B861" s="1" t="s">
         <v>2710</v>
       </c>
@@ -26987,7 +27046,7 @@
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>2734</v>
@@ -27001,7 +27060,7 @@
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>2737</v>
@@ -27049,7 +27108,7 @@
       </c>
       <c r="E873" s="6"/>
     </row>
-    <row r="874" ht="48" hidden="1" spans="2:5">
+    <row r="874" hidden="1" spans="2:5">
       <c r="B874" s="1" t="s">
         <v>2749</v>
       </c>
@@ -27194,7 +27253,7 @@
     </row>
     <row r="885" spans="1:5">
       <c r="A885" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>2781</v>
@@ -27257,9 +27316,9 @@
       </c>
       <c r="E889" s="6"/>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" hidden="1" spans="1:4">
       <c r="A890" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B890" s="1" t="s">
         <v>2797</v>
@@ -27710,7 +27769,7 @@
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>2906</v>
@@ -27739,7 +27798,7 @@
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>2912</v>
@@ -27816,7 +27875,7 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B934" s="1" t="s">
         <v>2930</v>
@@ -27828,7 +27887,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="935" ht="48" hidden="1" spans="1:5">
+    <row r="935" ht="37.5" hidden="1" spans="1:5">
       <c r="A935" s="1">
         <v>0</v>
       </c>
@@ -27872,7 +27931,7 @@
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B938" s="1" t="s">
         <v>2942</v>
@@ -27949,7 +28008,7 @@
     </row>
     <row r="944" spans="1:5">
       <c r="A944" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B944" s="1" t="s">
         <v>2960</v>
@@ -28228,7 +28287,7 @@
       </c>
       <c r="E964" s="6"/>
     </row>
-    <row r="965" ht="48" hidden="1" spans="1:5">
+    <row r="965" hidden="1" spans="1:5">
       <c r="A965" s="1">
         <v>0</v>
       </c>
@@ -28356,7 +28415,7 @@
     </row>
     <row r="975" spans="1:4">
       <c r="A975" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>3054</v>
@@ -28380,7 +28439,7 @@
       </c>
       <c r="E976" s="6"/>
     </row>
-    <row r="977" ht="48" hidden="1" spans="2:5">
+    <row r="977" hidden="1" spans="2:5">
       <c r="B977" s="1" t="s">
         <v>3060</v>
       </c>
@@ -28484,7 +28543,7 @@
     </row>
     <row r="985" spans="1:4">
       <c r="A985" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B985" s="1" t="s">
         <v>3084</v>
@@ -28718,9 +28777,9 @@
       </c>
       <c r="E1003" s="6"/>
     </row>
-    <row r="1004" ht="48" spans="1:4">
+    <row r="1004" spans="1:4">
       <c r="A1004" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>3141</v>
@@ -28768,9 +28827,9 @@
       </c>
       <c r="E1007" s="6"/>
     </row>
-    <row r="1008" spans="1:4">
+    <row r="1008" hidden="1" spans="1:4">
       <c r="A1008" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1008" s="1" t="s">
         <v>3153</v>
@@ -28866,7 +28925,7 @@
       </c>
       <c r="E1015" s="6"/>
     </row>
-    <row r="1016" ht="48" hidden="1" spans="2:5">
+    <row r="1016" ht="37.5" hidden="1" spans="2:5">
       <c r="B1016" s="1" t="s">
         <v>3177</v>
       </c>
@@ -28890,9 +28949,9 @@
       </c>
       <c r="E1017" s="6"/>
     </row>
-    <row r="1018" ht="48" spans="1:5">
+    <row r="1018" ht="37.5" spans="1:5">
       <c r="A1018" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1018" s="1" t="s">
         <v>3183</v>
@@ -28943,9 +29002,9 @@
       </c>
       <c r="E1021" s="6"/>
     </row>
-    <row r="1022" spans="1:4">
+    <row r="1022" hidden="1" spans="1:4">
       <c r="A1022" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1022" s="1" t="s">
         <v>3196</v>
@@ -28983,7 +29042,7 @@
     </row>
     <row r="1025" spans="1:4">
       <c r="A1025" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1025" s="1" t="s">
         <v>3205</v>
@@ -29007,9 +29066,9 @@
       </c>
       <c r="E1026" s="6"/>
     </row>
-    <row r="1027" spans="1:5">
+    <row r="1027" hidden="1" spans="1:5">
       <c r="A1027" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1027" s="1" t="s">
         <v>3211</v>
@@ -29026,7 +29085,7 @@
     </row>
     <row r="1028" spans="1:4">
       <c r="A1028" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1028" s="1" t="s">
         <v>3215</v>
@@ -29052,7 +29111,7 @@
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1030" s="1" t="s">
         <v>3221</v>
@@ -29112,9 +29171,9 @@
       </c>
       <c r="E1034" s="6"/>
     </row>
-    <row r="1035" spans="1:4">
+    <row r="1035" hidden="1" spans="1:4">
       <c r="A1035" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1035" s="1" t="s">
         <v>3236</v>
@@ -29126,9 +29185,9 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="1036" spans="1:4">
+    <row r="1036" hidden="1" spans="1:4">
       <c r="A1036" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1036" s="1" t="s">
         <v>3239</v>
@@ -29142,7 +29201,7 @@
     </row>
     <row r="1037" spans="1:4">
       <c r="A1037" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1037" s="1" t="s">
         <v>3242</v>
@@ -29154,9 +29213,9 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="1038" spans="1:4">
+    <row r="1038" hidden="1" spans="1:4">
       <c r="A1038" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1038" s="1" t="s">
         <v>3245</v>
@@ -29242,7 +29301,7 @@
     </row>
     <row r="1045" spans="1:4">
       <c r="A1045" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1045" s="1" t="s">
         <v>3266</v>
@@ -29302,9 +29361,9 @@
       </c>
       <c r="E1049" s="6"/>
     </row>
-    <row r="1050" spans="1:4">
+    <row r="1050" hidden="1" spans="1:4">
       <c r="A1050" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1050" s="1" t="s">
         <v>3281</v>
@@ -29318,7 +29377,7 @@
     </row>
     <row r="1051" spans="1:4">
       <c r="A1051" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1051" s="1" t="s">
         <v>3284</v>
@@ -29330,9 +29389,9 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="1052" spans="1:4">
+    <row r="1052" hidden="1" spans="1:4">
       <c r="A1052" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1052" s="1" t="s">
         <v>3287</v>
@@ -29360,7 +29419,7 @@
     </row>
     <row r="1054" spans="1:4">
       <c r="A1054" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1054" s="1" t="s">
         <v>3294</v>
@@ -29374,7 +29433,7 @@
     </row>
     <row r="1055" spans="1:4">
       <c r="A1055" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1055" s="1" t="s">
         <v>3297</v>
@@ -29434,9 +29493,9 @@
       </c>
       <c r="E1059" s="6"/>
     </row>
-    <row r="1060" spans="1:4">
+    <row r="1060" hidden="1" spans="1:4">
       <c r="A1060" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1060" s="1" t="s">
         <v>3312</v>
@@ -29568,9 +29627,9 @@
       </c>
       <c r="E1070" s="6"/>
     </row>
-    <row r="1071" spans="1:4">
+    <row r="1071" hidden="1" spans="1:4">
       <c r="A1071" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1071" s="1" t="s">
         <v>3345</v>
@@ -29596,7 +29655,7 @@
     </row>
     <row r="1073" spans="1:4">
       <c r="A1073" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>3351</v>
@@ -29610,7 +29669,7 @@
     </row>
     <row r="1074" spans="1:4">
       <c r="A1074" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1074" s="1" t="s">
         <v>3354</v>
@@ -29636,7 +29695,7 @@
     </row>
     <row r="1076" spans="1:5">
       <c r="A1076" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1076" s="1" t="s">
         <v>3360</v>
@@ -29725,7 +29784,7 @@
     </row>
     <row r="1083" spans="1:4">
       <c r="A1083" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1083" s="1" t="s">
         <v>159</v>
@@ -29751,7 +29810,7 @@
     </row>
     <row r="1085" spans="1:5">
       <c r="A1085" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1085" s="1" t="s">
         <v>3387</v>
@@ -29766,9 +29825,9 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="1086" spans="1:5">
+    <row r="1086" hidden="1" spans="1:5">
       <c r="A1086" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1086" s="1" t="s">
         <v>3391</v>
@@ -29783,9 +29842,9 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="1087" spans="1:4">
+    <row r="1087" hidden="1" spans="1:4">
       <c r="A1087" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1087" s="1" t="s">
         <v>3395</v>
@@ -29821,9 +29880,9 @@
       </c>
       <c r="E1089" s="6"/>
     </row>
-    <row r="1090" spans="1:4">
+    <row r="1090" hidden="1" spans="1:4">
       <c r="A1090" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1090" s="1" t="s">
         <v>3404</v>
@@ -29835,9 +29894,9 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="1091" spans="1:4">
+    <row r="1091" hidden="1" spans="1:4">
       <c r="A1091" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1091" s="1" t="s">
         <v>3407</v>
@@ -29849,9 +29908,9 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="1092" spans="1:4">
+    <row r="1092" hidden="1" spans="1:4">
       <c r="A1092" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1092" s="1" t="s">
         <v>3410</v>
@@ -29877,7 +29936,7 @@
     </row>
     <row r="1094" spans="1:4">
       <c r="A1094" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1094" s="1" t="s">
         <v>3416</v>
@@ -29891,7 +29950,7 @@
     </row>
     <row r="1095" spans="1:4">
       <c r="A1095" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1095" s="1" t="s">
         <v>3419</v>
@@ -29903,9 +29962,9 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="1096" spans="1:4">
+    <row r="1096" hidden="1" spans="1:4">
       <c r="A1096" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1096" s="1" t="s">
         <v>3422</v>
@@ -29941,9 +30000,9 @@
       </c>
       <c r="E1098" s="6"/>
     </row>
-    <row r="1099" spans="1:4">
+    <row r="1099" hidden="1" spans="1:4">
       <c r="A1099" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1099" s="1" t="s">
         <v>3431</v>
@@ -29957,7 +30016,7 @@
     </row>
     <row r="1100" spans="1:5">
       <c r="A1100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1100" s="1" t="s">
         <v>3434</v>
@@ -29972,7 +30031,10 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="1101" hidden="1" spans="2:5">
+    <row r="1101" spans="1:5">
+      <c r="A1101" s="1">
+        <v>1</v>
+      </c>
       <c r="B1101" s="1" t="s">
         <v>3438</v>
       </c>
@@ -30032,7 +30094,10 @@
       </c>
       <c r="E1105" s="6"/>
     </row>
-    <row r="1106" hidden="1" spans="2:5">
+    <row r="1106" spans="1:5">
+      <c r="A1106" s="1">
+        <v>1</v>
+      </c>
       <c r="B1106" s="1" t="s">
         <v>3453</v>
       </c>
@@ -30044,7 +30109,7 @@
       </c>
       <c r="E1106" s="6"/>
     </row>
-    <row r="1107" ht="48" hidden="1" spans="2:5">
+    <row r="1107" hidden="1" spans="2:5">
       <c r="B1107" s="1" t="s">
         <v>3456</v>
       </c>
@@ -30056,7 +30121,10 @@
       </c>
       <c r="E1107" s="6"/>
     </row>
-    <row r="1108" ht="48" hidden="1" spans="2:5">
+    <row r="1108" spans="1:5">
+      <c r="A1108" s="1">
+        <v>1</v>
+      </c>
       <c r="B1108" s="1" t="s">
         <v>3459</v>
       </c>
@@ -30080,7 +30148,10 @@
       </c>
       <c r="E1109" s="6"/>
     </row>
-    <row r="1110" hidden="1" spans="2:5">
+    <row r="1110" spans="1:5">
+      <c r="A1110" s="1">
+        <v>1</v>
+      </c>
       <c r="B1110" s="1" t="s">
         <v>3465</v>
       </c>
@@ -30092,7 +30163,10 @@
       </c>
       <c r="E1110" s="6"/>
     </row>
-    <row r="1111" hidden="1" spans="2:5">
+    <row r="1111" spans="1:5">
+      <c r="A1111" s="1">
+        <v>1</v>
+      </c>
       <c r="B1111" s="1" t="s">
         <v>3468</v>
       </c>
@@ -30140,7 +30214,10 @@
       </c>
       <c r="E1114" s="6"/>
     </row>
-    <row r="1115" ht="48" hidden="1" spans="2:5">
+    <row r="1115" ht="37.5" spans="1:5">
+      <c r="A1115" s="1">
+        <v>1</v>
+      </c>
       <c r="B1115" s="1" t="s">
         <v>3480</v>
       </c>
@@ -30214,7 +30291,10 @@
       </c>
       <c r="E1120" s="6"/>
     </row>
-    <row r="1121" hidden="1" spans="2:5">
+    <row r="1121" spans="1:5">
+      <c r="A1121" s="1">
+        <v>1</v>
+      </c>
       <c r="B1121" s="1" t="s">
         <v>3498</v>
       </c>
@@ -30250,7 +30330,7 @@
       </c>
       <c r="E1123" s="6"/>
     </row>
-    <row r="1124" ht="48" hidden="1" spans="2:5">
+    <row r="1124" hidden="1" spans="2:5">
       <c r="B1124" s="1" t="s">
         <v>3507</v>
       </c>
@@ -30262,7 +30342,10 @@
       </c>
       <c r="E1124" s="6"/>
     </row>
-    <row r="1125" hidden="1" spans="2:5">
+    <row r="1125" spans="1:5">
+      <c r="A1125" s="1">
+        <v>1</v>
+      </c>
       <c r="B1125" s="1" t="s">
         <v>3510</v>
       </c>
@@ -30274,7 +30357,10 @@
       </c>
       <c r="E1125" s="6"/>
     </row>
-    <row r="1126" hidden="1" spans="2:5">
+    <row r="1126" spans="1:5">
+      <c r="A1126" s="1">
+        <v>1</v>
+      </c>
       <c r="B1126" s="1" t="s">
         <v>3513</v>
       </c>
@@ -30310,7 +30396,7 @@
       </c>
       <c r="E1128" s="6"/>
     </row>
-    <row r="1129" ht="48" hidden="1" spans="2:5">
+    <row r="1129" hidden="1" spans="2:5">
       <c r="B1129" s="1" t="s">
         <v>3522</v>
       </c>
@@ -30322,7 +30408,10 @@
       </c>
       <c r="E1129" s="6"/>
     </row>
-    <row r="1130" hidden="1" spans="2:5">
+    <row r="1130" spans="1:5">
+      <c r="A1130" s="1">
+        <v>1</v>
+      </c>
       <c r="B1130" s="1" t="s">
         <v>3525</v>
       </c>
@@ -30358,7 +30447,8 @@
       </c>
       <c r="E1132" s="6"/>
     </row>
-    <row r="1133" hidden="1" spans="2:5">
+    <row r="1133" hidden="1" spans="1:5">
+      <c r="A1133" s="8"/>
       <c r="B1133" s="1" t="s">
         <v>3534</v>
       </c>
@@ -30370,7 +30460,10 @@
       </c>
       <c r="E1133" s="6"/>
     </row>
-    <row r="1134" hidden="1" spans="2:5">
+    <row r="1134" spans="1:5">
+      <c r="A1134" s="1">
+        <v>1</v>
+      </c>
       <c r="B1134" s="1" t="s">
         <v>3537</v>
       </c>
@@ -30406,7 +30499,10 @@
       </c>
       <c r="E1136" s="6"/>
     </row>
-    <row r="1137" hidden="1" spans="2:5">
+    <row r="1137" spans="1:5">
+      <c r="A1137" s="1">
+        <v>1</v>
+      </c>
       <c r="B1137" s="1" t="s">
         <v>3546</v>
       </c>
@@ -30418,7 +30514,10 @@
       </c>
       <c r="E1137" s="6"/>
     </row>
-    <row r="1138" hidden="1" spans="2:5">
+    <row r="1138" spans="1:5">
+      <c r="A1138" s="1">
+        <v>1</v>
+      </c>
       <c r="B1138" s="1" t="s">
         <v>3549</v>
       </c>
@@ -30430,7 +30529,10 @@
       </c>
       <c r="E1138" s="6"/>
     </row>
-    <row r="1139" hidden="1" spans="2:5">
+    <row r="1139" spans="1:5">
+      <c r="A1139" s="1">
+        <v>1</v>
+      </c>
       <c r="B1139" s="1" t="s">
         <v>3552</v>
       </c>
@@ -30478,7 +30580,10 @@
       </c>
       <c r="E1142" s="6"/>
     </row>
-    <row r="1143" hidden="1" spans="2:5">
+    <row r="1143" spans="1:5">
+      <c r="A1143" s="1">
+        <v>1</v>
+      </c>
       <c r="B1143" s="1" t="s">
         <v>3564</v>
       </c>
@@ -30526,7 +30631,10 @@
       </c>
       <c r="E1146" s="6"/>
     </row>
-    <row r="1147" hidden="1" spans="2:5">
+    <row r="1147" spans="1:5">
+      <c r="A1147" s="1">
+        <v>1</v>
+      </c>
       <c r="B1147" s="1" t="s">
         <v>3576</v>
       </c>
@@ -30538,7 +30646,10 @@
       </c>
       <c r="E1147" s="6"/>
     </row>
-    <row r="1148" hidden="1" spans="2:5">
+    <row r="1148" spans="1:5">
+      <c r="A1148" s="1">
+        <v>1</v>
+      </c>
       <c r="B1148" s="1" t="s">
         <v>3579</v>
       </c>
@@ -30550,7 +30661,10 @@
       </c>
       <c r="E1148" s="6"/>
     </row>
-    <row r="1149" hidden="1" spans="2:5">
+    <row r="1149" spans="1:5">
+      <c r="A1149" s="1">
+        <v>1</v>
+      </c>
       <c r="B1149" s="1" t="s">
         <v>3582</v>
       </c>
@@ -30562,7 +30676,10 @@
       </c>
       <c r="E1149" s="6"/>
     </row>
-    <row r="1150" hidden="1" spans="2:5">
+    <row r="1150" spans="1:5">
+      <c r="A1150" s="1">
+        <v>1</v>
+      </c>
       <c r="B1150" s="1" t="s">
         <v>3585</v>
       </c>
@@ -30598,7 +30715,10 @@
       </c>
       <c r="E1152" s="6"/>
     </row>
-    <row r="1153" hidden="1" spans="2:5">
+    <row r="1153" spans="1:5">
+      <c r="A1153" s="1">
+        <v>1</v>
+      </c>
       <c r="B1153" s="1" t="s">
         <v>3593</v>
       </c>
@@ -30634,7 +30754,10 @@
       </c>
       <c r="E1155" s="6"/>
     </row>
-    <row r="1156" ht="48" hidden="1" spans="2:5">
+    <row r="1156" spans="1:5">
+      <c r="A1156" s="1">
+        <v>1</v>
+      </c>
       <c r="B1156" s="1" t="s">
         <v>3602</v>
       </c>
@@ -30646,7 +30769,10 @@
       </c>
       <c r="E1156" s="6"/>
     </row>
-    <row r="1157" ht="48" hidden="1" spans="2:5">
+    <row r="1157" spans="1:5">
+      <c r="A1157" s="1">
+        <v>1</v>
+      </c>
       <c r="B1157" s="1" t="s">
         <v>3605</v>
       </c>
@@ -30754,7 +30880,10 @@
       </c>
       <c r="E1165" s="6"/>
     </row>
-    <row r="1166" hidden="1" spans="2:5">
+    <row r="1166" spans="1:5">
+      <c r="A1166" s="1">
+        <v>1</v>
+      </c>
       <c r="B1166" s="1" t="s">
         <v>3632</v>
       </c>
@@ -30766,7 +30895,10 @@
       </c>
       <c r="E1166" s="6"/>
     </row>
-    <row r="1167" hidden="1" spans="2:5">
+    <row r="1167" spans="1:5">
+      <c r="A1167" s="1">
+        <v>1</v>
+      </c>
       <c r="B1167" s="1" t="s">
         <v>3635</v>
       </c>
@@ -30778,7 +30910,10 @@
       </c>
       <c r="E1167" s="6"/>
     </row>
-    <row r="1168" hidden="1" spans="2:5">
+    <row r="1168" spans="1:5">
+      <c r="A1168" s="1">
+        <v>1</v>
+      </c>
       <c r="B1168" s="1" t="s">
         <v>3638</v>
       </c>
@@ -30790,7 +30925,10 @@
       </c>
       <c r="E1168" s="6"/>
     </row>
-    <row r="1169" hidden="1" spans="2:5">
+    <row r="1169" spans="1:5">
+      <c r="A1169" s="1">
+        <v>1</v>
+      </c>
       <c r="B1169" s="1" t="s">
         <v>3641</v>
       </c>
@@ -30838,7 +30976,10 @@
       </c>
       <c r="E1172" s="6"/>
     </row>
-    <row r="1173" hidden="1" spans="2:5">
+    <row r="1173" spans="1:5">
+      <c r="A1173" s="1">
+        <v>1</v>
+      </c>
       <c r="B1173" s="1" t="s">
         <v>3653</v>
       </c>
@@ -30958,7 +31099,10 @@
       </c>
       <c r="E1182" s="6"/>
     </row>
-    <row r="1183" hidden="1" spans="2:5">
+    <row r="1183" spans="1:5">
+      <c r="A1183" s="1">
+        <v>1</v>
+      </c>
       <c r="B1183" s="1" t="s">
         <v>3683</v>
       </c>
@@ -30970,7 +31114,10 @@
       </c>
       <c r="E1183" s="6"/>
     </row>
-    <row r="1184" hidden="1" spans="2:5">
+    <row r="1184" spans="1:5">
+      <c r="A1184" s="1">
+        <v>1</v>
+      </c>
       <c r="B1184" s="1" t="s">
         <v>3686</v>
       </c>
@@ -30994,7 +31141,10 @@
       </c>
       <c r="E1185" s="6"/>
     </row>
-    <row r="1186" hidden="1" spans="2:5">
+    <row r="1186" spans="1:5">
+      <c r="A1186" s="1">
+        <v>1</v>
+      </c>
       <c r="B1186" s="1" t="s">
         <v>3692</v>
       </c>
@@ -31006,7 +31156,10 @@
       </c>
       <c r="E1186" s="6"/>
     </row>
-    <row r="1187" hidden="1" spans="2:5">
+    <row r="1187" spans="1:5">
+      <c r="A1187" s="1">
+        <v>1</v>
+      </c>
       <c r="B1187" s="1" t="s">
         <v>3695</v>
       </c>
@@ -31018,7 +31171,10 @@
       </c>
       <c r="E1187" s="6"/>
     </row>
-    <row r="1188" hidden="1" spans="2:5">
+    <row r="1188" spans="1:5">
+      <c r="A1188" s="1">
+        <v>1</v>
+      </c>
       <c r="B1188" s="1" t="s">
         <v>3698</v>
       </c>
@@ -31042,7 +31198,10 @@
       </c>
       <c r="E1189" s="6"/>
     </row>
-    <row r="1190" hidden="1" spans="2:5">
+    <row r="1190" spans="1:5">
+      <c r="A1190" s="1">
+        <v>1</v>
+      </c>
       <c r="B1190" s="1" t="s">
         <v>3704</v>
       </c>
@@ -31078,7 +31237,10 @@
       </c>
       <c r="E1192" s="6"/>
     </row>
-    <row r="1193" hidden="1" spans="2:5">
+    <row r="1193" spans="1:5">
+      <c r="A1193" s="1">
+        <v>1</v>
+      </c>
       <c r="B1193" s="1" t="s">
         <v>3713</v>
       </c>
@@ -31102,7 +31264,10 @@
       </c>
       <c r="E1194" s="6"/>
     </row>
-    <row r="1195" hidden="1" spans="2:5">
+    <row r="1195" spans="1:5">
+      <c r="A1195" s="1">
+        <v>1</v>
+      </c>
       <c r="B1195" s="1" t="s">
         <v>3719</v>
       </c>
@@ -31138,7 +31303,10 @@
       </c>
       <c r="E1197" s="6"/>
     </row>
-    <row r="1198" hidden="1" spans="2:5">
+    <row r="1198" spans="1:5">
+      <c r="A1198" s="1">
+        <v>1</v>
+      </c>
       <c r="B1198" s="1" t="s">
         <v>3728</v>
       </c>
@@ -31152,7 +31320,10 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="1199" hidden="1" spans="2:5">
+    <row r="1199" spans="1:5">
+      <c r="A1199" s="1">
+        <v>1</v>
+      </c>
       <c r="B1199" s="1" t="s">
         <v>3732</v>
       </c>
@@ -31748,7 +31919,7 @@
       </c>
       <c r="E1247" s="6"/>
     </row>
-    <row r="1248" ht="48" hidden="1" spans="2:5">
+    <row r="1248" ht="37.5" hidden="1" spans="2:5">
       <c r="B1248" s="1" t="s">
         <v>3883</v>
       </c>
@@ -31796,7 +31967,7 @@
       </c>
       <c r="E1251" s="6"/>
     </row>
-    <row r="1252" ht="38" hidden="1" spans="2:5">
+    <row r="1252" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>3895</v>
       </c>
@@ -31834,7 +32005,7 @@
       </c>
       <c r="E1254" s="6"/>
     </row>
-    <row r="1255" ht="48" hidden="1" spans="2:5">
+    <row r="1255" hidden="1" spans="2:5">
       <c r="B1255" s="1" t="s">
         <v>3905</v>
       </c>
@@ -31906,7 +32077,7 @@
       </c>
       <c r="E1260" s="6"/>
     </row>
-    <row r="1261" ht="48" hidden="1" spans="2:5">
+    <row r="1261" ht="37.5" hidden="1" spans="2:5">
       <c r="B1261" s="1" t="s">
         <v>3923</v>
       </c>
@@ -32266,7 +32437,7 @@
       </c>
       <c r="E1290" s="6"/>
     </row>
-    <row r="1291" ht="48" hidden="1" spans="2:5">
+    <row r="1291" hidden="1" spans="2:5">
       <c r="B1291" s="1" t="s">
         <v>4013</v>
       </c>
@@ -32450,7 +32621,7 @@
       </c>
       <c r="E1305" s="6"/>
     </row>
-    <row r="1306" ht="72" hidden="1" spans="2:5">
+    <row r="1306" ht="56.25" hidden="1" spans="2:5">
       <c r="B1306" s="1" t="s">
         <v>4059</v>
       </c>
@@ -32608,7 +32779,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="1319" ht="48" hidden="1" spans="2:5">
+    <row r="1319" ht="37.5" hidden="1" spans="2:5">
       <c r="B1319" s="1" t="s">
         <v>4098</v>
       </c>
@@ -32682,7 +32853,8 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="6"/>
+        <filter val="5"/>
+        <filter val="7"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -14408,29 +14408,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -14438,15 +14415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14460,25 +14429,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14494,9 +14447,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14508,10 +14461,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14529,8 +14521,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14538,7 +14538,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14626,13 +14626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14644,13 +14638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14662,7 +14656,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14674,19 +14698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14698,61 +14716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14770,13 +14746,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14788,25 +14806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14833,41 +14833,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -14888,21 +14868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -14917,148 +14882,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -15159,8 +15159,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>382508</xdr:colOff>
-      <xdr:row>670</xdr:row>
-      <xdr:rowOff>804092</xdr:rowOff>
+      <xdr:row>675</xdr:row>
+      <xdr:rowOff>89717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15457,8 +15457,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="A1116" workbookViewId="0">
-      <selection activeCell="E1167" sqref="E1167"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D934" sqref="D934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -22220,7 +22220,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1592</v>
@@ -23582,9 +23582,9 @@
       </c>
       <c r="E604" s="6"/>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" hidden="1" spans="1:4">
       <c r="A605" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>1912</v>
@@ -23771,7 +23771,7 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>1955</v>
@@ -24460,7 +24460,7 @@
     </row>
     <row r="671" ht="75" spans="1:5">
       <c r="A671" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>2120</v>
@@ -24528,7 +24528,7 @@
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>2136</v>
@@ -24975,9 +24975,9 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" hidden="1" spans="1:4">
       <c r="A709" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>2242</v>
@@ -25017,9 +25017,9 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="712" ht="93.75" spans="1:5">
+    <row r="712" ht="93.75" hidden="1" spans="1:5">
       <c r="A712" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>2253</v>
@@ -25107,7 +25107,7 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2273</v>
@@ -25287,9 +25287,9 @@
       </c>
       <c r="E731" s="6"/>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" hidden="1" spans="1:4">
       <c r="A732" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>2317</v>
@@ -25353,9 +25353,9 @@
       </c>
       <c r="E736" s="6"/>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" hidden="1" spans="1:4">
       <c r="A737" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>2332</v>
@@ -25443,7 +25443,7 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>2354</v>
@@ -25785,7 +25785,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2434</v>
@@ -26100,9 +26100,9 @@
       </c>
       <c r="E795" s="6"/>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" hidden="1" spans="1:5">
       <c r="A796" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2511</v>
@@ -26215,7 +26215,7 @@
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>2539</v>
@@ -26572,7 +26572,7 @@
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>2622</v>
@@ -27044,9 +27044,9 @@
       </c>
       <c r="E868" s="6"/>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" hidden="1" spans="1:4">
       <c r="A869" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>2734</v>
@@ -27058,9 +27058,9 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" hidden="1" spans="1:4">
       <c r="A870" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>2737</v>
@@ -27213,9 +27213,9 @@
       </c>
       <c r="E881" s="6"/>
     </row>
-    <row r="882" spans="1:4">
+    <row r="882" hidden="1" spans="1:4">
       <c r="A882" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>2773</v>
@@ -27253,7 +27253,7 @@
     </row>
     <row r="885" spans="1:5">
       <c r="A885" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>2781</v>
@@ -27767,9 +27767,9 @@
       </c>
       <c r="E925" s="6"/>
     </row>
-    <row r="926" spans="1:4">
+    <row r="926" hidden="1" spans="1:4">
       <c r="A926" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>2906</v>
@@ -27796,9 +27796,9 @@
       </c>
       <c r="E927" s="6"/>
     </row>
-    <row r="928" spans="1:4">
+    <row r="928" hidden="1" spans="1:4">
       <c r="A928" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>2912</v>
@@ -27875,7 +27875,7 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B934" s="1" t="s">
         <v>2930</v>
@@ -27931,7 +27931,7 @@
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B938" s="1" t="s">
         <v>2942</v>
@@ -28008,7 +28008,7 @@
     </row>
     <row r="944" spans="1:5">
       <c r="A944" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B944" s="1" t="s">
         <v>2960</v>
@@ -28415,7 +28415,7 @@
     </row>
     <row r="975" spans="1:4">
       <c r="A975" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>3054</v>
@@ -28541,9 +28541,9 @@
       </c>
       <c r="E984" s="6"/>
     </row>
-    <row r="985" spans="1:4">
+    <row r="985" hidden="1" spans="1:4">
       <c r="A985" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B985" s="1" t="s">
         <v>3084</v>
@@ -28779,7 +28779,7 @@
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>3141</v>
@@ -28951,7 +28951,7 @@
     </row>
     <row r="1018" ht="37.5" spans="1:5">
       <c r="A1018" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1018" s="1" t="s">
         <v>3183</v>
@@ -29042,7 +29042,7 @@
     </row>
     <row r="1025" spans="1:4">
       <c r="A1025" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1025" s="1" t="s">
         <v>3205</v>
@@ -29085,7 +29085,7 @@
     </row>
     <row r="1028" spans="1:4">
       <c r="A1028" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1028" s="1" t="s">
         <v>3215</v>
@@ -29111,7 +29111,7 @@
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1030" s="1" t="s">
         <v>3221</v>
@@ -29201,7 +29201,7 @@
     </row>
     <row r="1037" spans="1:4">
       <c r="A1037" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1037" s="1" t="s">
         <v>3242</v>
@@ -29301,7 +29301,7 @@
     </row>
     <row r="1045" spans="1:4">
       <c r="A1045" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1045" s="1" t="s">
         <v>3266</v>
@@ -29377,7 +29377,7 @@
     </row>
     <row r="1051" spans="1:4">
       <c r="A1051" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1051" s="1" t="s">
         <v>3284</v>
@@ -29419,7 +29419,7 @@
     </row>
     <row r="1054" spans="1:4">
       <c r="A1054" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1054" s="1" t="s">
         <v>3294</v>
@@ -29433,7 +29433,7 @@
     </row>
     <row r="1055" spans="1:4">
       <c r="A1055" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1055" s="1" t="s">
         <v>3297</v>
@@ -29655,7 +29655,7 @@
     </row>
     <row r="1073" spans="1:4">
       <c r="A1073" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>3351</v>
@@ -29669,7 +29669,7 @@
     </row>
     <row r="1074" spans="1:4">
       <c r="A1074" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1074" s="1" t="s">
         <v>3354</v>
@@ -29695,7 +29695,7 @@
     </row>
     <row r="1076" spans="1:5">
       <c r="A1076" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1076" s="1" t="s">
         <v>3360</v>
@@ -29784,7 +29784,7 @@
     </row>
     <row r="1083" spans="1:4">
       <c r="A1083" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1083" s="1" t="s">
         <v>159</v>
@@ -29810,7 +29810,7 @@
     </row>
     <row r="1085" spans="1:5">
       <c r="A1085" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1085" s="1" t="s">
         <v>3387</v>
@@ -29936,7 +29936,7 @@
     </row>
     <row r="1094" spans="1:4">
       <c r="A1094" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1094" s="1" t="s">
         <v>3416</v>
@@ -29950,7 +29950,7 @@
     </row>
     <row r="1095" spans="1:4">
       <c r="A1095" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1095" s="1" t="s">
         <v>3419</v>
@@ -30016,7 +30016,7 @@
     </row>
     <row r="1100" spans="1:5">
       <c r="A1100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1100" s="1" t="s">
         <v>3434</v>
@@ -30033,7 +30033,7 @@
     </row>
     <row r="1101" spans="1:5">
       <c r="A1101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1101" s="1" t="s">
         <v>3438</v>
@@ -30094,9 +30094,9 @@
       </c>
       <c r="E1105" s="6"/>
     </row>
-    <row r="1106" spans="1:5">
+    <row r="1106" hidden="1" spans="1:5">
       <c r="A1106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1106" s="1" t="s">
         <v>3453</v>
@@ -30123,7 +30123,7 @@
     </row>
     <row r="1108" spans="1:5">
       <c r="A1108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1108" s="1" t="s">
         <v>3459</v>
@@ -30150,7 +30150,7 @@
     </row>
     <row r="1110" spans="1:5">
       <c r="A1110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1110" s="1" t="s">
         <v>3465</v>
@@ -30163,9 +30163,9 @@
       </c>
       <c r="E1110" s="6"/>
     </row>
-    <row r="1111" spans="1:5">
+    <row r="1111" hidden="1" spans="1:5">
       <c r="A1111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1111" s="1" t="s">
         <v>3468</v>
@@ -30293,7 +30293,7 @@
     </row>
     <row r="1121" spans="1:5">
       <c r="A1121" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1121" s="1" t="s">
         <v>3498</v>
@@ -30342,9 +30342,9 @@
       </c>
       <c r="E1124" s="6"/>
     </row>
-    <row r="1125" spans="1:5">
+    <row r="1125" hidden="1" spans="1:5">
       <c r="A1125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1125" s="1" t="s">
         <v>3510</v>
@@ -30357,9 +30357,9 @@
       </c>
       <c r="E1125" s="6"/>
     </row>
-    <row r="1126" spans="1:5">
+    <row r="1126" hidden="1" spans="1:5">
       <c r="A1126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1126" s="1" t="s">
         <v>3513</v>
@@ -30408,9 +30408,9 @@
       </c>
       <c r="E1129" s="6"/>
     </row>
-    <row r="1130" spans="1:5">
+    <row r="1130" hidden="1" spans="1:5">
       <c r="A1130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1130" s="1" t="s">
         <v>3525</v>
@@ -30460,9 +30460,9 @@
       </c>
       <c r="E1133" s="6"/>
     </row>
-    <row r="1134" spans="1:5">
+    <row r="1134" hidden="1" spans="1:5">
       <c r="A1134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1134" s="1" t="s">
         <v>3537</v>
@@ -30499,9 +30499,9 @@
       </c>
       <c r="E1136" s="6"/>
     </row>
-    <row r="1137" spans="1:5">
+    <row r="1137" hidden="1" spans="1:5">
       <c r="A1137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1137" s="1" t="s">
         <v>3546</v>
@@ -30514,9 +30514,9 @@
       </c>
       <c r="E1137" s="6"/>
     </row>
-    <row r="1138" spans="1:5">
+    <row r="1138" hidden="1" spans="1:5">
       <c r="A1138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1138" s="1" t="s">
         <v>3549</v>
@@ -30529,9 +30529,9 @@
       </c>
       <c r="E1138" s="6"/>
     </row>
-    <row r="1139" spans="1:5">
+    <row r="1139" hidden="1" spans="1:5">
       <c r="A1139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1139" s="1" t="s">
         <v>3552</v>
@@ -30580,9 +30580,9 @@
       </c>
       <c r="E1142" s="6"/>
     </row>
-    <row r="1143" spans="1:5">
+    <row r="1143" hidden="1" spans="1:5">
       <c r="A1143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1143" s="1" t="s">
         <v>3564</v>
@@ -30631,9 +30631,9 @@
       </c>
       <c r="E1146" s="6"/>
     </row>
-    <row r="1147" spans="1:5">
+    <row r="1147" hidden="1" spans="1:5">
       <c r="A1147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1147" s="1" t="s">
         <v>3576</v>
@@ -30646,9 +30646,9 @@
       </c>
       <c r="E1147" s="6"/>
     </row>
-    <row r="1148" spans="1:5">
+    <row r="1148" hidden="1" spans="1:5">
       <c r="A1148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1148" s="1" t="s">
         <v>3579</v>
@@ -30661,9 +30661,9 @@
       </c>
       <c r="E1148" s="6"/>
     </row>
-    <row r="1149" spans="1:5">
+    <row r="1149" hidden="1" spans="1:5">
       <c r="A1149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1149" s="1" t="s">
         <v>3582</v>
@@ -30676,9 +30676,9 @@
       </c>
       <c r="E1149" s="6"/>
     </row>
-    <row r="1150" spans="1:5">
+    <row r="1150" hidden="1" spans="1:5">
       <c r="A1150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1150" s="1" t="s">
         <v>3585</v>
@@ -30715,9 +30715,9 @@
       </c>
       <c r="E1152" s="6"/>
     </row>
-    <row r="1153" spans="1:5">
+    <row r="1153" hidden="1" spans="1:5">
       <c r="A1153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1153" s="1" t="s">
         <v>3593</v>
@@ -30754,9 +30754,9 @@
       </c>
       <c r="E1155" s="6"/>
     </row>
-    <row r="1156" spans="1:5">
+    <row r="1156" hidden="1" spans="1:5">
       <c r="A1156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1156" s="1" t="s">
         <v>3602</v>
@@ -30769,9 +30769,9 @@
       </c>
       <c r="E1156" s="6"/>
     </row>
-    <row r="1157" spans="1:5">
+    <row r="1157" hidden="1" spans="1:5">
       <c r="A1157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1157" s="1" t="s">
         <v>3605</v>
@@ -30882,7 +30882,7 @@
     </row>
     <row r="1166" spans="1:5">
       <c r="A1166" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1166" s="1" t="s">
         <v>3632</v>
@@ -30897,7 +30897,7 @@
     </row>
     <row r="1167" spans="1:5">
       <c r="A1167" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1167" s="1" t="s">
         <v>3635</v>
@@ -30910,9 +30910,9 @@
       </c>
       <c r="E1167" s="6"/>
     </row>
-    <row r="1168" spans="1:5">
+    <row r="1168" hidden="1" spans="1:5">
       <c r="A1168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1168" s="1" t="s">
         <v>3638</v>
@@ -30925,9 +30925,9 @@
       </c>
       <c r="E1168" s="6"/>
     </row>
-    <row r="1169" spans="1:5">
+    <row r="1169" hidden="1" spans="1:5">
       <c r="A1169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1169" s="1" t="s">
         <v>3641</v>
@@ -30976,9 +30976,9 @@
       </c>
       <c r="E1172" s="6"/>
     </row>
-    <row r="1173" spans="1:5">
+    <row r="1173" hidden="1" spans="1:5">
       <c r="A1173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1173" s="1" t="s">
         <v>3653</v>
@@ -31099,9 +31099,9 @@
       </c>
       <c r="E1182" s="6"/>
     </row>
-    <row r="1183" spans="1:5">
+    <row r="1183" hidden="1" spans="1:5">
       <c r="A1183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1183" s="1" t="s">
         <v>3683</v>
@@ -31114,9 +31114,9 @@
       </c>
       <c r="E1183" s="6"/>
     </row>
-    <row r="1184" spans="1:5">
+    <row r="1184" hidden="1" spans="1:5">
       <c r="A1184" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1184" s="1" t="s">
         <v>3686</v>
@@ -31141,9 +31141,9 @@
       </c>
       <c r="E1185" s="6"/>
     </row>
-    <row r="1186" spans="1:5">
+    <row r="1186" hidden="1" spans="1:5">
       <c r="A1186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1186" s="1" t="s">
         <v>3692</v>
@@ -31156,9 +31156,9 @@
       </c>
       <c r="E1186" s="6"/>
     </row>
-    <row r="1187" spans="1:5">
+    <row r="1187" hidden="1" spans="1:5">
       <c r="A1187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1187" s="1" t="s">
         <v>3695</v>
@@ -31171,9 +31171,9 @@
       </c>
       <c r="E1187" s="6"/>
     </row>
-    <row r="1188" spans="1:5">
+    <row r="1188" hidden="1" spans="1:5">
       <c r="A1188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1188" s="1" t="s">
         <v>3698</v>
@@ -31198,9 +31198,9 @@
       </c>
       <c r="E1189" s="6"/>
     </row>
-    <row r="1190" spans="1:5">
+    <row r="1190" hidden="1" spans="1:5">
       <c r="A1190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1190" s="1" t="s">
         <v>3704</v>
@@ -31237,9 +31237,9 @@
       </c>
       <c r="E1192" s="6"/>
     </row>
-    <row r="1193" spans="1:5">
+    <row r="1193" hidden="1" spans="1:5">
       <c r="A1193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1193" s="1" t="s">
         <v>3713</v>
@@ -31264,9 +31264,9 @@
       </c>
       <c r="E1194" s="6"/>
     </row>
-    <row r="1195" spans="1:5">
+    <row r="1195" hidden="1" spans="1:5">
       <c r="A1195" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1195" s="1" t="s">
         <v>3719</v>
@@ -31305,7 +31305,7 @@
     </row>
     <row r="1198" spans="1:5">
       <c r="A1198" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1198" s="1" t="s">
         <v>3728</v>
@@ -31320,9 +31320,9 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="1199" spans="1:5">
+    <row r="1199" hidden="1" spans="1:5">
       <c r="A1199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1199" s="1" t="s">
         <v>3732</v>
@@ -31349,7 +31349,10 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="1201" hidden="1" spans="2:5">
+    <row r="1201" spans="1:5">
+      <c r="A1201" s="1">
+        <v>1</v>
+      </c>
       <c r="B1201" s="1" t="s">
         <v>3739</v>
       </c>
@@ -31385,7 +31388,10 @@
       </c>
       <c r="E1203" s="6"/>
     </row>
-    <row r="1204" hidden="1" spans="2:5">
+    <row r="1204" spans="1:5">
+      <c r="A1204" s="1">
+        <v>1</v>
+      </c>
       <c r="B1204" s="1" t="s">
         <v>3748</v>
       </c>
@@ -31397,7 +31403,10 @@
       </c>
       <c r="E1204" s="6"/>
     </row>
-    <row r="1205" hidden="1" spans="2:5">
+    <row r="1205" spans="1:5">
+      <c r="A1205" s="1">
+        <v>1</v>
+      </c>
       <c r="B1205" s="1" t="s">
         <v>3751</v>
       </c>
@@ -31421,7 +31430,10 @@
       </c>
       <c r="E1206" s="6"/>
     </row>
-    <row r="1207" hidden="1" spans="2:5">
+    <row r="1207" spans="1:5">
+      <c r="A1207" s="1">
+        <v>1</v>
+      </c>
       <c r="B1207" s="1" t="s">
         <v>3757</v>
       </c>
@@ -31469,7 +31481,10 @@
       </c>
       <c r="E1210" s="6"/>
     </row>
-    <row r="1211" hidden="1" spans="2:5">
+    <row r="1211" spans="1:5">
+      <c r="A1211" s="1">
+        <v>1</v>
+      </c>
       <c r="B1211" s="1" t="s">
         <v>3769</v>
       </c>
@@ -31481,7 +31496,10 @@
       </c>
       <c r="E1211" s="6"/>
     </row>
-    <row r="1212" hidden="1" spans="2:5">
+    <row r="1212" spans="1:5">
+      <c r="A1212" s="1">
+        <v>1</v>
+      </c>
       <c r="B1212" s="1" t="s">
         <v>3772</v>
       </c>
@@ -31493,7 +31511,10 @@
       </c>
       <c r="E1212" s="6"/>
     </row>
-    <row r="1213" hidden="1" spans="2:5">
+    <row r="1213" spans="1:5">
+      <c r="A1213" s="1">
+        <v>1</v>
+      </c>
       <c r="B1213" s="1" t="s">
         <v>3775</v>
       </c>
@@ -31529,7 +31550,10 @@
       </c>
       <c r="E1215" s="6"/>
     </row>
-    <row r="1216" hidden="1" spans="2:5">
+    <row r="1216" spans="1:5">
+      <c r="A1216" s="1">
+        <v>1</v>
+      </c>
       <c r="B1216" s="1" t="s">
         <v>3784</v>
       </c>
@@ -31541,7 +31565,10 @@
       </c>
       <c r="E1216" s="6"/>
     </row>
-    <row r="1217" hidden="1" spans="2:5">
+    <row r="1217" spans="1:5">
+      <c r="A1217" s="1">
+        <v>1</v>
+      </c>
       <c r="B1217" s="1" t="s">
         <v>3787</v>
       </c>
@@ -31553,7 +31580,10 @@
       </c>
       <c r="E1217" s="6"/>
     </row>
-    <row r="1218" hidden="1" spans="2:5">
+    <row r="1218" spans="1:5">
+      <c r="A1218" s="1">
+        <v>1</v>
+      </c>
       <c r="B1218" s="1" t="s">
         <v>3790</v>
       </c>
@@ -31565,7 +31595,10 @@
       </c>
       <c r="E1218" s="6"/>
     </row>
-    <row r="1219" hidden="1" spans="2:5">
+    <row r="1219" spans="1:5">
+      <c r="A1219" s="1">
+        <v>1</v>
+      </c>
       <c r="B1219" s="1" t="s">
         <v>3793</v>
       </c>
@@ -31613,7 +31646,10 @@
       </c>
       <c r="E1222" s="6"/>
     </row>
-    <row r="1223" hidden="1" spans="2:5">
+    <row r="1223" spans="1:5">
+      <c r="A1223" s="1">
+        <v>1</v>
+      </c>
       <c r="B1223" s="1" t="s">
         <v>3805</v>
       </c>
@@ -31649,7 +31685,10 @@
       </c>
       <c r="E1225" s="6"/>
     </row>
-    <row r="1226" hidden="1" spans="2:5">
+    <row r="1226" spans="1:5">
+      <c r="A1226" s="1">
+        <v>1</v>
+      </c>
       <c r="B1226" s="1" t="s">
         <v>3814</v>
       </c>
@@ -31661,7 +31700,10 @@
       </c>
       <c r="E1226" s="6"/>
     </row>
-    <row r="1227" hidden="1" spans="2:5">
+    <row r="1227" spans="1:5">
+      <c r="A1227" s="1">
+        <v>1</v>
+      </c>
       <c r="B1227" s="1" t="s">
         <v>3817</v>
       </c>
@@ -31673,7 +31715,10 @@
       </c>
       <c r="E1227" s="6"/>
     </row>
-    <row r="1228" hidden="1" spans="2:5">
+    <row r="1228" spans="1:5">
+      <c r="A1228" s="1">
+        <v>1</v>
+      </c>
       <c r="B1228" s="1" t="s">
         <v>3820</v>
       </c>
@@ -31711,7 +31756,10 @@
       </c>
       <c r="E1230" s="6"/>
     </row>
-    <row r="1231" hidden="1" spans="2:5">
+    <row r="1231" spans="1:5">
+      <c r="A1231" s="1">
+        <v>1</v>
+      </c>
       <c r="B1231" s="1" t="s">
         <v>3830</v>
       </c>
@@ -31747,7 +31795,10 @@
       </c>
       <c r="E1233" s="6"/>
     </row>
-    <row r="1234" hidden="1" spans="2:5">
+    <row r="1234" spans="1:5">
+      <c r="A1234" s="1">
+        <v>1</v>
+      </c>
       <c r="B1234" s="1" t="s">
         <v>3839</v>
       </c>
@@ -31831,7 +31882,10 @@
       </c>
       <c r="E1240" s="6"/>
     </row>
-    <row r="1241" hidden="1" spans="2:5">
+    <row r="1241" spans="1:5">
+      <c r="A1241" s="1">
+        <v>1</v>
+      </c>
       <c r="B1241" s="1" t="s">
         <v>3860</v>
       </c>
@@ -31843,7 +31897,10 @@
       </c>
       <c r="E1241" s="6"/>
     </row>
-    <row r="1242" hidden="1" spans="2:5">
+    <row r="1242" spans="1:5">
+      <c r="A1242" s="1">
+        <v>1</v>
+      </c>
       <c r="B1242" s="1" t="s">
         <v>3863</v>
       </c>
@@ -31895,7 +31952,10 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="1246" hidden="1" spans="2:5">
+    <row r="1246" spans="1:5">
+      <c r="A1246" s="1">
+        <v>1</v>
+      </c>
       <c r="B1246" s="1" t="s">
         <v>3877</v>
       </c>
@@ -31919,7 +31979,10 @@
       </c>
       <c r="E1247" s="6"/>
     </row>
-    <row r="1248" ht="37.5" hidden="1" spans="2:5">
+    <row r="1248" ht="37.5" spans="1:5">
+      <c r="A1248" s="1">
+        <v>1</v>
+      </c>
       <c r="B1248" s="1" t="s">
         <v>3883</v>
       </c>
@@ -31931,7 +31994,10 @@
       </c>
       <c r="E1248" s="6"/>
     </row>
-    <row r="1249" hidden="1" spans="2:5">
+    <row r="1249" spans="1:5">
+      <c r="A1249" s="1">
+        <v>1</v>
+      </c>
       <c r="B1249" s="1" t="s">
         <v>3886</v>
       </c>
@@ -31943,7 +32009,10 @@
       </c>
       <c r="E1249" s="6"/>
     </row>
-    <row r="1250" hidden="1" spans="2:5">
+    <row r="1250" spans="1:5">
+      <c r="A1250" s="1">
+        <v>1</v>
+      </c>
       <c r="B1250" s="1" t="s">
         <v>3889</v>
       </c>
@@ -31981,7 +32050,10 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="1253" hidden="1" spans="2:5">
+    <row r="1253" spans="1:5">
+      <c r="A1253" s="1">
+        <v>1</v>
+      </c>
       <c r="B1253" s="1" t="s">
         <v>3899</v>
       </c>
@@ -32005,7 +32077,10 @@
       </c>
       <c r="E1254" s="6"/>
     </row>
-    <row r="1255" hidden="1" spans="2:5">
+    <row r="1255" spans="1:5">
+      <c r="A1255" s="1">
+        <v>1</v>
+      </c>
       <c r="B1255" s="1" t="s">
         <v>3905</v>
       </c>
@@ -32029,7 +32104,10 @@
       </c>
       <c r="E1256" s="6"/>
     </row>
-    <row r="1257" hidden="1" spans="2:5">
+    <row r="1257" spans="1:5">
+      <c r="A1257" s="1">
+        <v>1</v>
+      </c>
       <c r="B1257" s="1" t="s">
         <v>3911</v>
       </c>
@@ -32041,7 +32119,10 @@
       </c>
       <c r="E1257" s="6"/>
     </row>
-    <row r="1258" hidden="1" spans="2:5">
+    <row r="1258" spans="1:5">
+      <c r="A1258" s="1">
+        <v>1</v>
+      </c>
       <c r="B1258" s="1" t="s">
         <v>3914</v>
       </c>
@@ -32053,7 +32134,10 @@
       </c>
       <c r="E1258" s="6"/>
     </row>
-    <row r="1259" hidden="1" spans="2:5">
+    <row r="1259" spans="1:5">
+      <c r="A1259" s="1">
+        <v>1</v>
+      </c>
       <c r="B1259" s="1" t="s">
         <v>3917</v>
       </c>
@@ -32065,7 +32149,10 @@
       </c>
       <c r="E1259" s="6"/>
     </row>
-    <row r="1260" hidden="1" spans="2:5">
+    <row r="1260" spans="1:5">
+      <c r="A1260" s="1">
+        <v>1</v>
+      </c>
       <c r="B1260" s="1" t="s">
         <v>3920</v>
       </c>
@@ -32101,7 +32188,10 @@
       </c>
       <c r="E1262" s="6"/>
     </row>
-    <row r="1263" hidden="1" spans="2:5">
+    <row r="1263" spans="1:5">
+      <c r="A1263" s="1">
+        <v>1</v>
+      </c>
       <c r="B1263" s="1" t="s">
         <v>3929</v>
       </c>
@@ -32125,7 +32215,10 @@
       </c>
       <c r="E1264" s="6"/>
     </row>
-    <row r="1265" hidden="1" spans="2:5">
+    <row r="1265" spans="1:5">
+      <c r="A1265" s="1">
+        <v>1</v>
+      </c>
       <c r="B1265" s="1" t="s">
         <v>3935</v>
       </c>
@@ -32149,7 +32242,10 @@
       </c>
       <c r="E1266" s="6"/>
     </row>
-    <row r="1267" hidden="1" spans="2:5">
+    <row r="1267" spans="1:5">
+      <c r="A1267" s="1">
+        <v>1</v>
+      </c>
       <c r="B1267" s="1" t="s">
         <v>3941</v>
       </c>
@@ -32221,7 +32317,10 @@
       </c>
       <c r="E1272" s="6"/>
     </row>
-    <row r="1273" hidden="1" spans="2:5">
+    <row r="1273" spans="1:5">
+      <c r="A1273" s="1">
+        <v>1</v>
+      </c>
       <c r="B1273" s="1" t="s">
         <v>3959</v>
       </c>
@@ -32293,7 +32392,10 @@
       </c>
       <c r="E1278" s="6"/>
     </row>
-    <row r="1279" hidden="1" spans="2:5">
+    <row r="1279" spans="1:5">
+      <c r="A1279" s="1">
+        <v>1</v>
+      </c>
       <c r="B1279" s="1" t="s">
         <v>3977</v>
       </c>
@@ -32341,7 +32443,10 @@
       </c>
       <c r="E1282" s="6"/>
     </row>
-    <row r="1283" hidden="1" spans="2:5">
+    <row r="1283" spans="1:5">
+      <c r="A1283" s="1">
+        <v>1</v>
+      </c>
       <c r="B1283" s="1" t="s">
         <v>3989</v>
       </c>
@@ -32353,7 +32458,10 @@
       </c>
       <c r="E1283" s="6"/>
     </row>
-    <row r="1284" hidden="1" spans="2:5">
+    <row r="1284" spans="1:5">
+      <c r="A1284" s="1">
+        <v>1</v>
+      </c>
       <c r="B1284" s="1" t="s">
         <v>3992</v>
       </c>
@@ -32365,7 +32473,10 @@
       </c>
       <c r="E1284" s="6"/>
     </row>
-    <row r="1285" hidden="1" spans="2:5">
+    <row r="1285" spans="1:5">
+      <c r="A1285" s="1">
+        <v>1</v>
+      </c>
       <c r="B1285" s="1" t="s">
         <v>3995</v>
       </c>
@@ -32401,7 +32512,10 @@
       </c>
       <c r="E1287" s="6"/>
     </row>
-    <row r="1288" hidden="1" spans="2:5">
+    <row r="1288" spans="1:5">
+      <c r="A1288" s="1">
+        <v>1</v>
+      </c>
       <c r="B1288" s="1" t="s">
         <v>4004</v>
       </c>
@@ -32437,7 +32551,10 @@
       </c>
       <c r="E1290" s="6"/>
     </row>
-    <row r="1291" hidden="1" spans="2:5">
+    <row r="1291" spans="1:5">
+      <c r="A1291" s="1">
+        <v>1</v>
+      </c>
       <c r="B1291" s="1" t="s">
         <v>4013</v>
       </c>
@@ -32475,7 +32592,10 @@
       </c>
       <c r="E1293" s="6"/>
     </row>
-    <row r="1294" hidden="1" spans="2:5">
+    <row r="1294" spans="1:5">
+      <c r="A1294" s="1">
+        <v>1</v>
+      </c>
       <c r="B1294" s="1" t="s">
         <v>4022</v>
       </c>
@@ -32487,7 +32607,10 @@
       </c>
       <c r="E1294" s="6"/>
     </row>
-    <row r="1295" hidden="1" spans="2:5">
+    <row r="1295" spans="1:5">
+      <c r="A1295" s="1">
+        <v>1</v>
+      </c>
       <c r="B1295" s="1" t="s">
         <v>4025</v>
       </c>
@@ -32511,7 +32634,10 @@
       </c>
       <c r="E1296" s="6"/>
     </row>
-    <row r="1297" hidden="1" spans="2:5">
+    <row r="1297" spans="1:5">
+      <c r="A1297" s="1">
+        <v>1</v>
+      </c>
       <c r="B1297" s="1" t="s">
         <v>4031</v>
       </c>
@@ -32523,7 +32649,10 @@
       </c>
       <c r="E1297" s="6"/>
     </row>
-    <row r="1298" hidden="1" spans="2:5">
+    <row r="1298" spans="1:5">
+      <c r="A1298" s="1">
+        <v>1</v>
+      </c>
       <c r="B1298" s="1" t="s">
         <v>4034</v>
       </c>
@@ -32535,7 +32664,10 @@
       </c>
       <c r="E1298" s="6"/>
     </row>
-    <row r="1299" hidden="1" spans="2:5">
+    <row r="1299" spans="1:5">
+      <c r="A1299" s="1">
+        <v>1</v>
+      </c>
       <c r="B1299" s="1" t="s">
         <v>4037</v>
       </c>
@@ -32583,7 +32715,10 @@
       </c>
       <c r="E1302" s="1"/>
     </row>
-    <row r="1303" hidden="1" spans="2:5">
+    <row r="1303" spans="1:5">
+      <c r="A1303" s="1">
+        <v>1</v>
+      </c>
       <c r="B1303" s="1" t="s">
         <v>4049</v>
       </c>
@@ -32717,7 +32852,10 @@
       </c>
       <c r="E1313" s="1"/>
     </row>
-    <row r="1314" hidden="1" spans="2:5">
+    <row r="1314" spans="1:5">
+      <c r="A1314" s="1">
+        <v>1</v>
+      </c>
       <c r="B1314" s="1" t="s">
         <v>4082</v>
       </c>
@@ -32729,7 +32867,10 @@
       </c>
       <c r="E1314" s="6"/>
     </row>
-    <row r="1315" hidden="1" spans="2:5">
+    <row r="1315" spans="1:5">
+      <c r="A1315" s="1">
+        <v>1</v>
+      </c>
       <c r="B1315" s="1" t="s">
         <v>4085</v>
       </c>
@@ -32815,7 +32956,10 @@
       </c>
       <c r="E1321" s="6"/>
     </row>
-    <row r="1322" hidden="1" spans="2:5">
+    <row r="1322" spans="1:5">
+      <c r="A1322" s="1">
+        <v>1</v>
+      </c>
       <c r="B1322" s="1" t="s">
         <v>4107</v>
       </c>
@@ -32827,7 +32971,10 @@
       </c>
       <c r="E1322" s="1"/>
     </row>
-    <row r="1323" hidden="1" spans="2:5">
+    <row r="1323" spans="1:5">
+      <c r="A1323" s="1">
+        <v>1</v>
+      </c>
       <c r="B1323" s="1" t="s">
         <v>4110</v>
       </c>
@@ -32854,7 +33001,7 @@
         <filter val="3"/>
         <filter val="4"/>
         <filter val="5"/>
-        <filter val="7"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115">
   <si>
     <t>标记</t>
   </si>
@@ -13783,6 +13783,19 @@
     <t>债务</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">debate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨论</t>
+    </r>
+  </si>
+  <si>
     <t>exhibition</t>
   </si>
   <si>
@@ -14355,7 +14368,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -14608,6 +14621,11 @@
     <font>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -15457,8 +15475,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D934" sqref="D934"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1248" workbookViewId="0">
+      <selection activeCell="E1263" sqref="E1263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -32201,17 +32219,19 @@
       <c r="D1263" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="E1263" s="6"/>
+      <c r="E1263" s="6" t="s">
+        <v>3932</v>
+      </c>
     </row>
     <row r="1264" hidden="1" spans="2:5">
       <c r="B1264" s="1" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="D1264" s="1" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="E1264" s="6"/>
     </row>
@@ -32220,25 +32240,25 @@
         <v>1</v>
       </c>
       <c r="B1265" s="1" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="D1265" s="1" t="s">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="E1265" s="6"/>
     </row>
     <row r="1266" hidden="1" spans="2:5">
       <c r="B1266" s="1" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="D1266" s="1" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="E1266" s="6"/>
     </row>
@@ -32247,73 +32267,73 @@
         <v>1</v>
       </c>
       <c r="B1267" s="1" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="E1267" s="6"/>
     </row>
     <row r="1268" hidden="1" spans="2:5">
       <c r="B1268" s="1" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="D1268" s="1" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="E1268" s="6"/>
     </row>
     <row r="1269" hidden="1" spans="2:5">
       <c r="B1269" s="1" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="D1269" s="1" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="E1269" s="6"/>
     </row>
     <row r="1270" hidden="1" spans="2:5">
       <c r="B1270" s="1" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="D1270" s="1" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="E1270" s="6"/>
     </row>
     <row r="1271" hidden="1" spans="2:5">
       <c r="B1271" s="1" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>3954</v>
+        <v>3955</v>
       </c>
       <c r="D1271" s="1" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="E1271" s="6"/>
     </row>
     <row r="1272" hidden="1" spans="2:5">
       <c r="B1272" s="1" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="D1272" s="1" t="s">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="E1272" s="6"/>
     </row>
@@ -32322,73 +32342,73 @@
         <v>1</v>
       </c>
       <c r="B1273" s="1" t="s">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="D1273" s="1" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="E1273" s="6"/>
     </row>
     <row r="1274" hidden="1" spans="2:5">
       <c r="B1274" s="1" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="D1274" s="1" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="E1274" s="6"/>
     </row>
     <row r="1275" hidden="1" spans="2:5">
       <c r="B1275" s="1" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="E1275" s="6"/>
     </row>
     <row r="1276" hidden="1" spans="2:5">
       <c r="B1276" s="1" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="E1276" s="6"/>
     </row>
     <row r="1277" hidden="1" spans="2:5">
       <c r="B1277" s="1" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="D1277" s="1" t="s">
-        <v>3973</v>
+        <v>3974</v>
       </c>
       <c r="E1277" s="6"/>
     </row>
     <row r="1278" hidden="1" spans="2:5">
       <c r="B1278" s="1" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="D1278" s="1" t="s">
-        <v>3976</v>
+        <v>3977</v>
       </c>
       <c r="E1278" s="6"/>
     </row>
@@ -32397,49 +32417,49 @@
         <v>1</v>
       </c>
       <c r="B1279" s="1" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="D1279" s="1" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
       <c r="E1279" s="6"/>
     </row>
     <row r="1280" hidden="1" spans="2:5">
       <c r="B1280" s="1" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="E1280" s="6"/>
     </row>
     <row r="1281" hidden="1" spans="2:5">
       <c r="B1281" s="1" t="s">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="D1281" s="1" t="s">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="E1281" s="6"/>
     </row>
     <row r="1282" hidden="1" spans="2:5">
       <c r="B1282" s="1" t="s">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="D1282" s="1" t="s">
-        <v>3988</v>
+        <v>3989</v>
       </c>
       <c r="E1282" s="6"/>
     </row>
@@ -32448,13 +32468,13 @@
         <v>1</v>
       </c>
       <c r="B1283" s="1" t="s">
-        <v>3989</v>
+        <v>3990</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>3990</v>
+        <v>3991</v>
       </c>
       <c r="D1283" s="1" t="s">
-        <v>3991</v>
+        <v>3992</v>
       </c>
       <c r="E1283" s="6"/>
     </row>
@@ -32463,13 +32483,13 @@
         <v>1</v>
       </c>
       <c r="B1284" s="1" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="E1284" s="6"/>
     </row>
@@ -32478,37 +32498,37 @@
         <v>1</v>
       </c>
       <c r="B1285" s="1" t="s">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>3996</v>
+        <v>3997</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="E1285" s="6"/>
     </row>
     <row r="1286" hidden="1" spans="2:5">
       <c r="B1286" s="1" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>3999</v>
+        <v>4000</v>
       </c>
       <c r="D1286" s="1" t="s">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="E1286" s="6"/>
     </row>
     <row r="1287" hidden="1" spans="2:5">
       <c r="B1287" s="1" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="D1287" s="1" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="E1287" s="6"/>
     </row>
@@ -32517,37 +32537,37 @@
         <v>1</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="D1288" s="1" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="E1288" s="6"/>
     </row>
     <row r="1289" hidden="1" spans="2:5">
       <c r="B1289" s="1" t="s">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="E1289" s="6"/>
     </row>
     <row r="1290" hidden="1" spans="2:5">
       <c r="B1290" s="1" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="D1290" s="1" t="s">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="E1290" s="6"/>
     </row>
@@ -32556,25 +32576,25 @@
         <v>1</v>
       </c>
       <c r="B1291" s="1" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="E1291" s="6"/>
     </row>
     <row r="1292" hidden="1" spans="2:5">
       <c r="B1292" s="1" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="D1292" s="1" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="E1292" s="6" t="s">
         <v>95</v>
@@ -32582,13 +32602,13 @@
     </row>
     <row r="1293" hidden="1" spans="2:5">
       <c r="B1293" s="1" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="C1293" s="5" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="E1293" s="6"/>
     </row>
@@ -32597,13 +32617,13 @@
         <v>1</v>
       </c>
       <c r="B1294" s="1" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="C1294" s="5" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="D1294" s="1" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="E1294" s="6"/>
     </row>
@@ -32612,25 +32632,25 @@
         <v>1</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C1295" s="5" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="D1295" s="1" t="s">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="E1295" s="6"/>
     </row>
     <row r="1296" hidden="1" spans="2:5">
       <c r="B1296" s="1" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="C1296" s="5" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="D1296" s="1" t="s">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="E1296" s="6"/>
     </row>
@@ -32639,13 +32659,13 @@
         <v>1</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C1297" s="5" t="s">
-        <v>4032</v>
+        <v>4033</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="E1297" s="6"/>
     </row>
@@ -32654,13 +32674,13 @@
         <v>1</v>
       </c>
       <c r="B1298" s="1" t="s">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="C1298" s="5" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
       <c r="D1298" s="1" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="E1298" s="6"/>
     </row>
@@ -32669,49 +32689,49 @@
         <v>1</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="C1299" s="5" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="E1299" s="6"/>
     </row>
     <row r="1300" hidden="1" spans="2:5">
       <c r="B1300" s="1" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="C1300" s="5" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="E1300" s="6"/>
     </row>
     <row r="1301" hidden="1" spans="2:5">
       <c r="B1301" s="1" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="E1301" s="1"/>
     </row>
     <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="D1302" s="1" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="E1302" s="1"/>
     </row>
@@ -32720,135 +32740,135 @@
         <v>1</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="C1303" s="5" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="D1303" s="1" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="E1303" s="6" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="1304" hidden="1" spans="2:5">
       <c r="B1304" s="1" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="C1304" s="5" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="D1304" s="1" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="E1304" s="6"/>
     </row>
     <row r="1305" hidden="1" spans="2:5">
       <c r="B1305" s="1" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="C1305" s="5" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="D1305" s="1" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="E1305" s="6"/>
     </row>
     <row r="1306" ht="56.25" hidden="1" spans="2:5">
       <c r="B1306" s="1" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="E1306" s="1"/>
     </row>
     <row r="1307" hidden="1" spans="2:5">
       <c r="B1307" s="1" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="C1307" s="5" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="D1307" s="1" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="E1307" s="6"/>
     </row>
     <row r="1308" hidden="1" spans="2:5">
       <c r="B1308" s="1" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="C1308" s="5" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="E1308" s="6"/>
     </row>
     <row r="1309" hidden="1" spans="2:5">
       <c r="B1309" s="1" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="C1309" s="5" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E1309" s="6"/>
     </row>
     <row r="1310" hidden="1" spans="2:5">
       <c r="B1310" s="1" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="C1310" s="5" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="D1310" s="1" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="E1310" s="6"/>
     </row>
     <row r="1311" hidden="1" spans="2:5">
       <c r="B1311" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C1311" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D1311" s="1" t="s">
         <v>4074</v>
-      </c>
-      <c r="C1311" s="1" t="s">
-        <v>4075</v>
-      </c>
-      <c r="D1311" s="1" t="s">
-        <v>4073</v>
       </c>
       <c r="E1311" s="1"/>
     </row>
     <row r="1312" hidden="1" spans="2:5">
       <c r="B1312" s="1" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="D1312" s="1" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="E1312" s="1"/>
     </row>
     <row r="1313" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="D1313" s="1" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E1313" s="1"/>
     </row>
@@ -32857,13 +32877,13 @@
         <v>1</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="C1314" s="5" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="D1314" s="1" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="E1314" s="6"/>
     </row>
@@ -32872,87 +32892,87 @@
         <v>1</v>
       </c>
       <c r="B1315" s="1" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="D1315" s="1" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="E1315" s="6"/>
     </row>
     <row r="1316" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="C1316" s="5" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="D1316" s="1" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="E1316" s="6"/>
     </row>
     <row r="1317" hidden="1" spans="2:5">
       <c r="B1317" s="1" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="D1317" s="1" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="E1317" s="6"/>
     </row>
     <row r="1318" hidden="1" spans="2:5">
       <c r="B1318" s="1" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="D1318" s="1" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="E1318" s="6" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1319" ht="37.5" hidden="1" spans="2:5">
       <c r="B1319" s="1" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="D1319" s="1" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="E1319" s="1"/>
     </row>
     <row r="1320" hidden="1" spans="2:5">
       <c r="B1320" s="1" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="D1320" s="1" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="E1320" s="6"/>
     </row>
     <row r="1321" hidden="1" spans="2:5">
       <c r="B1321" s="1" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="C1321" s="5" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="D1321" s="1" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="E1321" s="6"/>
     </row>
@@ -32961,13 +32981,13 @@
         <v>1</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="D1322" s="1" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="E1322" s="1"/>
     </row>
@@ -32976,19 +32996,19 @@
         <v>1</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="D1323" s="1" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="E1323" s="1"/>
     </row>
     <row r="1324" hidden="1" spans="2:5">
       <c r="B1324" s="1" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="E1324" s="1"/>
     </row>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117">
   <si>
     <t>标记</t>
   </si>
@@ -6947,7 +6947,51 @@
     <t>v.犯罪，承诺，委托</t>
   </si>
   <si>
-    <t>command comment</t>
+    <r>
+      <t xml:space="preserve">command </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> comment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> demand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">[di'fend] </t>
@@ -12321,6 +12365,9 @@
     <t>事件，易于发生的， 附带的</t>
   </si>
   <si>
+    <t>accident 意外</t>
+  </si>
+  <si>
     <t>seek</t>
   </si>
   <si>
@@ -13630,6 +13677,19 @@
     <t>羽毛</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">feature </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+  </si>
+  <si>
     <t>expect</t>
   </si>
   <si>
@@ -13784,12 +13844,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">debate </t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>讨论</t>
@@ -14363,9 +14430,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -14434,6 +14501,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -14442,32 +14516,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -14483,16 +14541,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14505,40 +14563,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14549,9 +14602,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14609,6 +14676,11 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -14621,11 +14693,6 @@
     <font>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -14644,13 +14711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14662,13 +14729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14680,13 +14753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14710,25 +14783,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14746,30 +14879,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -14777,48 +14886,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14843,6 +14910,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14886,32 +14983,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14926,157 +15002,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -15177,8 +15244,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>382508</xdr:colOff>
-      <xdr:row>675</xdr:row>
-      <xdr:rowOff>89717</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>327842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15475,8 +15542,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1248" workbookViewId="0">
-      <selection activeCell="E1263" sqref="E1263"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1250" workbookViewId="0">
+      <selection activeCell="F1248" sqref="F1248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -15530,7 +15597,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="37.5" hidden="1" spans="1:5">
+    <row r="4" ht="37.5" spans="1:5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -15547,7 +15614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -15564,7 +15631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="37.5" hidden="1" spans="1:5">
+    <row r="6" ht="37.5" spans="1:5">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -15615,7 +15682,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="37.5" hidden="1" spans="1:5">
+    <row r="10" ht="37.5" spans="1:5">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -15686,7 +15753,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="37.5" hidden="1" spans="1:5">
+    <row r="15" ht="37.5" spans="1:5">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -15715,7 +15782,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="37.5" hidden="1" spans="1:5">
+    <row r="17" ht="37.5" spans="1:5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -15742,7 +15809,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" hidden="1" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -15769,7 +15836,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" hidden="1" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -15784,7 +15851,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="37.5" hidden="1" spans="1:5">
+    <row r="22" ht="37.5" spans="1:5">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -15813,7 +15880,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" hidden="1" spans="1:5">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -15866,7 +15933,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -15897,7 +15964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -15926,7 +15993,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" hidden="1" spans="1:5">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -15943,7 +16010,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:5">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -15958,7 +16025,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" hidden="1" spans="1:5">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -15997,7 +16064,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" hidden="1" spans="1:5">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -16088,7 +16155,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="37.5" hidden="1" spans="1:5">
+    <row r="44" ht="37.5" spans="1:5">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -16115,7 +16182,7 @@
       </c>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" hidden="1" spans="1:5">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -16142,7 +16209,7 @@
       </c>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" hidden="1" spans="1:5">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -16159,7 +16226,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:5">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -16176,7 +16243,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:5">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -16203,7 +16270,7 @@
       </c>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" hidden="1" spans="1:5">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -16218,7 +16285,7 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" ht="37.5" hidden="1" spans="1:5">
+    <row r="53" ht="37.5" spans="1:5">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -16259,7 +16326,7 @@
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" hidden="1" spans="1:5">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -16274,7 +16341,7 @@
       </c>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" hidden="1" spans="1:5">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -16289,7 +16356,7 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" hidden="1" spans="1:5">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -16328,7 +16395,7 @@
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" hidden="1" spans="1:5">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -16459,7 +16526,7 @@
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" hidden="1" spans="1:5">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -16488,7 +16555,7 @@
       </c>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" hidden="1" spans="1:5">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -16503,7 +16570,7 @@
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" hidden="1" spans="1:5">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -16518,7 +16585,7 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" hidden="1" spans="1:5">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -16549,7 +16616,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:5">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -16616,7 +16683,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:5">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -16631,7 +16698,7 @@
       </c>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" hidden="1" spans="1:5">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -16708,7 +16775,7 @@
       </c>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" hidden="1" spans="1:5">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -16751,7 +16818,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:5">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -16828,7 +16895,7 @@
       </c>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" hidden="1" spans="1:5">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -16879,7 +16946,7 @@
       </c>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" hidden="1" spans="1:5">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -16896,7 +16963,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:5">
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -16937,7 +17004,7 @@
       </c>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" hidden="1" spans="1:4">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -16975,7 +17042,7 @@
       </c>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" hidden="1" spans="1:5">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -17042,7 +17109,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:5">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -17247,7 +17314,7 @@
       </c>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" hidden="1" spans="1:5">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -17286,7 +17353,7 @@
       </c>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" hidden="1" spans="1:5">
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -17345,7 +17412,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:5">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -17400,7 +17467,7 @@
       </c>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" hidden="1" spans="1:5">
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -17439,7 +17506,7 @@
       </c>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" hidden="1" spans="1:5">
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -17454,7 +17521,7 @@
       </c>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" hidden="1" spans="1:5">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -17493,7 +17560,7 @@
       </c>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" hidden="1" spans="1:5">
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -17508,7 +17575,7 @@
       </c>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" hidden="1" spans="1:5">
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -17633,7 +17700,7 @@
       </c>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" hidden="1" spans="1:5">
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -17660,7 +17727,7 @@
       </c>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" ht="37.5" hidden="1" spans="1:5">
+    <row r="161" ht="37.5" spans="1:5">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -17675,7 +17742,7 @@
       </c>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" ht="37.5" hidden="1" spans="1:5">
+    <row r="162" ht="37.5" spans="1:5">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -17690,7 +17757,7 @@
       </c>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" hidden="1" spans="1:5">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -17705,7 +17772,7 @@
       </c>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" hidden="1" spans="1:5">
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -17770,7 +17837,7 @@
       </c>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" ht="37.5" hidden="1" spans="1:5">
+    <row r="169" ht="37.5" spans="1:5">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -17785,7 +17852,7 @@
       </c>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" hidden="1" spans="1:5">
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -17932,7 +17999,7 @@
       </c>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" hidden="1" spans="1:4">
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -17946,7 +18013,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:5">
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -17961,7 +18028,7 @@
       </c>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" hidden="1" spans="1:5">
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -18024,7 +18091,7 @@
       </c>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" hidden="1" spans="1:5">
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -18039,7 +18106,7 @@
       </c>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" hidden="1" spans="1:5">
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -18106,7 +18173,7 @@
       </c>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" hidden="1" spans="1:5">
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -18159,7 +18226,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:5">
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -18188,7 +18255,7 @@
       </c>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" hidden="1" spans="1:5">
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -18215,7 +18282,7 @@
       </c>
       <c r="E202" s="6"/>
     </row>
-    <row r="203" hidden="1" spans="1:5">
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -18230,7 +18297,7 @@
       </c>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" hidden="1" spans="1:5">
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -18245,7 +18312,7 @@
       </c>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" hidden="1" spans="1:5">
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -18286,7 +18353,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:5">
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -18301,7 +18368,7 @@
       </c>
       <c r="E208" s="6"/>
     </row>
-    <row r="209" hidden="1" spans="1:5">
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -18328,7 +18395,7 @@
       </c>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" ht="37.5" hidden="1" spans="1:5">
+    <row r="211" ht="37.5" spans="1:5">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -18357,7 +18424,7 @@
       </c>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" hidden="1" spans="1:4">
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -18371,7 +18438,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:5">
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -18400,7 +18467,7 @@
       </c>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" hidden="1" spans="1:5">
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -18415,7 +18482,7 @@
       </c>
       <c r="E216" s="6"/>
     </row>
-    <row r="217" hidden="1" spans="1:5">
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -18456,7 +18523,7 @@
       </c>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" hidden="1" spans="1:5">
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -18473,7 +18540,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:5">
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -18488,7 +18555,7 @@
       </c>
       <c r="E221" s="6"/>
     </row>
-    <row r="222" hidden="1" spans="1:4">
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -18538,7 +18605,7 @@
       </c>
       <c r="E225" s="6"/>
     </row>
-    <row r="226" hidden="1" spans="1:5">
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -18553,7 +18620,7 @@
       </c>
       <c r="E226" s="6"/>
     </row>
-    <row r="227" hidden="1" spans="1:5">
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -18582,7 +18649,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:5">
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -18609,7 +18676,7 @@
       </c>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" ht="37.5" hidden="1" spans="1:5">
+    <row r="231" ht="37.5" spans="1:5">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -18626,7 +18693,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:5">
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -18641,7 +18708,7 @@
       </c>
       <c r="E232" s="6"/>
     </row>
-    <row r="233" hidden="1" spans="1:5">
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -18656,7 +18723,7 @@
       </c>
       <c r="E233" s="6"/>
     </row>
-    <row r="234" hidden="1" spans="1:5">
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -18755,7 +18822,7 @@
       </c>
       <c r="E241" s="6"/>
     </row>
-    <row r="242" hidden="1" spans="1:5">
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -18806,7 +18873,7 @@
       </c>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" hidden="1" spans="1:5">
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -18857,7 +18924,7 @@
       </c>
       <c r="E249" s="6"/>
     </row>
-    <row r="250" hidden="1" spans="1:5">
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -18898,7 +18965,7 @@
       </c>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" hidden="1" spans="1:5">
+    <row r="253" spans="1:5">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -18913,7 +18980,7 @@
       </c>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" hidden="1" spans="1:5">
+    <row r="254" spans="1:5">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -18988,7 +19055,7 @@
       </c>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" hidden="1" spans="1:5">
+    <row r="260" spans="1:5">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -19017,7 +19084,7 @@
       </c>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" hidden="1" spans="1:5">
+    <row r="262" spans="1:5">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -19032,7 +19099,7 @@
       </c>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" hidden="1" spans="1:5">
+    <row r="263" spans="1:5">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -19099,7 +19166,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:5">
+    <row r="268" spans="1:5">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -19130,7 +19197,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="270" ht="37.5" hidden="1" spans="1:5">
+    <row r="270" ht="37.5" spans="1:5">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -19145,7 +19212,7 @@
       </c>
       <c r="E270" s="6"/>
     </row>
-    <row r="271" hidden="1" spans="1:5">
+    <row r="271" spans="1:5">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -19172,7 +19239,7 @@
       </c>
       <c r="E272" s="6"/>
     </row>
-    <row r="273" hidden="1" spans="1:5">
+    <row r="273" spans="1:5">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -19199,7 +19266,7 @@
       </c>
       <c r="E274" s="6"/>
     </row>
-    <row r="275" hidden="1" spans="1:5">
+    <row r="275" spans="1:5">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -19238,7 +19305,7 @@
       </c>
       <c r="E277" s="6"/>
     </row>
-    <row r="278" hidden="1" spans="1:5">
+    <row r="278" spans="1:5">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -19253,7 +19320,7 @@
       </c>
       <c r="E278" s="6"/>
     </row>
-    <row r="279" hidden="1" spans="1:5">
+    <row r="279" spans="1:5">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -19292,7 +19359,7 @@
       </c>
       <c r="E281" s="6"/>
     </row>
-    <row r="282" hidden="1" spans="1:5">
+    <row r="282" spans="1:5">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -19307,7 +19374,7 @@
       </c>
       <c r="E282" s="6"/>
     </row>
-    <row r="283" hidden="1" spans="1:5">
+    <row r="283" spans="1:5">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -19358,7 +19425,7 @@
       </c>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" hidden="1" spans="1:5">
+    <row r="287" spans="1:5">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -19385,7 +19452,7 @@
       </c>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" hidden="1" spans="1:5">
+    <row r="289" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -19402,7 +19469,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:5">
+    <row r="290" spans="1:5">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -19429,7 +19496,7 @@
       </c>
       <c r="E291" s="6"/>
     </row>
-    <row r="292" hidden="1" spans="1:5">
+    <row r="292" spans="1:5">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -19444,7 +19511,7 @@
       </c>
       <c r="E292" s="6"/>
     </row>
-    <row r="293" hidden="1" spans="1:5">
+    <row r="293" spans="1:5">
       <c r="A293" s="1">
         <v>0</v>
       </c>
@@ -19521,7 +19588,7 @@
       </c>
       <c r="E298" s="6"/>
     </row>
-    <row r="299" hidden="1" spans="1:5">
+    <row r="299" spans="1:5">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -19548,7 +19615,7 @@
       </c>
       <c r="E300" s="6"/>
     </row>
-    <row r="301" hidden="1" spans="1:5">
+    <row r="301" spans="1:5">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -19563,7 +19630,7 @@
       </c>
       <c r="E301" s="6"/>
     </row>
-    <row r="302" hidden="1" spans="1:5">
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -19590,7 +19657,7 @@
       </c>
       <c r="E303" s="6"/>
     </row>
-    <row r="304" ht="56.25" hidden="1" spans="1:5">
+    <row r="304" ht="56.25" spans="1:5">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -19645,7 +19712,7 @@
       </c>
       <c r="E307" s="6"/>
     </row>
-    <row r="308" hidden="1" spans="1:5">
+    <row r="308" spans="1:5">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -19660,7 +19727,7 @@
       </c>
       <c r="E308" s="6"/>
     </row>
-    <row r="309" hidden="1" spans="1:4">
+    <row r="309" spans="1:4">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -19686,7 +19753,7 @@
       </c>
       <c r="E310" s="6"/>
     </row>
-    <row r="311" hidden="1" spans="1:5">
+    <row r="311" spans="1:5">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -19717,7 +19784,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:4">
+    <row r="313" spans="1:4">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -19743,7 +19810,7 @@
       </c>
       <c r="E314" s="6"/>
     </row>
-    <row r="315" hidden="1" spans="1:5">
+    <row r="315" spans="1:5">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -19806,7 +19873,7 @@
       </c>
       <c r="E319" s="6"/>
     </row>
-    <row r="320" hidden="1" spans="1:5">
+    <row r="320" spans="1:5">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -19821,7 +19888,7 @@
       </c>
       <c r="E320" s="6"/>
     </row>
-    <row r="321" hidden="1" spans="1:5">
+    <row r="321" spans="1:5">
       <c r="A321" s="1">
         <v>0</v>
       </c>
@@ -19836,7 +19903,7 @@
       </c>
       <c r="E321" s="6"/>
     </row>
-    <row r="322" hidden="1" spans="1:4">
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -19850,7 +19917,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:5">
+    <row r="323" spans="1:5">
       <c r="A323" s="1">
         <v>0</v>
       </c>
@@ -19925,7 +19992,7 @@
       </c>
       <c r="E328" s="6"/>
     </row>
-    <row r="329" hidden="1" spans="1:5">
+    <row r="329" spans="1:5">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -19952,7 +20019,7 @@
       </c>
       <c r="E330" s="6"/>
     </row>
-    <row r="331" hidden="1" spans="1:4">
+    <row r="331" spans="1:4">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -19966,7 +20033,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:5">
+    <row r="332" spans="1:5">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -19993,7 +20060,7 @@
       </c>
       <c r="E333" s="6"/>
     </row>
-    <row r="334" hidden="1" spans="1:5">
+    <row r="334" spans="1:5">
       <c r="A334" s="1">
         <v>0</v>
       </c>
@@ -20058,7 +20125,7 @@
       </c>
       <c r="E338" s="6"/>
     </row>
-    <row r="339" hidden="1" spans="1:5">
+    <row r="339" spans="1:5">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -20075,7 +20142,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:4">
+    <row r="340" spans="1:4">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -20089,7 +20156,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:5">
+    <row r="341" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -20154,7 +20221,7 @@
       </c>
       <c r="E345" s="6"/>
     </row>
-    <row r="346" hidden="1" spans="1:5">
+    <row r="346" spans="1:5">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -20209,7 +20276,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:5">
+    <row r="350" spans="1:5">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -20236,7 +20303,7 @@
       </c>
       <c r="E351" s="6"/>
     </row>
-    <row r="352" hidden="1" spans="1:5">
+    <row r="352" spans="1:5">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -20251,7 +20318,7 @@
       </c>
       <c r="E352" s="6"/>
     </row>
-    <row r="353" hidden="1" spans="1:5">
+    <row r="353" spans="1:5">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -20266,7 +20333,7 @@
       </c>
       <c r="E353" s="6"/>
     </row>
-    <row r="354" hidden="1" spans="1:5">
+    <row r="354" spans="1:5">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -20281,7 +20348,7 @@
       </c>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" hidden="1" spans="1:4">
+    <row r="355" spans="1:4">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -20331,7 +20398,7 @@
       </c>
       <c r="E358" s="6"/>
     </row>
-    <row r="359" hidden="1" spans="1:5">
+    <row r="359" spans="1:5">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -20394,7 +20461,7 @@
       </c>
       <c r="E363" s="6"/>
     </row>
-    <row r="364" hidden="1" spans="1:5">
+    <row r="364" spans="1:5">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -20421,7 +20488,7 @@
       </c>
       <c r="E365" s="6"/>
     </row>
-    <row r="366" hidden="1" spans="1:5">
+    <row r="366" spans="1:5">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -20462,7 +20529,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:5">
+    <row r="369" spans="1:5">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -20503,7 +20570,7 @@
       </c>
       <c r="E371" s="6"/>
     </row>
-    <row r="372" hidden="1" spans="1:5">
+    <row r="372" spans="1:5">
       <c r="A372" s="1">
         <v>0</v>
       </c>
@@ -20518,7 +20585,7 @@
       </c>
       <c r="E372" s="6"/>
     </row>
-    <row r="373" hidden="1" spans="1:4">
+    <row r="373" spans="1:4">
       <c r="A373" s="1">
         <v>0</v>
       </c>
@@ -20532,7 +20599,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:5">
+    <row r="374" spans="1:5">
       <c r="A374" s="1">
         <v>0</v>
       </c>
@@ -20559,7 +20626,7 @@
       </c>
       <c r="E375" s="6"/>
     </row>
-    <row r="376" hidden="1" spans="1:5">
+    <row r="376" spans="1:5">
       <c r="A376" s="1">
         <v>0</v>
       </c>
@@ -20660,7 +20727,7 @@
       </c>
       <c r="E383" s="6"/>
     </row>
-    <row r="384" hidden="1" spans="1:5">
+    <row r="384" spans="1:5">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -20675,7 +20742,7 @@
       </c>
       <c r="E384" s="6"/>
     </row>
-    <row r="385" ht="37.5" hidden="1" spans="1:5">
+    <row r="385" ht="37.5" spans="1:5">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -20692,7 +20759,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:5">
+    <row r="386" spans="1:5">
       <c r="A386" s="1">
         <v>0</v>
       </c>
@@ -20731,7 +20798,7 @@
       </c>
       <c r="E388" s="6"/>
     </row>
-    <row r="389" ht="75" hidden="1" spans="1:5">
+    <row r="389" ht="75" spans="1:5">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -20748,7 +20815,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:5">
+    <row r="390" spans="1:5">
       <c r="A390" s="1">
         <v>0</v>
       </c>
@@ -20799,7 +20866,7 @@
       </c>
       <c r="E393" s="6"/>
     </row>
-    <row r="394" hidden="1" spans="1:4">
+    <row r="394" spans="1:4">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -20813,7 +20880,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:5">
+    <row r="395" spans="1:5">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -20828,7 +20895,7 @@
       </c>
       <c r="E395" s="6"/>
     </row>
-    <row r="396" hidden="1" spans="1:5">
+    <row r="396" spans="1:5">
       <c r="A396" s="1">
         <v>0</v>
       </c>
@@ -20843,7 +20910,7 @@
       </c>
       <c r="E396" s="6"/>
     </row>
-    <row r="397" ht="37.5" hidden="1" spans="1:5">
+    <row r="397" ht="37.5" spans="1:5">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -20886,7 +20953,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:5">
+    <row r="400" spans="1:5">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -20925,7 +20992,7 @@
       </c>
       <c r="E402" s="6"/>
     </row>
-    <row r="403" hidden="1" spans="1:4">
+    <row r="403" spans="1:4">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -20939,7 +21006,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:5">
+    <row r="404" spans="1:5">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -20956,7 +21023,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:5">
+    <row r="405" spans="1:5">
       <c r="A405" s="1">
         <v>0</v>
       </c>
@@ -20973,7 +21040,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:4">
+    <row r="406" spans="1:4">
       <c r="A406" s="1">
         <v>0</v>
       </c>
@@ -21023,7 +21090,7 @@
       </c>
       <c r="E409" s="6"/>
     </row>
-    <row r="410" hidden="1" spans="1:5">
+    <row r="410" spans="1:5">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -21038,7 +21105,7 @@
       </c>
       <c r="E410" s="6"/>
     </row>
-    <row r="411" hidden="1" spans="1:4">
+    <row r="411" spans="1:4">
       <c r="A411" s="1">
         <v>0</v>
       </c>
@@ -21186,7 +21253,7 @@
       </c>
       <c r="E422" s="6"/>
     </row>
-    <row r="423" hidden="1" spans="1:4">
+    <row r="423" spans="1:4">
       <c r="A423" s="1">
         <v>0</v>
       </c>
@@ -21212,7 +21279,7 @@
       </c>
       <c r="E424" s="6"/>
     </row>
-    <row r="425" hidden="1" spans="1:5">
+    <row r="425" spans="1:5">
       <c r="A425" s="1">
         <v>0</v>
       </c>
@@ -21275,7 +21342,7 @@
       </c>
       <c r="E429" s="6"/>
     </row>
-    <row r="430" ht="37.5" hidden="1" spans="1:5">
+    <row r="430" ht="37.5" spans="1:5">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -21425,7 +21492,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:4">
+    <row r="442" spans="1:4">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -21467,7 +21534,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:5">
+    <row r="445" spans="1:5">
       <c r="A445" s="1">
         <v>0</v>
       </c>
@@ -21494,7 +21561,7 @@
       </c>
       <c r="E446" s="6"/>
     </row>
-    <row r="447" hidden="1" spans="1:4">
+    <row r="447" spans="1:4">
       <c r="A447" s="1">
         <v>0</v>
       </c>
@@ -21580,7 +21647,7 @@
       </c>
       <c r="E453" s="6"/>
     </row>
-    <row r="454" hidden="1" spans="1:5">
+    <row r="454" spans="1:5">
       <c r="A454" s="1">
         <v>0</v>
       </c>
@@ -21609,7 +21676,7 @@
       </c>
       <c r="E455" s="6"/>
     </row>
-    <row r="456" hidden="1" spans="1:5">
+    <row r="456" spans="1:5">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -21624,7 +21691,7 @@
       </c>
       <c r="E456" s="6"/>
     </row>
-    <row r="457" hidden="1" spans="1:4">
+    <row r="457" spans="1:4">
       <c r="A457" s="1">
         <v>0</v>
       </c>
@@ -21638,7 +21705,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:5">
+    <row r="458" spans="1:5">
       <c r="A458" s="1">
         <v>0</v>
       </c>
@@ -21653,7 +21720,7 @@
       </c>
       <c r="E458" s="6"/>
     </row>
-    <row r="459" hidden="1" spans="1:4">
+    <row r="459" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -21667,7 +21734,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="1:5">
+    <row r="460" spans="1:5">
       <c r="A460" s="1">
         <v>0</v>
       </c>
@@ -21744,7 +21811,7 @@
       </c>
       <c r="E465" s="6"/>
     </row>
-    <row r="466" hidden="1" spans="1:4">
+    <row r="466" spans="1:4">
       <c r="A466" s="1">
         <v>0</v>
       </c>
@@ -21758,7 +21825,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:4">
+    <row r="467" spans="1:4">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -21784,7 +21851,7 @@
       </c>
       <c r="E468" s="6"/>
     </row>
-    <row r="469" hidden="1" spans="1:4">
+    <row r="469" spans="1:4">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -21798,7 +21865,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:4">
+    <row r="470" spans="1:4">
       <c r="A470" s="1">
         <v>0</v>
       </c>
@@ -21812,7 +21879,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:5">
+    <row r="471" spans="1:5">
       <c r="A471" s="1">
         <v>0</v>
       </c>
@@ -21841,7 +21908,7 @@
       </c>
       <c r="E472" s="6"/>
     </row>
-    <row r="473" hidden="1" spans="1:4">
+    <row r="473" spans="1:4">
       <c r="A473" s="1">
         <v>0</v>
       </c>
@@ -21927,7 +21994,7 @@
       </c>
       <c r="E479" s="6"/>
     </row>
-    <row r="480" hidden="1" spans="1:5">
+    <row r="480" spans="1:5">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -21942,7 +22009,7 @@
       </c>
       <c r="E480" s="6"/>
     </row>
-    <row r="481" hidden="1" spans="1:5">
+    <row r="481" spans="1:5">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -21957,7 +22024,7 @@
       </c>
       <c r="E481" s="6"/>
     </row>
-    <row r="482" hidden="1" spans="1:4">
+    <row r="482" spans="1:4">
       <c r="A482" s="1">
         <v>0</v>
       </c>
@@ -21971,7 +22038,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:5">
+    <row r="483" spans="1:5">
       <c r="A483" s="1">
         <v>0</v>
       </c>
@@ -21986,7 +22053,7 @@
       </c>
       <c r="E483" s="6"/>
     </row>
-    <row r="484" hidden="1" spans="1:4">
+    <row r="484" spans="1:4">
       <c r="A484" s="1">
         <v>0</v>
       </c>
@@ -22000,7 +22067,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:4">
+    <row r="485" spans="1:4">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -22014,7 +22081,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:5">
+    <row r="486" spans="1:5">
       <c r="A486" s="1">
         <v>0</v>
       </c>
@@ -22091,7 +22158,7 @@
       </c>
       <c r="E491" s="6"/>
     </row>
-    <row r="492" hidden="1" spans="1:4">
+    <row r="492" spans="1:4">
       <c r="A492" s="1">
         <v>0</v>
       </c>
@@ -22129,7 +22196,7 @@
       </c>
       <c r="E494" s="6"/>
     </row>
-    <row r="495" hidden="1" spans="1:4">
+    <row r="495" spans="1:4">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -22167,7 +22234,7 @@
       </c>
       <c r="E497" s="6"/>
     </row>
-    <row r="498" hidden="1" spans="1:4">
+    <row r="498" spans="1:4">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -22181,7 +22248,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:4">
+    <row r="499" spans="1:4">
       <c r="A499" s="1">
         <v>0</v>
       </c>
@@ -22207,7 +22274,7 @@
       </c>
       <c r="E500" s="6"/>
     </row>
-    <row r="501" hidden="1" spans="1:5">
+    <row r="501" spans="1:5">
       <c r="A501" s="1">
         <v>0</v>
       </c>
@@ -22238,7 +22305,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1592</v>
@@ -22262,7 +22329,7 @@
       </c>
       <c r="E504" s="6"/>
     </row>
-    <row r="505" hidden="1" spans="1:4">
+    <row r="505" spans="1:4">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -22276,7 +22343,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:4">
+    <row r="506" spans="1:4">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -22340,7 +22407,7 @@
       </c>
       <c r="E510" s="6"/>
     </row>
-    <row r="511" hidden="1" spans="1:5">
+    <row r="511" spans="1:5">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -22381,7 +22448,7 @@
       </c>
       <c r="E513" s="6"/>
     </row>
-    <row r="514" hidden="1" spans="1:5">
+    <row r="514" spans="1:5">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -22422,7 +22489,7 @@
       </c>
       <c r="E516" s="6"/>
     </row>
-    <row r="517" hidden="1" spans="1:4">
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>0</v>
       </c>
@@ -22436,7 +22503,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:4">
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -22498,7 +22565,7 @@
       </c>
       <c r="E522" s="6"/>
     </row>
-    <row r="523" hidden="1" spans="1:4">
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>0</v>
       </c>
@@ -22512,7 +22579,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:4">
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>0</v>
       </c>
@@ -22526,7 +22593,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:5">
+    <row r="525" spans="1:5">
       <c r="A525" s="1">
         <v>0</v>
       </c>
@@ -22543,7 +22610,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:4">
+    <row r="526" spans="1:4">
       <c r="A526" s="1">
         <v>0</v>
       </c>
@@ -22557,7 +22624,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:4">
+    <row r="527" spans="1:4">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -22571,7 +22638,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:4">
+    <row r="528" spans="1:4">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -22611,7 +22678,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:4">
+    <row r="531" spans="1:4">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -22625,7 +22692,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:4">
+    <row r="532" spans="1:4">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -22663,7 +22730,7 @@
       </c>
       <c r="E534" s="6"/>
     </row>
-    <row r="535" hidden="1" spans="1:4">
+    <row r="535" spans="1:4">
       <c r="A535" s="1">
         <v>0</v>
       </c>
@@ -22689,7 +22756,7 @@
       </c>
       <c r="E536" s="6"/>
     </row>
-    <row r="537" hidden="1" spans="1:4">
+    <row r="537" spans="1:4">
       <c r="A537" s="1">
         <v>0</v>
       </c>
@@ -22703,7 +22770,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:5">
+    <row r="538" spans="1:5">
       <c r="A538" s="1">
         <v>0</v>
       </c>
@@ -22756,7 +22823,7 @@
       </c>
       <c r="E541" s="6"/>
     </row>
-    <row r="542" hidden="1" spans="1:4">
+    <row r="542" spans="1:4">
       <c r="A542" s="1">
         <v>0</v>
       </c>
@@ -22770,7 +22837,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:4">
+    <row r="543" spans="1:4">
       <c r="A543" s="1">
         <v>0</v>
       </c>
@@ -22784,7 +22851,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="1:4">
+    <row r="544" spans="1:4">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -22798,7 +22865,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:4">
+    <row r="545" spans="1:4">
       <c r="A545" s="1">
         <v>0</v>
       </c>
@@ -22812,7 +22879,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:4">
+    <row r="546" spans="1:4">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -22826,7 +22893,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:4">
+    <row r="547" spans="1:4">
       <c r="A547" s="1">
         <v>0</v>
       </c>
@@ -22840,7 +22907,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:4">
+    <row r="548" spans="1:4">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -22890,7 +22957,7 @@
       </c>
       <c r="E551" s="6"/>
     </row>
-    <row r="552" hidden="1" spans="1:4">
+    <row r="552" spans="1:4">
       <c r="A552" s="1">
         <v>0</v>
       </c>
@@ -22916,7 +22983,7 @@
       </c>
       <c r="E553" s="6"/>
     </row>
-    <row r="554" hidden="1" spans="1:5">
+    <row r="554" spans="1:5">
       <c r="A554" s="1">
         <v>0</v>
       </c>
@@ -22945,7 +23012,7 @@
       </c>
       <c r="E555" s="6"/>
     </row>
-    <row r="556" hidden="1" spans="1:4">
+    <row r="556" spans="1:4">
       <c r="A556" s="1">
         <v>0</v>
       </c>
@@ -22959,7 +23026,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:5">
+    <row r="557" spans="1:5">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -22976,7 +23043,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="1:4">
+    <row r="558" spans="1:4">
       <c r="A558" s="1">
         <v>0</v>
       </c>
@@ -22990,7 +23057,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="1:4">
+    <row r="559" spans="1:4">
       <c r="A559" s="1">
         <v>0</v>
       </c>
@@ -23028,7 +23095,7 @@
       </c>
       <c r="E561" s="6"/>
     </row>
-    <row r="562" hidden="1" spans="1:4">
+    <row r="562" spans="1:4">
       <c r="A562" s="1">
         <v>0</v>
       </c>
@@ -23066,7 +23133,7 @@
       </c>
       <c r="E564" s="6"/>
     </row>
-    <row r="565" hidden="1" spans="1:4">
+    <row r="565" spans="1:4">
       <c r="A565" s="1">
         <v>0</v>
       </c>
@@ -23092,7 +23159,7 @@
       </c>
       <c r="E566" s="6"/>
     </row>
-    <row r="567" hidden="1" spans="1:4">
+    <row r="567" spans="1:4">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -23130,7 +23197,7 @@
       </c>
       <c r="E569" s="6"/>
     </row>
-    <row r="570" ht="37.5" hidden="1" spans="1:5">
+    <row r="570" ht="37.5" spans="1:5">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -23147,7 +23214,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="1:5">
+    <row r="571" spans="1:5">
       <c r="A571" s="1">
         <v>0</v>
       </c>
@@ -23164,7 +23231,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="1:4">
+    <row r="572" spans="1:4">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -23178,7 +23245,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="573" hidden="1" spans="1:4">
+    <row r="573" spans="1:4">
       <c r="A573" s="1">
         <v>0</v>
       </c>
@@ -23242,7 +23309,7 @@
       </c>
       <c r="E577" s="6"/>
     </row>
-    <row r="578" hidden="1" spans="1:5">
+    <row r="578" spans="1:5">
       <c r="A578" s="1">
         <v>0</v>
       </c>
@@ -23299,7 +23366,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="1:4">
+    <row r="582" spans="1:4">
       <c r="A582" s="1">
         <v>0</v>
       </c>
@@ -23385,7 +23452,7 @@
       </c>
       <c r="E588" s="6"/>
     </row>
-    <row r="589" hidden="1" spans="1:4">
+    <row r="589" spans="1:4">
       <c r="A589" s="1">
         <v>0</v>
       </c>
@@ -23399,7 +23466,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:4">
+    <row r="590" spans="1:4">
       <c r="A590" s="1">
         <v>0</v>
       </c>
@@ -23463,7 +23530,7 @@
       </c>
       <c r="E594" s="6"/>
     </row>
-    <row r="595" hidden="1" spans="1:4">
+    <row r="595" spans="1:4">
       <c r="A595" s="1">
         <v>0</v>
       </c>
@@ -23513,7 +23580,7 @@
       </c>
       <c r="E598" s="6"/>
     </row>
-    <row r="599" hidden="1" spans="1:4">
+    <row r="599" spans="1:4">
       <c r="A599" s="1">
         <v>0</v>
       </c>
@@ -23527,7 +23594,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:4">
+    <row r="600" spans="1:4">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -23541,7 +23608,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:5">
+    <row r="601" spans="1:5">
       <c r="A601" s="1">
         <v>0</v>
       </c>
@@ -23568,7 +23635,7 @@
       </c>
       <c r="E602" s="6"/>
     </row>
-    <row r="603" hidden="1" spans="1:5">
+    <row r="603" spans="1:5">
       <c r="A603" s="1">
         <v>0</v>
       </c>
@@ -23585,7 +23652,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="1:5">
+    <row r="604" spans="1:5">
       <c r="A604" s="1">
         <v>0</v>
       </c>
@@ -23600,7 +23667,7 @@
       </c>
       <c r="E604" s="6"/>
     </row>
-    <row r="605" hidden="1" spans="1:4">
+    <row r="605" spans="1:4">
       <c r="A605" s="1">
         <v>0</v>
       </c>
@@ -23674,7 +23741,7 @@
       </c>
       <c r="E610" s="6"/>
     </row>
-    <row r="611" hidden="1" spans="1:4">
+    <row r="611" spans="1:4">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -23688,7 +23755,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="1:5">
+    <row r="612" spans="1:5">
       <c r="A612" s="1">
         <v>0</v>
       </c>
@@ -23705,7 +23772,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="613" hidden="1" spans="1:4">
+    <row r="613" spans="1:4">
       <c r="A613" s="1">
         <v>0</v>
       </c>
@@ -23743,7 +23810,7 @@
       </c>
       <c r="E615" s="6"/>
     </row>
-    <row r="616" hidden="1" spans="1:5">
+    <row r="616" spans="1:5">
       <c r="A616" s="1">
         <v>0</v>
       </c>
@@ -23758,7 +23825,7 @@
       </c>
       <c r="E616" s="6"/>
     </row>
-    <row r="617" hidden="1" spans="1:4">
+    <row r="617" spans="1:4">
       <c r="A617" s="1">
         <v>0</v>
       </c>
@@ -23772,7 +23839,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="1:5">
+    <row r="618" spans="1:5">
       <c r="A618" s="1">
         <v>0</v>
       </c>
@@ -23789,7 +23856,7 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>1955</v>
@@ -23813,7 +23880,7 @@
       </c>
       <c r="E620" s="6"/>
     </row>
-    <row r="621" hidden="1" spans="1:6">
+    <row r="621" ht="37.5" spans="1:5">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -23826,8 +23893,7 @@
       <c r="D621" s="1" t="s">
         <v>1963</v>
       </c>
-      <c r="E621" s="6"/>
-      <c r="F621" t="s">
+      <c r="E621" s="6" t="s">
         <v>1964</v>
       </c>
     </row>
@@ -23879,7 +23945,7 @@
       </c>
       <c r="E625" s="6"/>
     </row>
-    <row r="626" hidden="1" spans="1:5">
+    <row r="626" spans="1:5">
       <c r="A626" s="1">
         <v>0</v>
       </c>
@@ -23906,7 +23972,7 @@
       </c>
       <c r="E627" s="6"/>
     </row>
-    <row r="628" hidden="1" spans="1:4">
+    <row r="628" spans="1:4">
       <c r="A628" s="1">
         <v>0</v>
       </c>
@@ -23932,7 +23998,7 @@
       </c>
       <c r="E629" s="6"/>
     </row>
-    <row r="630" hidden="1" spans="1:5">
+    <row r="630" spans="1:5">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -23985,7 +24051,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:4">
+    <row r="634" spans="1:4">
       <c r="A634" s="1">
         <v>0</v>
       </c>
@@ -24011,7 +24077,7 @@
       </c>
       <c r="E635" s="6"/>
     </row>
-    <row r="636" hidden="1" spans="1:4">
+    <row r="636" spans="1:4">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -24037,7 +24103,7 @@
       </c>
       <c r="E637" s="6"/>
     </row>
-    <row r="638" hidden="1" spans="1:4">
+    <row r="638" spans="1:4">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -24051,7 +24117,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="639" ht="112.5" hidden="1" spans="1:5">
+    <row r="639" ht="112.5" spans="1:5">
       <c r="A639" s="1">
         <v>0</v>
       </c>
@@ -24080,7 +24146,7 @@
       </c>
       <c r="E640" s="6"/>
     </row>
-    <row r="641" hidden="1" spans="1:5">
+    <row r="641" spans="1:5">
       <c r="A641" s="1">
         <v>0</v>
       </c>
@@ -24119,7 +24185,7 @@
       </c>
       <c r="E643" s="6"/>
     </row>
-    <row r="644" hidden="1" spans="1:5">
+    <row r="644" spans="1:5">
       <c r="A644" s="1">
         <v>0</v>
       </c>
@@ -24170,7 +24236,7 @@
       </c>
       <c r="E647" s="6"/>
     </row>
-    <row r="648" hidden="1" spans="1:5">
+    <row r="648" spans="1:5">
       <c r="A648" s="1">
         <v>0</v>
       </c>
@@ -24185,7 +24251,7 @@
       </c>
       <c r="E648" s="6"/>
     </row>
-    <row r="649" hidden="1" spans="1:5">
+    <row r="649" spans="1:5">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -24292,7 +24358,7 @@
       </c>
       <c r="E656" s="6"/>
     </row>
-    <row r="657" hidden="1" spans="1:5">
+    <row r="657" spans="1:5">
       <c r="A657" s="1">
         <v>0</v>
       </c>
@@ -24319,7 +24385,7 @@
       </c>
       <c r="E658" s="6"/>
     </row>
-    <row r="659" hidden="1" spans="1:4">
+    <row r="659" spans="1:4">
       <c r="A659" s="1">
         <v>0</v>
       </c>
@@ -24333,7 +24399,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="1:5">
+    <row r="660" spans="1:5">
       <c r="A660" s="1">
         <v>0</v>
       </c>
@@ -24478,7 +24544,7 @@
     </row>
     <row r="671" ht="75" spans="1:5">
       <c r="A671" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>2120</v>
@@ -24517,7 +24583,7 @@
       </c>
       <c r="E673" s="6"/>
     </row>
-    <row r="674" hidden="1" spans="1:5">
+    <row r="674" spans="1:5">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -24546,7 +24612,7 @@
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>2136</v>
@@ -24572,7 +24638,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="1:5">
+    <row r="678" spans="1:5">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -24649,7 +24715,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="684" hidden="1" spans="1:5">
+    <row r="684" spans="1:5">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -24664,7 +24730,7 @@
       </c>
       <c r="E684" s="6"/>
     </row>
-    <row r="685" hidden="1" spans="1:5">
+    <row r="685" spans="1:5">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -24681,7 +24747,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="686" hidden="1" spans="1:5">
+    <row r="686" spans="1:5">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -24720,7 +24786,7 @@
       </c>
       <c r="E688" s="6"/>
     </row>
-    <row r="689" hidden="1" spans="1:4">
+    <row r="689" spans="1:4">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -24734,7 +24800,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="1:5">
+    <row r="690" spans="1:5">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -24761,7 +24827,7 @@
       </c>
       <c r="E691" s="6"/>
     </row>
-    <row r="692" hidden="1" spans="1:5">
+    <row r="692" spans="1:5">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -24788,7 +24854,7 @@
       </c>
       <c r="E693" s="6"/>
     </row>
-    <row r="694" hidden="1" spans="1:5">
+    <row r="694" spans="1:5">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -24805,7 +24871,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="695" hidden="1" spans="1:5">
+    <row r="695" spans="1:5">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -24846,7 +24912,7 @@
       </c>
       <c r="E697" s="6"/>
     </row>
-    <row r="698" hidden="1" spans="1:5">
+    <row r="698" spans="1:5">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -24873,7 +24939,7 @@
       </c>
       <c r="E699" s="6"/>
     </row>
-    <row r="700" hidden="1" spans="1:4">
+    <row r="700" spans="1:4">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -24887,7 +24953,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="701" hidden="1" spans="1:4">
+    <row r="701" spans="1:4">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -24901,7 +24967,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="702" hidden="1" spans="1:4">
+    <row r="702" spans="1:4">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -24953,7 +25019,7 @@
       </c>
       <c r="E705" s="6"/>
     </row>
-    <row r="706" hidden="1" spans="1:4">
+    <row r="706" spans="1:4">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -24993,7 +25059,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="1:4">
+    <row r="709" spans="1:4">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -25035,7 +25101,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="712" ht="93.75" hidden="1" spans="1:5">
+    <row r="712" ht="93.75" spans="1:5">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -25064,7 +25130,7 @@
       </c>
       <c r="E713" s="6"/>
     </row>
-    <row r="714" hidden="1" spans="1:5">
+    <row r="714" spans="1:5">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -25081,7 +25147,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="1:4">
+    <row r="715" spans="1:4">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -25095,7 +25161,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="716" hidden="1" spans="1:4">
+    <row r="716" spans="1:4">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -25109,7 +25175,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="717" hidden="1" spans="1:4">
+    <row r="717" spans="1:4">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -25125,7 +25191,7 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2273</v>
@@ -25176,7 +25242,7 @@
       </c>
       <c r="E721" s="6"/>
     </row>
-    <row r="722" hidden="1" spans="1:4">
+    <row r="722" spans="1:4">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -25214,7 +25280,7 @@
       </c>
       <c r="E724" s="6"/>
     </row>
-    <row r="725" hidden="1" spans="1:5">
+    <row r="725" spans="1:5">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -25267,7 +25333,7 @@
       </c>
       <c r="E728" s="6"/>
     </row>
-    <row r="729" hidden="1" spans="1:4">
+    <row r="729" spans="1:4">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -25305,7 +25371,7 @@
       </c>
       <c r="E731" s="6"/>
     </row>
-    <row r="732" hidden="1" spans="1:4">
+    <row r="732" spans="1:4">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -25321,7 +25387,7 @@
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>2320</v>
@@ -25345,7 +25411,7 @@
       </c>
       <c r="E734" s="6"/>
     </row>
-    <row r="735" hidden="1" spans="1:4">
+    <row r="735" spans="1:4">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -25371,7 +25437,7 @@
       </c>
       <c r="E736" s="6"/>
     </row>
-    <row r="737" hidden="1" spans="1:4">
+    <row r="737" spans="1:4">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -25461,7 +25527,7 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>2354</v>
@@ -25521,7 +25587,7 @@
       </c>
       <c r="E748" s="6"/>
     </row>
-    <row r="749" hidden="1" spans="1:4">
+    <row r="749" spans="1:4">
       <c r="A749" s="1">
         <v>0</v>
       </c>
@@ -25547,7 +25613,7 @@
       </c>
       <c r="E750" s="6"/>
     </row>
-    <row r="751" hidden="1" spans="1:4">
+    <row r="751" spans="1:4">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -25585,7 +25651,7 @@
       </c>
       <c r="E753" s="6"/>
     </row>
-    <row r="754" hidden="1" spans="1:4">
+    <row r="754" spans="1:4">
       <c r="A754" s="1">
         <v>0</v>
       </c>
@@ -25695,7 +25761,7 @@
       </c>
       <c r="E762" s="6"/>
     </row>
-    <row r="763" hidden="1" spans="1:4">
+    <row r="763" spans="1:4">
       <c r="A763" s="1">
         <v>0</v>
       </c>
@@ -25709,7 +25775,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="764" hidden="1" spans="1:4">
+    <row r="764" spans="1:4">
       <c r="A764" s="1">
         <v>0</v>
       </c>
@@ -25723,7 +25789,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="765" hidden="1" spans="1:4">
+    <row r="765" spans="1:4">
       <c r="A765" s="1">
         <v>0</v>
       </c>
@@ -25749,7 +25815,7 @@
       </c>
       <c r="E766" s="6"/>
     </row>
-    <row r="767" hidden="1" spans="1:4">
+    <row r="767" spans="1:4">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -25763,7 +25829,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="768" hidden="1" spans="1:4">
+    <row r="768" spans="1:4">
       <c r="A768" s="1">
         <v>0</v>
       </c>
@@ -25803,7 +25869,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2434</v>
@@ -25839,7 +25905,7 @@
       </c>
       <c r="E773" s="6"/>
     </row>
-    <row r="774" hidden="1" spans="1:4">
+    <row r="774" spans="1:4">
       <c r="A774" s="1">
         <v>0</v>
       </c>
@@ -25937,7 +26003,7 @@
       </c>
       <c r="E781" s="6"/>
     </row>
-    <row r="782" hidden="1" spans="1:4">
+    <row r="782" spans="1:4">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -25963,7 +26029,7 @@
       </c>
       <c r="E783" s="6"/>
     </row>
-    <row r="784" hidden="1" spans="1:4">
+    <row r="784" spans="1:4">
       <c r="A784" s="1">
         <v>0</v>
       </c>
@@ -26001,7 +26067,7 @@
       </c>
       <c r="E786" s="6"/>
     </row>
-    <row r="787" hidden="1" spans="1:5">
+    <row r="787" spans="1:5">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -26080,7 +26146,7 @@
       </c>
       <c r="E792" s="6"/>
     </row>
-    <row r="793" hidden="1" spans="1:4">
+    <row r="793" spans="1:4">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -26118,7 +26184,7 @@
       </c>
       <c r="E795" s="6"/>
     </row>
-    <row r="796" hidden="1" spans="1:5">
+    <row r="796" spans="1:5">
       <c r="A796" s="1">
         <v>0</v>
       </c>
@@ -26233,7 +26299,7 @@
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>2539</v>
@@ -26269,7 +26335,7 @@
       </c>
       <c r="E807" s="6"/>
     </row>
-    <row r="808" hidden="1" spans="1:5">
+    <row r="808" spans="1:5">
       <c r="A808" s="1">
         <v>0</v>
       </c>
@@ -26322,7 +26388,7 @@
       </c>
       <c r="E811" s="6"/>
     </row>
-    <row r="812" hidden="1" spans="1:4">
+    <row r="812" spans="1:4">
       <c r="A812" s="1">
         <v>0</v>
       </c>
@@ -26360,7 +26426,7 @@
       </c>
       <c r="E814" s="6"/>
     </row>
-    <row r="815" hidden="1" spans="1:5">
+    <row r="815" spans="1:5">
       <c r="A815" s="1">
         <v>0</v>
       </c>
@@ -26435,7 +26501,7 @@
       </c>
       <c r="E820" s="6"/>
     </row>
-    <row r="821" hidden="1" spans="1:5">
+    <row r="821" spans="1:5">
       <c r="A821" s="1">
         <v>0</v>
       </c>
@@ -26450,7 +26516,7 @@
       </c>
       <c r="E821" s="6"/>
     </row>
-    <row r="822" hidden="1" spans="1:5">
+    <row r="822" spans="1:5">
       <c r="A822" s="1">
         <v>0</v>
       </c>
@@ -26477,7 +26543,7 @@
       </c>
       <c r="E823" s="6"/>
     </row>
-    <row r="824" hidden="1" spans="1:5">
+    <row r="824" spans="1:5">
       <c r="A824" s="1">
         <v>0</v>
       </c>
@@ -26492,7 +26558,7 @@
       </c>
       <c r="E824" s="6"/>
     </row>
-    <row r="825" hidden="1" spans="1:4">
+    <row r="825" spans="1:4">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -26530,7 +26596,7 @@
       </c>
       <c r="E827" s="6"/>
     </row>
-    <row r="828" hidden="1" spans="1:5">
+    <row r="828" spans="1:5">
       <c r="A828" s="1">
         <v>0</v>
       </c>
@@ -26547,7 +26613,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="829" hidden="1" spans="1:5">
+    <row r="829" spans="1:5">
       <c r="A829" s="1">
         <v>0</v>
       </c>
@@ -26562,7 +26628,7 @@
       </c>
       <c r="E829" s="6"/>
     </row>
-    <row r="830" hidden="1" spans="1:4">
+    <row r="830" spans="1:4">
       <c r="A830" s="1">
         <v>0</v>
       </c>
@@ -26590,7 +26656,7 @@
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>2622</v>
@@ -26614,7 +26680,7 @@
       </c>
       <c r="E833" s="6"/>
     </row>
-    <row r="834" hidden="1" spans="1:5">
+    <row r="834" spans="1:5">
       <c r="A834" s="1">
         <v>0</v>
       </c>
@@ -26653,7 +26719,7 @@
       </c>
       <c r="E836" s="6"/>
     </row>
-    <row r="837" hidden="1" spans="1:4">
+    <row r="837" spans="1:4">
       <c r="A837" s="1">
         <v>0</v>
       </c>
@@ -26691,7 +26757,7 @@
       </c>
       <c r="E839" s="6"/>
     </row>
-    <row r="840" hidden="1" spans="1:5">
+    <row r="840" spans="1:5">
       <c r="A840" s="1">
         <v>0</v>
       </c>
@@ -26754,7 +26820,7 @@
       </c>
       <c r="E844" s="6"/>
     </row>
-    <row r="845" hidden="1" spans="1:5">
+    <row r="845" spans="1:5">
       <c r="A845" s="1">
         <v>0</v>
       </c>
@@ -26769,7 +26835,7 @@
       </c>
       <c r="E845" s="6"/>
     </row>
-    <row r="846" hidden="1" spans="1:5">
+    <row r="846" spans="1:5">
       <c r="A846" s="1">
         <v>0</v>
       </c>
@@ -26844,7 +26910,7 @@
       </c>
       <c r="E851" s="6"/>
     </row>
-    <row r="852" hidden="1" spans="1:5">
+    <row r="852" spans="1:5">
       <c r="A852" s="1">
         <v>0</v>
       </c>
@@ -26861,7 +26927,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="853" hidden="1" spans="1:5">
+    <row r="853" spans="1:5">
       <c r="A853" s="1">
         <v>0</v>
       </c>
@@ -27020,7 +27086,7 @@
       </c>
       <c r="E865" s="6"/>
     </row>
-    <row r="866" hidden="1" spans="1:5">
+    <row r="866" spans="1:5">
       <c r="A866" s="1">
         <v>0</v>
       </c>
@@ -27047,7 +27113,7 @@
       </c>
       <c r="E867" s="6"/>
     </row>
-    <row r="868" hidden="1" spans="1:5">
+    <row r="868" spans="1:5">
       <c r="A868" s="1">
         <v>0</v>
       </c>
@@ -27062,7 +27128,7 @@
       </c>
       <c r="E868" s="6"/>
     </row>
-    <row r="869" hidden="1" spans="1:4">
+    <row r="869" spans="1:4">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -27076,7 +27142,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="870" hidden="1" spans="1:4">
+    <row r="870" spans="1:4">
       <c r="A870" s="1">
         <v>0</v>
       </c>
@@ -27138,7 +27204,7 @@
       </c>
       <c r="E874" s="6"/>
     </row>
-    <row r="875" hidden="1" spans="1:5">
+    <row r="875" spans="1:5">
       <c r="A875" s="1">
         <v>0</v>
       </c>
@@ -27201,7 +27267,7 @@
       </c>
       <c r="E879" s="6"/>
     </row>
-    <row r="880" hidden="1" spans="1:5">
+    <row r="880" spans="1:5">
       <c r="A880" s="1">
         <v>0</v>
       </c>
@@ -27216,7 +27282,7 @@
       </c>
       <c r="E880" s="6"/>
     </row>
-    <row r="881" hidden="1" spans="1:5">
+    <row r="881" spans="1:5">
       <c r="A881" s="1">
         <v>0</v>
       </c>
@@ -27231,7 +27297,7 @@
       </c>
       <c r="E881" s="6"/>
     </row>
-    <row r="882" hidden="1" spans="1:4">
+    <row r="882" spans="1:4">
       <c r="A882" s="1">
         <v>0</v>
       </c>
@@ -27271,7 +27337,7 @@
     </row>
     <row r="885" spans="1:5">
       <c r="A885" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>2781</v>
@@ -27334,7 +27400,7 @@
       </c>
       <c r="E889" s="6"/>
     </row>
-    <row r="890" hidden="1" spans="1:4">
+    <row r="890" spans="1:4">
       <c r="A890" s="1">
         <v>0</v>
       </c>
@@ -27444,7 +27510,7 @@
       </c>
       <c r="E898" s="6"/>
     </row>
-    <row r="899" hidden="1" spans="1:5">
+    <row r="899" spans="1:5">
       <c r="A899" s="1">
         <v>0</v>
       </c>
@@ -27495,7 +27561,7 @@
       </c>
       <c r="E902" s="6"/>
     </row>
-    <row r="903" hidden="1" spans="1:5">
+    <row r="903" spans="1:5">
       <c r="A903" s="1">
         <v>0</v>
       </c>
@@ -27642,7 +27708,7 @@
       </c>
       <c r="E914" s="6"/>
     </row>
-    <row r="915" hidden="1" spans="1:5">
+    <row r="915" spans="1:5">
       <c r="A915" s="1">
         <v>0</v>
       </c>
@@ -27659,7 +27725,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="916" hidden="1" spans="1:5">
+    <row r="916" spans="1:5">
       <c r="A916" s="1">
         <v>0</v>
       </c>
@@ -27746,7 +27812,7 @@
       </c>
       <c r="E922" s="6"/>
     </row>
-    <row r="923" hidden="1" spans="1:5">
+    <row r="923" spans="1:5">
       <c r="A923" s="1">
         <v>0</v>
       </c>
@@ -27785,7 +27851,7 @@
       </c>
       <c r="E925" s="6"/>
     </row>
-    <row r="926" hidden="1" spans="1:4">
+    <row r="926" spans="1:4">
       <c r="A926" s="1">
         <v>0</v>
       </c>
@@ -27799,7 +27865,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="927" hidden="1" spans="1:5">
+    <row r="927" spans="1:5">
       <c r="A927" s="1">
         <v>0</v>
       </c>
@@ -27814,7 +27880,7 @@
       </c>
       <c r="E927" s="6"/>
     </row>
-    <row r="928" hidden="1" spans="1:4">
+    <row r="928" spans="1:4">
       <c r="A928" s="1">
         <v>0</v>
       </c>
@@ -27876,7 +27942,7 @@
       </c>
       <c r="E932" s="6"/>
     </row>
-    <row r="933" hidden="1" spans="1:5">
+    <row r="933" spans="1:5">
       <c r="A933" s="1">
         <v>0</v>
       </c>
@@ -27893,7 +27959,7 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B934" s="1" t="s">
         <v>2930</v>
@@ -27905,7 +27971,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="935" ht="37.5" hidden="1" spans="1:5">
+    <row r="935" ht="37.5" spans="1:5">
       <c r="A935" s="1">
         <v>0</v>
       </c>
@@ -27932,7 +27998,7 @@
       </c>
       <c r="E936" s="6"/>
     </row>
-    <row r="937" hidden="1" spans="1:5">
+    <row r="937" spans="1:5">
       <c r="A937" s="1">
         <v>0</v>
       </c>
@@ -27997,7 +28063,7 @@
       </c>
       <c r="E941" s="6"/>
     </row>
-    <row r="942" hidden="1" spans="1:5">
+    <row r="942" spans="1:5">
       <c r="A942" s="1">
         <v>0</v>
       </c>
@@ -28026,7 +28092,7 @@
     </row>
     <row r="944" spans="1:5">
       <c r="A944" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B944" s="1" t="s">
         <v>2960</v>
@@ -28041,7 +28107,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="945" hidden="1" spans="1:5">
+    <row r="945" spans="1:5">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -28056,7 +28122,7 @@
       </c>
       <c r="E945" s="6"/>
     </row>
-    <row r="946" hidden="1" spans="1:5">
+    <row r="946" spans="1:5">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -28071,7 +28137,7 @@
       </c>
       <c r="E946" s="6"/>
     </row>
-    <row r="947" hidden="1" spans="1:5">
+    <row r="947" spans="1:5">
       <c r="A947" s="1">
         <v>0</v>
       </c>
@@ -28146,7 +28212,7 @@
       </c>
       <c r="E952" s="6"/>
     </row>
-    <row r="953" hidden="1" spans="1:5">
+    <row r="953" spans="1:5">
       <c r="A953" s="1">
         <v>0</v>
       </c>
@@ -28161,7 +28227,7 @@
       </c>
       <c r="E953" s="6"/>
     </row>
-    <row r="954" hidden="1" spans="1:5">
+    <row r="954" spans="1:5">
       <c r="A954" s="1">
         <v>0</v>
       </c>
@@ -28188,7 +28254,7 @@
       </c>
       <c r="E955" s="6"/>
     </row>
-    <row r="956" hidden="1" spans="1:5">
+    <row r="956" spans="1:5">
       <c r="A956" s="1">
         <v>0</v>
       </c>
@@ -28215,7 +28281,7 @@
       </c>
       <c r="E957" s="6"/>
     </row>
-    <row r="958" hidden="1" spans="1:5">
+    <row r="958" spans="1:5">
       <c r="A958" s="1">
         <v>0</v>
       </c>
@@ -28290,7 +28356,7 @@
       </c>
       <c r="E963" s="6"/>
     </row>
-    <row r="964" hidden="1" spans="1:5">
+    <row r="964" spans="1:5">
       <c r="A964" s="1">
         <v>0</v>
       </c>
@@ -28305,7 +28371,7 @@
       </c>
       <c r="E964" s="6"/>
     </row>
-    <row r="965" hidden="1" spans="1:5">
+    <row r="965" spans="1:5">
       <c r="A965" s="1">
         <v>0</v>
       </c>
@@ -28320,7 +28386,7 @@
       </c>
       <c r="E965" s="6"/>
     </row>
-    <row r="966" hidden="1" spans="1:5">
+    <row r="966" spans="1:5">
       <c r="A966" s="1">
         <v>0</v>
       </c>
@@ -28433,7 +28499,7 @@
     </row>
     <row r="975" spans="1:4">
       <c r="A975" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>3054</v>
@@ -28505,7 +28571,7 @@
       </c>
       <c r="E980" s="6"/>
     </row>
-    <row r="981" hidden="1" spans="1:5">
+    <row r="981" spans="1:5">
       <c r="A981" s="1">
         <v>0</v>
       </c>
@@ -28520,7 +28586,7 @@
       </c>
       <c r="E981" s="6"/>
     </row>
-    <row r="982" hidden="1" spans="1:5">
+    <row r="982" spans="1:5">
       <c r="A982" s="1">
         <v>0</v>
       </c>
@@ -28559,7 +28625,7 @@
       </c>
       <c r="E984" s="6"/>
     </row>
-    <row r="985" hidden="1" spans="1:4">
+    <row r="985" spans="1:4">
       <c r="A985" s="1">
         <v>0</v>
       </c>
@@ -28621,7 +28687,7 @@
       </c>
       <c r="E989" s="6"/>
     </row>
-    <row r="990" hidden="1" spans="1:5">
+    <row r="990" spans="1:5">
       <c r="A990" s="1">
         <v>0</v>
       </c>
@@ -28648,7 +28714,7 @@
       </c>
       <c r="E991" s="6"/>
     </row>
-    <row r="992" hidden="1" spans="1:5">
+    <row r="992" spans="1:5">
       <c r="A992" s="1">
         <v>0</v>
       </c>
@@ -28797,7 +28863,7 @@
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>3141</v>
@@ -28845,7 +28911,7 @@
       </c>
       <c r="E1007" s="6"/>
     </row>
-    <row r="1008" hidden="1" spans="1:4">
+    <row r="1008" spans="1:4">
       <c r="A1008" s="1">
         <v>0</v>
       </c>
@@ -28969,7 +29035,7 @@
     </row>
     <row r="1018" ht="37.5" spans="1:5">
       <c r="A1018" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1018" s="1" t="s">
         <v>3183</v>
@@ -29020,7 +29086,7 @@
       </c>
       <c r="E1021" s="6"/>
     </row>
-    <row r="1022" hidden="1" spans="1:4">
+    <row r="1022" spans="1:4">
       <c r="A1022" s="1">
         <v>0</v>
       </c>
@@ -29060,7 +29126,7 @@
     </row>
     <row r="1025" spans="1:4">
       <c r="A1025" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1025" s="1" t="s">
         <v>3205</v>
@@ -29084,7 +29150,7 @@
       </c>
       <c r="E1026" s="6"/>
     </row>
-    <row r="1027" hidden="1" spans="1:5">
+    <row r="1027" spans="1:5">
       <c r="A1027" s="1">
         <v>0</v>
       </c>
@@ -29103,7 +29169,7 @@
     </row>
     <row r="1028" spans="1:4">
       <c r="A1028" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1028" s="1" t="s">
         <v>3215</v>
@@ -29129,7 +29195,7 @@
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1030" s="1" t="s">
         <v>3221</v>
@@ -29189,7 +29255,7 @@
       </c>
       <c r="E1034" s="6"/>
     </row>
-    <row r="1035" hidden="1" spans="1:4">
+    <row r="1035" spans="1:4">
       <c r="A1035" s="1">
         <v>0</v>
       </c>
@@ -29203,7 +29269,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="1036" hidden="1" spans="1:4">
+    <row r="1036" spans="1:4">
       <c r="A1036" s="1">
         <v>0</v>
       </c>
@@ -29219,7 +29285,7 @@
     </row>
     <row r="1037" spans="1:4">
       <c r="A1037" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1037" s="1" t="s">
         <v>3242</v>
@@ -29231,7 +29297,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="1038" hidden="1" spans="1:4">
+    <row r="1038" spans="1:4">
       <c r="A1038" s="1">
         <v>0</v>
       </c>
@@ -29319,7 +29385,7 @@
     </row>
     <row r="1045" spans="1:4">
       <c r="A1045" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1045" s="1" t="s">
         <v>3266</v>
@@ -29379,7 +29445,7 @@
       </c>
       <c r="E1049" s="6"/>
     </row>
-    <row r="1050" hidden="1" spans="1:4">
+    <row r="1050" spans="1:4">
       <c r="A1050" s="1">
         <v>0</v>
       </c>
@@ -29395,7 +29461,7 @@
     </row>
     <row r="1051" spans="1:4">
       <c r="A1051" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1051" s="1" t="s">
         <v>3284</v>
@@ -29407,7 +29473,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="1052" hidden="1" spans="1:4">
+    <row r="1052" spans="1:4">
       <c r="A1052" s="1">
         <v>0</v>
       </c>
@@ -29437,7 +29503,7 @@
     </row>
     <row r="1054" spans="1:4">
       <c r="A1054" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1054" s="1" t="s">
         <v>3294</v>
@@ -29451,7 +29517,7 @@
     </row>
     <row r="1055" spans="1:4">
       <c r="A1055" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1055" s="1" t="s">
         <v>3297</v>
@@ -29511,7 +29577,7 @@
       </c>
       <c r="E1059" s="6"/>
     </row>
-    <row r="1060" hidden="1" spans="1:4">
+    <row r="1060" spans="1:4">
       <c r="A1060" s="1">
         <v>0</v>
       </c>
@@ -29645,7 +29711,7 @@
       </c>
       <c r="E1070" s="6"/>
     </row>
-    <row r="1071" hidden="1" spans="1:4">
+    <row r="1071" spans="1:4">
       <c r="A1071" s="1">
         <v>0</v>
       </c>
@@ -29673,7 +29739,7 @@
     </row>
     <row r="1073" spans="1:4">
       <c r="A1073" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>3351</v>
@@ -29687,7 +29753,7 @@
     </row>
     <row r="1074" spans="1:4">
       <c r="A1074" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1074" s="1" t="s">
         <v>3354</v>
@@ -29713,7 +29779,7 @@
     </row>
     <row r="1076" spans="1:5">
       <c r="A1076" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1076" s="1" t="s">
         <v>3360</v>
@@ -29802,7 +29868,7 @@
     </row>
     <row r="1083" spans="1:4">
       <c r="A1083" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1083" s="1" t="s">
         <v>159</v>
@@ -29828,7 +29894,7 @@
     </row>
     <row r="1085" spans="1:5">
       <c r="A1085" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1085" s="1" t="s">
         <v>3387</v>
@@ -29843,7 +29909,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="1086" hidden="1" spans="1:5">
+    <row r="1086" spans="1:5">
       <c r="A1086" s="1">
         <v>0</v>
       </c>
@@ -29860,7 +29926,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="1087" hidden="1" spans="1:4">
+    <row r="1087" spans="1:4">
       <c r="A1087" s="1">
         <v>0</v>
       </c>
@@ -29898,7 +29964,7 @@
       </c>
       <c r="E1089" s="6"/>
     </row>
-    <row r="1090" hidden="1" spans="1:4">
+    <row r="1090" spans="1:4">
       <c r="A1090" s="1">
         <v>0</v>
       </c>
@@ -29912,7 +29978,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="1091" hidden="1" spans="1:4">
+    <row r="1091" spans="1:4">
       <c r="A1091" s="1">
         <v>0</v>
       </c>
@@ -29926,7 +29992,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="1092" hidden="1" spans="1:4">
+    <row r="1092" spans="1:4">
       <c r="A1092" s="1">
         <v>0</v>
       </c>
@@ -29954,7 +30020,7 @@
     </row>
     <row r="1094" spans="1:4">
       <c r="A1094" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1094" s="1" t="s">
         <v>3416</v>
@@ -29968,7 +30034,7 @@
     </row>
     <row r="1095" spans="1:4">
       <c r="A1095" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1095" s="1" t="s">
         <v>3419</v>
@@ -29980,7 +30046,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="1096" hidden="1" spans="1:4">
+    <row r="1096" spans="1:4">
       <c r="A1096" s="1">
         <v>0</v>
       </c>
@@ -30018,7 +30084,7 @@
       </c>
       <c r="E1098" s="6"/>
     </row>
-    <row r="1099" hidden="1" spans="1:4">
+    <row r="1099" spans="1:4">
       <c r="A1099" s="1">
         <v>0</v>
       </c>
@@ -30034,7 +30100,7 @@
     </row>
     <row r="1100" spans="1:5">
       <c r="A1100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1100" s="1" t="s">
         <v>3434</v>
@@ -30051,7 +30117,7 @@
     </row>
     <row r="1101" spans="1:5">
       <c r="A1101" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1101" s="1" t="s">
         <v>3438</v>
@@ -30112,7 +30178,7 @@
       </c>
       <c r="E1105" s="6"/>
     </row>
-    <row r="1106" hidden="1" spans="1:5">
+    <row r="1106" spans="1:5">
       <c r="A1106" s="1">
         <v>0</v>
       </c>
@@ -30141,7 +30207,7 @@
     </row>
     <row r="1108" spans="1:5">
       <c r="A1108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1108" s="1" t="s">
         <v>3459</v>
@@ -30168,7 +30234,7 @@
     </row>
     <row r="1110" spans="1:5">
       <c r="A1110" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1110" s="1" t="s">
         <v>3465</v>
@@ -30181,7 +30247,7 @@
       </c>
       <c r="E1110" s="6"/>
     </row>
-    <row r="1111" hidden="1" spans="1:5">
+    <row r="1111" spans="1:5">
       <c r="A1111" s="1">
         <v>0</v>
       </c>
@@ -30245,1164 +30311,1166 @@
       <c r="D1115" s="1" t="s">
         <v>3482</v>
       </c>
-      <c r="E1115" s="6"/>
+      <c r="E1115" s="6" t="s">
+        <v>3483</v>
+      </c>
     </row>
     <row r="1116" hidden="1" spans="2:5">
       <c r="B1116" s="1" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="D1116" s="1" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="E1116" s="6"/>
     </row>
     <row r="1117" hidden="1" spans="2:5">
       <c r="B1117" s="1" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="D1117" s="1" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="E1117" s="6" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="1118" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="C1118" s="5" t="s">
         <v>764</v>
       </c>
       <c r="D1118" s="1" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="E1118" s="6"/>
     </row>
     <row r="1119" hidden="1" spans="2:5">
       <c r="B1119" s="1" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="E1119" s="6"/>
     </row>
     <row r="1120" hidden="1" spans="2:5">
       <c r="B1120" s="1" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="E1120" s="6"/>
     </row>
     <row r="1121" spans="1:5">
       <c r="A1121" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1121" s="1" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="E1121" s="6"/>
     </row>
     <row r="1122" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="D1122" s="1" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="E1122" s="6"/>
     </row>
     <row r="1123" hidden="1" spans="2:5">
       <c r="B1123" s="1" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="D1123" s="1" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="E1123" s="6"/>
     </row>
     <row r="1124" hidden="1" spans="2:5">
       <c r="B1124" s="1" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="D1124" s="1" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="E1124" s="6"/>
     </row>
-    <row r="1125" hidden="1" spans="1:5">
+    <row r="1125" spans="1:5">
       <c r="A1125" s="1">
         <v>0</v>
       </c>
       <c r="B1125" s="1" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="D1125" s="1" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="E1125" s="6"/>
     </row>
-    <row r="1126" hidden="1" spans="1:5">
+    <row r="1126" spans="1:5">
       <c r="A1126" s="1">
         <v>0</v>
       </c>
       <c r="B1126" s="1" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="D1126" s="1" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="E1126" s="6"/>
     </row>
     <row r="1127" hidden="1" spans="2:5">
       <c r="B1127" s="1" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="D1127" s="1" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="E1127" s="6"/>
     </row>
     <row r="1128" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="D1128" s="1" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="E1128" s="6"/>
     </row>
     <row r="1129" hidden="1" spans="2:5">
       <c r="B1129" s="1" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="D1129" s="1" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="E1129" s="6"/>
     </row>
-    <row r="1130" hidden="1" spans="1:5">
+    <row r="1130" spans="1:5">
       <c r="A1130" s="1">
         <v>0</v>
       </c>
       <c r="B1130" s="1" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="D1130" s="1" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="E1130" s="6"/>
     </row>
     <row r="1131" hidden="1" spans="2:5">
       <c r="B1131" s="1" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="D1131" s="1" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="E1131" s="6"/>
     </row>
     <row r="1132" hidden="1" spans="2:5">
       <c r="B1132" s="1" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="D1132" s="1" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="E1132" s="6"/>
     </row>
     <row r="1133" hidden="1" spans="1:5">
       <c r="A1133" s="8"/>
       <c r="B1133" s="1" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="D1133" s="1" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="E1133" s="6"/>
     </row>
-    <row r="1134" hidden="1" spans="1:5">
+    <row r="1134" spans="1:5">
       <c r="A1134" s="1">
         <v>0</v>
       </c>
       <c r="B1134" s="1" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="D1134" s="1" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="E1134" s="6"/>
     </row>
     <row r="1135" hidden="1" spans="2:5">
       <c r="B1135" s="1" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="D1135" s="1" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="E1135" s="6"/>
     </row>
     <row r="1136" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="D1136" s="1" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="E1136" s="6"/>
     </row>
-    <row r="1137" hidden="1" spans="1:5">
+    <row r="1137" spans="1:5">
       <c r="A1137" s="1">
         <v>0</v>
       </c>
       <c r="B1137" s="1" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="D1137" s="1" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="E1137" s="6"/>
     </row>
-    <row r="1138" hidden="1" spans="1:5">
+    <row r="1138" spans="1:5">
       <c r="A1138" s="1">
         <v>0</v>
       </c>
       <c r="B1138" s="1" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="D1138" s="1" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="E1138" s="6"/>
     </row>
-    <row r="1139" hidden="1" spans="1:5">
+    <row r="1139" spans="1:5">
       <c r="A1139" s="1">
         <v>0</v>
       </c>
       <c r="B1139" s="1" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="E1139" s="6"/>
     </row>
     <row r="1140" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="D1140" s="1" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="E1140" s="6"/>
     </row>
     <row r="1141" hidden="1" spans="2:5">
       <c r="B1141" s="1" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="E1141" s="6"/>
     </row>
     <row r="1142" hidden="1" spans="2:5">
       <c r="B1142" s="1" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="D1142" s="1" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="E1142" s="6"/>
     </row>
-    <row r="1143" hidden="1" spans="1:5">
+    <row r="1143" spans="1:5">
       <c r="A1143" s="1">
         <v>0</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="E1143" s="6"/>
     </row>
     <row r="1144" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="D1144" s="1" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="E1144" s="6"/>
     </row>
     <row r="1145" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="D1145" s="1" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="E1145" s="6"/>
     </row>
     <row r="1146" hidden="1" spans="2:5">
       <c r="B1146" s="1" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="E1146" s="6"/>
     </row>
-    <row r="1147" hidden="1" spans="1:5">
+    <row r="1147" spans="1:5">
       <c r="A1147" s="1">
         <v>0</v>
       </c>
       <c r="B1147" s="1" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="D1147" s="1" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="E1147" s="6"/>
     </row>
-    <row r="1148" hidden="1" spans="1:5">
+    <row r="1148" spans="1:5">
       <c r="A1148" s="1">
         <v>0</v>
       </c>
       <c r="B1148" s="1" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="D1148" s="1" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="E1148" s="6"/>
     </row>
-    <row r="1149" hidden="1" spans="1:5">
+    <row r="1149" spans="1:5">
       <c r="A1149" s="1">
         <v>0</v>
       </c>
       <c r="B1149" s="1" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="E1149" s="6"/>
     </row>
-    <row r="1150" hidden="1" spans="1:5">
+    <row r="1150" spans="1:5">
       <c r="A1150" s="1">
         <v>0</v>
       </c>
       <c r="B1150" s="1" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="D1150" s="1" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="E1150" s="6"/>
     </row>
     <row r="1151" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C1151" s="5" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D1151" s="1" t="s">
         <v>3588</v>
-      </c>
-      <c r="C1151" s="5" t="s">
-        <v>3589</v>
-      </c>
-      <c r="D1151" s="1" t="s">
-        <v>3587</v>
       </c>
       <c r="E1151" s="6"/>
     </row>
     <row r="1152" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="D1152" s="1" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="E1152" s="6"/>
     </row>
-    <row r="1153" hidden="1" spans="1:5">
+    <row r="1153" spans="1:5">
       <c r="A1153" s="1">
         <v>0</v>
       </c>
       <c r="B1153" s="1" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="E1153" s="6"/>
     </row>
     <row r="1154" hidden="1" spans="2:5">
       <c r="B1154" s="1" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="D1154" s="1" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="E1154" s="6"/>
     </row>
     <row r="1155" hidden="1" spans="2:5">
       <c r="B1155" s="1" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="D1155" s="1" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="E1155" s="6"/>
     </row>
-    <row r="1156" hidden="1" spans="1:5">
+    <row r="1156" spans="1:5">
       <c r="A1156" s="1">
         <v>0</v>
       </c>
       <c r="B1156" s="1" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="D1156" s="1" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="E1156" s="6"/>
     </row>
-    <row r="1157" hidden="1" spans="1:5">
+    <row r="1157" spans="1:5">
       <c r="A1157" s="1">
         <v>0</v>
       </c>
       <c r="B1157" s="1" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="D1157" s="1" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="E1157" s="6"/>
     </row>
     <row r="1158" hidden="1" spans="2:5">
       <c r="B1158" s="1" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="D1158" s="1" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="E1158" s="6"/>
     </row>
     <row r="1159" hidden="1" spans="2:5">
       <c r="B1159" s="1" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="D1159" s="1" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="E1159" s="6"/>
     </row>
     <row r="1160" hidden="1" spans="2:5">
       <c r="B1160" s="1" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="D1160" s="1" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="E1160" s="6"/>
     </row>
     <row r="1161" hidden="1" spans="2:5">
       <c r="B1161" s="1" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="D1161" s="1" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="E1161" s="6"/>
     </row>
     <row r="1162" hidden="1" spans="2:5">
       <c r="B1162" s="1" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="E1162" s="6"/>
     </row>
     <row r="1163" hidden="1" spans="2:5">
       <c r="B1163" s="1" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="D1163" s="1" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="E1163" s="6"/>
     </row>
     <row r="1164" hidden="1" spans="2:5">
       <c r="B1164" s="1" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="E1164" s="6"/>
     </row>
     <row r="1165" hidden="1" spans="2:5">
       <c r="B1165" s="1" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="C1165" s="5" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="E1165" s="6"/>
     </row>
     <row r="1166" spans="1:5">
       <c r="A1166" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1166" s="1" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="D1166" s="1" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="E1166" s="6"/>
     </row>
     <row r="1167" spans="1:5">
       <c r="A1167" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1167" s="1" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="D1167" s="1" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="E1167" s="6"/>
     </row>
-    <row r="1168" hidden="1" spans="1:5">
+    <row r="1168" spans="1:5">
       <c r="A1168" s="1">
         <v>0</v>
       </c>
       <c r="B1168" s="1" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="D1168" s="1" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="E1168" s="6"/>
     </row>
-    <row r="1169" hidden="1" spans="1:5">
+    <row r="1169" spans="1:5">
       <c r="A1169" s="1">
         <v>0</v>
       </c>
       <c r="B1169" s="1" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="E1169" s="6"/>
     </row>
     <row r="1170" hidden="1" spans="2:5">
       <c r="B1170" s="1" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="D1170" s="1" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="E1170" s="6"/>
     </row>
     <row r="1171" hidden="1" spans="2:5">
       <c r="B1171" s="1" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="D1171" s="1" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="E1171" s="6"/>
     </row>
     <row r="1172" hidden="1" spans="2:5">
       <c r="B1172" s="1" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="D1172" s="1" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="E1172" s="6"/>
     </row>
-    <row r="1173" hidden="1" spans="1:5">
+    <row r="1173" spans="1:5">
       <c r="A1173" s="1">
         <v>0</v>
       </c>
       <c r="B1173" s="1" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="D1173" s="1" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="E1173" s="6"/>
     </row>
     <row r="1174" hidden="1" spans="2:5">
       <c r="B1174" s="1" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="E1174" s="6"/>
     </row>
     <row r="1175" hidden="1" spans="2:5">
       <c r="B1175" s="1" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="D1175" s="1" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="E1175" s="6"/>
     </row>
     <row r="1176" hidden="1" spans="2:5">
       <c r="B1176" s="1" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="D1176" s="1" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="E1176" s="6"/>
     </row>
     <row r="1177" hidden="1" spans="2:5">
       <c r="B1177" s="1" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="D1177" s="1" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="E1177" s="6"/>
     </row>
     <row r="1178" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="D1178" s="1" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="E1178" s="6"/>
     </row>
     <row r="1179" hidden="1" spans="2:5">
       <c r="B1179" s="1" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="D1179" s="1" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="E1179" s="6"/>
     </row>
     <row r="1180" hidden="1" spans="2:5">
       <c r="B1180" s="1" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="D1180" s="1" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="E1180" s="6"/>
     </row>
     <row r="1181" hidden="1" spans="2:5">
       <c r="B1181" s="1" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="C1181" s="5" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="D1181" s="1" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="E1181" s="6"/>
     </row>
     <row r="1182" hidden="1" spans="2:5">
       <c r="B1182" s="1" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="D1182" s="1" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="E1182" s="6"/>
     </row>
-    <row r="1183" hidden="1" spans="1:5">
+    <row r="1183" spans="1:5">
       <c r="A1183" s="1">
         <v>0</v>
       </c>
       <c r="B1183" s="1" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="D1183" s="1" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="E1183" s="6"/>
     </row>
-    <row r="1184" hidden="1" spans="1:5">
+    <row r="1184" spans="1:5">
       <c r="A1184" s="1">
         <v>0</v>
       </c>
       <c r="B1184" s="1" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="D1184" s="1" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="E1184" s="6"/>
     </row>
     <row r="1185" hidden="1" spans="2:5">
       <c r="B1185" s="1" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="D1185" s="1" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="E1185" s="6"/>
     </row>
-    <row r="1186" hidden="1" spans="1:5">
+    <row r="1186" spans="1:5">
       <c r="A1186" s="1">
         <v>0</v>
       </c>
       <c r="B1186" s="1" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="C1186" s="5" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="D1186" s="1" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="E1186" s="6"/>
     </row>
-    <row r="1187" hidden="1" spans="1:5">
+    <row r="1187" spans="1:5">
       <c r="A1187" s="1">
         <v>0</v>
       </c>
       <c r="B1187" s="1" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="E1187" s="6"/>
     </row>
-    <row r="1188" hidden="1" spans="1:5">
+    <row r="1188" spans="1:5">
       <c r="A1188" s="1">
         <v>0</v>
       </c>
       <c r="B1188" s="1" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="D1188" s="1" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="E1188" s="6"/>
     </row>
     <row r="1189" hidden="1" spans="2:5">
       <c r="B1189" s="1" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="E1189" s="6"/>
     </row>
-    <row r="1190" hidden="1" spans="1:5">
+    <row r="1190" spans="1:5">
       <c r="A1190" s="1">
         <v>0</v>
       </c>
       <c r="B1190" s="1" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="D1190" s="1" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="E1190" s="6"/>
     </row>
     <row r="1191" hidden="1" spans="2:5">
       <c r="B1191" s="1" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="D1191" s="1" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="E1191" s="6"/>
     </row>
     <row r="1192" hidden="1" spans="2:5">
       <c r="B1192" s="1" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="D1192" s="1" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="E1192" s="6"/>
     </row>
-    <row r="1193" hidden="1" spans="1:5">
+    <row r="1193" spans="1:5">
       <c r="A1193" s="1">
         <v>0</v>
       </c>
       <c r="B1193" s="1" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="D1193" s="1" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="E1193" s="6"/>
     </row>
     <row r="1194" hidden="1" spans="2:5">
       <c r="B1194" s="1" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="D1194" s="1" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="E1194" s="6"/>
     </row>
-    <row r="1195" hidden="1" spans="1:5">
+    <row r="1195" spans="1:5">
       <c r="A1195" s="1">
         <v>0</v>
       </c>
       <c r="B1195" s="1" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="D1195" s="1" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="E1195" s="6"/>
     </row>
     <row r="1196" hidden="1" spans="2:5">
       <c r="B1196" s="1" t="s">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="D1196" s="1" t="s">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="E1196" s="6"/>
     </row>
     <row r="1197" hidden="1" spans="2:5">
       <c r="B1197" s="1" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="D1197" s="1" t="s">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="E1197" s="6"/>
     </row>
     <row r="1198" spans="1:5">
       <c r="A1198" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1198" s="1" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="D1198" s="1" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="E1198" s="6" t="s">
-        <v>3731</v>
-      </c>
-    </row>
-    <row r="1199" hidden="1" spans="1:5">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5">
       <c r="A1199" s="1">
         <v>0</v>
       </c>
       <c r="B1199" s="1" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="D1199" s="1" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
       <c r="E1199" s="6"/>
     </row>
     <row r="1200" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="D1200" s="1" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="E1200" s="6" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1201" spans="1:5">
       <c r="A1201" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1201" s="1" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="D1201" s="1" t="s">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="E1201" s="6"/>
     </row>
     <row r="1202" hidden="1" spans="2:5">
       <c r="B1202" s="1" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="D1202" s="1" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="E1202" s="6"/>
     </row>
     <row r="1203" hidden="1" spans="2:5">
       <c r="B1203" s="1" t="s">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="D1203" s="1" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="E1203" s="6"/>
     </row>
@@ -31411,310 +31479,310 @@
         <v>1</v>
       </c>
       <c r="B1204" s="1" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="D1204" s="1" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="E1204" s="6"/>
     </row>
     <row r="1205" spans="1:5">
       <c r="A1205" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1205" s="1" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="D1205" s="1" t="s">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="E1205" s="6"/>
     </row>
     <row r="1206" hidden="1" spans="2:5">
       <c r="B1206" s="1" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="E1206" s="6"/>
     </row>
     <row r="1207" spans="1:5">
       <c r="A1207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1207" s="1" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="D1207" s="1" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="E1207" s="6"/>
     </row>
     <row r="1208" hidden="1" spans="2:5">
       <c r="B1208" s="1" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="D1208" s="1" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="E1208" s="6"/>
     </row>
     <row r="1209" hidden="1" spans="2:5">
       <c r="B1209" s="1" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="D1209" s="1" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="E1209" s="6"/>
     </row>
     <row r="1210" hidden="1" spans="2:5">
       <c r="B1210" s="1" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="D1210" s="1" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="E1210" s="6"/>
     </row>
     <row r="1211" spans="1:5">
       <c r="A1211" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1211" s="1" t="s">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="C1211" s="5" t="s">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="D1211" s="1" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="E1211" s="6"/>
     </row>
     <row r="1212" spans="1:5">
       <c r="A1212" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1212" s="1" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="D1212" s="1" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="E1212" s="6"/>
     </row>
     <row r="1213" spans="1:5">
       <c r="A1213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1213" s="1" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="C1213" s="5" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="D1213" s="1" t="s">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="E1213" s="6"/>
     </row>
     <row r="1214" hidden="1" spans="2:5">
       <c r="B1214" s="1" t="s">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="C1214" s="5" t="s">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="D1214" s="1" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="E1214" s="6"/>
     </row>
     <row r="1215" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="D1215" s="1" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
       <c r="E1215" s="6"/>
     </row>
     <row r="1216" spans="1:5">
       <c r="A1216" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="C1216" s="5" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="D1216" s="1" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
       <c r="E1216" s="6"/>
     </row>
     <row r="1217" spans="1:5">
       <c r="A1217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1217" s="1" t="s">
-        <v>3787</v>
+        <v>3788</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="D1217" s="1" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="E1217" s="6"/>
     </row>
     <row r="1218" spans="1:5">
       <c r="A1218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1218" s="1" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="C1218" s="5" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="D1218" s="1" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="E1218" s="6"/>
     </row>
     <row r="1219" spans="1:5">
       <c r="A1219" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1219" s="1" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="D1219" s="1" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="E1219" s="6"/>
     </row>
     <row r="1220" hidden="1" spans="2:5">
       <c r="B1220" s="1" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>3797</v>
+        <v>3798</v>
       </c>
       <c r="D1220" s="1" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="E1220" s="6"/>
     </row>
     <row r="1221" hidden="1" spans="2:5">
       <c r="B1221" s="1" t="s">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="D1221" s="1" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="E1221" s="6"/>
     </row>
     <row r="1222" hidden="1" spans="2:5">
       <c r="B1222" s="1" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="D1222" s="1" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="E1222" s="6"/>
     </row>
     <row r="1223" spans="1:5">
       <c r="A1223" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1223" s="1" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="C1223" s="5" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D1223" s="1" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E1223" s="6"/>
     </row>
     <row r="1224" hidden="1" spans="2:5">
       <c r="B1224" s="1" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="D1224" s="1" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="E1224" s="6"/>
     </row>
     <row r="1225" hidden="1" spans="2:5">
       <c r="B1225" s="1" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="D1225" s="1" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="E1225" s="6"/>
     </row>
     <row r="1226" spans="1:5">
       <c r="A1226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1226" s="1" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>3815</v>
+        <v>3816</v>
       </c>
       <c r="D1226" s="1" t="s">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="E1226" s="6"/>
     </row>
@@ -31723,292 +31791,292 @@
         <v>1</v>
       </c>
       <c r="B1227" s="1" t="s">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="D1227" s="1" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="E1227" s="6"/>
     </row>
     <row r="1228" spans="1:5">
       <c r="A1228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1228" s="1" t="s">
-        <v>3820</v>
+        <v>3821</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="D1228" s="1" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="E1228" s="6"/>
     </row>
     <row r="1229" hidden="1" spans="2:5">
       <c r="B1229" s="1" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="D1229" s="1" t="s">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="E1229" s="6" t="s">
-        <v>3826</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1230" hidden="1" spans="2:5">
       <c r="B1230" s="1" t="s">
-        <v>3827</v>
+        <v>3828</v>
       </c>
       <c r="C1230" s="5" t="s">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="D1230" s="1" t="s">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="E1230" s="6"/>
     </row>
     <row r="1231" spans="1:5">
       <c r="A1231" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1231" s="1" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>3831</v>
+        <v>3832</v>
       </c>
       <c r="D1231" s="1" t="s">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="E1231" s="6"/>
     </row>
     <row r="1232" hidden="1" spans="2:5">
       <c r="B1232" s="1" t="s">
-        <v>3833</v>
+        <v>3834</v>
       </c>
       <c r="C1232" s="5" t="s">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="D1232" s="1" t="s">
-        <v>3835</v>
+        <v>3836</v>
       </c>
       <c r="E1232" s="6"/>
     </row>
     <row r="1233" hidden="1" spans="2:5">
       <c r="B1233" s="1" t="s">
-        <v>3836</v>
+        <v>3837</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="D1233" s="1" t="s">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="E1233" s="6"/>
     </row>
     <row r="1234" spans="1:5">
       <c r="A1234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="C1234" s="5" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="D1234" s="1" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="E1234" s="6"/>
     </row>
     <row r="1235" hidden="1" spans="2:5">
       <c r="B1235" s="1" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="C1235" s="5" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="E1235" s="6"/>
     </row>
     <row r="1236" hidden="1" spans="2:5">
       <c r="B1236" s="1" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="D1236" s="1" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="E1236" s="6"/>
     </row>
     <row r="1237" hidden="1" spans="2:5">
       <c r="B1237" s="1" t="s">
-        <v>3848</v>
+        <v>3849</v>
       </c>
       <c r="C1237" s="5" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="D1237" s="1" t="s">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="E1237" s="6"/>
     </row>
     <row r="1238" hidden="1" spans="2:5">
       <c r="B1238" s="1" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="C1238" s="5" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="D1238" s="1" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
       <c r="E1238" s="6"/>
     </row>
     <row r="1239" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
-        <v>3854</v>
+        <v>3855</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="D1239" s="1" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="E1239" s="6"/>
     </row>
     <row r="1240" hidden="1" spans="2:5">
       <c r="B1240" s="1" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="D1240" s="1" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="E1240" s="6"/>
     </row>
     <row r="1241" spans="1:5">
       <c r="A1241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1241" s="1" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
       <c r="D1241" s="1" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
       <c r="E1241" s="6"/>
     </row>
     <row r="1242" spans="1:5">
       <c r="A1242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1242" s="1" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="D1242" s="1" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="E1242" s="6"/>
     </row>
     <row r="1243" hidden="1" spans="2:5">
       <c r="B1243" s="1" t="s">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="C1243" s="5" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="D1243" s="1" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="E1243" s="6" t="s">
-        <v>3869</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="1244" hidden="1" spans="2:5">
       <c r="B1244" s="1" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="D1244" s="1" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
       <c r="E1244" s="6"/>
     </row>
     <row r="1245" hidden="1" spans="2:5">
       <c r="B1245" s="1" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="C1245" s="5" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="E1245" s="6" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1246" spans="1:5">
       <c r="A1246" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1246" s="1" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="D1246" s="1" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
       <c r="E1246" s="6"/>
     </row>
     <row r="1247" hidden="1" spans="2:5">
       <c r="B1247" s="1" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="D1247" s="1" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="E1247" s="6"/>
     </row>
     <row r="1248" ht="37.5" spans="1:5">
       <c r="A1248" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1248" s="1" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="D1248" s="1" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="E1248" s="6"/>
     </row>
@@ -32017,323 +32085,325 @@
         <v>1</v>
       </c>
       <c r="B1249" s="1" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="D1249" s="1" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="E1249" s="6"/>
     </row>
     <row r="1250" spans="1:5">
       <c r="A1250" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1250" s="1" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="D1250" s="1" t="s">
-        <v>3891</v>
-      </c>
-      <c r="E1250" s="6"/>
+        <v>3892</v>
+      </c>
+      <c r="E1250" s="6" t="s">
+        <v>3893</v>
+      </c>
     </row>
     <row r="1251" hidden="1" spans="2:5">
       <c r="B1251" s="1" t="s">
-        <v>3892</v>
+        <v>3894</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>3893</v>
+        <v>3895</v>
       </c>
       <c r="D1251" s="1" t="s">
-        <v>3894</v>
+        <v>3896</v>
       </c>
       <c r="E1251" s="6"/>
     </row>
     <row r="1252" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="C1252" s="5" t="s">
-        <v>3896</v>
+        <v>3898</v>
       </c>
       <c r="D1252" s="1" t="s">
-        <v>3897</v>
+        <v>3899</v>
       </c>
       <c r="E1252" s="6" t="s">
-        <v>3898</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="1253" spans="1:5">
       <c r="A1253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1253" s="1" t="s">
-        <v>3899</v>
+        <v>3901</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>3900</v>
+        <v>3902</v>
       </c>
       <c r="D1253" s="1" t="s">
-        <v>3901</v>
+        <v>3903</v>
       </c>
       <c r="E1253" s="6"/>
     </row>
     <row r="1254" hidden="1" spans="2:5">
       <c r="B1254" s="1" t="s">
-        <v>3902</v>
+        <v>3904</v>
       </c>
       <c r="C1254" s="5" t="s">
-        <v>3903</v>
+        <v>3905</v>
       </c>
       <c r="D1254" s="1" t="s">
-        <v>3904</v>
+        <v>3906</v>
       </c>
       <c r="E1254" s="6"/>
     </row>
     <row r="1255" spans="1:5">
       <c r="A1255" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1255" s="1" t="s">
-        <v>3905</v>
+        <v>3907</v>
       </c>
       <c r="C1255" s="5" t="s">
-        <v>3906</v>
+        <v>3908</v>
       </c>
       <c r="D1255" s="1" t="s">
-        <v>3907</v>
+        <v>3909</v>
       </c>
       <c r="E1255" s="6"/>
     </row>
     <row r="1256" hidden="1" spans="2:5">
       <c r="B1256" s="1" t="s">
-        <v>3908</v>
+        <v>3910</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
       <c r="D1256" s="1" t="s">
-        <v>3910</v>
+        <v>3912</v>
       </c>
       <c r="E1256" s="6"/>
     </row>
     <row r="1257" spans="1:5">
       <c r="A1257" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1257" s="1" t="s">
-        <v>3911</v>
+        <v>3913</v>
       </c>
       <c r="C1257" s="5" t="s">
-        <v>3912</v>
+        <v>3914</v>
       </c>
       <c r="D1257" s="1" t="s">
-        <v>3913</v>
+        <v>3915</v>
       </c>
       <c r="E1257" s="6"/>
     </row>
     <row r="1258" spans="1:5">
       <c r="A1258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1258" s="1" t="s">
-        <v>3914</v>
+        <v>3916</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>3915</v>
+        <v>3917</v>
       </c>
       <c r="D1258" s="1" t="s">
-        <v>3916</v>
+        <v>3918</v>
       </c>
       <c r="E1258" s="6"/>
     </row>
     <row r="1259" spans="1:5">
       <c r="A1259" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1259" s="1" t="s">
-        <v>3917</v>
+        <v>3919</v>
       </c>
       <c r="C1259" s="5" t="s">
-        <v>3918</v>
+        <v>3920</v>
       </c>
       <c r="D1259" s="1" t="s">
-        <v>3919</v>
+        <v>3921</v>
       </c>
       <c r="E1259" s="6"/>
     </row>
     <row r="1260" spans="1:5">
       <c r="A1260" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1260" s="1" t="s">
-        <v>3920</v>
+        <v>3922</v>
       </c>
       <c r="C1260" s="5" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="D1260" s="1" t="s">
-        <v>3922</v>
+        <v>3924</v>
       </c>
       <c r="E1260" s="6"/>
     </row>
     <row r="1261" ht="37.5" hidden="1" spans="2:5">
       <c r="B1261" s="1" t="s">
-        <v>3923</v>
+        <v>3925</v>
       </c>
       <c r="C1261" s="5" t="s">
-        <v>3924</v>
+        <v>3926</v>
       </c>
       <c r="D1261" s="1" t="s">
-        <v>3925</v>
+        <v>3927</v>
       </c>
       <c r="E1261" s="6"/>
     </row>
     <row r="1262" hidden="1" spans="2:5">
       <c r="B1262" s="1" t="s">
-        <v>3926</v>
+        <v>3928</v>
       </c>
       <c r="C1262" s="5" t="s">
-        <v>3927</v>
+        <v>3929</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>3928</v>
+        <v>3930</v>
       </c>
       <c r="E1262" s="6"/>
     </row>
     <row r="1263" spans="1:5">
       <c r="A1263" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1263" s="1" t="s">
-        <v>3929</v>
+        <v>3931</v>
       </c>
       <c r="C1263" s="5" t="s">
-        <v>3930</v>
+        <v>3932</v>
       </c>
       <c r="D1263" s="1" t="s">
-        <v>3931</v>
+        <v>3933</v>
       </c>
       <c r="E1263" s="6" t="s">
-        <v>3932</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1264" hidden="1" spans="2:5">
       <c r="B1264" s="1" t="s">
-        <v>3933</v>
+        <v>3935</v>
       </c>
       <c r="C1264" s="5" t="s">
-        <v>3934</v>
+        <v>3936</v>
       </c>
       <c r="D1264" s="1" t="s">
-        <v>3935</v>
+        <v>3937</v>
       </c>
       <c r="E1264" s="6"/>
     </row>
     <row r="1265" spans="1:5">
       <c r="A1265" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1265" s="1" t="s">
-        <v>3936</v>
+        <v>3938</v>
       </c>
       <c r="C1265" s="5" t="s">
-        <v>3937</v>
+        <v>3939</v>
       </c>
       <c r="D1265" s="1" t="s">
-        <v>3938</v>
+        <v>3940</v>
       </c>
       <c r="E1265" s="6"/>
     </row>
     <row r="1266" hidden="1" spans="2:5">
       <c r="B1266" s="1" t="s">
-        <v>3939</v>
+        <v>3941</v>
       </c>
       <c r="C1266" s="5" t="s">
-        <v>3940</v>
+        <v>3942</v>
       </c>
       <c r="D1266" s="1" t="s">
-        <v>3941</v>
+        <v>3943</v>
       </c>
       <c r="E1266" s="6"/>
     </row>
     <row r="1267" spans="1:5">
       <c r="A1267" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1267" s="1" t="s">
-        <v>3942</v>
+        <v>3944</v>
       </c>
       <c r="C1267" s="5" t="s">
-        <v>3943</v>
+        <v>3945</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>3944</v>
+        <v>3946</v>
       </c>
       <c r="E1267" s="6"/>
     </row>
     <row r="1268" hidden="1" spans="2:5">
       <c r="B1268" s="1" t="s">
-        <v>3945</v>
+        <v>3947</v>
       </c>
       <c r="C1268" s="5" t="s">
-        <v>3946</v>
+        <v>3948</v>
       </c>
       <c r="D1268" s="1" t="s">
-        <v>3947</v>
+        <v>3949</v>
       </c>
       <c r="E1268" s="6"/>
     </row>
     <row r="1269" hidden="1" spans="2:5">
       <c r="B1269" s="1" t="s">
-        <v>3948</v>
+        <v>3950</v>
       </c>
       <c r="C1269" s="5" t="s">
-        <v>3949</v>
+        <v>3951</v>
       </c>
       <c r="D1269" s="1" t="s">
-        <v>3950</v>
+        <v>3952</v>
       </c>
       <c r="E1269" s="6"/>
     </row>
     <row r="1270" hidden="1" spans="2:5">
       <c r="B1270" s="1" t="s">
-        <v>3951</v>
+        <v>3953</v>
       </c>
       <c r="C1270" s="5" t="s">
-        <v>3952</v>
+        <v>3954</v>
       </c>
       <c r="D1270" s="1" t="s">
-        <v>3953</v>
+        <v>3955</v>
       </c>
       <c r="E1270" s="6"/>
     </row>
     <row r="1271" hidden="1" spans="2:5">
       <c r="B1271" s="1" t="s">
-        <v>3954</v>
+        <v>3956</v>
       </c>
       <c r="C1271" s="5" t="s">
-        <v>3955</v>
+        <v>3957</v>
       </c>
       <c r="D1271" s="1" t="s">
-        <v>3956</v>
+        <v>3958</v>
       </c>
       <c r="E1271" s="6"/>
     </row>
     <row r="1272" hidden="1" spans="2:5">
       <c r="B1272" s="1" t="s">
-        <v>3957</v>
+        <v>3959</v>
       </c>
       <c r="C1272" s="5" t="s">
-        <v>3958</v>
+        <v>3960</v>
       </c>
       <c r="D1272" s="1" t="s">
-        <v>3959</v>
+        <v>3961</v>
       </c>
       <c r="E1272" s="6"/>
     </row>
@@ -32342,259 +32412,259 @@
         <v>1</v>
       </c>
       <c r="B1273" s="1" t="s">
-        <v>3960</v>
+        <v>3962</v>
       </c>
       <c r="C1273" s="5" t="s">
-        <v>3961</v>
+        <v>3963</v>
       </c>
       <c r="D1273" s="1" t="s">
-        <v>3962</v>
+        <v>3964</v>
       </c>
       <c r="E1273" s="6"/>
     </row>
     <row r="1274" hidden="1" spans="2:5">
       <c r="B1274" s="1" t="s">
-        <v>3963</v>
+        <v>3965</v>
       </c>
       <c r="C1274" s="5" t="s">
-        <v>3964</v>
+        <v>3966</v>
       </c>
       <c r="D1274" s="1" t="s">
-        <v>3965</v>
+        <v>3967</v>
       </c>
       <c r="E1274" s="6"/>
     </row>
     <row r="1275" hidden="1" spans="2:5">
       <c r="B1275" s="1" t="s">
-        <v>3966</v>
+        <v>3968</v>
       </c>
       <c r="C1275" s="5" t="s">
-        <v>3967</v>
+        <v>3969</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>3968</v>
+        <v>3970</v>
       </c>
       <c r="E1275" s="6"/>
     </row>
     <row r="1276" hidden="1" spans="2:5">
       <c r="B1276" s="1" t="s">
-        <v>3969</v>
+        <v>3971</v>
       </c>
       <c r="C1276" s="5" t="s">
-        <v>3970</v>
+        <v>3972</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>3971</v>
+        <v>3973</v>
       </c>
       <c r="E1276" s="6"/>
     </row>
     <row r="1277" hidden="1" spans="2:5">
       <c r="B1277" s="1" t="s">
-        <v>3972</v>
+        <v>3974</v>
       </c>
       <c r="C1277" s="5" t="s">
-        <v>3973</v>
+        <v>3975</v>
       </c>
       <c r="D1277" s="1" t="s">
-        <v>3974</v>
+        <v>3976</v>
       </c>
       <c r="E1277" s="6"/>
     </row>
     <row r="1278" hidden="1" spans="2:5">
       <c r="B1278" s="1" t="s">
-        <v>3975</v>
+        <v>3977</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>3976</v>
+        <v>3978</v>
       </c>
       <c r="D1278" s="1" t="s">
-        <v>3977</v>
+        <v>3979</v>
       </c>
       <c r="E1278" s="6"/>
     </row>
     <row r="1279" spans="1:5">
       <c r="A1279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1279" s="1" t="s">
-        <v>3978</v>
+        <v>3980</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>3979</v>
+        <v>3981</v>
       </c>
       <c r="D1279" s="1" t="s">
-        <v>3980</v>
+        <v>3982</v>
       </c>
       <c r="E1279" s="6"/>
     </row>
     <row r="1280" hidden="1" spans="2:5">
       <c r="B1280" s="1" t="s">
-        <v>3981</v>
+        <v>3983</v>
       </c>
       <c r="C1280" s="5" t="s">
-        <v>3982</v>
+        <v>3984</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>3983</v>
+        <v>3985</v>
       </c>
       <c r="E1280" s="6"/>
     </row>
     <row r="1281" hidden="1" spans="2:5">
       <c r="B1281" s="1" t="s">
-        <v>3984</v>
+        <v>3986</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>3985</v>
+        <v>3987</v>
       </c>
       <c r="D1281" s="1" t="s">
-        <v>3986</v>
+        <v>3988</v>
       </c>
       <c r="E1281" s="6"/>
     </row>
     <row r="1282" hidden="1" spans="2:5">
       <c r="B1282" s="1" t="s">
-        <v>3987</v>
+        <v>3989</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>3988</v>
+        <v>3990</v>
       </c>
       <c r="D1282" s="1" t="s">
-        <v>3989</v>
+        <v>3991</v>
       </c>
       <c r="E1282" s="6"/>
     </row>
     <row r="1283" spans="1:5">
       <c r="A1283" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1283" s="1" t="s">
-        <v>3990</v>
+        <v>3992</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>3991</v>
+        <v>3993</v>
       </c>
       <c r="D1283" s="1" t="s">
-        <v>3992</v>
+        <v>3994</v>
       </c>
       <c r="E1283" s="6"/>
     </row>
     <row r="1284" spans="1:5">
       <c r="A1284" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1284" s="1" t="s">
-        <v>3993</v>
+        <v>3995</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>3994</v>
+        <v>3996</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>3995</v>
+        <v>3997</v>
       </c>
       <c r="E1284" s="6"/>
     </row>
     <row r="1285" spans="1:5">
       <c r="A1285" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1285" s="1" t="s">
-        <v>3996</v>
+        <v>3998</v>
       </c>
       <c r="C1285" s="5" t="s">
-        <v>3997</v>
+        <v>3999</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>3998</v>
+        <v>4000</v>
       </c>
       <c r="E1285" s="6"/>
     </row>
     <row r="1286" hidden="1" spans="2:5">
       <c r="B1286" s="1" t="s">
-        <v>3999</v>
+        <v>4001</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="D1286" s="1" t="s">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="E1286" s="6"/>
     </row>
     <row r="1287" hidden="1" spans="2:5">
       <c r="B1287" s="1" t="s">
-        <v>4002</v>
+        <v>4004</v>
       </c>
       <c r="C1287" s="5" t="s">
-        <v>4003</v>
+        <v>4005</v>
       </c>
       <c r="D1287" s="1" t="s">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="E1287" s="6"/>
     </row>
     <row r="1288" spans="1:5">
       <c r="A1288" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="C1288" s="5" t="s">
-        <v>4006</v>
+        <v>4008</v>
       </c>
       <c r="D1288" s="1" t="s">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="E1288" s="6"/>
     </row>
     <row r="1289" hidden="1" spans="2:5">
       <c r="B1289" s="1" t="s">
-        <v>4008</v>
+        <v>4010</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>4009</v>
+        <v>4011</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>4010</v>
+        <v>4012</v>
       </c>
       <c r="E1289" s="6"/>
     </row>
     <row r="1290" hidden="1" spans="2:5">
       <c r="B1290" s="1" t="s">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="C1290" s="5" t="s">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="D1290" s="1" t="s">
-        <v>4013</v>
+        <v>4015</v>
       </c>
       <c r="E1290" s="6"/>
     </row>
     <row r="1291" spans="1:5">
       <c r="A1291" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1291" s="1" t="s">
-        <v>4014</v>
+        <v>4016</v>
       </c>
       <c r="C1291" s="5" t="s">
-        <v>4015</v>
+        <v>4017</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="E1291" s="6"/>
     </row>
     <row r="1292" hidden="1" spans="2:5">
       <c r="B1292" s="1" t="s">
-        <v>4017</v>
+        <v>4019</v>
       </c>
       <c r="C1292" s="5" t="s">
-        <v>4018</v>
+        <v>4020</v>
       </c>
       <c r="D1292" s="1" t="s">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="E1292" s="6" t="s">
         <v>95</v>
@@ -32602,85 +32672,85 @@
     </row>
     <row r="1293" hidden="1" spans="2:5">
       <c r="B1293" s="1" t="s">
-        <v>4020</v>
+        <v>4022</v>
       </c>
       <c r="C1293" s="5" t="s">
-        <v>4021</v>
+        <v>4023</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>4022</v>
+        <v>4024</v>
       </c>
       <c r="E1293" s="6"/>
     </row>
     <row r="1294" spans="1:5">
       <c r="A1294" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1294" s="1" t="s">
-        <v>4023</v>
+        <v>4025</v>
       </c>
       <c r="C1294" s="5" t="s">
-        <v>4024</v>
+        <v>4026</v>
       </c>
       <c r="D1294" s="1" t="s">
-        <v>4025</v>
+        <v>4027</v>
       </c>
       <c r="E1294" s="6"/>
     </row>
     <row r="1295" spans="1:5">
       <c r="A1295" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>4026</v>
+        <v>4028</v>
       </c>
       <c r="C1295" s="5" t="s">
-        <v>4027</v>
+        <v>4029</v>
       </c>
       <c r="D1295" s="1" t="s">
-        <v>4028</v>
+        <v>4030</v>
       </c>
       <c r="E1295" s="6"/>
     </row>
     <row r="1296" hidden="1" spans="2:5">
       <c r="B1296" s="1" t="s">
-        <v>4029</v>
+        <v>4031</v>
       </c>
       <c r="C1296" s="5" t="s">
-        <v>4030</v>
+        <v>4032</v>
       </c>
       <c r="D1296" s="1" t="s">
-        <v>4031</v>
+        <v>4033</v>
       </c>
       <c r="E1296" s="6"/>
     </row>
     <row r="1297" spans="1:5">
       <c r="A1297" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="C1297" s="5" t="s">
-        <v>4033</v>
+        <v>4035</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="E1297" s="6"/>
     </row>
     <row r="1298" spans="1:5">
       <c r="A1298" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1298" s="1" t="s">
-        <v>4035</v>
+        <v>4037</v>
       </c>
       <c r="C1298" s="5" t="s">
-        <v>4036</v>
+        <v>4038</v>
       </c>
       <c r="D1298" s="1" t="s">
-        <v>4037</v>
+        <v>4039</v>
       </c>
       <c r="E1298" s="6"/>
     </row>
@@ -32689,290 +32759,290 @@
         <v>1</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>4038</v>
+        <v>4040</v>
       </c>
       <c r="C1299" s="5" t="s">
-        <v>4039</v>
+        <v>4041</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>4040</v>
+        <v>4042</v>
       </c>
       <c r="E1299" s="6"/>
     </row>
     <row r="1300" hidden="1" spans="2:5">
       <c r="B1300" s="1" t="s">
-        <v>4041</v>
+        <v>4043</v>
       </c>
       <c r="C1300" s="5" t="s">
-        <v>4042</v>
+        <v>4044</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>4043</v>
+        <v>4045</v>
       </c>
       <c r="E1300" s="6"/>
     </row>
     <row r="1301" hidden="1" spans="2:5">
       <c r="B1301" s="1" t="s">
-        <v>4044</v>
+        <v>4046</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>4045</v>
+        <v>4047</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>4046</v>
+        <v>4048</v>
       </c>
       <c r="E1301" s="1"/>
     </row>
     <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
-        <v>4047</v>
+        <v>4049</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>4048</v>
+        <v>4050</v>
       </c>
       <c r="D1302" s="1" t="s">
-        <v>4049</v>
+        <v>4051</v>
       </c>
       <c r="E1302" s="1"/>
     </row>
     <row r="1303" spans="1:5">
       <c r="A1303" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>4050</v>
+        <v>4052</v>
       </c>
       <c r="C1303" s="5" t="s">
-        <v>4051</v>
+        <v>4053</v>
       </c>
       <c r="D1303" s="1" t="s">
-        <v>4052</v>
+        <v>4054</v>
       </c>
       <c r="E1303" s="6" t="s">
-        <v>4053</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="1304" hidden="1" spans="2:5">
       <c r="B1304" s="1" t="s">
-        <v>4054</v>
+        <v>4056</v>
       </c>
       <c r="C1304" s="5" t="s">
-        <v>4055</v>
+        <v>4057</v>
       </c>
       <c r="D1304" s="1" t="s">
-        <v>4056</v>
+        <v>4058</v>
       </c>
       <c r="E1304" s="6"/>
     </row>
     <row r="1305" hidden="1" spans="2:5">
       <c r="B1305" s="1" t="s">
-        <v>4057</v>
+        <v>4059</v>
       </c>
       <c r="C1305" s="5" t="s">
-        <v>4058</v>
+        <v>4060</v>
       </c>
       <c r="D1305" s="1" t="s">
-        <v>4059</v>
+        <v>4061</v>
       </c>
       <c r="E1305" s="6"/>
     </row>
     <row r="1306" ht="56.25" hidden="1" spans="2:5">
       <c r="B1306" s="1" t="s">
-        <v>4060</v>
+        <v>4062</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>4061</v>
+        <v>4063</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>4062</v>
+        <v>4064</v>
       </c>
       <c r="E1306" s="1"/>
     </row>
     <row r="1307" hidden="1" spans="2:5">
       <c r="B1307" s="1" t="s">
-        <v>4063</v>
+        <v>4065</v>
       </c>
       <c r="C1307" s="5" t="s">
-        <v>4064</v>
+        <v>4066</v>
       </c>
       <c r="D1307" s="1" t="s">
-        <v>4065</v>
+        <v>4067</v>
       </c>
       <c r="E1307" s="6"/>
     </row>
     <row r="1308" hidden="1" spans="2:5">
       <c r="B1308" s="1" t="s">
-        <v>4066</v>
+        <v>4068</v>
       </c>
       <c r="C1308" s="5" t="s">
-        <v>4067</v>
+        <v>4069</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>4068</v>
+        <v>4070</v>
       </c>
       <c r="E1308" s="6"/>
     </row>
     <row r="1309" hidden="1" spans="2:5">
       <c r="B1309" s="1" t="s">
-        <v>4069</v>
+        <v>4071</v>
       </c>
       <c r="C1309" s="5" t="s">
-        <v>4070</v>
+        <v>4072</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>4071</v>
+        <v>4073</v>
       </c>
       <c r="E1309" s="6"/>
     </row>
     <row r="1310" hidden="1" spans="2:5">
       <c r="B1310" s="1" t="s">
-        <v>4072</v>
+        <v>4074</v>
       </c>
       <c r="C1310" s="5" t="s">
-        <v>4073</v>
+        <v>4075</v>
       </c>
       <c r="D1310" s="1" t="s">
-        <v>4074</v>
+        <v>4076</v>
       </c>
       <c r="E1310" s="6"/>
     </row>
     <row r="1311" hidden="1" spans="2:5">
       <c r="B1311" s="1" t="s">
-        <v>4075</v>
+        <v>4077</v>
       </c>
       <c r="C1311" s="1" t="s">
+        <v>4078</v>
+      </c>
+      <c r="D1311" s="1" t="s">
         <v>4076</v>
-      </c>
-      <c r="D1311" s="1" t="s">
-        <v>4074</v>
       </c>
       <c r="E1311" s="1"/>
     </row>
     <row r="1312" hidden="1" spans="2:5">
       <c r="B1312" s="1" t="s">
-        <v>4077</v>
+        <v>4079</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>4078</v>
+        <v>4080</v>
       </c>
       <c r="D1312" s="1" t="s">
-        <v>4079</v>
+        <v>4081</v>
       </c>
       <c r="E1312" s="1"/>
     </row>
     <row r="1313" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
-        <v>4080</v>
+        <v>4082</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>4081</v>
+        <v>4083</v>
       </c>
       <c r="D1313" s="1" t="s">
-        <v>4082</v>
+        <v>4084</v>
       </c>
       <c r="E1313" s="1"/>
     </row>
     <row r="1314" spans="1:5">
       <c r="A1314" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>4083</v>
+        <v>4085</v>
       </c>
       <c r="C1314" s="5" t="s">
-        <v>4084</v>
+        <v>4086</v>
       </c>
       <c r="D1314" s="1" t="s">
-        <v>4085</v>
+        <v>4087</v>
       </c>
       <c r="E1314" s="6"/>
     </row>
     <row r="1315" spans="1:5">
       <c r="A1315" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1315" s="1" t="s">
-        <v>4086</v>
+        <v>4088</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>4087</v>
+        <v>4089</v>
       </c>
       <c r="D1315" s="1" t="s">
-        <v>4088</v>
+        <v>4090</v>
       </c>
       <c r="E1315" s="6"/>
     </row>
     <row r="1316" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
-        <v>4089</v>
+        <v>4091</v>
       </c>
       <c r="C1316" s="5" t="s">
-        <v>4090</v>
+        <v>4092</v>
       </c>
       <c r="D1316" s="1" t="s">
-        <v>4091</v>
+        <v>4093</v>
       </c>
       <c r="E1316" s="6"/>
     </row>
     <row r="1317" hidden="1" spans="2:5">
       <c r="B1317" s="1" t="s">
-        <v>4092</v>
+        <v>4094</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>4093</v>
+        <v>4095</v>
       </c>
       <c r="D1317" s="1" t="s">
-        <v>4094</v>
+        <v>4096</v>
       </c>
       <c r="E1317" s="6"/>
     </row>
     <row r="1318" hidden="1" spans="2:5">
       <c r="B1318" s="1" t="s">
-        <v>4095</v>
+        <v>4097</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>4096</v>
+        <v>4098</v>
       </c>
       <c r="D1318" s="1" t="s">
-        <v>4097</v>
+        <v>4099</v>
       </c>
       <c r="E1318" s="6" t="s">
-        <v>4098</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1319" ht="37.5" hidden="1" spans="2:5">
       <c r="B1319" s="1" t="s">
-        <v>4099</v>
+        <v>4101</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>4100</v>
+        <v>4102</v>
       </c>
       <c r="D1319" s="1" t="s">
-        <v>4101</v>
+        <v>4103</v>
       </c>
       <c r="E1319" s="1"/>
     </row>
     <row r="1320" hidden="1" spans="2:5">
       <c r="B1320" s="1" t="s">
-        <v>4102</v>
+        <v>4104</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>4103</v>
+        <v>4105</v>
       </c>
       <c r="D1320" s="1" t="s">
-        <v>4104</v>
+        <v>4106</v>
       </c>
       <c r="E1320" s="6"/>
     </row>
     <row r="1321" hidden="1" spans="2:5">
       <c r="B1321" s="1" t="s">
-        <v>4105</v>
+        <v>4107</v>
       </c>
       <c r="C1321" s="5" t="s">
-        <v>4106</v>
+        <v>4108</v>
       </c>
       <c r="D1321" s="1" t="s">
-        <v>4107</v>
+        <v>4109</v>
       </c>
       <c r="E1321" s="6"/>
     </row>
@@ -32981,34 +33051,34 @@
         <v>1</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>4108</v>
+        <v>4110</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>4109</v>
+        <v>4111</v>
       </c>
       <c r="D1322" s="1" t="s">
-        <v>4110</v>
+        <v>4112</v>
       </c>
       <c r="E1322" s="1"/>
     </row>
     <row r="1323" spans="1:5">
       <c r="A1323" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>4111</v>
+        <v>4113</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>4112</v>
+        <v>4114</v>
       </c>
       <c r="D1323" s="1" t="s">
-        <v>4113</v>
+        <v>4115</v>
       </c>
       <c r="E1323" s="1"/>
     </row>
     <row r="1324" hidden="1" spans="2:5">
       <c r="B1324" s="1" t="s">
-        <v>4114</v>
+        <v>4116</v>
       </c>
       <c r="E1324" s="1"/>
     </row>
@@ -33016,12 +33086,12 @@
   <autoFilter ref="A1:A1324">
     <filterColumn colId="0">
       <filters>
+        <filter val="0"/>
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
         <filter val="5"/>
-        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -6948,12 +6948,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">command </t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>命令</t>
@@ -6971,6 +6978,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>评论</t>
@@ -6988,6 +6996,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>需求</t>
@@ -13678,12 +13687,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">feature </t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>特征</t>
@@ -14430,12 +14446,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -14501,8 +14517,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14510,7 +14558,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14525,6 +14573,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -14532,32 +14588,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14573,45 +14605,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14676,11 +14692,6 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -14711,13 +14722,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14729,43 +14806,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14777,55 +14848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14843,13 +14866,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14861,19 +14890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14886,12 +14903,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14910,6 +14921,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14946,24 +14975,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14983,167 +14999,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -15229,6 +15240,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -15244,8 +15260,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>382508</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>327842</xdr:rowOff>
+      <xdr:row>1298</xdr:row>
+      <xdr:rowOff>23042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15268,8 +15284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17866360" y="238125"/>
-          <a:ext cx="5440045" cy="1518285"/>
+          <a:off x="15918815" y="238125"/>
+          <a:ext cx="4839970" cy="2223135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15286,7 +15302,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -15533,7 +15549,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -15542,17 +15557,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1250" workbookViewId="0">
-      <selection activeCell="F1248" sqref="F1248"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1342" sqref="C1342"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.575" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5037037037037" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15585,7 +15600,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="37.5" hidden="1" spans="2:5">
+    <row r="3" ht="48" hidden="1" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -15597,7 +15612,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="37.5" spans="1:5">
+    <row r="4" ht="48" hidden="1" spans="1:5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -15614,7 +15629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="48" hidden="1" spans="1:5">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -15631,7 +15646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="37.5" spans="1:5">
+    <row r="6" ht="48" hidden="1" spans="1:5">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -15646,7 +15661,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="37.5" hidden="1" spans="2:5">
+    <row r="7" ht="48" hidden="1" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -15658,7 +15673,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="37.5" hidden="1" spans="2:5">
+    <row r="8" ht="48" hidden="1" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -15670,7 +15685,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="37.5" hidden="1" spans="2:5">
+    <row r="9" ht="48" hidden="1" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -15682,7 +15697,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="37.5" spans="1:5">
+    <row r="10" ht="48" hidden="1" spans="1:5">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -15697,7 +15712,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="37.5" hidden="1" spans="2:5">
+    <row r="11" ht="48" hidden="1" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -15709,7 +15724,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="37.5" hidden="1" spans="2:9">
+    <row r="12" ht="48" hidden="1" spans="2:9">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -15725,7 +15740,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" ht="37.5" hidden="1" spans="2:9">
+    <row r="13" ht="48" hidden="1" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -15741,7 +15756,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" ht="37.5" hidden="1" spans="2:5">
+    <row r="14" ht="48" hidden="1" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -15753,7 +15768,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="37.5" spans="1:5">
+    <row r="15" ht="48" hidden="1" spans="1:5">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -15770,7 +15785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" ht="37.5" hidden="1" spans="2:5">
+    <row r="16" ht="48" hidden="1" spans="2:5">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -15782,7 +15797,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="37.5" spans="1:5">
+    <row r="17" ht="48" hidden="1" spans="1:5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -15797,7 +15812,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="37.5" hidden="1" spans="2:5">
+    <row r="18" ht="48" hidden="1" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -15809,7 +15824,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="48" hidden="1" spans="1:5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -15836,7 +15851,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" hidden="1" spans="1:5">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -15851,7 +15866,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="37.5" spans="1:5">
+    <row r="22" ht="48" hidden="1" spans="1:5">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -15880,7 +15895,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" hidden="1" spans="1:5">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -15933,7 +15948,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" ht="48" hidden="1" spans="1:5">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -15964,7 +15979,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" ht="48" hidden="1" spans="1:5">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -15993,7 +16008,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -16010,7 +16025,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -16025,7 +16040,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -16064,7 +16079,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" hidden="1" spans="1:5">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -16079,7 +16094,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" ht="37.5" hidden="1" spans="2:5">
+    <row r="38" ht="48" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
@@ -16155,7 +16170,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="37.5" spans="1:5">
+    <row r="44" ht="48" hidden="1" spans="1:5">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -16182,7 +16197,7 @@
       </c>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" hidden="1" spans="1:5">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -16209,7 +16224,7 @@
       </c>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -16226,7 +16241,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" hidden="1" spans="1:5">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -16243,7 +16258,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" hidden="1" spans="1:5">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -16270,7 +16285,7 @@
       </c>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" hidden="1" spans="1:5">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -16285,7 +16300,7 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" ht="37.5" spans="1:5">
+    <row r="53" ht="43" hidden="1" spans="1:5">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -16314,7 +16329,7 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" ht="37.5" hidden="1" spans="2:5">
+    <row r="55" ht="48" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>176</v>
       </c>
@@ -16326,7 +16341,7 @@
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" hidden="1" spans="1:5">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -16341,7 +16356,7 @@
       </c>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" hidden="1" spans="1:5">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -16356,7 +16371,7 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" ht="48" hidden="1" spans="1:5">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -16395,7 +16410,7 @@
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" hidden="1" spans="1:5">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -16410,7 +16425,7 @@
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" hidden="1" spans="2:5">
+    <row r="62" ht="48" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>197</v>
       </c>
@@ -16434,7 +16449,7 @@
       </c>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" hidden="1" spans="2:5">
+    <row r="64" ht="48" hidden="1" spans="2:5">
       <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
@@ -16476,7 +16491,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" ht="56.25" hidden="1" spans="2:5">
+    <row r="67" ht="62" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>215</v>
       </c>
@@ -16526,7 +16541,7 @@
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" ht="48" hidden="1" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -16555,7 +16570,7 @@
       </c>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" hidden="1" spans="1:5">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -16570,7 +16585,7 @@
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" hidden="1" spans="1:5">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -16585,7 +16600,7 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" ht="48" hidden="1" spans="1:5">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -16616,7 +16631,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" hidden="1" spans="1:5">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -16669,7 +16684,7 @@
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" hidden="1" spans="2:5">
+    <row r="81" ht="48" hidden="1" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>262</v>
       </c>
@@ -16683,7 +16698,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" hidden="1" spans="1:5">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -16698,7 +16713,7 @@
       </c>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" hidden="1" spans="1:5">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -16737,7 +16752,7 @@
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" hidden="1" spans="2:5">
+    <row r="86" ht="48" hidden="1" spans="2:5">
       <c r="B86" s="1" t="s">
         <v>278</v>
       </c>
@@ -16775,7 +16790,7 @@
       </c>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" hidden="1" spans="1:5">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -16818,7 +16833,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" hidden="1" spans="1:5">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -16895,7 +16910,7 @@
       </c>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" hidden="1" spans="1:5">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -16934,7 +16949,7 @@
       </c>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" hidden="1" spans="2:5">
+    <row r="101" ht="48" hidden="1" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>326</v>
       </c>
@@ -16946,7 +16961,7 @@
       </c>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" hidden="1" spans="1:5">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -16963,7 +16978,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" hidden="1" spans="1:5">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -16992,7 +17007,7 @@
       </c>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" hidden="1" spans="2:5">
+    <row r="105" ht="48" hidden="1" spans="2:5">
       <c r="B105" s="1" t="s">
         <v>340</v>
       </c>
@@ -17004,7 +17019,7 @@
       </c>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" hidden="1" spans="1:4">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -17042,7 +17057,7 @@
       </c>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" hidden="1" spans="1:5">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -17069,7 +17084,7 @@
       </c>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" hidden="1" spans="2:5">
+    <row r="111" ht="48" hidden="1" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>358</v>
       </c>
@@ -17109,7 +17124,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" hidden="1" spans="1:5">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -17126,7 +17141,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="115" ht="37.5" hidden="1" spans="2:5">
+    <row r="115" ht="48" hidden="1" spans="2:5">
       <c r="B115" s="1" t="s">
         <v>373</v>
       </c>
@@ -17176,7 +17191,7 @@
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" ht="37.5" hidden="1" spans="2:5">
+    <row r="119" ht="48" hidden="1" spans="2:5">
       <c r="B119" s="1" t="s">
         <v>386</v>
       </c>
@@ -17276,7 +17291,7 @@
       </c>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" hidden="1" spans="2:5">
+    <row r="127" ht="48" hidden="1" spans="2:5">
       <c r="B127" s="1" t="s">
         <v>412</v>
       </c>
@@ -17302,7 +17317,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="2:5">
+    <row r="129" ht="48" hidden="1" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>419</v>
       </c>
@@ -17314,7 +17329,7 @@
       </c>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" hidden="1" spans="1:5">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -17353,7 +17368,7 @@
       </c>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" hidden="1" spans="1:5">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -17384,7 +17399,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="135" ht="37.5" hidden="1" spans="2:5">
+    <row r="135" ht="48" hidden="1" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>439</v>
       </c>
@@ -17398,7 +17413,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="2:5">
+    <row r="136" ht="48" hidden="1" spans="2:5">
       <c r="B136" s="1" t="s">
         <v>443</v>
       </c>
@@ -17412,7 +17427,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" hidden="1" spans="1:5">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -17467,7 +17482,7 @@
       </c>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" hidden="1" spans="1:5">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -17482,7 +17497,7 @@
       </c>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" ht="37.5" hidden="1" spans="2:5">
+    <row r="142" ht="48" hidden="1" spans="2:5">
       <c r="B142" s="1" t="s">
         <v>464</v>
       </c>
@@ -17506,7 +17521,7 @@
       </c>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" hidden="1" spans="1:5">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -17521,7 +17536,7 @@
       </c>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" hidden="1" spans="1:5">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -17560,7 +17575,7 @@
       </c>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" hidden="1" spans="1:5">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -17575,7 +17590,7 @@
       </c>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" hidden="1" spans="1:5">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -17614,7 +17629,7 @@
       </c>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" ht="37.5" hidden="1" spans="2:5">
+    <row r="152" ht="48" hidden="1" spans="2:5">
       <c r="B152" s="1" t="s">
         <v>494</v>
       </c>
@@ -17626,7 +17641,7 @@
       </c>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" ht="37.5" hidden="1" spans="2:5">
+    <row r="153" ht="48" hidden="1" spans="2:5">
       <c r="B153" s="1" t="s">
         <v>497</v>
       </c>
@@ -17674,7 +17689,7 @@
       </c>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" ht="37.5" hidden="1" spans="2:5">
+    <row r="157" ht="43" hidden="1" spans="2:5">
       <c r="B157" s="1" t="s">
         <v>509</v>
       </c>
@@ -17700,7 +17715,7 @@
       </c>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" hidden="1" spans="1:5">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -17727,7 +17742,7 @@
       </c>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" ht="37.5" spans="1:5">
+    <row r="161" ht="48" hidden="1" spans="1:5">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -17742,7 +17757,7 @@
       </c>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" ht="37.5" spans="1:5">
+    <row r="162" ht="48" hidden="1" spans="1:5">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -17757,7 +17772,7 @@
       </c>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" hidden="1" spans="1:5">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -17772,7 +17787,7 @@
       </c>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" hidden="1" spans="1:5">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -17787,7 +17802,7 @@
       </c>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" hidden="1" spans="2:5">
+    <row r="165" ht="38" hidden="1" spans="2:5">
       <c r="B165" s="1" t="s">
         <v>534</v>
       </c>
@@ -17813,7 +17828,7 @@
       </c>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" ht="37.5" hidden="1" spans="2:5">
+    <row r="167" ht="48" hidden="1" spans="2:5">
       <c r="B167" s="1" t="s">
         <v>541</v>
       </c>
@@ -17837,7 +17852,7 @@
       </c>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" ht="37.5" spans="1:5">
+    <row r="169" ht="48" hidden="1" spans="1:5">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -17852,7 +17867,7 @@
       </c>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" ht="48" hidden="1" spans="1:5">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -17867,7 +17882,7 @@
       </c>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" ht="37.5" hidden="1" spans="2:5">
+    <row r="171" ht="48" hidden="1" spans="2:5">
       <c r="B171" s="1" t="s">
         <v>553</v>
       </c>
@@ -17999,7 +18014,7 @@
       </c>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" hidden="1" spans="1:4">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -18013,7 +18028,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" hidden="1" spans="1:5">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -18028,7 +18043,7 @@
       </c>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" hidden="1" spans="1:5">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -18091,7 +18106,7 @@
       </c>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" hidden="1" spans="1:5">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -18106,7 +18121,7 @@
       </c>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" ht="48" hidden="1" spans="1:5">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -18149,7 +18164,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="193" ht="37.5" hidden="1" spans="2:5">
+    <row r="193" ht="48" hidden="1" spans="2:5">
       <c r="B193" s="1" t="s">
         <v>621</v>
       </c>
@@ -18173,7 +18188,7 @@
       </c>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" hidden="1" spans="1:5">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -18226,7 +18241,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" hidden="1" spans="1:5">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -18255,7 +18270,7 @@
       </c>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" hidden="1" spans="1:5">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -18282,7 +18297,7 @@
       </c>
       <c r="E202" s="6"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" hidden="1" spans="1:5">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -18297,7 +18312,7 @@
       </c>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" hidden="1" spans="1:5">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -18312,7 +18327,7 @@
       </c>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" hidden="1" spans="1:5">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -18353,7 +18368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" hidden="1" spans="1:5">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -18368,7 +18383,7 @@
       </c>
       <c r="E208" s="6"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" hidden="1" spans="1:5">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -18395,7 +18410,7 @@
       </c>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" ht="37.5" spans="1:5">
+    <row r="211" ht="62" hidden="1" spans="1:5">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -18424,7 +18439,7 @@
       </c>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" hidden="1" spans="1:4">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -18438,7 +18453,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" ht="48" hidden="1" spans="1:5">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -18467,7 +18482,7 @@
       </c>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" hidden="1" spans="1:5">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -18482,7 +18497,7 @@
       </c>
       <c r="E216" s="6"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" hidden="1" spans="1:5">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -18523,7 +18538,7 @@
       </c>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" ht="48" hidden="1" spans="1:5">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -18540,7 +18555,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" hidden="1" spans="1:5">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -18555,7 +18570,7 @@
       </c>
       <c r="E221" s="6"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" hidden="1" spans="1:4">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -18593,7 +18608,7 @@
       </c>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" hidden="1" spans="2:5">
+    <row r="225" ht="48" hidden="1" spans="2:5">
       <c r="B225" s="1" t="s">
         <v>722</v>
       </c>
@@ -18605,7 +18620,7 @@
       </c>
       <c r="E225" s="6"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" hidden="1" spans="1:5">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -18620,7 +18635,7 @@
       </c>
       <c r="E226" s="6"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" hidden="1" spans="1:5">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -18649,7 +18664,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" hidden="1" spans="1:5">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -18676,7 +18691,7 @@
       </c>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" ht="37.5" spans="1:5">
+    <row r="231" ht="48" hidden="1" spans="1:5">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -18693,7 +18708,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" hidden="1" spans="1:5">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -18708,7 +18723,7 @@
       </c>
       <c r="E232" s="6"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" hidden="1" spans="1:5">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -18723,7 +18738,7 @@
       </c>
       <c r="E233" s="6"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" hidden="1" spans="1:5">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -18822,7 +18837,7 @@
       </c>
       <c r="E241" s="6"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" hidden="1" spans="1:5">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -18873,7 +18888,7 @@
       </c>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" hidden="1" spans="1:5">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -18924,7 +18939,7 @@
       </c>
       <c r="E249" s="6"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" hidden="1" spans="1:5">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -18965,7 +18980,7 @@
       </c>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" hidden="1" spans="1:5">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -18980,7 +18995,7 @@
       </c>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" ht="48" hidden="1" spans="1:5">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -19055,7 +19070,7 @@
       </c>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" ht="48" hidden="1" spans="1:5">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -19084,7 +19099,7 @@
       </c>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" hidden="1" spans="1:5">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -19099,7 +19114,7 @@
       </c>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" hidden="1" spans="1:5">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -19166,7 +19181,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" hidden="1" spans="1:5">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -19197,7 +19212,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="270" ht="37.5" spans="1:5">
+    <row r="270" ht="48" hidden="1" spans="1:5">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -19212,7 +19227,7 @@
       </c>
       <c r="E270" s="6"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" hidden="1" spans="1:5">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -19239,7 +19254,7 @@
       </c>
       <c r="E272" s="6"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" hidden="1" spans="1:5">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -19254,7 +19269,7 @@
       </c>
       <c r="E273" s="6"/>
     </row>
-    <row r="274" hidden="1" spans="2:5">
+    <row r="274" ht="48" hidden="1" spans="2:5">
       <c r="B274" s="1" t="s">
         <v>876</v>
       </c>
@@ -19266,7 +19281,7 @@
       </c>
       <c r="E274" s="6"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" hidden="1" spans="1:5">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -19305,7 +19320,7 @@
       </c>
       <c r="E277" s="6"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" hidden="1" spans="1:5">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -19320,7 +19335,7 @@
       </c>
       <c r="E278" s="6"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" hidden="1" spans="1:5">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -19359,7 +19374,7 @@
       </c>
       <c r="E281" s="6"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" hidden="1" spans="1:5">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -19374,7 +19389,7 @@
       </c>
       <c r="E282" s="6"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" hidden="1" spans="1:5">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -19413,7 +19428,7 @@
       </c>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" hidden="1" spans="2:5">
+    <row r="286" ht="48" hidden="1" spans="2:5">
       <c r="B286" s="1" t="s">
         <v>912</v>
       </c>
@@ -19425,7 +19440,7 @@
       </c>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" ht="48" hidden="1" spans="1:5">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -19452,7 +19467,7 @@
       </c>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" ht="48" hidden="1" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -19469,7 +19484,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" ht="48" hidden="1" spans="1:5">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -19496,7 +19511,7 @@
       </c>
       <c r="E291" s="6"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" hidden="1" spans="1:5">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -19511,7 +19526,7 @@
       </c>
       <c r="E292" s="6"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" hidden="1" spans="1:5">
       <c r="A293" s="1">
         <v>0</v>
       </c>
@@ -19588,7 +19603,7 @@
       </c>
       <c r="E298" s="6"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" hidden="1" spans="1:5">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -19615,7 +19630,7 @@
       </c>
       <c r="E300" s="6"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" hidden="1" spans="1:5">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -19630,7 +19645,7 @@
       </c>
       <c r="E301" s="6"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" hidden="1" spans="1:5">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -19657,7 +19672,7 @@
       </c>
       <c r="E303" s="6"/>
     </row>
-    <row r="304" ht="56.25" spans="1:5">
+    <row r="304" ht="76" hidden="1" spans="1:5">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -19712,7 +19727,7 @@
       </c>
       <c r="E307" s="6"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" hidden="1" spans="1:5">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -19727,7 +19742,7 @@
       </c>
       <c r="E308" s="6"/>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" hidden="1" spans="1:4">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -19753,7 +19768,7 @@
       </c>
       <c r="E310" s="6"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" hidden="1" spans="1:5">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -19770,7 +19785,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="312" ht="37.5" hidden="1" spans="2:5">
+    <row r="312" ht="43" hidden="1" spans="2:5">
       <c r="B312" s="1" t="s">
         <v>995</v>
       </c>
@@ -19784,7 +19799,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" ht="48" hidden="1" spans="1:4">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -19810,7 +19825,7 @@
       </c>
       <c r="E314" s="6"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" hidden="1" spans="1:5">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -19837,7 +19852,7 @@
       </c>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" hidden="1" spans="2:5">
+    <row r="317" ht="48" hidden="1" spans="2:5">
       <c r="B317" s="1" t="s">
         <v>1011</v>
       </c>
@@ -19873,7 +19888,7 @@
       </c>
       <c r="E319" s="6"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" hidden="1" spans="1:5">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -19888,7 +19903,7 @@
       </c>
       <c r="E320" s="6"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" hidden="1" spans="1:5">
       <c r="A321" s="1">
         <v>0</v>
       </c>
@@ -19903,7 +19918,7 @@
       </c>
       <c r="E321" s="6"/>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" hidden="1" spans="1:4">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -19917,7 +19932,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" hidden="1" spans="1:5">
       <c r="A323" s="1">
         <v>0</v>
       </c>
@@ -19992,7 +20007,7 @@
       </c>
       <c r="E328" s="6"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" hidden="1" spans="1:5">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -20019,7 +20034,7 @@
       </c>
       <c r="E330" s="6"/>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" ht="48" hidden="1" spans="1:4">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -20033,7 +20048,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" hidden="1" spans="1:5">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -20060,7 +20075,7 @@
       </c>
       <c r="E333" s="6"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" hidden="1" spans="1:5">
       <c r="A334" s="1">
         <v>0</v>
       </c>
@@ -20125,7 +20140,7 @@
       </c>
       <c r="E338" s="6"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" hidden="1" spans="1:5">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -20142,7 +20157,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" hidden="1" spans="1:4">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -20156,7 +20171,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" ht="38" hidden="1" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -20221,7 +20236,7 @@
       </c>
       <c r="E345" s="6"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" hidden="1" spans="1:5">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -20262,7 +20277,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="349" ht="56.25" hidden="1" spans="2:5">
+    <row r="349" ht="76" hidden="1" spans="2:5">
       <c r="B349" s="1" t="s">
         <v>1111</v>
       </c>
@@ -20276,7 +20291,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" hidden="1" spans="1:5">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -20303,7 +20318,7 @@
       </c>
       <c r="E351" s="6"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" hidden="1" spans="1:5">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -20318,7 +20333,7 @@
       </c>
       <c r="E352" s="6"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" hidden="1" spans="1:5">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -20333,7 +20348,7 @@
       </c>
       <c r="E353" s="6"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" hidden="1" spans="1:5">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -20348,7 +20363,7 @@
       </c>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" hidden="1" spans="1:4">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -20398,7 +20413,7 @@
       </c>
       <c r="E358" s="6"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" hidden="1" spans="1:5">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -20461,7 +20476,7 @@
       </c>
       <c r="E363" s="6"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" hidden="1" spans="1:5">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -20488,7 +20503,7 @@
       </c>
       <c r="E365" s="6"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" hidden="1" spans="1:5">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -20515,7 +20530,7 @@
       </c>
       <c r="E367" s="6"/>
     </row>
-    <row r="368" hidden="1" spans="2:5">
+    <row r="368" ht="38" hidden="1" spans="2:5">
       <c r="B368" s="1" t="s">
         <v>1169</v>
       </c>
@@ -20529,7 +20544,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" ht="48" hidden="1" spans="1:5">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -20558,7 +20573,7 @@
       </c>
       <c r="E370" s="6"/>
     </row>
-    <row r="371" ht="37.5" hidden="1" spans="2:5">
+    <row r="371" ht="48" hidden="1" spans="2:5">
       <c r="B371" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20570,7 +20585,7 @@
       </c>
       <c r="E371" s="6"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" hidden="1" spans="1:5">
       <c r="A372" s="1">
         <v>0</v>
       </c>
@@ -20585,7 +20600,7 @@
       </c>
       <c r="E372" s="6"/>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" hidden="1" spans="1:4">
       <c r="A373" s="1">
         <v>0</v>
       </c>
@@ -20599,7 +20614,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" hidden="1" spans="1:5">
       <c r="A374" s="1">
         <v>0</v>
       </c>
@@ -20626,7 +20641,7 @@
       </c>
       <c r="E375" s="6"/>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" hidden="1" spans="1:5">
       <c r="A376" s="1">
         <v>0</v>
       </c>
@@ -20679,7 +20694,7 @@
       </c>
       <c r="E379" s="6"/>
     </row>
-    <row r="380" ht="37.5" hidden="1" spans="2:5">
+    <row r="380" ht="48" hidden="1" spans="2:5">
       <c r="B380" s="1" t="s">
         <v>1208</v>
       </c>
@@ -20727,7 +20742,7 @@
       </c>
       <c r="E383" s="6"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" hidden="1" spans="1:5">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -20742,7 +20757,7 @@
       </c>
       <c r="E384" s="6"/>
     </row>
-    <row r="385" ht="37.5" spans="1:5">
+    <row r="385" ht="48" hidden="1" spans="1:5">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -20759,7 +20774,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" hidden="1" spans="1:5">
       <c r="A386" s="1">
         <v>0</v>
       </c>
@@ -20798,7 +20813,7 @@
       </c>
       <c r="E388" s="6"/>
     </row>
-    <row r="389" ht="75" spans="1:5">
+    <row r="389" ht="120" hidden="1" spans="1:5">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -20815,7 +20830,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" hidden="1" spans="1:5">
       <c r="A390" s="1">
         <v>0</v>
       </c>
@@ -20866,7 +20881,7 @@
       </c>
       <c r="E393" s="6"/>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" hidden="1" spans="1:4">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -20880,7 +20895,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" hidden="1" spans="1:5">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -20895,7 +20910,7 @@
       </c>
       <c r="E395" s="6"/>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" hidden="1" spans="1:5">
       <c r="A396" s="1">
         <v>0</v>
       </c>
@@ -20910,7 +20925,7 @@
       </c>
       <c r="E396" s="6"/>
     </row>
-    <row r="397" ht="37.5" spans="1:5">
+    <row r="397" ht="48" hidden="1" spans="1:5">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -20939,7 +20954,7 @@
       </c>
       <c r="E398" s="6"/>
     </row>
-    <row r="399" ht="37.5" hidden="1" spans="2:5">
+    <row r="399" ht="38" hidden="1" spans="2:5">
       <c r="B399" s="1" t="s">
         <v>1268</v>
       </c>
@@ -20953,7 +20968,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" hidden="1" spans="1:5">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -20992,7 +21007,7 @@
       </c>
       <c r="E402" s="6"/>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" hidden="1" spans="1:4">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -21006,7 +21021,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" hidden="1" spans="1:5">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -21023,7 +21038,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" hidden="1" spans="1:5">
       <c r="A405" s="1">
         <v>0</v>
       </c>
@@ -21040,7 +21055,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" hidden="1" spans="1:4">
       <c r="A406" s="1">
         <v>0</v>
       </c>
@@ -21090,7 +21105,7 @@
       </c>
       <c r="E409" s="6"/>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" hidden="1" spans="1:5">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -21105,7 +21120,7 @@
       </c>
       <c r="E410" s="6"/>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" hidden="1" spans="1:4">
       <c r="A411" s="1">
         <v>0</v>
       </c>
@@ -21143,7 +21158,7 @@
       </c>
       <c r="E413" s="6"/>
     </row>
-    <row r="414" ht="37.5" hidden="1" spans="2:5">
+    <row r="414" ht="48" hidden="1" spans="2:5">
       <c r="B414" s="1" t="s">
         <v>1316</v>
       </c>
@@ -21191,7 +21206,7 @@
       </c>
       <c r="E417" s="6"/>
     </row>
-    <row r="418" hidden="1" spans="2:5">
+    <row r="418" ht="48" hidden="1" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>1328</v>
       </c>
@@ -21253,7 +21268,7 @@
       </c>
       <c r="E422" s="6"/>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" hidden="1" spans="1:4">
       <c r="A423" s="1">
         <v>0</v>
       </c>
@@ -21279,7 +21294,7 @@
       </c>
       <c r="E424" s="6"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" hidden="1" spans="1:5">
       <c r="A425" s="1">
         <v>0</v>
       </c>
@@ -21342,7 +21357,7 @@
       </c>
       <c r="E429" s="6"/>
     </row>
-    <row r="430" ht="37.5" spans="1:5">
+    <row r="430" ht="48" hidden="1" spans="1:5">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -21481,7 +21496,7 @@
       </c>
       <c r="E440" s="6"/>
     </row>
-    <row r="441" hidden="1" spans="2:4">
+    <row r="441" ht="48" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1400</v>
       </c>
@@ -21492,7 +21507,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" hidden="1" spans="1:4">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -21520,7 +21535,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="444" ht="37.5" hidden="1" spans="2:5">
+    <row r="444" ht="62" hidden="1" spans="2:5">
       <c r="B444" s="1" t="s">
         <v>1410</v>
       </c>
@@ -21534,7 +21549,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" hidden="1" spans="1:5">
       <c r="A445" s="1">
         <v>0</v>
       </c>
@@ -21561,7 +21576,7 @@
       </c>
       <c r="E446" s="6"/>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" hidden="1" spans="1:4">
       <c r="A447" s="1">
         <v>0</v>
       </c>
@@ -21623,7 +21638,7 @@
       </c>
       <c r="E451" s="6"/>
     </row>
-    <row r="452" ht="37.5" hidden="1" spans="2:5">
+    <row r="452" ht="48" hidden="1" spans="2:5">
       <c r="B452" s="1" t="s">
         <v>1435</v>
       </c>
@@ -21647,7 +21662,7 @@
       </c>
       <c r="E453" s="6"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" hidden="1" spans="1:5">
       <c r="A454" s="1">
         <v>0</v>
       </c>
@@ -21676,7 +21691,7 @@
       </c>
       <c r="E455" s="6"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" hidden="1" spans="1:5">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -21691,7 +21706,7 @@
       </c>
       <c r="E456" s="6"/>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" hidden="1" spans="1:4">
       <c r="A457" s="1">
         <v>0</v>
       </c>
@@ -21705,7 +21720,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" hidden="1" spans="1:5">
       <c r="A458" s="1">
         <v>0</v>
       </c>
@@ -21720,7 +21735,7 @@
       </c>
       <c r="E458" s="6"/>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" hidden="1" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -21734,7 +21749,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" hidden="1" spans="1:5">
       <c r="A460" s="1">
         <v>0</v>
       </c>
@@ -21811,7 +21826,7 @@
       </c>
       <c r="E465" s="6"/>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" hidden="1" spans="1:4">
       <c r="A466" s="1">
         <v>0</v>
       </c>
@@ -21825,7 +21840,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" hidden="1" spans="1:4">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -21851,7 +21866,7 @@
       </c>
       <c r="E468" s="6"/>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" ht="48" hidden="1" spans="1:4">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -21865,7 +21880,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" hidden="1" spans="1:4">
       <c r="A470" s="1">
         <v>0</v>
       </c>
@@ -21879,7 +21894,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" hidden="1" spans="1:5">
       <c r="A471" s="1">
         <v>0</v>
       </c>
@@ -21908,7 +21923,7 @@
       </c>
       <c r="E472" s="6"/>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" hidden="1" spans="1:4">
       <c r="A473" s="1">
         <v>0</v>
       </c>
@@ -21994,7 +22009,7 @@
       </c>
       <c r="E479" s="6"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" ht="48" hidden="1" spans="1:5">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -22009,7 +22024,7 @@
       </c>
       <c r="E480" s="6"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" hidden="1" spans="1:5">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -22024,7 +22039,7 @@
       </c>
       <c r="E481" s="6"/>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" hidden="1" spans="1:4">
       <c r="A482" s="1">
         <v>0</v>
       </c>
@@ -22038,7 +22053,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" hidden="1" spans="1:5">
       <c r="A483" s="1">
         <v>0</v>
       </c>
@@ -22053,7 +22068,7 @@
       </c>
       <c r="E483" s="6"/>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" hidden="1" spans="1:4">
       <c r="A484" s="1">
         <v>0</v>
       </c>
@@ -22067,7 +22082,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" hidden="1" spans="1:4">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -22081,7 +22096,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" hidden="1" spans="1:5">
       <c r="A486" s="1">
         <v>0</v>
       </c>
@@ -22158,7 +22173,7 @@
       </c>
       <c r="E491" s="6"/>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" hidden="1" spans="1:4">
       <c r="A492" s="1">
         <v>0</v>
       </c>
@@ -22196,7 +22211,7 @@
       </c>
       <c r="E494" s="6"/>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" hidden="1" spans="1:4">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -22234,7 +22249,7 @@
       </c>
       <c r="E497" s="6"/>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" hidden="1" spans="1:4">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -22248,7 +22263,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" hidden="1" spans="1:4">
       <c r="A499" s="1">
         <v>0</v>
       </c>
@@ -22274,7 +22289,7 @@
       </c>
       <c r="E500" s="6"/>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" hidden="1" spans="1:5">
       <c r="A501" s="1">
         <v>0</v>
       </c>
@@ -22305,7 +22320,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1592</v>
@@ -22329,7 +22344,7 @@
       </c>
       <c r="E504" s="6"/>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" hidden="1" spans="1:4">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -22343,7 +22358,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" hidden="1" spans="1:4">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -22407,7 +22422,7 @@
       </c>
       <c r="E510" s="6"/>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" hidden="1" spans="1:5">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -22448,7 +22463,7 @@
       </c>
       <c r="E513" s="6"/>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" hidden="1" spans="1:5">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -22489,7 +22504,7 @@
       </c>
       <c r="E516" s="6"/>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" hidden="1" spans="1:4">
       <c r="A517" s="1">
         <v>0</v>
       </c>
@@ -22503,7 +22518,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" hidden="1" spans="1:4">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -22565,7 +22580,7 @@
       </c>
       <c r="E522" s="6"/>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" hidden="1" spans="1:4">
       <c r="A523" s="1">
         <v>0</v>
       </c>
@@ -22579,7 +22594,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" hidden="1" spans="1:4">
       <c r="A524" s="1">
         <v>0</v>
       </c>
@@ -22593,7 +22608,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" hidden="1" spans="1:5">
       <c r="A525" s="1">
         <v>0</v>
       </c>
@@ -22610,7 +22625,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" hidden="1" spans="1:4">
       <c r="A526" s="1">
         <v>0</v>
       </c>
@@ -22624,7 +22639,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" hidden="1" spans="1:4">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -22638,7 +22653,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" ht="48" hidden="1" spans="1:4">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -22664,7 +22679,7 @@
       </c>
       <c r="E529" s="6"/>
     </row>
-    <row r="530" hidden="1" spans="2:5">
+    <row r="530" ht="48" hidden="1" spans="2:5">
       <c r="B530" s="1" t="s">
         <v>1677</v>
       </c>
@@ -22678,7 +22693,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" hidden="1" spans="1:4">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -22692,7 +22707,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" hidden="1" spans="1:4">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -22730,7 +22745,7 @@
       </c>
       <c r="E534" s="6"/>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" hidden="1" spans="1:4">
       <c r="A535" s="1">
         <v>0</v>
       </c>
@@ -22756,7 +22771,7 @@
       </c>
       <c r="E536" s="6"/>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" hidden="1" spans="1:4">
       <c r="A537" s="1">
         <v>0</v>
       </c>
@@ -22770,7 +22785,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" hidden="1" spans="1:5">
       <c r="A538" s="1">
         <v>0</v>
       </c>
@@ -22823,7 +22838,7 @@
       </c>
       <c r="E541" s="6"/>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" hidden="1" spans="1:4">
       <c r="A542" s="1">
         <v>0</v>
       </c>
@@ -22837,7 +22852,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" hidden="1" spans="1:4">
       <c r="A543" s="1">
         <v>0</v>
       </c>
@@ -22851,7 +22866,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" hidden="1" spans="1:4">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -22865,7 +22880,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" hidden="1" spans="1:4">
       <c r="A545" s="1">
         <v>0</v>
       </c>
@@ -22879,7 +22894,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" hidden="1" spans="1:4">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -22893,7 +22908,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" hidden="1" spans="1:4">
       <c r="A547" s="1">
         <v>0</v>
       </c>
@@ -22907,7 +22922,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" hidden="1" spans="1:4">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -22957,7 +22972,7 @@
       </c>
       <c r="E551" s="6"/>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" hidden="1" spans="1:4">
       <c r="A552" s="1">
         <v>0</v>
       </c>
@@ -22983,7 +22998,7 @@
       </c>
       <c r="E553" s="6"/>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" hidden="1" spans="1:5">
       <c r="A554" s="1">
         <v>0</v>
       </c>
@@ -23012,7 +23027,7 @@
       </c>
       <c r="E555" s="6"/>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" hidden="1" spans="1:4">
       <c r="A556" s="1">
         <v>0</v>
       </c>
@@ -23026,7 +23041,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" hidden="1" spans="1:5">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -23043,7 +23058,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" hidden="1" spans="1:4">
       <c r="A558" s="1">
         <v>0</v>
       </c>
@@ -23057,7 +23072,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" hidden="1" spans="1:4">
       <c r="A559" s="1">
         <v>0</v>
       </c>
@@ -23095,7 +23110,7 @@
       </c>
       <c r="E561" s="6"/>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" hidden="1" spans="1:4">
       <c r="A562" s="1">
         <v>0</v>
       </c>
@@ -23133,7 +23148,7 @@
       </c>
       <c r="E564" s="6"/>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" hidden="1" spans="1:4">
       <c r="A565" s="1">
         <v>0</v>
       </c>
@@ -23159,7 +23174,7 @@
       </c>
       <c r="E566" s="6"/>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" ht="48" hidden="1" spans="1:4">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -23197,7 +23212,7 @@
       </c>
       <c r="E569" s="6"/>
     </row>
-    <row r="570" ht="37.5" spans="1:5">
+    <row r="570" ht="48" hidden="1" spans="1:5">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -23214,7 +23229,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" hidden="1" spans="1:5">
       <c r="A571" s="1">
         <v>0</v>
       </c>
@@ -23231,7 +23246,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" hidden="1" spans="1:4">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -23245,7 +23260,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" hidden="1" spans="1:4">
       <c r="A573" s="1">
         <v>0</v>
       </c>
@@ -23259,7 +23274,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="2:5">
+    <row r="574" ht="48" hidden="1" spans="2:5">
       <c r="B574" s="1" t="s">
         <v>1815</v>
       </c>
@@ -23309,7 +23324,7 @@
       </c>
       <c r="E577" s="6"/>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" hidden="1" spans="1:5">
       <c r="A578" s="1">
         <v>0</v>
       </c>
@@ -23326,7 +23341,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="579" ht="37.5" hidden="1" spans="2:5">
+    <row r="579" ht="48" hidden="1" spans="2:5">
       <c r="B579" s="1" t="s">
         <v>1832</v>
       </c>
@@ -23366,7 +23381,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" hidden="1" spans="1:4">
       <c r="A582" s="1">
         <v>0</v>
       </c>
@@ -23452,7 +23467,7 @@
       </c>
       <c r="E588" s="6"/>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" hidden="1" spans="1:4">
       <c r="A589" s="1">
         <v>0</v>
       </c>
@@ -23466,7 +23481,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" hidden="1" spans="1:4">
       <c r="A590" s="1">
         <v>0</v>
       </c>
@@ -23530,7 +23545,7 @@
       </c>
       <c r="E594" s="6"/>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" hidden="1" spans="1:4">
       <c r="A595" s="1">
         <v>0</v>
       </c>
@@ -23580,7 +23595,7 @@
       </c>
       <c r="E598" s="6"/>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" hidden="1" spans="1:4">
       <c r="A599" s="1">
         <v>0</v>
       </c>
@@ -23594,7 +23609,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" hidden="1" spans="1:4">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -23608,7 +23623,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" hidden="1" spans="1:5">
       <c r="A601" s="1">
         <v>0</v>
       </c>
@@ -23635,7 +23650,7 @@
       </c>
       <c r="E602" s="6"/>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" hidden="1" spans="1:5">
       <c r="A603" s="1">
         <v>0</v>
       </c>
@@ -23652,7 +23667,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" hidden="1" spans="1:5">
       <c r="A604" s="1">
         <v>0</v>
       </c>
@@ -23667,7 +23682,7 @@
       </c>
       <c r="E604" s="6"/>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" hidden="1" spans="1:4">
       <c r="A605" s="1">
         <v>0</v>
       </c>
@@ -23741,7 +23756,7 @@
       </c>
       <c r="E610" s="6"/>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" hidden="1" spans="1:4">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -23755,7 +23770,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" hidden="1" spans="1:5">
       <c r="A612" s="1">
         <v>0</v>
       </c>
@@ -23772,7 +23787,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" hidden="1" spans="1:4">
       <c r="A613" s="1">
         <v>0</v>
       </c>
@@ -23798,7 +23813,7 @@
       </c>
       <c r="E614" s="6"/>
     </row>
-    <row r="615" ht="37.5" hidden="1" spans="2:5">
+    <row r="615" ht="48" hidden="1" spans="2:5">
       <c r="B615" s="1" t="s">
         <v>1943</v>
       </c>
@@ -23810,7 +23825,7 @@
       </c>
       <c r="E615" s="6"/>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" hidden="1" spans="1:5">
       <c r="A616" s="1">
         <v>0</v>
       </c>
@@ -23825,7 +23840,7 @@
       </c>
       <c r="E616" s="6"/>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" hidden="1" spans="1:4">
       <c r="A617" s="1">
         <v>0</v>
       </c>
@@ -23839,7 +23854,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" hidden="1" spans="1:5">
       <c r="A618" s="1">
         <v>0</v>
       </c>
@@ -23854,7 +23869,7 @@
       </c>
       <c r="E618" s="6"/>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" hidden="1" spans="1:4">
       <c r="A619" s="1">
         <v>0</v>
       </c>
@@ -23868,7 +23883,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="620" hidden="1" spans="2:5">
+    <row r="620" ht="48" hidden="1" spans="2:5">
       <c r="B620" s="1" t="s">
         <v>1958</v>
       </c>
@@ -23880,7 +23895,7 @@
       </c>
       <c r="E620" s="6"/>
     </row>
-    <row r="621" ht="37.5" spans="1:5">
+    <row r="621" ht="72" hidden="1" spans="1:5">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -23945,7 +23960,7 @@
       </c>
       <c r="E625" s="6"/>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" ht="48" hidden="1" spans="1:5">
       <c r="A626" s="1">
         <v>0</v>
       </c>
@@ -23972,7 +23987,7 @@
       </c>
       <c r="E627" s="6"/>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" hidden="1" spans="1:4">
       <c r="A628" s="1">
         <v>0</v>
       </c>
@@ -23998,7 +24013,7 @@
       </c>
       <c r="E629" s="6"/>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" hidden="1" spans="1:5">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -24051,7 +24066,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" hidden="1" spans="1:4">
       <c r="A634" s="1">
         <v>0</v>
       </c>
@@ -24077,7 +24092,7 @@
       </c>
       <c r="E635" s="6"/>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" hidden="1" spans="1:4">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -24103,7 +24118,7 @@
       </c>
       <c r="E637" s="6"/>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" hidden="1" spans="1:4">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -24117,7 +24132,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="639" ht="112.5" spans="1:5">
+    <row r="639" ht="143" hidden="1" spans="1:5">
       <c r="A639" s="1">
         <v>0</v>
       </c>
@@ -24146,7 +24161,7 @@
       </c>
       <c r="E640" s="6"/>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" hidden="1" spans="1:5">
       <c r="A641" s="1">
         <v>0</v>
       </c>
@@ -24185,7 +24200,7 @@
       </c>
       <c r="E643" s="6"/>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" hidden="1" spans="1:5">
       <c r="A644" s="1">
         <v>0</v>
       </c>
@@ -24236,7 +24251,7 @@
       </c>
       <c r="E647" s="6"/>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" hidden="1" spans="1:5">
       <c r="A648" s="1">
         <v>0</v>
       </c>
@@ -24251,7 +24266,7 @@
       </c>
       <c r="E648" s="6"/>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" hidden="1" spans="1:5">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -24358,7 +24373,7 @@
       </c>
       <c r="E656" s="6"/>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" hidden="1" spans="1:5">
       <c r="A657" s="1">
         <v>0</v>
       </c>
@@ -24385,7 +24400,7 @@
       </c>
       <c r="E658" s="6"/>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" hidden="1" spans="1:4">
       <c r="A659" s="1">
         <v>0</v>
       </c>
@@ -24399,7 +24414,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" hidden="1" spans="1:5">
       <c r="A660" s="1">
         <v>0</v>
       </c>
@@ -24438,7 +24453,7 @@
       </c>
       <c r="E662" s="6"/>
     </row>
-    <row r="663" ht="37.5" hidden="1" spans="2:5">
+    <row r="663" ht="62" hidden="1" spans="2:5">
       <c r="B663" s="1" t="s">
         <v>2092</v>
       </c>
@@ -24516,7 +24531,7 @@
       </c>
       <c r="E668" s="6"/>
     </row>
-    <row r="669" ht="37.5" hidden="1" spans="2:5">
+    <row r="669" ht="38" hidden="1" spans="2:5">
       <c r="B669" s="1" t="s">
         <v>2113</v>
       </c>
@@ -24542,9 +24557,9 @@
       </c>
       <c r="E670" s="6"/>
     </row>
-    <row r="671" ht="75" spans="1:5">
+    <row r="671" ht="96" hidden="1" spans="1:5">
       <c r="A671" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>2120</v>
@@ -24583,7 +24598,7 @@
       </c>
       <c r="E673" s="6"/>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" hidden="1" spans="1:5">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -24610,9 +24625,9 @@
       </c>
       <c r="E675" s="6"/>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" hidden="1" spans="1:4">
       <c r="A676" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>2136</v>
@@ -24638,7 +24653,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" hidden="1" spans="1:5">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -24715,7 +24730,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" hidden="1" spans="1:5">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -24730,7 +24745,7 @@
       </c>
       <c r="E684" s="6"/>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" hidden="1" spans="1:5">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -24747,7 +24762,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" hidden="1" spans="1:5">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -24786,7 +24801,7 @@
       </c>
       <c r="E688" s="6"/>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" ht="48" hidden="1" spans="1:4">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -24800,7 +24815,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" hidden="1" spans="1:5">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -24815,7 +24830,7 @@
       </c>
       <c r="E690" s="6"/>
     </row>
-    <row r="691" hidden="1" spans="2:5">
+    <row r="691" ht="48" hidden="1" spans="2:5">
       <c r="B691" s="1" t="s">
         <v>2184</v>
       </c>
@@ -24827,7 +24842,7 @@
       </c>
       <c r="E691" s="6"/>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" hidden="1" spans="1:5">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -24854,7 +24869,7 @@
       </c>
       <c r="E693" s="6"/>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" hidden="1" spans="1:5">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -24871,7 +24886,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" hidden="1" spans="1:5">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -24912,7 +24927,7 @@
       </c>
       <c r="E697" s="6"/>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" hidden="1" spans="1:5">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -24939,7 +24954,7 @@
       </c>
       <c r="E699" s="6"/>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" hidden="1" spans="1:4">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -24953,7 +24968,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" hidden="1" spans="1:4">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -24967,7 +24982,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" hidden="1" spans="1:4">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -25007,7 +25022,7 @@
       </c>
       <c r="E704" s="6"/>
     </row>
-    <row r="705" hidden="1" spans="2:5">
+    <row r="705" ht="48" hidden="1" spans="2:5">
       <c r="B705" s="1" t="s">
         <v>2229</v>
       </c>
@@ -25019,7 +25034,7 @@
       </c>
       <c r="E705" s="6"/>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" hidden="1" spans="1:4">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -25059,7 +25074,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" hidden="1" spans="1:4">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -25101,7 +25116,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="712" ht="93.75" spans="1:5">
+    <row r="712" ht="120" hidden="1" spans="1:5">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -25130,7 +25145,7 @@
       </c>
       <c r="E713" s="6"/>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" hidden="1" spans="1:5">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -25147,7 +25162,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" hidden="1" spans="1:4">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -25161,7 +25176,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" hidden="1" spans="1:4">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -25175,7 +25190,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" hidden="1" spans="1:4">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -25191,7 +25206,7 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2273</v>
@@ -25242,7 +25257,7 @@
       </c>
       <c r="E721" s="6"/>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" hidden="1" spans="1:4">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -25280,7 +25295,7 @@
       </c>
       <c r="E724" s="6"/>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" hidden="1" spans="1:5">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -25333,7 +25348,7 @@
       </c>
       <c r="E728" s="6"/>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" hidden="1" spans="1:4">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -25371,7 +25386,7 @@
       </c>
       <c r="E731" s="6"/>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" hidden="1" spans="1:4">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -25385,9 +25400,9 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" hidden="1" spans="1:4">
       <c r="A733" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>2320</v>
@@ -25411,7 +25426,7 @@
       </c>
       <c r="E734" s="6"/>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" hidden="1" spans="1:4">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -25437,7 +25452,7 @@
       </c>
       <c r="E736" s="6"/>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" hidden="1" spans="1:4">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -25525,9 +25540,9 @@
       </c>
       <c r="E743" s="6"/>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" hidden="1" spans="1:4">
       <c r="A744" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>2354</v>
@@ -25587,7 +25602,7 @@
       </c>
       <c r="E748" s="6"/>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" hidden="1" spans="1:4">
       <c r="A749" s="1">
         <v>0</v>
       </c>
@@ -25613,7 +25628,7 @@
       </c>
       <c r="E750" s="6"/>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" hidden="1" spans="1:4">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -25651,7 +25666,7 @@
       </c>
       <c r="E753" s="6"/>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" hidden="1" spans="1:4">
       <c r="A754" s="1">
         <v>0</v>
       </c>
@@ -25761,7 +25776,7 @@
       </c>
       <c r="E762" s="6"/>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" hidden="1" spans="1:4">
       <c r="A763" s="1">
         <v>0</v>
       </c>
@@ -25775,7 +25790,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" hidden="1" spans="1:4">
       <c r="A764" s="1">
         <v>0</v>
       </c>
@@ -25789,7 +25804,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" hidden="1" spans="1:4">
       <c r="A765" s="1">
         <v>0</v>
       </c>
@@ -25815,7 +25830,7 @@
       </c>
       <c r="E766" s="6"/>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" hidden="1" spans="1:4">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -25829,7 +25844,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" hidden="1" spans="1:4">
       <c r="A768" s="1">
         <v>0</v>
       </c>
@@ -25867,9 +25882,9 @@
       </c>
       <c r="E770" s="6"/>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" hidden="1" spans="1:4">
       <c r="A771" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2434</v>
@@ -25905,7 +25920,7 @@
       </c>
       <c r="E773" s="6"/>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" hidden="1" spans="1:4">
       <c r="A774" s="1">
         <v>0</v>
       </c>
@@ -26003,7 +26018,7 @@
       </c>
       <c r="E781" s="6"/>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" hidden="1" spans="1:4">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -26029,7 +26044,7 @@
       </c>
       <c r="E783" s="6"/>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" hidden="1" spans="1:4">
       <c r="A784" s="1">
         <v>0</v>
       </c>
@@ -26043,7 +26058,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="2:5">
+    <row r="785" ht="48" hidden="1" spans="2:5">
       <c r="B785" s="1" t="s">
         <v>2476</v>
       </c>
@@ -26067,7 +26082,7 @@
       </c>
       <c r="E786" s="6"/>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" hidden="1" spans="1:5">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -26146,7 +26161,7 @@
       </c>
       <c r="E792" s="6"/>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" hidden="1" spans="1:4">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -26184,7 +26199,7 @@
       </c>
       <c r="E795" s="6"/>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" hidden="1" spans="1:5">
       <c r="A796" s="1">
         <v>0</v>
       </c>
@@ -26297,9 +26312,9 @@
       </c>
       <c r="E804" s="6"/>
     </row>
-    <row r="805" spans="1:4">
+    <row r="805" hidden="1" spans="1:4">
       <c r="A805" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>2539</v>
@@ -26335,7 +26350,7 @@
       </c>
       <c r="E807" s="6"/>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" hidden="1" spans="1:5">
       <c r="A808" s="1">
         <v>0</v>
       </c>
@@ -26388,7 +26403,7 @@
       </c>
       <c r="E811" s="6"/>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" hidden="1" spans="1:4">
       <c r="A812" s="1">
         <v>0</v>
       </c>
@@ -26426,7 +26441,7 @@
       </c>
       <c r="E814" s="6"/>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" hidden="1" spans="1:5">
       <c r="A815" s="1">
         <v>0</v>
       </c>
@@ -26501,7 +26516,7 @@
       </c>
       <c r="E820" s="6"/>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" hidden="1" spans="1:5">
       <c r="A821" s="1">
         <v>0</v>
       </c>
@@ -26516,7 +26531,7 @@
       </c>
       <c r="E821" s="6"/>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" hidden="1" spans="1:5">
       <c r="A822" s="1">
         <v>0</v>
       </c>
@@ -26543,7 +26558,7 @@
       </c>
       <c r="E823" s="6"/>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" hidden="1" spans="1:5">
       <c r="A824" s="1">
         <v>0</v>
       </c>
@@ -26558,7 +26573,7 @@
       </c>
       <c r="E824" s="6"/>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" hidden="1" spans="1:4">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -26596,7 +26611,7 @@
       </c>
       <c r="E827" s="6"/>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" hidden="1" spans="1:5">
       <c r="A828" s="1">
         <v>0</v>
       </c>
@@ -26613,7 +26628,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" hidden="1" spans="1:5">
       <c r="A829" s="1">
         <v>0</v>
       </c>
@@ -26628,7 +26643,7 @@
       </c>
       <c r="E829" s="6"/>
     </row>
-    <row r="830" spans="1:4">
+    <row r="830" hidden="1" spans="1:4">
       <c r="A830" s="1">
         <v>0</v>
       </c>
@@ -26654,9 +26669,9 @@
       </c>
       <c r="E831" s="6"/>
     </row>
-    <row r="832" spans="1:4">
+    <row r="832" hidden="1" spans="1:4">
       <c r="A832" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>2622</v>
@@ -26680,7 +26695,7 @@
       </c>
       <c r="E833" s="6"/>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" hidden="1" spans="1:5">
       <c r="A834" s="1">
         <v>0</v>
       </c>
@@ -26719,7 +26734,7 @@
       </c>
       <c r="E836" s="6"/>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" hidden="1" spans="1:4">
       <c r="A837" s="1">
         <v>0</v>
       </c>
@@ -26757,7 +26772,7 @@
       </c>
       <c r="E839" s="6"/>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" hidden="1" spans="1:5">
       <c r="A840" s="1">
         <v>0</v>
       </c>
@@ -26820,7 +26835,7 @@
       </c>
       <c r="E844" s="6"/>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" hidden="1" spans="1:5">
       <c r="A845" s="1">
         <v>0</v>
       </c>
@@ -26835,7 +26850,7 @@
       </c>
       <c r="E845" s="6"/>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" hidden="1" spans="1:5">
       <c r="A846" s="1">
         <v>0</v>
       </c>
@@ -26910,7 +26925,7 @@
       </c>
       <c r="E851" s="6"/>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" hidden="1" spans="1:5">
       <c r="A852" s="1">
         <v>0</v>
       </c>
@@ -26927,7 +26942,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" hidden="1" spans="1:5">
       <c r="A853" s="1">
         <v>0</v>
       </c>
@@ -27026,7 +27041,7 @@
       </c>
       <c r="E860" s="6"/>
     </row>
-    <row r="861" hidden="1" spans="2:5">
+    <row r="861" ht="48" hidden="1" spans="2:5">
       <c r="B861" s="1" t="s">
         <v>2710</v>
       </c>
@@ -27086,7 +27101,7 @@
       </c>
       <c r="E865" s="6"/>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" hidden="1" spans="1:5">
       <c r="A866" s="1">
         <v>0</v>
       </c>
@@ -27113,7 +27128,7 @@
       </c>
       <c r="E867" s="6"/>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" hidden="1" spans="1:5">
       <c r="A868" s="1">
         <v>0</v>
       </c>
@@ -27128,7 +27143,7 @@
       </c>
       <c r="E868" s="6"/>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" hidden="1" spans="1:4">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -27142,7 +27157,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" hidden="1" spans="1:4">
       <c r="A870" s="1">
         <v>0</v>
       </c>
@@ -27192,7 +27207,7 @@
       </c>
       <c r="E873" s="6"/>
     </row>
-    <row r="874" hidden="1" spans="2:5">
+    <row r="874" ht="48" hidden="1" spans="2:5">
       <c r="B874" s="1" t="s">
         <v>2749</v>
       </c>
@@ -27204,7 +27219,7 @@
       </c>
       <c r="E874" s="6"/>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" hidden="1" spans="1:5">
       <c r="A875" s="1">
         <v>0</v>
       </c>
@@ -27267,7 +27282,7 @@
       </c>
       <c r="E879" s="6"/>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" hidden="1" spans="1:5">
       <c r="A880" s="1">
         <v>0</v>
       </c>
@@ -27282,7 +27297,7 @@
       </c>
       <c r="E880" s="6"/>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" hidden="1" spans="1:5">
       <c r="A881" s="1">
         <v>0</v>
       </c>
@@ -27297,7 +27312,7 @@
       </c>
       <c r="E881" s="6"/>
     </row>
-    <row r="882" spans="1:4">
+    <row r="882" hidden="1" spans="1:4">
       <c r="A882" s="1">
         <v>0</v>
       </c>
@@ -27335,9 +27350,9 @@
       </c>
       <c r="E884" s="6"/>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" hidden="1" spans="1:5">
       <c r="A885" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>2781</v>
@@ -27400,7 +27415,7 @@
       </c>
       <c r="E889" s="6"/>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" hidden="1" spans="1:4">
       <c r="A890" s="1">
         <v>0</v>
       </c>
@@ -27510,7 +27525,7 @@
       </c>
       <c r="E898" s="6"/>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" hidden="1" spans="1:5">
       <c r="A899" s="1">
         <v>0</v>
       </c>
@@ -27561,7 +27576,7 @@
       </c>
       <c r="E902" s="6"/>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" hidden="1" spans="1:5">
       <c r="A903" s="1">
         <v>0</v>
       </c>
@@ -27708,7 +27723,7 @@
       </c>
       <c r="E914" s="6"/>
     </row>
-    <row r="915" spans="1:5">
+    <row r="915" hidden="1" spans="1:5">
       <c r="A915" s="1">
         <v>0</v>
       </c>
@@ -27725,7 +27740,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="916" spans="1:5">
+    <row r="916" hidden="1" spans="1:5">
       <c r="A916" s="1">
         <v>0</v>
       </c>
@@ -27812,7 +27827,7 @@
       </c>
       <c r="E922" s="6"/>
     </row>
-    <row r="923" spans="1:5">
+    <row r="923" hidden="1" spans="1:5">
       <c r="A923" s="1">
         <v>0</v>
       </c>
@@ -27851,7 +27866,7 @@
       </c>
       <c r="E925" s="6"/>
     </row>
-    <row r="926" spans="1:4">
+    <row r="926" hidden="1" spans="1:4">
       <c r="A926" s="1">
         <v>0</v>
       </c>
@@ -27865,7 +27880,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="927" spans="1:5">
+    <row r="927" hidden="1" spans="1:5">
       <c r="A927" s="1">
         <v>0</v>
       </c>
@@ -27880,7 +27895,7 @@
       </c>
       <c r="E927" s="6"/>
     </row>
-    <row r="928" spans="1:4">
+    <row r="928" hidden="1" spans="1:4">
       <c r="A928" s="1">
         <v>0</v>
       </c>
@@ -27942,7 +27957,7 @@
       </c>
       <c r="E932" s="6"/>
     </row>
-    <row r="933" spans="1:5">
+    <row r="933" hidden="1" spans="1:5">
       <c r="A933" s="1">
         <v>0</v>
       </c>
@@ -27959,7 +27974,7 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B934" s="1" t="s">
         <v>2930</v>
@@ -27971,7 +27986,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="935" ht="37.5" spans="1:5">
+    <row r="935" ht="48" hidden="1" spans="1:5">
       <c r="A935" s="1">
         <v>0</v>
       </c>
@@ -27998,7 +28013,7 @@
       </c>
       <c r="E936" s="6"/>
     </row>
-    <row r="937" spans="1:5">
+    <row r="937" hidden="1" spans="1:5">
       <c r="A937" s="1">
         <v>0</v>
       </c>
@@ -28015,7 +28030,7 @@
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B938" s="1" t="s">
         <v>2942</v>
@@ -28063,7 +28078,7 @@
       </c>
       <c r="E941" s="6"/>
     </row>
-    <row r="942" spans="1:5">
+    <row r="942" hidden="1" spans="1:5">
       <c r="A942" s="1">
         <v>0</v>
       </c>
@@ -28090,9 +28105,9 @@
       </c>
       <c r="E943" s="6"/>
     </row>
-    <row r="944" spans="1:5">
+    <row r="944" hidden="1" spans="1:5">
       <c r="A944" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B944" s="1" t="s">
         <v>2960</v>
@@ -28107,7 +28122,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="945" spans="1:5">
+    <row r="945" hidden="1" spans="1:5">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -28122,7 +28137,7 @@
       </c>
       <c r="E945" s="6"/>
     </row>
-    <row r="946" spans="1:5">
+    <row r="946" hidden="1" spans="1:5">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -28137,7 +28152,7 @@
       </c>
       <c r="E946" s="6"/>
     </row>
-    <row r="947" spans="1:5">
+    <row r="947" hidden="1" spans="1:5">
       <c r="A947" s="1">
         <v>0</v>
       </c>
@@ -28212,7 +28227,7 @@
       </c>
       <c r="E952" s="6"/>
     </row>
-    <row r="953" spans="1:5">
+    <row r="953" hidden="1" spans="1:5">
       <c r="A953" s="1">
         <v>0</v>
       </c>
@@ -28227,7 +28242,7 @@
       </c>
       <c r="E953" s="6"/>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" hidden="1" spans="1:5">
       <c r="A954" s="1">
         <v>0</v>
       </c>
@@ -28254,7 +28269,7 @@
       </c>
       <c r="E955" s="6"/>
     </row>
-    <row r="956" spans="1:5">
+    <row r="956" hidden="1" spans="1:5">
       <c r="A956" s="1">
         <v>0</v>
       </c>
@@ -28281,7 +28296,7 @@
       </c>
       <c r="E957" s="6"/>
     </row>
-    <row r="958" spans="1:5">
+    <row r="958" hidden="1" spans="1:5">
       <c r="A958" s="1">
         <v>0</v>
       </c>
@@ -28356,7 +28371,7 @@
       </c>
       <c r="E963" s="6"/>
     </row>
-    <row r="964" spans="1:5">
+    <row r="964" hidden="1" spans="1:5">
       <c r="A964" s="1">
         <v>0</v>
       </c>
@@ -28371,7 +28386,7 @@
       </c>
       <c r="E964" s="6"/>
     </row>
-    <row r="965" spans="1:5">
+    <row r="965" ht="48" hidden="1" spans="1:5">
       <c r="A965" s="1">
         <v>0</v>
       </c>
@@ -28386,7 +28401,7 @@
       </c>
       <c r="E965" s="6"/>
     </row>
-    <row r="966" spans="1:5">
+    <row r="966" hidden="1" spans="1:5">
       <c r="A966" s="1">
         <v>0</v>
       </c>
@@ -28499,7 +28514,7 @@
     </row>
     <row r="975" spans="1:4">
       <c r="A975" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>3054</v>
@@ -28523,7 +28538,7 @@
       </c>
       <c r="E976" s="6"/>
     </row>
-    <row r="977" hidden="1" spans="2:5">
+    <row r="977" ht="48" hidden="1" spans="2:5">
       <c r="B977" s="1" t="s">
         <v>3060</v>
       </c>
@@ -28571,7 +28586,7 @@
       </c>
       <c r="E980" s="6"/>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" hidden="1" spans="1:5">
       <c r="A981" s="1">
         <v>0</v>
       </c>
@@ -28586,7 +28601,7 @@
       </c>
       <c r="E981" s="6"/>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" hidden="1" spans="1:5">
       <c r="A982" s="1">
         <v>0</v>
       </c>
@@ -28625,7 +28640,7 @@
       </c>
       <c r="E984" s="6"/>
     </row>
-    <row r="985" spans="1:4">
+    <row r="985" hidden="1" spans="1:4">
       <c r="A985" s="1">
         <v>0</v>
       </c>
@@ -28687,7 +28702,7 @@
       </c>
       <c r="E989" s="6"/>
     </row>
-    <row r="990" spans="1:5">
+    <row r="990" hidden="1" spans="1:5">
       <c r="A990" s="1">
         <v>0</v>
       </c>
@@ -28714,7 +28729,7 @@
       </c>
       <c r="E991" s="6"/>
     </row>
-    <row r="992" spans="1:5">
+    <row r="992" hidden="1" spans="1:5">
       <c r="A992" s="1">
         <v>0</v>
       </c>
@@ -28861,7 +28876,7 @@
       </c>
       <c r="E1003" s="6"/>
     </row>
-    <row r="1004" spans="1:4">
+    <row r="1004" ht="48" hidden="1" spans="1:4">
       <c r="A1004" s="1">
         <v>0</v>
       </c>
@@ -28911,7 +28926,7 @@
       </c>
       <c r="E1007" s="6"/>
     </row>
-    <row r="1008" spans="1:4">
+    <row r="1008" hidden="1" spans="1:4">
       <c r="A1008" s="1">
         <v>0</v>
       </c>
@@ -29009,7 +29024,7 @@
       </c>
       <c r="E1015" s="6"/>
     </row>
-    <row r="1016" ht="37.5" hidden="1" spans="2:5">
+    <row r="1016" ht="48" hidden="1" spans="2:5">
       <c r="B1016" s="1" t="s">
         <v>3177</v>
       </c>
@@ -29033,7 +29048,7 @@
       </c>
       <c r="E1017" s="6"/>
     </row>
-    <row r="1018" ht="37.5" spans="1:5">
+    <row r="1018" ht="48" hidden="1" spans="1:5">
       <c r="A1018" s="1">
         <v>0</v>
       </c>
@@ -29086,7 +29101,7 @@
       </c>
       <c r="E1021" s="6"/>
     </row>
-    <row r="1022" spans="1:4">
+    <row r="1022" hidden="1" spans="1:4">
       <c r="A1022" s="1">
         <v>0</v>
       </c>
@@ -29124,9 +29139,9 @@
       </c>
       <c r="E1024" s="6"/>
     </row>
-    <row r="1025" spans="1:4">
+    <row r="1025" hidden="1" spans="1:4">
       <c r="A1025" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1025" s="1" t="s">
         <v>3205</v>
@@ -29150,7 +29165,7 @@
       </c>
       <c r="E1026" s="6"/>
     </row>
-    <row r="1027" spans="1:5">
+    <row r="1027" hidden="1" spans="1:5">
       <c r="A1027" s="1">
         <v>0</v>
       </c>
@@ -29167,7 +29182,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="1028" spans="1:4">
+    <row r="1028" hidden="1" spans="1:4">
       <c r="A1028" s="1">
         <v>0</v>
       </c>
@@ -29195,7 +29210,7 @@
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1030" s="1" t="s">
         <v>3221</v>
@@ -29255,7 +29270,7 @@
       </c>
       <c r="E1034" s="6"/>
     </row>
-    <row r="1035" spans="1:4">
+    <row r="1035" hidden="1" spans="1:4">
       <c r="A1035" s="1">
         <v>0</v>
       </c>
@@ -29269,7 +29284,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="1036" spans="1:4">
+    <row r="1036" hidden="1" spans="1:4">
       <c r="A1036" s="1">
         <v>0</v>
       </c>
@@ -29283,7 +29298,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="1037" spans="1:4">
+    <row r="1037" hidden="1" spans="1:4">
       <c r="A1037" s="1">
         <v>0</v>
       </c>
@@ -29297,7 +29312,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="1038" spans="1:4">
+    <row r="1038" hidden="1" spans="1:4">
       <c r="A1038" s="1">
         <v>0</v>
       </c>
@@ -29383,9 +29398,9 @@
       </c>
       <c r="E1044" s="6"/>
     </row>
-    <row r="1045" spans="1:4">
+    <row r="1045" hidden="1" spans="1:4">
       <c r="A1045" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1045" s="1" t="s">
         <v>3266</v>
@@ -29445,7 +29460,7 @@
       </c>
       <c r="E1049" s="6"/>
     </row>
-    <row r="1050" spans="1:4">
+    <row r="1050" hidden="1" spans="1:4">
       <c r="A1050" s="1">
         <v>0</v>
       </c>
@@ -29459,7 +29474,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="1051" spans="1:4">
+    <row r="1051" hidden="1" spans="1:4">
       <c r="A1051" s="1">
         <v>0</v>
       </c>
@@ -29473,7 +29488,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="1052" spans="1:4">
+    <row r="1052" hidden="1" spans="1:4">
       <c r="A1052" s="1">
         <v>0</v>
       </c>
@@ -29501,9 +29516,9 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="1054" spans="1:4">
+    <row r="1054" hidden="1" spans="1:4">
       <c r="A1054" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1054" s="1" t="s">
         <v>3294</v>
@@ -29515,7 +29530,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="1055" spans="1:4">
+    <row r="1055" hidden="1" spans="1:4">
       <c r="A1055" s="1">
         <v>0</v>
       </c>
@@ -29577,7 +29592,7 @@
       </c>
       <c r="E1059" s="6"/>
     </row>
-    <row r="1060" spans="1:4">
+    <row r="1060" hidden="1" spans="1:4">
       <c r="A1060" s="1">
         <v>0</v>
       </c>
@@ -29711,7 +29726,7 @@
       </c>
       <c r="E1070" s="6"/>
     </row>
-    <row r="1071" spans="1:4">
+    <row r="1071" hidden="1" spans="1:4">
       <c r="A1071" s="1">
         <v>0</v>
       </c>
@@ -29737,7 +29752,7 @@
       </c>
       <c r="E1072" s="6"/>
     </row>
-    <row r="1073" spans="1:4">
+    <row r="1073" hidden="1" spans="1:4">
       <c r="A1073" s="1">
         <v>0</v>
       </c>
@@ -29751,7 +29766,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="1074" spans="1:4">
+    <row r="1074" hidden="1" spans="1:4">
       <c r="A1074" s="1">
         <v>0</v>
       </c>
@@ -29777,9 +29792,9 @@
       </c>
       <c r="E1075" s="6"/>
     </row>
-    <row r="1076" spans="1:5">
+    <row r="1076" hidden="1" spans="1:5">
       <c r="A1076" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1076" s="1" t="s">
         <v>3360</v>
@@ -29866,7 +29881,7 @@
       </c>
       <c r="E1082" s="6"/>
     </row>
-    <row r="1083" spans="1:4">
+    <row r="1083" hidden="1" spans="1:4">
       <c r="A1083" s="1">
         <v>0</v>
       </c>
@@ -29892,7 +29907,7 @@
       </c>
       <c r="E1084" s="6"/>
     </row>
-    <row r="1085" spans="1:5">
+    <row r="1085" hidden="1" spans="1:5">
       <c r="A1085" s="1">
         <v>0</v>
       </c>
@@ -29909,7 +29924,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="1086" spans="1:5">
+    <row r="1086" hidden="1" spans="1:5">
       <c r="A1086" s="1">
         <v>0</v>
       </c>
@@ -29926,7 +29941,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="1087" spans="1:4">
+    <row r="1087" hidden="1" spans="1:4">
       <c r="A1087" s="1">
         <v>0</v>
       </c>
@@ -29964,7 +29979,7 @@
       </c>
       <c r="E1089" s="6"/>
     </row>
-    <row r="1090" spans="1:4">
+    <row r="1090" hidden="1" spans="1:4">
       <c r="A1090" s="1">
         <v>0</v>
       </c>
@@ -29978,7 +29993,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="1091" spans="1:4">
+    <row r="1091" hidden="1" spans="1:4">
       <c r="A1091" s="1">
         <v>0</v>
       </c>
@@ -29992,7 +30007,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="1092" spans="1:4">
+    <row r="1092" hidden="1" spans="1:4">
       <c r="A1092" s="1">
         <v>0</v>
       </c>
@@ -30018,7 +30033,7 @@
       </c>
       <c r="E1093" s="6"/>
     </row>
-    <row r="1094" spans="1:4">
+    <row r="1094" hidden="1" spans="1:4">
       <c r="A1094" s="1">
         <v>0</v>
       </c>
@@ -30032,7 +30047,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1095" spans="1:4">
+    <row r="1095" hidden="1" spans="1:4">
       <c r="A1095" s="1">
         <v>0</v>
       </c>
@@ -30046,7 +30061,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="1096" spans="1:4">
+    <row r="1096" hidden="1" spans="1:4">
       <c r="A1096" s="1">
         <v>0</v>
       </c>
@@ -30084,7 +30099,7 @@
       </c>
       <c r="E1098" s="6"/>
     </row>
-    <row r="1099" spans="1:4">
+    <row r="1099" hidden="1" spans="1:4">
       <c r="A1099" s="1">
         <v>0</v>
       </c>
@@ -30098,7 +30113,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1100" spans="1:5">
+    <row r="1100" hidden="1" spans="1:5">
       <c r="A1100" s="1">
         <v>0</v>
       </c>
@@ -30115,9 +30130,9 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="1101" spans="1:5">
+    <row r="1101" hidden="1" spans="1:5">
       <c r="A1101" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1101" s="1" t="s">
         <v>3438</v>
@@ -30178,7 +30193,7 @@
       </c>
       <c r="E1105" s="6"/>
     </row>
-    <row r="1106" spans="1:5">
+    <row r="1106" hidden="1" spans="1:5">
       <c r="A1106" s="1">
         <v>0</v>
       </c>
@@ -30193,7 +30208,7 @@
       </c>
       <c r="E1106" s="6"/>
     </row>
-    <row r="1107" hidden="1" spans="2:5">
+    <row r="1107" ht="48" hidden="1" spans="2:5">
       <c r="B1107" s="1" t="s">
         <v>3456</v>
       </c>
@@ -30205,9 +30220,9 @@
       </c>
       <c r="E1107" s="6"/>
     </row>
-    <row r="1108" spans="1:5">
+    <row r="1108" ht="48" hidden="1" spans="1:5">
       <c r="A1108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1108" s="1" t="s">
         <v>3459</v>
@@ -30232,9 +30247,9 @@
       </c>
       <c r="E1109" s="6"/>
     </row>
-    <row r="1110" spans="1:5">
+    <row r="1110" hidden="1" spans="1:5">
       <c r="A1110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1110" s="1" t="s">
         <v>3465</v>
@@ -30247,7 +30262,7 @@
       </c>
       <c r="E1110" s="6"/>
     </row>
-    <row r="1111" spans="1:5">
+    <row r="1111" hidden="1" spans="1:5">
       <c r="A1111" s="1">
         <v>0</v>
       </c>
@@ -30298,9 +30313,9 @@
       </c>
       <c r="E1114" s="6"/>
     </row>
-    <row r="1115" ht="37.5" spans="1:5">
+    <row r="1115" ht="48" hidden="1" spans="1:5">
       <c r="A1115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1115" s="1" t="s">
         <v>3480</v>
@@ -30377,9 +30392,9 @@
       </c>
       <c r="E1120" s="6"/>
     </row>
-    <row r="1121" spans="1:5">
+    <row r="1121" hidden="1" spans="1:5">
       <c r="A1121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1121" s="1" t="s">
         <v>3499</v>
@@ -30416,7 +30431,7 @@
       </c>
       <c r="E1123" s="6"/>
     </row>
-    <row r="1124" hidden="1" spans="2:5">
+    <row r="1124" ht="48" hidden="1" spans="2:5">
       <c r="B1124" s="1" t="s">
         <v>3508</v>
       </c>
@@ -30428,7 +30443,7 @@
       </c>
       <c r="E1124" s="6"/>
     </row>
-    <row r="1125" spans="1:5">
+    <row r="1125" hidden="1" spans="1:5">
       <c r="A1125" s="1">
         <v>0</v>
       </c>
@@ -30443,7 +30458,7 @@
       </c>
       <c r="E1125" s="6"/>
     </row>
-    <row r="1126" spans="1:5">
+    <row r="1126" hidden="1" spans="1:5">
       <c r="A1126" s="1">
         <v>0</v>
       </c>
@@ -30482,7 +30497,7 @@
       </c>
       <c r="E1128" s="6"/>
     </row>
-    <row r="1129" hidden="1" spans="2:5">
+    <row r="1129" ht="48" hidden="1" spans="2:5">
       <c r="B1129" s="1" t="s">
         <v>3523</v>
       </c>
@@ -30494,7 +30509,7 @@
       </c>
       <c r="E1129" s="6"/>
     </row>
-    <row r="1130" spans="1:5">
+    <row r="1130" hidden="1" spans="1:5">
       <c r="A1130" s="1">
         <v>0</v>
       </c>
@@ -30546,7 +30561,7 @@
       </c>
       <c r="E1133" s="6"/>
     </row>
-    <row r="1134" spans="1:5">
+    <row r="1134" hidden="1" spans="1:5">
       <c r="A1134" s="1">
         <v>0</v>
       </c>
@@ -30585,7 +30600,7 @@
       </c>
       <c r="E1136" s="6"/>
     </row>
-    <row r="1137" spans="1:5">
+    <row r="1137" hidden="1" spans="1:5">
       <c r="A1137" s="1">
         <v>0</v>
       </c>
@@ -30600,7 +30615,7 @@
       </c>
       <c r="E1137" s="6"/>
     </row>
-    <row r="1138" spans="1:5">
+    <row r="1138" hidden="1" spans="1:5">
       <c r="A1138" s="1">
         <v>0</v>
       </c>
@@ -30615,7 +30630,7 @@
       </c>
       <c r="E1138" s="6"/>
     </row>
-    <row r="1139" spans="1:5">
+    <row r="1139" hidden="1" spans="1:5">
       <c r="A1139" s="1">
         <v>0</v>
       </c>
@@ -30666,7 +30681,7 @@
       </c>
       <c r="E1142" s="6"/>
     </row>
-    <row r="1143" spans="1:5">
+    <row r="1143" hidden="1" spans="1:5">
       <c r="A1143" s="1">
         <v>0</v>
       </c>
@@ -30717,7 +30732,7 @@
       </c>
       <c r="E1146" s="6"/>
     </row>
-    <row r="1147" spans="1:5">
+    <row r="1147" hidden="1" spans="1:5">
       <c r="A1147" s="1">
         <v>0</v>
       </c>
@@ -30732,7 +30747,7 @@
       </c>
       <c r="E1147" s="6"/>
     </row>
-    <row r="1148" spans="1:5">
+    <row r="1148" hidden="1" spans="1:5">
       <c r="A1148" s="1">
         <v>0</v>
       </c>
@@ -30747,7 +30762,7 @@
       </c>
       <c r="E1148" s="6"/>
     </row>
-    <row r="1149" spans="1:5">
+    <row r="1149" hidden="1" spans="1:5">
       <c r="A1149" s="1">
         <v>0</v>
       </c>
@@ -30762,7 +30777,7 @@
       </c>
       <c r="E1149" s="6"/>
     </row>
-    <row r="1150" spans="1:5">
+    <row r="1150" hidden="1" spans="1:5">
       <c r="A1150" s="1">
         <v>0</v>
       </c>
@@ -30801,7 +30816,7 @@
       </c>
       <c r="E1152" s="6"/>
     </row>
-    <row r="1153" spans="1:5">
+    <row r="1153" hidden="1" spans="1:5">
       <c r="A1153" s="1">
         <v>0</v>
       </c>
@@ -30840,7 +30855,7 @@
       </c>
       <c r="E1155" s="6"/>
     </row>
-    <row r="1156" spans="1:5">
+    <row r="1156" ht="48" hidden="1" spans="1:5">
       <c r="A1156" s="1">
         <v>0</v>
       </c>
@@ -30855,7 +30870,7 @@
       </c>
       <c r="E1156" s="6"/>
     </row>
-    <row r="1157" spans="1:5">
+    <row r="1157" ht="48" hidden="1" spans="1:5">
       <c r="A1157" s="1">
         <v>0</v>
       </c>
@@ -30966,9 +30981,9 @@
       </c>
       <c r="E1165" s="6"/>
     </row>
-    <row r="1166" spans="1:5">
+    <row r="1166" hidden="1" spans="1:5">
       <c r="A1166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1166" s="1" t="s">
         <v>3633</v>
@@ -30981,9 +30996,9 @@
       </c>
       <c r="E1166" s="6"/>
     </row>
-    <row r="1167" spans="1:5">
+    <row r="1167" hidden="1" spans="1:5">
       <c r="A1167" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1167" s="1" t="s">
         <v>3636</v>
@@ -30996,7 +31011,7 @@
       </c>
       <c r="E1167" s="6"/>
     </row>
-    <row r="1168" spans="1:5">
+    <row r="1168" hidden="1" spans="1:5">
       <c r="A1168" s="1">
         <v>0</v>
       </c>
@@ -31011,7 +31026,7 @@
       </c>
       <c r="E1168" s="6"/>
     </row>
-    <row r="1169" spans="1:5">
+    <row r="1169" hidden="1" spans="1:5">
       <c r="A1169" s="1">
         <v>0</v>
       </c>
@@ -31062,7 +31077,7 @@
       </c>
       <c r="E1172" s="6"/>
     </row>
-    <row r="1173" spans="1:5">
+    <row r="1173" hidden="1" spans="1:5">
       <c r="A1173" s="1">
         <v>0</v>
       </c>
@@ -31185,7 +31200,7 @@
       </c>
       <c r="E1182" s="6"/>
     </row>
-    <row r="1183" spans="1:5">
+    <row r="1183" hidden="1" spans="1:5">
       <c r="A1183" s="1">
         <v>0</v>
       </c>
@@ -31200,7 +31215,7 @@
       </c>
       <c r="E1183" s="6"/>
     </row>
-    <row r="1184" spans="1:5">
+    <row r="1184" hidden="1" spans="1:5">
       <c r="A1184" s="1">
         <v>0</v>
       </c>
@@ -31227,7 +31242,7 @@
       </c>
       <c r="E1185" s="6"/>
     </row>
-    <row r="1186" spans="1:5">
+    <row r="1186" hidden="1" spans="1:5">
       <c r="A1186" s="1">
         <v>0</v>
       </c>
@@ -31242,7 +31257,7 @@
       </c>
       <c r="E1186" s="6"/>
     </row>
-    <row r="1187" spans="1:5">
+    <row r="1187" hidden="1" spans="1:5">
       <c r="A1187" s="1">
         <v>0</v>
       </c>
@@ -31257,7 +31272,7 @@
       </c>
       <c r="E1187" s="6"/>
     </row>
-    <row r="1188" spans="1:5">
+    <row r="1188" hidden="1" spans="1:5">
       <c r="A1188" s="1">
         <v>0</v>
       </c>
@@ -31284,7 +31299,7 @@
       </c>
       <c r="E1189" s="6"/>
     </row>
-    <row r="1190" spans="1:5">
+    <row r="1190" hidden="1" spans="1:5">
       <c r="A1190" s="1">
         <v>0</v>
       </c>
@@ -31323,7 +31338,7 @@
       </c>
       <c r="E1192" s="6"/>
     </row>
-    <row r="1193" spans="1:5">
+    <row r="1193" hidden="1" spans="1:5">
       <c r="A1193" s="1">
         <v>0</v>
       </c>
@@ -31350,7 +31365,7 @@
       </c>
       <c r="E1194" s="6"/>
     </row>
-    <row r="1195" spans="1:5">
+    <row r="1195" hidden="1" spans="1:5">
       <c r="A1195" s="1">
         <v>0</v>
       </c>
@@ -31389,9 +31404,9 @@
       </c>
       <c r="E1197" s="6"/>
     </row>
-    <row r="1198" spans="1:5">
+    <row r="1198" hidden="1" spans="1:5">
       <c r="A1198" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1198" s="1" t="s">
         <v>3729</v>
@@ -31406,7 +31421,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="1199" spans="1:5">
+    <row r="1199" hidden="1" spans="1:5">
       <c r="A1199" s="1">
         <v>0</v>
       </c>
@@ -31435,7 +31450,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="1201" spans="1:5">
+    <row r="1201" hidden="1" spans="1:5">
       <c r="A1201" s="1">
         <v>0</v>
       </c>
@@ -31474,9 +31489,9 @@
       </c>
       <c r="E1203" s="6"/>
     </row>
-    <row r="1204" spans="1:5">
+    <row r="1204" hidden="1" spans="1:5">
       <c r="A1204" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1204" s="1" t="s">
         <v>3749</v>
@@ -31489,7 +31504,7 @@
       </c>
       <c r="E1204" s="6"/>
     </row>
-    <row r="1205" spans="1:5">
+    <row r="1205" hidden="1" spans="1:5">
       <c r="A1205" s="1">
         <v>0</v>
       </c>
@@ -31516,7 +31531,7 @@
       </c>
       <c r="E1206" s="6"/>
     </row>
-    <row r="1207" spans="1:5">
+    <row r="1207" hidden="1" spans="1:5">
       <c r="A1207" s="1">
         <v>0</v>
       </c>
@@ -31567,7 +31582,7 @@
       </c>
       <c r="E1210" s="6"/>
     </row>
-    <row r="1211" spans="1:5">
+    <row r="1211" hidden="1" spans="1:5">
       <c r="A1211" s="1">
         <v>0</v>
       </c>
@@ -31582,7 +31597,7 @@
       </c>
       <c r="E1211" s="6"/>
     </row>
-    <row r="1212" spans="1:5">
+    <row r="1212" hidden="1" spans="1:5">
       <c r="A1212" s="1">
         <v>0</v>
       </c>
@@ -31597,7 +31612,7 @@
       </c>
       <c r="E1212" s="6"/>
     </row>
-    <row r="1213" spans="1:5">
+    <row r="1213" hidden="1" spans="1:5">
       <c r="A1213" s="1">
         <v>0</v>
       </c>
@@ -31636,7 +31651,7 @@
       </c>
       <c r="E1215" s="6"/>
     </row>
-    <row r="1216" spans="1:5">
+    <row r="1216" hidden="1" spans="1:5">
       <c r="A1216" s="1">
         <v>0</v>
       </c>
@@ -31651,7 +31666,7 @@
       </c>
       <c r="E1216" s="6"/>
     </row>
-    <row r="1217" spans="1:5">
+    <row r="1217" hidden="1" spans="1:5">
       <c r="A1217" s="1">
         <v>0</v>
       </c>
@@ -31666,7 +31681,7 @@
       </c>
       <c r="E1217" s="6"/>
     </row>
-    <row r="1218" spans="1:5">
+    <row r="1218" hidden="1" spans="1:5">
       <c r="A1218" s="1">
         <v>0</v>
       </c>
@@ -31681,9 +31696,9 @@
       </c>
       <c r="E1218" s="6"/>
     </row>
-    <row r="1219" spans="1:5">
+    <row r="1219" hidden="1" spans="1:5">
       <c r="A1219" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1219" s="1" t="s">
         <v>3794</v>
@@ -31732,9 +31747,9 @@
       </c>
       <c r="E1222" s="6"/>
     </row>
-    <row r="1223" spans="1:5">
+    <row r="1223" hidden="1" spans="1:5">
       <c r="A1223" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1223" s="1" t="s">
         <v>3806</v>
@@ -31771,7 +31786,7 @@
       </c>
       <c r="E1225" s="6"/>
     </row>
-    <row r="1226" spans="1:5">
+    <row r="1226" hidden="1" spans="1:5">
       <c r="A1226" s="1">
         <v>0</v>
       </c>
@@ -31786,9 +31801,9 @@
       </c>
       <c r="E1226" s="6"/>
     </row>
-    <row r="1227" spans="1:5">
+    <row r="1227" hidden="1" spans="1:5">
       <c r="A1227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1227" s="1" t="s">
         <v>3818</v>
@@ -31801,7 +31816,7 @@
       </c>
       <c r="E1227" s="6"/>
     </row>
-    <row r="1228" spans="1:5">
+    <row r="1228" hidden="1" spans="1:5">
       <c r="A1228" s="1">
         <v>0</v>
       </c>
@@ -31842,9 +31857,9 @@
       </c>
       <c r="E1230" s="6"/>
     </row>
-    <row r="1231" spans="1:5">
+    <row r="1231" hidden="1" spans="1:5">
       <c r="A1231" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1231" s="1" t="s">
         <v>3831</v>
@@ -31881,7 +31896,7 @@
       </c>
       <c r="E1233" s="6"/>
     </row>
-    <row r="1234" spans="1:5">
+    <row r="1234" hidden="1" spans="1:5">
       <c r="A1234" s="1">
         <v>0</v>
       </c>
@@ -31968,7 +31983,7 @@
       </c>
       <c r="E1240" s="6"/>
     </row>
-    <row r="1241" spans="1:5">
+    <row r="1241" hidden="1" spans="1:5">
       <c r="A1241" s="1">
         <v>0</v>
       </c>
@@ -31983,7 +31998,7 @@
       </c>
       <c r="E1241" s="6"/>
     </row>
-    <row r="1242" spans="1:5">
+    <row r="1242" hidden="1" spans="1:5">
       <c r="A1242" s="1">
         <v>0</v>
       </c>
@@ -32038,7 +32053,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="1246" spans="1:5">
+    <row r="1246" hidden="1" spans="1:5">
       <c r="A1246" s="1">
         <v>0</v>
       </c>
@@ -32065,7 +32080,7 @@
       </c>
       <c r="E1247" s="6"/>
     </row>
-    <row r="1248" ht="37.5" spans="1:5">
+    <row r="1248" ht="48" hidden="1" spans="1:5">
       <c r="A1248" s="1">
         <v>0</v>
       </c>
@@ -32080,9 +32095,9 @@
       </c>
       <c r="E1248" s="6"/>
     </row>
-    <row r="1249" spans="1:5">
+    <row r="1249" hidden="1" spans="1:5">
       <c r="A1249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1249" s="1" t="s">
         <v>3887</v>
@@ -32095,7 +32110,7 @@
       </c>
       <c r="E1249" s="6"/>
     </row>
-    <row r="1250" spans="1:5">
+    <row r="1250" hidden="1" spans="1:5">
       <c r="A1250" s="1">
         <v>0</v>
       </c>
@@ -32124,7 +32139,7 @@
       </c>
       <c r="E1251" s="6"/>
     </row>
-    <row r="1252" hidden="1" spans="2:5">
+    <row r="1252" ht="38" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>3897</v>
       </c>
@@ -32138,7 +32153,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="1253" spans="1:5">
+    <row r="1253" hidden="1" spans="1:5">
       <c r="A1253" s="1">
         <v>0</v>
       </c>
@@ -32165,7 +32180,7 @@
       </c>
       <c r="E1254" s="6"/>
     </row>
-    <row r="1255" spans="1:5">
+    <row r="1255" ht="48" hidden="1" spans="1:5">
       <c r="A1255" s="1">
         <v>0</v>
       </c>
@@ -32192,7 +32207,7 @@
       </c>
       <c r="E1256" s="6"/>
     </row>
-    <row r="1257" spans="1:5">
+    <row r="1257" hidden="1" spans="1:5">
       <c r="A1257" s="1">
         <v>0</v>
       </c>
@@ -32207,7 +32222,7 @@
       </c>
       <c r="E1257" s="6"/>
     </row>
-    <row r="1258" spans="1:5">
+    <row r="1258" hidden="1" spans="1:5">
       <c r="A1258" s="1">
         <v>0</v>
       </c>
@@ -32222,7 +32237,7 @@
       </c>
       <c r="E1258" s="6"/>
     </row>
-    <row r="1259" spans="1:5">
+    <row r="1259" hidden="1" spans="1:5">
       <c r="A1259" s="1">
         <v>0</v>
       </c>
@@ -32237,7 +32252,7 @@
       </c>
       <c r="E1259" s="6"/>
     </row>
-    <row r="1260" spans="1:5">
+    <row r="1260" hidden="1" spans="1:5">
       <c r="A1260" s="1">
         <v>0</v>
       </c>
@@ -32252,7 +32267,7 @@
       </c>
       <c r="E1260" s="6"/>
     </row>
-    <row r="1261" ht="37.5" hidden="1" spans="2:5">
+    <row r="1261" ht="48" hidden="1" spans="2:5">
       <c r="B1261" s="1" t="s">
         <v>3925</v>
       </c>
@@ -32276,7 +32291,7 @@
       </c>
       <c r="E1262" s="6"/>
     </row>
-    <row r="1263" spans="1:5">
+    <row r="1263" hidden="1" spans="1:5">
       <c r="A1263" s="1">
         <v>0</v>
       </c>
@@ -32305,7 +32320,7 @@
       </c>
       <c r="E1264" s="6"/>
     </row>
-    <row r="1265" spans="1:5">
+    <row r="1265" hidden="1" spans="1:5">
       <c r="A1265" s="1">
         <v>0</v>
       </c>
@@ -32332,7 +32347,7 @@
       </c>
       <c r="E1266" s="6"/>
     </row>
-    <row r="1267" spans="1:5">
+    <row r="1267" hidden="1" spans="1:5">
       <c r="A1267" s="1">
         <v>0</v>
       </c>
@@ -32407,9 +32422,9 @@
       </c>
       <c r="E1272" s="6"/>
     </row>
-    <row r="1273" spans="1:5">
+    <row r="1273" hidden="1" spans="1:5">
       <c r="A1273" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1273" s="1" t="s">
         <v>3962</v>
@@ -32482,7 +32497,7 @@
       </c>
       <c r="E1278" s="6"/>
     </row>
-    <row r="1279" spans="1:5">
+    <row r="1279" hidden="1" spans="1:5">
       <c r="A1279" s="1">
         <v>0</v>
       </c>
@@ -32533,7 +32548,7 @@
       </c>
       <c r="E1282" s="6"/>
     </row>
-    <row r="1283" spans="1:5">
+    <row r="1283" hidden="1" spans="1:5">
       <c r="A1283" s="1">
         <v>0</v>
       </c>
@@ -32548,7 +32563,7 @@
       </c>
       <c r="E1283" s="6"/>
     </row>
-    <row r="1284" spans="1:5">
+    <row r="1284" hidden="1" spans="1:5">
       <c r="A1284" s="1">
         <v>0</v>
       </c>
@@ -32563,7 +32578,7 @@
       </c>
       <c r="E1284" s="6"/>
     </row>
-    <row r="1285" spans="1:5">
+    <row r="1285" hidden="1" spans="1:5">
       <c r="A1285" s="1">
         <v>0</v>
       </c>
@@ -32604,7 +32619,7 @@
     </row>
     <row r="1288" spans="1:5">
       <c r="A1288" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1288" s="1" t="s">
         <v>4007</v>
@@ -32641,7 +32656,7 @@
       </c>
       <c r="E1290" s="6"/>
     </row>
-    <row r="1291" spans="1:5">
+    <row r="1291" ht="48" hidden="1" spans="1:5">
       <c r="A1291" s="1">
         <v>0</v>
       </c>
@@ -32682,7 +32697,7 @@
       </c>
       <c r="E1293" s="6"/>
     </row>
-    <row r="1294" spans="1:5">
+    <row r="1294" hidden="1" spans="1:5">
       <c r="A1294" s="1">
         <v>0</v>
       </c>
@@ -32697,7 +32712,7 @@
       </c>
       <c r="E1294" s="6"/>
     </row>
-    <row r="1295" spans="1:5">
+    <row r="1295" hidden="1" spans="1:5">
       <c r="A1295" s="1">
         <v>0</v>
       </c>
@@ -32724,7 +32739,7 @@
       </c>
       <c r="E1296" s="6"/>
     </row>
-    <row r="1297" spans="1:5">
+    <row r="1297" hidden="1" spans="1:5">
       <c r="A1297" s="1">
         <v>0</v>
       </c>
@@ -32739,7 +32754,7 @@
       </c>
       <c r="E1297" s="6"/>
     </row>
-    <row r="1298" spans="1:5">
+    <row r="1298" hidden="1" spans="1:5">
       <c r="A1298" s="1">
         <v>0</v>
       </c>
@@ -32805,7 +32820,7 @@
       </c>
       <c r="E1302" s="1"/>
     </row>
-    <row r="1303" spans="1:5">
+    <row r="1303" hidden="1" spans="1:5">
       <c r="A1303" s="1">
         <v>0</v>
       </c>
@@ -32846,7 +32861,7 @@
       </c>
       <c r="E1305" s="6"/>
     </row>
-    <row r="1306" ht="56.25" hidden="1" spans="2:5">
+    <row r="1306" ht="72" hidden="1" spans="2:5">
       <c r="B1306" s="1" t="s">
         <v>4062</v>
       </c>
@@ -32942,7 +32957,7 @@
       </c>
       <c r="E1313" s="1"/>
     </row>
-    <row r="1314" spans="1:5">
+    <row r="1314" hidden="1" spans="1:5">
       <c r="A1314" s="1">
         <v>0</v>
       </c>
@@ -32957,7 +32972,7 @@
       </c>
       <c r="E1314" s="6"/>
     </row>
-    <row r="1315" spans="1:5">
+    <row r="1315" hidden="1" spans="1:5">
       <c r="A1315" s="1">
         <v>0</v>
       </c>
@@ -33010,7 +33025,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="1319" ht="37.5" hidden="1" spans="2:5">
+    <row r="1319" ht="48" hidden="1" spans="2:5">
       <c r="B1319" s="1" t="s">
         <v>4101</v>
       </c>
@@ -33061,7 +33076,7 @@
       </c>
       <c r="E1322" s="1"/>
     </row>
-    <row r="1323" spans="1:5">
+    <row r="1323" hidden="1" spans="1:5">
       <c r="A1323" s="1">
         <v>0</v>
       </c>
@@ -33086,12 +33101,10 @@
   <autoFilter ref="A1:A1324">
     <filterColumn colId="0">
       <filters>
-        <filter val="0"/>
         <filter val="1"/>
-        <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="5"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14960" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14446,9 +14446,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -14497,21 +14497,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14533,11 +14527,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14550,9 +14550,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14565,8 +14573,44 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14581,45 +14625,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14628,13 +14635,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14728,7 +14728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14740,13 +14752,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14758,121 +14884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14884,25 +14896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14916,11 +14916,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14943,17 +14949,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14973,6 +14973,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -14980,21 +14995,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15016,124 +15016,124 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15142,22 +15142,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15240,11 +15240,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -15260,7 +15255,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>382508</xdr:colOff>
-      <xdr:row>1298</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>23042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15284,8 +15279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15918815" y="238125"/>
-          <a:ext cx="4839970" cy="2223135"/>
+          <a:off x="17866360" y="238125"/>
+          <a:ext cx="5440045" cy="1689735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15302,7 +15297,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -15549,6 +15544,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -15561,13 +15557,13 @@
       <selection activeCell="C1342" sqref="C1342"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.575" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5037037037037" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15600,7 +15596,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="48" hidden="1" spans="2:5">
+    <row r="3" ht="37.5" hidden="1" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -15612,7 +15608,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="48" hidden="1" spans="1:5">
+    <row r="4" ht="37.5" spans="1:5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -15629,7 +15625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="48" hidden="1" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -15646,7 +15642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="48" hidden="1" spans="1:5">
+    <row r="6" ht="37.5" spans="1:5">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -15661,7 +15657,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="48" hidden="1" spans="2:5">
+    <row r="7" ht="37.5" hidden="1" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -15673,7 +15669,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="48" hidden="1" spans="2:5">
+    <row r="8" ht="37.5" hidden="1" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -15685,7 +15681,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="48" hidden="1" spans="2:5">
+    <row r="9" ht="37.5" hidden="1" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -15697,7 +15693,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="48" hidden="1" spans="1:5">
+    <row r="10" ht="37.5" spans="1:5">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -15712,7 +15708,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="48" hidden="1" spans="2:5">
+    <row r="11" ht="37.5" hidden="1" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -15724,7 +15720,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="48" hidden="1" spans="2:9">
+    <row r="12" ht="37.5" hidden="1" spans="2:9">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -15740,7 +15736,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" ht="48" hidden="1" spans="2:9">
+    <row r="13" ht="37.5" hidden="1" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -15756,7 +15752,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" ht="48" hidden="1" spans="2:5">
+    <row r="14" ht="37.5" hidden="1" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -15768,7 +15764,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="48" hidden="1" spans="1:5">
+    <row r="15" ht="37.5" spans="1:5">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -15785,7 +15781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" ht="48" hidden="1" spans="2:5">
+    <row r="16" ht="37.5" hidden="1" spans="2:5">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -15797,7 +15793,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="48" hidden="1" spans="1:5">
+    <row r="17" ht="37.5" spans="1:5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -15812,7 +15808,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="48" hidden="1" spans="2:5">
+    <row r="18" ht="37.5" hidden="1" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -15824,7 +15820,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="48" hidden="1" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -15851,7 +15847,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" hidden="1" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -15866,7 +15862,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="48" hidden="1" spans="1:5">
+    <row r="22" ht="37.5" spans="1:5">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -15895,7 +15891,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" hidden="1" spans="1:5">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -15948,7 +15944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" ht="48" hidden="1" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -15979,7 +15975,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" ht="48" hidden="1" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -16008,7 +16004,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" hidden="1" spans="1:5">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -16025,7 +16021,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:5">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -16040,7 +16036,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" hidden="1" spans="1:5">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -16079,7 +16075,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" hidden="1" spans="1:5">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -16094,7 +16090,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" ht="48" hidden="1" spans="2:5">
+    <row r="38" ht="37.5" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
@@ -16170,7 +16166,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="48" hidden="1" spans="1:5">
+    <row r="44" ht="37.5" spans="1:5">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -16197,7 +16193,7 @@
       </c>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" hidden="1" spans="1:5">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -16224,7 +16220,7 @@
       </c>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" hidden="1" spans="1:5">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -16241,7 +16237,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:5">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -16258,7 +16254,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:5">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -16285,7 +16281,7 @@
       </c>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" hidden="1" spans="1:5">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -16300,7 +16296,7 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" ht="43" hidden="1" spans="1:5">
+    <row r="53" ht="37.5" spans="1:5">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -16329,7 +16325,7 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" ht="48" hidden="1" spans="2:5">
+    <row r="55" ht="37.5" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>176</v>
       </c>
@@ -16341,7 +16337,7 @@
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" hidden="1" spans="1:5">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -16356,7 +16352,7 @@
       </c>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" hidden="1" spans="1:5">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -16371,7 +16367,7 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" ht="48" hidden="1" spans="1:5">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -16410,7 +16406,7 @@
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" hidden="1" spans="1:5">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -16425,7 +16421,7 @@
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" ht="48" hidden="1" spans="2:5">
+    <row r="62" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>197</v>
       </c>
@@ -16449,7 +16445,7 @@
       </c>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" ht="48" hidden="1" spans="2:5">
+    <row r="64" hidden="1" spans="2:5">
       <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
@@ -16491,7 +16487,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" ht="62" hidden="1" spans="2:5">
+    <row r="67" ht="56.25" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>215</v>
       </c>
@@ -16541,7 +16537,7 @@
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" ht="48" hidden="1" spans="1:5">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -16570,7 +16566,7 @@
       </c>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" hidden="1" spans="1:5">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -16585,7 +16581,7 @@
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" hidden="1" spans="1:5">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -16600,7 +16596,7 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" ht="48" hidden="1" spans="1:5">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -16631,7 +16627,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:5">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -16684,7 +16680,7 @@
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" ht="48" hidden="1" spans="2:5">
+    <row r="81" hidden="1" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>262</v>
       </c>
@@ -16698,7 +16694,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:5">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -16713,7 +16709,7 @@
       </c>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" hidden="1" spans="1:5">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -16752,7 +16748,7 @@
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" ht="48" hidden="1" spans="2:5">
+    <row r="86" hidden="1" spans="2:5">
       <c r="B86" s="1" t="s">
         <v>278</v>
       </c>
@@ -16790,7 +16786,7 @@
       </c>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" hidden="1" spans="1:5">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -16833,7 +16829,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:5">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -16910,7 +16906,7 @@
       </c>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" hidden="1" spans="1:5">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -16949,7 +16945,7 @@
       </c>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" ht="48" hidden="1" spans="2:5">
+    <row r="101" hidden="1" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>326</v>
       </c>
@@ -16961,7 +16957,7 @@
       </c>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" hidden="1" spans="1:5">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -16978,7 +16974,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:5">
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -17007,7 +17003,7 @@
       </c>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" ht="48" hidden="1" spans="2:5">
+    <row r="105" hidden="1" spans="2:5">
       <c r="B105" s="1" t="s">
         <v>340</v>
       </c>
@@ -17019,7 +17015,7 @@
       </c>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" hidden="1" spans="1:4">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -17057,7 +17053,7 @@
       </c>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" hidden="1" spans="1:5">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -17084,7 +17080,7 @@
       </c>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" ht="48" hidden="1" spans="2:5">
+    <row r="111" hidden="1" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>358</v>
       </c>
@@ -17124,7 +17120,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:5">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -17141,7 +17137,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="115" ht="48" hidden="1" spans="2:5">
+    <row r="115" ht="37.5" hidden="1" spans="2:5">
       <c r="B115" s="1" t="s">
         <v>373</v>
       </c>
@@ -17191,7 +17187,7 @@
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" ht="48" hidden="1" spans="2:5">
+    <row r="119" ht="37.5" hidden="1" spans="2:5">
       <c r="B119" s="1" t="s">
         <v>386</v>
       </c>
@@ -17291,7 +17287,7 @@
       </c>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" ht="48" hidden="1" spans="2:5">
+    <row r="127" hidden="1" spans="2:5">
       <c r="B127" s="1" t="s">
         <v>412</v>
       </c>
@@ -17317,7 +17313,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="129" ht="48" hidden="1" spans="2:5">
+    <row r="129" hidden="1" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>419</v>
       </c>
@@ -17329,7 +17325,7 @@
       </c>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" hidden="1" spans="1:5">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -17368,7 +17364,7 @@
       </c>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" hidden="1" spans="1:5">
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -17399,7 +17395,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="135" ht="48" hidden="1" spans="2:5">
+    <row r="135" ht="37.5" hidden="1" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>439</v>
       </c>
@@ -17413,7 +17409,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" ht="48" hidden="1" spans="2:5">
+    <row r="136" hidden="1" spans="2:5">
       <c r="B136" s="1" t="s">
         <v>443</v>
       </c>
@@ -17427,7 +17423,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:5">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -17482,7 +17478,7 @@
       </c>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" hidden="1" spans="1:5">
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -17497,7 +17493,7 @@
       </c>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" ht="48" hidden="1" spans="2:5">
+    <row r="142" ht="37.5" hidden="1" spans="2:5">
       <c r="B142" s="1" t="s">
         <v>464</v>
       </c>
@@ -17521,7 +17517,7 @@
       </c>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" hidden="1" spans="1:5">
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -17536,7 +17532,7 @@
       </c>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" hidden="1" spans="1:5">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -17575,7 +17571,7 @@
       </c>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" hidden="1" spans="1:5">
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -17590,7 +17586,7 @@
       </c>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" hidden="1" spans="1:5">
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -17629,7 +17625,7 @@
       </c>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" ht="48" hidden="1" spans="2:5">
+    <row r="152" ht="37.5" hidden="1" spans="2:5">
       <c r="B152" s="1" t="s">
         <v>494</v>
       </c>
@@ -17641,7 +17637,7 @@
       </c>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" ht="48" hidden="1" spans="2:5">
+    <row r="153" ht="37.5" hidden="1" spans="2:5">
       <c r="B153" s="1" t="s">
         <v>497</v>
       </c>
@@ -17689,7 +17685,7 @@
       </c>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" ht="43" hidden="1" spans="2:5">
+    <row r="157" ht="37.5" hidden="1" spans="2:5">
       <c r="B157" s="1" t="s">
         <v>509</v>
       </c>
@@ -17715,7 +17711,7 @@
       </c>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" hidden="1" spans="1:5">
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -17742,7 +17738,7 @@
       </c>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" ht="48" hidden="1" spans="1:5">
+    <row r="161" ht="37.5" spans="1:5">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -17757,7 +17753,7 @@
       </c>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" ht="48" hidden="1" spans="1:5">
+    <row r="162" ht="37.5" spans="1:5">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -17772,7 +17768,7 @@
       </c>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" hidden="1" spans="1:5">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -17787,7 +17783,7 @@
       </c>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" hidden="1" spans="1:5">
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -17802,7 +17798,7 @@
       </c>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" ht="38" hidden="1" spans="2:5">
+    <row r="165" hidden="1" spans="2:5">
       <c r="B165" s="1" t="s">
         <v>534</v>
       </c>
@@ -17828,7 +17824,7 @@
       </c>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" ht="48" hidden="1" spans="2:5">
+    <row r="167" ht="37.5" hidden="1" spans="2:5">
       <c r="B167" s="1" t="s">
         <v>541</v>
       </c>
@@ -17852,7 +17848,7 @@
       </c>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" ht="48" hidden="1" spans="1:5">
+    <row r="169" ht="37.5" spans="1:5">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -17867,7 +17863,7 @@
       </c>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" ht="48" hidden="1" spans="1:5">
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -17882,7 +17878,7 @@
       </c>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" ht="48" hidden="1" spans="2:5">
+    <row r="171" ht="37.5" hidden="1" spans="2:5">
       <c r="B171" s="1" t="s">
         <v>553</v>
       </c>
@@ -18014,7 +18010,7 @@
       </c>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" hidden="1" spans="1:4">
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -18028,7 +18024,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:5">
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -18043,7 +18039,7 @@
       </c>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" hidden="1" spans="1:5">
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -18106,7 +18102,7 @@
       </c>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" hidden="1" spans="1:5">
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -18121,7 +18117,7 @@
       </c>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" ht="48" hidden="1" spans="1:5">
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -18164,7 +18160,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="193" ht="48" hidden="1" spans="2:5">
+    <row r="193" ht="37.5" hidden="1" spans="2:5">
       <c r="B193" s="1" t="s">
         <v>621</v>
       </c>
@@ -18188,7 +18184,7 @@
       </c>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" hidden="1" spans="1:5">
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -18241,7 +18237,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:5">
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -18270,7 +18266,7 @@
       </c>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" hidden="1" spans="1:5">
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -18297,7 +18293,7 @@
       </c>
       <c r="E202" s="6"/>
     </row>
-    <row r="203" hidden="1" spans="1:5">
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -18312,7 +18308,7 @@
       </c>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" hidden="1" spans="1:5">
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -18327,7 +18323,7 @@
       </c>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" hidden="1" spans="1:5">
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -18368,7 +18364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:5">
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -18383,7 +18379,7 @@
       </c>
       <c r="E208" s="6"/>
     </row>
-    <row r="209" hidden="1" spans="1:5">
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -18410,7 +18406,7 @@
       </c>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" ht="62" hidden="1" spans="1:5">
+    <row r="211" ht="37.5" spans="1:5">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -18439,7 +18435,7 @@
       </c>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" hidden="1" spans="1:4">
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -18453,7 +18449,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="214" ht="48" hidden="1" spans="1:5">
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -18482,7 +18478,7 @@
       </c>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" hidden="1" spans="1:5">
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -18497,7 +18493,7 @@
       </c>
       <c r="E216" s="6"/>
     </row>
-    <row r="217" hidden="1" spans="1:5">
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -18538,7 +18534,7 @@
       </c>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" ht="48" hidden="1" spans="1:5">
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -18555,7 +18551,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:5">
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -18570,7 +18566,7 @@
       </c>
       <c r="E221" s="6"/>
     </row>
-    <row r="222" hidden="1" spans="1:4">
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -18608,7 +18604,7 @@
       </c>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" ht="48" hidden="1" spans="2:5">
+    <row r="225" hidden="1" spans="2:5">
       <c r="B225" s="1" t="s">
         <v>722</v>
       </c>
@@ -18620,7 +18616,7 @@
       </c>
       <c r="E225" s="6"/>
     </row>
-    <row r="226" hidden="1" spans="1:5">
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -18635,7 +18631,7 @@
       </c>
       <c r="E226" s="6"/>
     </row>
-    <row r="227" hidden="1" spans="1:5">
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -18664,7 +18660,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:5">
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -18691,7 +18687,7 @@
       </c>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" ht="48" hidden="1" spans="1:5">
+    <row r="231" ht="37.5" spans="1:5">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -18708,7 +18704,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:5">
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -18723,7 +18719,7 @@
       </c>
       <c r="E232" s="6"/>
     </row>
-    <row r="233" hidden="1" spans="1:5">
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -18738,7 +18734,7 @@
       </c>
       <c r="E233" s="6"/>
     </row>
-    <row r="234" hidden="1" spans="1:5">
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -18837,7 +18833,7 @@
       </c>
       <c r="E241" s="6"/>
     </row>
-    <row r="242" hidden="1" spans="1:5">
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -18888,7 +18884,7 @@
       </c>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" hidden="1" spans="1:5">
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -18939,7 +18935,7 @@
       </c>
       <c r="E249" s="6"/>
     </row>
-    <row r="250" hidden="1" spans="1:5">
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -18980,7 +18976,7 @@
       </c>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" hidden="1" spans="1:5">
+    <row r="253" spans="1:5">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -18995,7 +18991,7 @@
       </c>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" ht="48" hidden="1" spans="1:5">
+    <row r="254" spans="1:5">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -19070,7 +19066,7 @@
       </c>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" ht="48" hidden="1" spans="1:5">
+    <row r="260" spans="1:5">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -19099,7 +19095,7 @@
       </c>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" hidden="1" spans="1:5">
+    <row r="262" spans="1:5">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -19114,7 +19110,7 @@
       </c>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" hidden="1" spans="1:5">
+    <row r="263" spans="1:5">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -19181,7 +19177,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:5">
+    <row r="268" spans="1:5">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -19212,7 +19208,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="270" ht="48" hidden="1" spans="1:5">
+    <row r="270" ht="37.5" spans="1:5">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -19227,7 +19223,7 @@
       </c>
       <c r="E270" s="6"/>
     </row>
-    <row r="271" hidden="1" spans="1:5">
+    <row r="271" spans="1:5">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -19254,7 +19250,7 @@
       </c>
       <c r="E272" s="6"/>
     </row>
-    <row r="273" hidden="1" spans="1:5">
+    <row r="273" spans="1:5">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -19269,7 +19265,7 @@
       </c>
       <c r="E273" s="6"/>
     </row>
-    <row r="274" ht="48" hidden="1" spans="2:5">
+    <row r="274" hidden="1" spans="2:5">
       <c r="B274" s="1" t="s">
         <v>876</v>
       </c>
@@ -19281,7 +19277,7 @@
       </c>
       <c r="E274" s="6"/>
     </row>
-    <row r="275" hidden="1" spans="1:5">
+    <row r="275" spans="1:5">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -19320,7 +19316,7 @@
       </c>
       <c r="E277" s="6"/>
     </row>
-    <row r="278" hidden="1" spans="1:5">
+    <row r="278" spans="1:5">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -19335,7 +19331,7 @@
       </c>
       <c r="E278" s="6"/>
     </row>
-    <row r="279" hidden="1" spans="1:5">
+    <row r="279" spans="1:5">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -19374,7 +19370,7 @@
       </c>
       <c r="E281" s="6"/>
     </row>
-    <row r="282" hidden="1" spans="1:5">
+    <row r="282" spans="1:5">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -19389,7 +19385,7 @@
       </c>
       <c r="E282" s="6"/>
     </row>
-    <row r="283" hidden="1" spans="1:5">
+    <row r="283" spans="1:5">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -19428,7 +19424,7 @@
       </c>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" ht="48" hidden="1" spans="2:5">
+    <row r="286" hidden="1" spans="2:5">
       <c r="B286" s="1" t="s">
         <v>912</v>
       </c>
@@ -19440,7 +19436,7 @@
       </c>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" ht="48" hidden="1" spans="1:5">
+    <row r="287" spans="1:5">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -19467,7 +19463,7 @@
       </c>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" ht="48" hidden="1" spans="1:5">
+    <row r="289" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -19484,7 +19480,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="290" ht="48" hidden="1" spans="1:5">
+    <row r="290" spans="1:5">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -19511,7 +19507,7 @@
       </c>
       <c r="E291" s="6"/>
     </row>
-    <row r="292" hidden="1" spans="1:5">
+    <row r="292" spans="1:5">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -19526,7 +19522,7 @@
       </c>
       <c r="E292" s="6"/>
     </row>
-    <row r="293" hidden="1" spans="1:5">
+    <row r="293" spans="1:5">
       <c r="A293" s="1">
         <v>0</v>
       </c>
@@ -19603,7 +19599,7 @@
       </c>
       <c r="E298" s="6"/>
     </row>
-    <row r="299" hidden="1" spans="1:5">
+    <row r="299" spans="1:5">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -19630,7 +19626,7 @@
       </c>
       <c r="E300" s="6"/>
     </row>
-    <row r="301" hidden="1" spans="1:5">
+    <row r="301" spans="1:5">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -19645,7 +19641,7 @@
       </c>
       <c r="E301" s="6"/>
     </row>
-    <row r="302" hidden="1" spans="1:5">
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -19672,7 +19668,7 @@
       </c>
       <c r="E303" s="6"/>
     </row>
-    <row r="304" ht="76" hidden="1" spans="1:5">
+    <row r="304" ht="56.25" spans="1:5">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -19727,7 +19723,7 @@
       </c>
       <c r="E307" s="6"/>
     </row>
-    <row r="308" hidden="1" spans="1:5">
+    <row r="308" spans="1:5">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -19742,7 +19738,7 @@
       </c>
       <c r="E308" s="6"/>
     </row>
-    <row r="309" hidden="1" spans="1:4">
+    <row r="309" spans="1:4">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -19768,7 +19764,7 @@
       </c>
       <c r="E310" s="6"/>
     </row>
-    <row r="311" hidden="1" spans="1:5">
+    <row r="311" spans="1:5">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -19785,7 +19781,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="312" ht="43" hidden="1" spans="2:5">
+    <row r="312" ht="37.5" hidden="1" spans="2:5">
       <c r="B312" s="1" t="s">
         <v>995</v>
       </c>
@@ -19799,7 +19795,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="313" ht="48" hidden="1" spans="1:4">
+    <row r="313" spans="1:4">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -19825,7 +19821,7 @@
       </c>
       <c r="E314" s="6"/>
     </row>
-    <row r="315" hidden="1" spans="1:5">
+    <row r="315" spans="1:5">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -19852,7 +19848,7 @@
       </c>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" ht="48" hidden="1" spans="2:5">
+    <row r="317" hidden="1" spans="2:5">
       <c r="B317" s="1" t="s">
         <v>1011</v>
       </c>
@@ -19888,7 +19884,7 @@
       </c>
       <c r="E319" s="6"/>
     </row>
-    <row r="320" hidden="1" spans="1:5">
+    <row r="320" spans="1:5">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -19903,7 +19899,7 @@
       </c>
       <c r="E320" s="6"/>
     </row>
-    <row r="321" hidden="1" spans="1:5">
+    <row r="321" spans="1:5">
       <c r="A321" s="1">
         <v>0</v>
       </c>
@@ -19918,7 +19914,7 @@
       </c>
       <c r="E321" s="6"/>
     </row>
-    <row r="322" hidden="1" spans="1:4">
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -19932,7 +19928,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:5">
+    <row r="323" spans="1:5">
       <c r="A323" s="1">
         <v>0</v>
       </c>
@@ -20007,7 +20003,7 @@
       </c>
       <c r="E328" s="6"/>
     </row>
-    <row r="329" hidden="1" spans="1:5">
+    <row r="329" spans="1:5">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -20034,7 +20030,7 @@
       </c>
       <c r="E330" s="6"/>
     </row>
-    <row r="331" ht="48" hidden="1" spans="1:4">
+    <row r="331" spans="1:4">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -20048,7 +20044,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:5">
+    <row r="332" spans="1:5">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -20075,7 +20071,7 @@
       </c>
       <c r="E333" s="6"/>
     </row>
-    <row r="334" hidden="1" spans="1:5">
+    <row r="334" spans="1:5">
       <c r="A334" s="1">
         <v>0</v>
       </c>
@@ -20140,7 +20136,7 @@
       </c>
       <c r="E338" s="6"/>
     </row>
-    <row r="339" hidden="1" spans="1:5">
+    <row r="339" spans="1:5">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -20157,7 +20153,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:4">
+    <row r="340" spans="1:4">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -20171,7 +20167,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="341" ht="38" hidden="1" spans="1:5">
+    <row r="341" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -20236,7 +20232,7 @@
       </c>
       <c r="E345" s="6"/>
     </row>
-    <row r="346" hidden="1" spans="1:5">
+    <row r="346" spans="1:5">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -20277,7 +20273,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="349" ht="76" hidden="1" spans="2:5">
+    <row r="349" ht="56.25" hidden="1" spans="2:5">
       <c r="B349" s="1" t="s">
         <v>1111</v>
       </c>
@@ -20291,7 +20287,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:5">
+    <row r="350" spans="1:5">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -20318,7 +20314,7 @@
       </c>
       <c r="E351" s="6"/>
     </row>
-    <row r="352" hidden="1" spans="1:5">
+    <row r="352" spans="1:5">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -20333,7 +20329,7 @@
       </c>
       <c r="E352" s="6"/>
     </row>
-    <row r="353" hidden="1" spans="1:5">
+    <row r="353" spans="1:5">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -20348,7 +20344,7 @@
       </c>
       <c r="E353" s="6"/>
     </row>
-    <row r="354" hidden="1" spans="1:5">
+    <row r="354" spans="1:5">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -20363,7 +20359,7 @@
       </c>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" hidden="1" spans="1:4">
+    <row r="355" spans="1:4">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -20413,7 +20409,7 @@
       </c>
       <c r="E358" s="6"/>
     </row>
-    <row r="359" hidden="1" spans="1:5">
+    <row r="359" spans="1:5">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -20476,7 +20472,7 @@
       </c>
       <c r="E363" s="6"/>
     </row>
-    <row r="364" hidden="1" spans="1:5">
+    <row r="364" spans="1:5">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -20503,7 +20499,7 @@
       </c>
       <c r="E365" s="6"/>
     </row>
-    <row r="366" hidden="1" spans="1:5">
+    <row r="366" spans="1:5">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -20530,7 +20526,7 @@
       </c>
       <c r="E367" s="6"/>
     </row>
-    <row r="368" ht="38" hidden="1" spans="2:5">
+    <row r="368" hidden="1" spans="2:5">
       <c r="B368" s="1" t="s">
         <v>1169</v>
       </c>
@@ -20544,7 +20540,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="369" ht="48" hidden="1" spans="1:5">
+    <row r="369" spans="1:5">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -20573,7 +20569,7 @@
       </c>
       <c r="E370" s="6"/>
     </row>
-    <row r="371" ht="48" hidden="1" spans="2:5">
+    <row r="371" ht="37.5" hidden="1" spans="2:5">
       <c r="B371" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20585,7 +20581,7 @@
       </c>
       <c r="E371" s="6"/>
     </row>
-    <row r="372" hidden="1" spans="1:5">
+    <row r="372" spans="1:5">
       <c r="A372" s="1">
         <v>0</v>
       </c>
@@ -20600,7 +20596,7 @@
       </c>
       <c r="E372" s="6"/>
     </row>
-    <row r="373" hidden="1" spans="1:4">
+    <row r="373" spans="1:4">
       <c r="A373" s="1">
         <v>0</v>
       </c>
@@ -20614,7 +20610,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:5">
+    <row r="374" spans="1:5">
       <c r="A374" s="1">
         <v>0</v>
       </c>
@@ -20641,7 +20637,7 @@
       </c>
       <c r="E375" s="6"/>
     </row>
-    <row r="376" hidden="1" spans="1:5">
+    <row r="376" spans="1:5">
       <c r="A376" s="1">
         <v>0</v>
       </c>
@@ -20694,7 +20690,7 @@
       </c>
       <c r="E379" s="6"/>
     </row>
-    <row r="380" ht="48" hidden="1" spans="2:5">
+    <row r="380" ht="37.5" hidden="1" spans="2:5">
       <c r="B380" s="1" t="s">
         <v>1208</v>
       </c>
@@ -20742,7 +20738,7 @@
       </c>
       <c r="E383" s="6"/>
     </row>
-    <row r="384" hidden="1" spans="1:5">
+    <row r="384" spans="1:5">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -20757,7 +20753,7 @@
       </c>
       <c r="E384" s="6"/>
     </row>
-    <row r="385" ht="48" hidden="1" spans="1:5">
+    <row r="385" ht="37.5" spans="1:5">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -20774,7 +20770,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:5">
+    <row r="386" spans="1:5">
       <c r="A386" s="1">
         <v>0</v>
       </c>
@@ -20813,7 +20809,7 @@
       </c>
       <c r="E388" s="6"/>
     </row>
-    <row r="389" ht="120" hidden="1" spans="1:5">
+    <row r="389" ht="75" spans="1:5">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -20830,7 +20826,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:5">
+    <row r="390" spans="1:5">
       <c r="A390" s="1">
         <v>0</v>
       </c>
@@ -20881,7 +20877,7 @@
       </c>
       <c r="E393" s="6"/>
     </row>
-    <row r="394" hidden="1" spans="1:4">
+    <row r="394" spans="1:4">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -20895,7 +20891,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:5">
+    <row r="395" spans="1:5">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -20910,7 +20906,7 @@
       </c>
       <c r="E395" s="6"/>
     </row>
-    <row r="396" hidden="1" spans="1:5">
+    <row r="396" spans="1:5">
       <c r="A396" s="1">
         <v>0</v>
       </c>
@@ -20925,7 +20921,7 @@
       </c>
       <c r="E396" s="6"/>
     </row>
-    <row r="397" ht="48" hidden="1" spans="1:5">
+    <row r="397" ht="37.5" spans="1:5">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -20954,7 +20950,7 @@
       </c>
       <c r="E398" s="6"/>
     </row>
-    <row r="399" ht="38" hidden="1" spans="2:5">
+    <row r="399" ht="37.5" hidden="1" spans="2:5">
       <c r="B399" s="1" t="s">
         <v>1268</v>
       </c>
@@ -20968,7 +20964,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:5">
+    <row r="400" spans="1:5">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -21007,7 +21003,7 @@
       </c>
       <c r="E402" s="6"/>
     </row>
-    <row r="403" hidden="1" spans="1:4">
+    <row r="403" spans="1:4">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -21021,7 +21017,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:5">
+    <row r="404" spans="1:5">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -21038,7 +21034,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:5">
+    <row r="405" spans="1:5">
       <c r="A405" s="1">
         <v>0</v>
       </c>
@@ -21055,7 +21051,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:4">
+    <row r="406" spans="1:4">
       <c r="A406" s="1">
         <v>0</v>
       </c>
@@ -21105,7 +21101,7 @@
       </c>
       <c r="E409" s="6"/>
     </row>
-    <row r="410" hidden="1" spans="1:5">
+    <row r="410" spans="1:5">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -21120,7 +21116,7 @@
       </c>
       <c r="E410" s="6"/>
     </row>
-    <row r="411" hidden="1" spans="1:4">
+    <row r="411" spans="1:4">
       <c r="A411" s="1">
         <v>0</v>
       </c>
@@ -21158,7 +21154,7 @@
       </c>
       <c r="E413" s="6"/>
     </row>
-    <row r="414" ht="48" hidden="1" spans="2:5">
+    <row r="414" ht="37.5" hidden="1" spans="2:5">
       <c r="B414" s="1" t="s">
         <v>1316</v>
       </c>
@@ -21206,7 +21202,7 @@
       </c>
       <c r="E417" s="6"/>
     </row>
-    <row r="418" ht="48" hidden="1" spans="2:5">
+    <row r="418" hidden="1" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>1328</v>
       </c>
@@ -21268,7 +21264,7 @@
       </c>
       <c r="E422" s="6"/>
     </row>
-    <row r="423" hidden="1" spans="1:4">
+    <row r="423" spans="1:4">
       <c r="A423" s="1">
         <v>0</v>
       </c>
@@ -21294,7 +21290,7 @@
       </c>
       <c r="E424" s="6"/>
     </row>
-    <row r="425" hidden="1" spans="1:5">
+    <row r="425" spans="1:5">
       <c r="A425" s="1">
         <v>0</v>
       </c>
@@ -21357,7 +21353,7 @@
       </c>
       <c r="E429" s="6"/>
     </row>
-    <row r="430" ht="48" hidden="1" spans="1:5">
+    <row r="430" ht="37.5" spans="1:5">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -21496,7 +21492,7 @@
       </c>
       <c r="E440" s="6"/>
     </row>
-    <row r="441" ht="48" hidden="1" spans="2:4">
+    <row r="441" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1400</v>
       </c>
@@ -21507,7 +21503,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:4">
+    <row r="442" spans="1:4">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -21535,7 +21531,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="444" ht="62" hidden="1" spans="2:5">
+    <row r="444" ht="37.5" hidden="1" spans="2:5">
       <c r="B444" s="1" t="s">
         <v>1410</v>
       </c>
@@ -21549,7 +21545,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:5">
+    <row r="445" spans="1:5">
       <c r="A445" s="1">
         <v>0</v>
       </c>
@@ -21576,7 +21572,7 @@
       </c>
       <c r="E446" s="6"/>
     </row>
-    <row r="447" hidden="1" spans="1:4">
+    <row r="447" spans="1:4">
       <c r="A447" s="1">
         <v>0</v>
       </c>
@@ -21638,7 +21634,7 @@
       </c>
       <c r="E451" s="6"/>
     </row>
-    <row r="452" ht="48" hidden="1" spans="2:5">
+    <row r="452" ht="37.5" hidden="1" spans="2:5">
       <c r="B452" s="1" t="s">
         <v>1435</v>
       </c>
@@ -21662,7 +21658,7 @@
       </c>
       <c r="E453" s="6"/>
     </row>
-    <row r="454" hidden="1" spans="1:5">
+    <row r="454" spans="1:5">
       <c r="A454" s="1">
         <v>0</v>
       </c>
@@ -21691,7 +21687,7 @@
       </c>
       <c r="E455" s="6"/>
     </row>
-    <row r="456" hidden="1" spans="1:5">
+    <row r="456" spans="1:5">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -21706,7 +21702,7 @@
       </c>
       <c r="E456" s="6"/>
     </row>
-    <row r="457" hidden="1" spans="1:4">
+    <row r="457" spans="1:4">
       <c r="A457" s="1">
         <v>0</v>
       </c>
@@ -21720,7 +21716,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:5">
+    <row r="458" spans="1:5">
       <c r="A458" s="1">
         <v>0</v>
       </c>
@@ -21735,7 +21731,7 @@
       </c>
       <c r="E458" s="6"/>
     </row>
-    <row r="459" hidden="1" spans="1:4">
+    <row r="459" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -21749,7 +21745,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="1:5">
+    <row r="460" spans="1:5">
       <c r="A460" s="1">
         <v>0</v>
       </c>
@@ -21826,7 +21822,7 @@
       </c>
       <c r="E465" s="6"/>
     </row>
-    <row r="466" hidden="1" spans="1:4">
+    <row r="466" spans="1:4">
       <c r="A466" s="1">
         <v>0</v>
       </c>
@@ -21840,7 +21836,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:4">
+    <row r="467" spans="1:4">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -21866,7 +21862,7 @@
       </c>
       <c r="E468" s="6"/>
     </row>
-    <row r="469" ht="48" hidden="1" spans="1:4">
+    <row r="469" spans="1:4">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -21880,7 +21876,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:4">
+    <row r="470" spans="1:4">
       <c r="A470" s="1">
         <v>0</v>
       </c>
@@ -21894,7 +21890,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:5">
+    <row r="471" spans="1:5">
       <c r="A471" s="1">
         <v>0</v>
       </c>
@@ -21923,7 +21919,7 @@
       </c>
       <c r="E472" s="6"/>
     </row>
-    <row r="473" hidden="1" spans="1:4">
+    <row r="473" spans="1:4">
       <c r="A473" s="1">
         <v>0</v>
       </c>
@@ -22009,7 +22005,7 @@
       </c>
       <c r="E479" s="6"/>
     </row>
-    <row r="480" ht="48" hidden="1" spans="1:5">
+    <row r="480" spans="1:5">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -22024,7 +22020,7 @@
       </c>
       <c r="E480" s="6"/>
     </row>
-    <row r="481" hidden="1" spans="1:5">
+    <row r="481" spans="1:5">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -22039,7 +22035,7 @@
       </c>
       <c r="E481" s="6"/>
     </row>
-    <row r="482" hidden="1" spans="1:4">
+    <row r="482" spans="1:4">
       <c r="A482" s="1">
         <v>0</v>
       </c>
@@ -22053,7 +22049,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:5">
+    <row r="483" spans="1:5">
       <c r="A483" s="1">
         <v>0</v>
       </c>
@@ -22068,7 +22064,7 @@
       </c>
       <c r="E483" s="6"/>
     </row>
-    <row r="484" hidden="1" spans="1:4">
+    <row r="484" spans="1:4">
       <c r="A484" s="1">
         <v>0</v>
       </c>
@@ -22082,7 +22078,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:4">
+    <row r="485" spans="1:4">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -22096,7 +22092,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:5">
+    <row r="486" spans="1:5">
       <c r="A486" s="1">
         <v>0</v>
       </c>
@@ -22173,7 +22169,7 @@
       </c>
       <c r="E491" s="6"/>
     </row>
-    <row r="492" hidden="1" spans="1:4">
+    <row r="492" spans="1:4">
       <c r="A492" s="1">
         <v>0</v>
       </c>
@@ -22211,7 +22207,7 @@
       </c>
       <c r="E494" s="6"/>
     </row>
-    <row r="495" hidden="1" spans="1:4">
+    <row r="495" spans="1:4">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -22249,7 +22245,7 @@
       </c>
       <c r="E497" s="6"/>
     </row>
-    <row r="498" hidden="1" spans="1:4">
+    <row r="498" spans="1:4">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -22263,7 +22259,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:4">
+    <row r="499" spans="1:4">
       <c r="A499" s="1">
         <v>0</v>
       </c>
@@ -22289,7 +22285,7 @@
       </c>
       <c r="E500" s="6"/>
     </row>
-    <row r="501" hidden="1" spans="1:5">
+    <row r="501" spans="1:5">
       <c r="A501" s="1">
         <v>0</v>
       </c>
@@ -22344,7 +22340,7 @@
       </c>
       <c r="E504" s="6"/>
     </row>
-    <row r="505" hidden="1" spans="1:4">
+    <row r="505" spans="1:4">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -22358,7 +22354,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:4">
+    <row r="506" spans="1:4">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -22422,7 +22418,7 @@
       </c>
       <c r="E510" s="6"/>
     </row>
-    <row r="511" hidden="1" spans="1:5">
+    <row r="511" spans="1:5">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -22463,7 +22459,7 @@
       </c>
       <c r="E513" s="6"/>
     </row>
-    <row r="514" hidden="1" spans="1:5">
+    <row r="514" spans="1:5">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -22504,7 +22500,7 @@
       </c>
       <c r="E516" s="6"/>
     </row>
-    <row r="517" hidden="1" spans="1:4">
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>0</v>
       </c>
@@ -22518,7 +22514,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:4">
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -22580,7 +22576,7 @@
       </c>
       <c r="E522" s="6"/>
     </row>
-    <row r="523" hidden="1" spans="1:4">
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>0</v>
       </c>
@@ -22594,7 +22590,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:4">
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>0</v>
       </c>
@@ -22608,7 +22604,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:5">
+    <row r="525" spans="1:5">
       <c r="A525" s="1">
         <v>0</v>
       </c>
@@ -22625,7 +22621,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:4">
+    <row r="526" spans="1:4">
       <c r="A526" s="1">
         <v>0</v>
       </c>
@@ -22639,7 +22635,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:4">
+    <row r="527" spans="1:4">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -22653,7 +22649,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="528" ht="48" hidden="1" spans="1:4">
+    <row r="528" spans="1:4">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -22679,7 +22675,7 @@
       </c>
       <c r="E529" s="6"/>
     </row>
-    <row r="530" ht="48" hidden="1" spans="2:5">
+    <row r="530" hidden="1" spans="2:5">
       <c r="B530" s="1" t="s">
         <v>1677</v>
       </c>
@@ -22693,7 +22689,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:4">
+    <row r="531" spans="1:4">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -22707,7 +22703,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:4">
+    <row r="532" spans="1:4">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -22745,7 +22741,7 @@
       </c>
       <c r="E534" s="6"/>
     </row>
-    <row r="535" hidden="1" spans="1:4">
+    <row r="535" spans="1:4">
       <c r="A535" s="1">
         <v>0</v>
       </c>
@@ -22771,7 +22767,7 @@
       </c>
       <c r="E536" s="6"/>
     </row>
-    <row r="537" hidden="1" spans="1:4">
+    <row r="537" spans="1:4">
       <c r="A537" s="1">
         <v>0</v>
       </c>
@@ -22785,7 +22781,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:5">
+    <row r="538" spans="1:5">
       <c r="A538" s="1">
         <v>0</v>
       </c>
@@ -22838,7 +22834,7 @@
       </c>
       <c r="E541" s="6"/>
     </row>
-    <row r="542" hidden="1" spans="1:4">
+    <row r="542" spans="1:4">
       <c r="A542" s="1">
         <v>0</v>
       </c>
@@ -22852,7 +22848,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:4">
+    <row r="543" spans="1:4">
       <c r="A543" s="1">
         <v>0</v>
       </c>
@@ -22866,7 +22862,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="1:4">
+    <row r="544" spans="1:4">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -22880,7 +22876,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:4">
+    <row r="545" spans="1:4">
       <c r="A545" s="1">
         <v>0</v>
       </c>
@@ -22894,7 +22890,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:4">
+    <row r="546" spans="1:4">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -22908,7 +22904,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:4">
+    <row r="547" spans="1:4">
       <c r="A547" s="1">
         <v>0</v>
       </c>
@@ -22922,7 +22918,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:4">
+    <row r="548" spans="1:4">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -22972,7 +22968,7 @@
       </c>
       <c r="E551" s="6"/>
     </row>
-    <row r="552" hidden="1" spans="1:4">
+    <row r="552" spans="1:4">
       <c r="A552" s="1">
         <v>0</v>
       </c>
@@ -22998,7 +22994,7 @@
       </c>
       <c r="E553" s="6"/>
     </row>
-    <row r="554" hidden="1" spans="1:5">
+    <row r="554" spans="1:5">
       <c r="A554" s="1">
         <v>0</v>
       </c>
@@ -23027,7 +23023,7 @@
       </c>
       <c r="E555" s="6"/>
     </row>
-    <row r="556" hidden="1" spans="1:4">
+    <row r="556" spans="1:4">
       <c r="A556" s="1">
         <v>0</v>
       </c>
@@ -23041,7 +23037,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:5">
+    <row r="557" spans="1:5">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -23058,7 +23054,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="1:4">
+    <row r="558" spans="1:4">
       <c r="A558" s="1">
         <v>0</v>
       </c>
@@ -23072,7 +23068,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="1:4">
+    <row r="559" spans="1:4">
       <c r="A559" s="1">
         <v>0</v>
       </c>
@@ -23110,7 +23106,7 @@
       </c>
       <c r="E561" s="6"/>
     </row>
-    <row r="562" hidden="1" spans="1:4">
+    <row r="562" spans="1:4">
       <c r="A562" s="1">
         <v>0</v>
       </c>
@@ -23148,7 +23144,7 @@
       </c>
       <c r="E564" s="6"/>
     </row>
-    <row r="565" hidden="1" spans="1:4">
+    <row r="565" spans="1:4">
       <c r="A565" s="1">
         <v>0</v>
       </c>
@@ -23174,7 +23170,7 @@
       </c>
       <c r="E566" s="6"/>
     </row>
-    <row r="567" ht="48" hidden="1" spans="1:4">
+    <row r="567" spans="1:4">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -23212,7 +23208,7 @@
       </c>
       <c r="E569" s="6"/>
     </row>
-    <row r="570" ht="48" hidden="1" spans="1:5">
+    <row r="570" ht="37.5" spans="1:5">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -23229,7 +23225,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="1:5">
+    <row r="571" spans="1:5">
       <c r="A571" s="1">
         <v>0</v>
       </c>
@@ -23246,7 +23242,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="1:4">
+    <row r="572" spans="1:4">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -23260,7 +23256,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="573" hidden="1" spans="1:4">
+    <row r="573" spans="1:4">
       <c r="A573" s="1">
         <v>0</v>
       </c>
@@ -23274,7 +23270,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="574" ht="48" hidden="1" spans="2:5">
+    <row r="574" hidden="1" spans="2:5">
       <c r="B574" s="1" t="s">
         <v>1815</v>
       </c>
@@ -23324,7 +23320,7 @@
       </c>
       <c r="E577" s="6"/>
     </row>
-    <row r="578" hidden="1" spans="1:5">
+    <row r="578" spans="1:5">
       <c r="A578" s="1">
         <v>0</v>
       </c>
@@ -23341,7 +23337,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="579" ht="48" hidden="1" spans="2:5">
+    <row r="579" ht="37.5" hidden="1" spans="2:5">
       <c r="B579" s="1" t="s">
         <v>1832</v>
       </c>
@@ -23381,7 +23377,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="1:4">
+    <row r="582" spans="1:4">
       <c r="A582" s="1">
         <v>0</v>
       </c>
@@ -23467,7 +23463,7 @@
       </c>
       <c r="E588" s="6"/>
     </row>
-    <row r="589" hidden="1" spans="1:4">
+    <row r="589" spans="1:4">
       <c r="A589" s="1">
         <v>0</v>
       </c>
@@ -23481,7 +23477,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:4">
+    <row r="590" spans="1:4">
       <c r="A590" s="1">
         <v>0</v>
       </c>
@@ -23545,7 +23541,7 @@
       </c>
       <c r="E594" s="6"/>
     </row>
-    <row r="595" hidden="1" spans="1:4">
+    <row r="595" spans="1:4">
       <c r="A595" s="1">
         <v>0</v>
       </c>
@@ -23595,7 +23591,7 @@
       </c>
       <c r="E598" s="6"/>
     </row>
-    <row r="599" hidden="1" spans="1:4">
+    <row r="599" spans="1:4">
       <c r="A599" s="1">
         <v>0</v>
       </c>
@@ -23609,7 +23605,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:4">
+    <row r="600" spans="1:4">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -23623,7 +23619,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:5">
+    <row r="601" spans="1:5">
       <c r="A601" s="1">
         <v>0</v>
       </c>
@@ -23650,7 +23646,7 @@
       </c>
       <c r="E602" s="6"/>
     </row>
-    <row r="603" hidden="1" spans="1:5">
+    <row r="603" spans="1:5">
       <c r="A603" s="1">
         <v>0</v>
       </c>
@@ -23667,7 +23663,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="1:5">
+    <row r="604" spans="1:5">
       <c r="A604" s="1">
         <v>0</v>
       </c>
@@ -23682,7 +23678,7 @@
       </c>
       <c r="E604" s="6"/>
     </row>
-    <row r="605" hidden="1" spans="1:4">
+    <row r="605" spans="1:4">
       <c r="A605" s="1">
         <v>0</v>
       </c>
@@ -23756,7 +23752,7 @@
       </c>
       <c r="E610" s="6"/>
     </row>
-    <row r="611" hidden="1" spans="1:4">
+    <row r="611" spans="1:4">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -23770,7 +23766,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="1:5">
+    <row r="612" spans="1:5">
       <c r="A612" s="1">
         <v>0</v>
       </c>
@@ -23787,7 +23783,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="613" hidden="1" spans="1:4">
+    <row r="613" spans="1:4">
       <c r="A613" s="1">
         <v>0</v>
       </c>
@@ -23813,7 +23809,7 @@
       </c>
       <c r="E614" s="6"/>
     </row>
-    <row r="615" ht="48" hidden="1" spans="2:5">
+    <row r="615" ht="37.5" hidden="1" spans="2:5">
       <c r="B615" s="1" t="s">
         <v>1943</v>
       </c>
@@ -23825,7 +23821,7 @@
       </c>
       <c r="E615" s="6"/>
     </row>
-    <row r="616" hidden="1" spans="1:5">
+    <row r="616" spans="1:5">
       <c r="A616" s="1">
         <v>0</v>
       </c>
@@ -23840,7 +23836,7 @@
       </c>
       <c r="E616" s="6"/>
     </row>
-    <row r="617" hidden="1" spans="1:4">
+    <row r="617" spans="1:4">
       <c r="A617" s="1">
         <v>0</v>
       </c>
@@ -23854,7 +23850,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="1:5">
+    <row r="618" spans="1:5">
       <c r="A618" s="1">
         <v>0</v>
       </c>
@@ -23869,7 +23865,7 @@
       </c>
       <c r="E618" s="6"/>
     </row>
-    <row r="619" hidden="1" spans="1:4">
+    <row r="619" spans="1:4">
       <c r="A619" s="1">
         <v>0</v>
       </c>
@@ -23883,7 +23879,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="620" ht="48" hidden="1" spans="2:5">
+    <row r="620" hidden="1" spans="2:5">
       <c r="B620" s="1" t="s">
         <v>1958</v>
       </c>
@@ -23895,7 +23891,7 @@
       </c>
       <c r="E620" s="6"/>
     </row>
-    <row r="621" ht="72" hidden="1" spans="1:5">
+    <row r="621" ht="37.5" spans="1:5">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -23960,7 +23956,7 @@
       </c>
       <c r="E625" s="6"/>
     </row>
-    <row r="626" ht="48" hidden="1" spans="1:5">
+    <row r="626" spans="1:5">
       <c r="A626" s="1">
         <v>0</v>
       </c>
@@ -23987,7 +23983,7 @@
       </c>
       <c r="E627" s="6"/>
     </row>
-    <row r="628" hidden="1" spans="1:4">
+    <row r="628" spans="1:4">
       <c r="A628" s="1">
         <v>0</v>
       </c>
@@ -24013,7 +24009,7 @@
       </c>
       <c r="E629" s="6"/>
     </row>
-    <row r="630" hidden="1" spans="1:5">
+    <row r="630" spans="1:5">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -24066,7 +24062,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:4">
+    <row r="634" spans="1:4">
       <c r="A634" s="1">
         <v>0</v>
       </c>
@@ -24092,7 +24088,7 @@
       </c>
       <c r="E635" s="6"/>
     </row>
-    <row r="636" hidden="1" spans="1:4">
+    <row r="636" spans="1:4">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -24118,7 +24114,7 @@
       </c>
       <c r="E637" s="6"/>
     </row>
-    <row r="638" hidden="1" spans="1:4">
+    <row r="638" spans="1:4">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -24132,7 +24128,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="639" ht="143" hidden="1" spans="1:5">
+    <row r="639" ht="112.5" spans="1:5">
       <c r="A639" s="1">
         <v>0</v>
       </c>
@@ -24161,7 +24157,7 @@
       </c>
       <c r="E640" s="6"/>
     </row>
-    <row r="641" hidden="1" spans="1:5">
+    <row r="641" spans="1:5">
       <c r="A641" s="1">
         <v>0</v>
       </c>
@@ -24200,7 +24196,7 @@
       </c>
       <c r="E643" s="6"/>
     </row>
-    <row r="644" hidden="1" spans="1:5">
+    <row r="644" spans="1:5">
       <c r="A644" s="1">
         <v>0</v>
       </c>
@@ -24251,7 +24247,7 @@
       </c>
       <c r="E647" s="6"/>
     </row>
-    <row r="648" hidden="1" spans="1:5">
+    <row r="648" spans="1:5">
       <c r="A648" s="1">
         <v>0</v>
       </c>
@@ -24266,7 +24262,7 @@
       </c>
       <c r="E648" s="6"/>
     </row>
-    <row r="649" hidden="1" spans="1:5">
+    <row r="649" spans="1:5">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -24373,7 +24369,7 @@
       </c>
       <c r="E656" s="6"/>
     </row>
-    <row r="657" hidden="1" spans="1:5">
+    <row r="657" spans="1:5">
       <c r="A657" s="1">
         <v>0</v>
       </c>
@@ -24400,7 +24396,7 @@
       </c>
       <c r="E658" s="6"/>
     </row>
-    <row r="659" hidden="1" spans="1:4">
+    <row r="659" spans="1:4">
       <c r="A659" s="1">
         <v>0</v>
       </c>
@@ -24414,7 +24410,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="1:5">
+    <row r="660" spans="1:5">
       <c r="A660" s="1">
         <v>0</v>
       </c>
@@ -24453,7 +24449,7 @@
       </c>
       <c r="E662" s="6"/>
     </row>
-    <row r="663" ht="62" hidden="1" spans="2:5">
+    <row r="663" ht="37.5" hidden="1" spans="2:5">
       <c r="B663" s="1" t="s">
         <v>2092</v>
       </c>
@@ -24531,7 +24527,7 @@
       </c>
       <c r="E668" s="6"/>
     </row>
-    <row r="669" ht="38" hidden="1" spans="2:5">
+    <row r="669" ht="37.5" hidden="1" spans="2:5">
       <c r="B669" s="1" t="s">
         <v>2113</v>
       </c>
@@ -24557,7 +24553,7 @@
       </c>
       <c r="E670" s="6"/>
     </row>
-    <row r="671" ht="96" hidden="1" spans="1:5">
+    <row r="671" ht="75" spans="1:5">
       <c r="A671" s="1">
         <v>0</v>
       </c>
@@ -24598,7 +24594,7 @@
       </c>
       <c r="E673" s="6"/>
     </row>
-    <row r="674" hidden="1" spans="1:5">
+    <row r="674" spans="1:5">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -24625,7 +24621,7 @@
       </c>
       <c r="E675" s="6"/>
     </row>
-    <row r="676" hidden="1" spans="1:4">
+    <row r="676" spans="1:4">
       <c r="A676" s="1">
         <v>0</v>
       </c>
@@ -24653,7 +24649,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="1:5">
+    <row r="678" spans="1:5">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -24730,7 +24726,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="684" hidden="1" spans="1:5">
+    <row r="684" spans="1:5">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -24745,7 +24741,7 @@
       </c>
       <c r="E684" s="6"/>
     </row>
-    <row r="685" hidden="1" spans="1:5">
+    <row r="685" spans="1:5">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -24762,7 +24758,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="686" hidden="1" spans="1:5">
+    <row r="686" spans="1:5">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -24801,7 +24797,7 @@
       </c>
       <c r="E688" s="6"/>
     </row>
-    <row r="689" ht="48" hidden="1" spans="1:4">
+    <row r="689" spans="1:4">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -24815,7 +24811,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="1:5">
+    <row r="690" spans="1:5">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -24830,7 +24826,7 @@
       </c>
       <c r="E690" s="6"/>
     </row>
-    <row r="691" ht="48" hidden="1" spans="2:5">
+    <row r="691" hidden="1" spans="2:5">
       <c r="B691" s="1" t="s">
         <v>2184</v>
       </c>
@@ -24842,7 +24838,7 @@
       </c>
       <c r="E691" s="6"/>
     </row>
-    <row r="692" hidden="1" spans="1:5">
+    <row r="692" spans="1:5">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -24869,7 +24865,7 @@
       </c>
       <c r="E693" s="6"/>
     </row>
-    <row r="694" hidden="1" spans="1:5">
+    <row r="694" spans="1:5">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -24886,7 +24882,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="695" hidden="1" spans="1:5">
+    <row r="695" spans="1:5">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -24927,7 +24923,7 @@
       </c>
       <c r="E697" s="6"/>
     </row>
-    <row r="698" hidden="1" spans="1:5">
+    <row r="698" spans="1:5">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -24954,7 +24950,7 @@
       </c>
       <c r="E699" s="6"/>
     </row>
-    <row r="700" hidden="1" spans="1:4">
+    <row r="700" spans="1:4">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -24968,7 +24964,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="701" hidden="1" spans="1:4">
+    <row r="701" spans="1:4">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -24982,7 +24978,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="702" hidden="1" spans="1:4">
+    <row r="702" spans="1:4">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -25022,7 +25018,7 @@
       </c>
       <c r="E704" s="6"/>
     </row>
-    <row r="705" ht="48" hidden="1" spans="2:5">
+    <row r="705" hidden="1" spans="2:5">
       <c r="B705" s="1" t="s">
         <v>2229</v>
       </c>
@@ -25034,7 +25030,7 @@
       </c>
       <c r="E705" s="6"/>
     </row>
-    <row r="706" hidden="1" spans="1:4">
+    <row r="706" spans="1:4">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -25074,7 +25070,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="1:4">
+    <row r="709" spans="1:4">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -25116,7 +25112,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="712" ht="120" hidden="1" spans="1:5">
+    <row r="712" ht="93.75" spans="1:5">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -25145,7 +25141,7 @@
       </c>
       <c r="E713" s="6"/>
     </row>
-    <row r="714" hidden="1" spans="1:5">
+    <row r="714" spans="1:5">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -25162,7 +25158,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="1:4">
+    <row r="715" spans="1:4">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -25176,7 +25172,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="716" hidden="1" spans="1:4">
+    <row r="716" spans="1:4">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -25190,7 +25186,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="717" hidden="1" spans="1:4">
+    <row r="717" spans="1:4">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -25257,7 +25253,7 @@
       </c>
       <c r="E721" s="6"/>
     </row>
-    <row r="722" hidden="1" spans="1:4">
+    <row r="722" spans="1:4">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -25295,7 +25291,7 @@
       </c>
       <c r="E724" s="6"/>
     </row>
-    <row r="725" hidden="1" spans="1:5">
+    <row r="725" spans="1:5">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -25348,7 +25344,7 @@
       </c>
       <c r="E728" s="6"/>
     </row>
-    <row r="729" hidden="1" spans="1:4">
+    <row r="729" spans="1:4">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -25386,7 +25382,7 @@
       </c>
       <c r="E731" s="6"/>
     </row>
-    <row r="732" hidden="1" spans="1:4">
+    <row r="732" spans="1:4">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -25400,7 +25396,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="733" hidden="1" spans="1:4">
+    <row r="733" spans="1:4">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -25426,7 +25422,7 @@
       </c>
       <c r="E734" s="6"/>
     </row>
-    <row r="735" hidden="1" spans="1:4">
+    <row r="735" spans="1:4">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -25452,7 +25448,7 @@
       </c>
       <c r="E736" s="6"/>
     </row>
-    <row r="737" hidden="1" spans="1:4">
+    <row r="737" spans="1:4">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -25540,7 +25536,7 @@
       </c>
       <c r="E743" s="6"/>
     </row>
-    <row r="744" hidden="1" spans="1:4">
+    <row r="744" spans="1:4">
       <c r="A744" s="1">
         <v>0</v>
       </c>
@@ -25602,7 +25598,7 @@
       </c>
       <c r="E748" s="6"/>
     </row>
-    <row r="749" hidden="1" spans="1:4">
+    <row r="749" spans="1:4">
       <c r="A749" s="1">
         <v>0</v>
       </c>
@@ -25628,7 +25624,7 @@
       </c>
       <c r="E750" s="6"/>
     </row>
-    <row r="751" hidden="1" spans="1:4">
+    <row r="751" spans="1:4">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -25666,7 +25662,7 @@
       </c>
       <c r="E753" s="6"/>
     </row>
-    <row r="754" hidden="1" spans="1:4">
+    <row r="754" spans="1:4">
       <c r="A754" s="1">
         <v>0</v>
       </c>
@@ -25776,7 +25772,7 @@
       </c>
       <c r="E762" s="6"/>
     </row>
-    <row r="763" hidden="1" spans="1:4">
+    <row r="763" spans="1:4">
       <c r="A763" s="1">
         <v>0</v>
       </c>
@@ -25790,7 +25786,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="764" hidden="1" spans="1:4">
+    <row r="764" spans="1:4">
       <c r="A764" s="1">
         <v>0</v>
       </c>
@@ -25804,7 +25800,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="765" hidden="1" spans="1:4">
+    <row r="765" spans="1:4">
       <c r="A765" s="1">
         <v>0</v>
       </c>
@@ -25830,7 +25826,7 @@
       </c>
       <c r="E766" s="6"/>
     </row>
-    <row r="767" hidden="1" spans="1:4">
+    <row r="767" spans="1:4">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -25844,7 +25840,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="768" hidden="1" spans="1:4">
+    <row r="768" spans="1:4">
       <c r="A768" s="1">
         <v>0</v>
       </c>
@@ -25882,7 +25878,7 @@
       </c>
       <c r="E770" s="6"/>
     </row>
-    <row r="771" hidden="1" spans="1:4">
+    <row r="771" spans="1:4">
       <c r="A771" s="1">
         <v>0</v>
       </c>
@@ -25920,7 +25916,7 @@
       </c>
       <c r="E773" s="6"/>
     </row>
-    <row r="774" hidden="1" spans="1:4">
+    <row r="774" spans="1:4">
       <c r="A774" s="1">
         <v>0</v>
       </c>
@@ -26018,7 +26014,7 @@
       </c>
       <c r="E781" s="6"/>
     </row>
-    <row r="782" hidden="1" spans="1:4">
+    <row r="782" spans="1:4">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -26044,7 +26040,7 @@
       </c>
       <c r="E783" s="6"/>
     </row>
-    <row r="784" hidden="1" spans="1:4">
+    <row r="784" spans="1:4">
       <c r="A784" s="1">
         <v>0</v>
       </c>
@@ -26058,7 +26054,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="785" ht="48" hidden="1" spans="2:5">
+    <row r="785" hidden="1" spans="2:5">
       <c r="B785" s="1" t="s">
         <v>2476</v>
       </c>
@@ -26082,7 +26078,7 @@
       </c>
       <c r="E786" s="6"/>
     </row>
-    <row r="787" hidden="1" spans="1:5">
+    <row r="787" spans="1:5">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -26161,7 +26157,7 @@
       </c>
       <c r="E792" s="6"/>
     </row>
-    <row r="793" hidden="1" spans="1:4">
+    <row r="793" spans="1:4">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -26199,7 +26195,7 @@
       </c>
       <c r="E795" s="6"/>
     </row>
-    <row r="796" hidden="1" spans="1:5">
+    <row r="796" spans="1:5">
       <c r="A796" s="1">
         <v>0</v>
       </c>
@@ -26312,7 +26308,7 @@
       </c>
       <c r="E804" s="6"/>
     </row>
-    <row r="805" hidden="1" spans="1:4">
+    <row r="805" spans="1:4">
       <c r="A805" s="1">
         <v>0</v>
       </c>
@@ -26350,7 +26346,7 @@
       </c>
       <c r="E807" s="6"/>
     </row>
-    <row r="808" hidden="1" spans="1:5">
+    <row r="808" spans="1:5">
       <c r="A808" s="1">
         <v>0</v>
       </c>
@@ -26403,7 +26399,7 @@
       </c>
       <c r="E811" s="6"/>
     </row>
-    <row r="812" hidden="1" spans="1:4">
+    <row r="812" spans="1:4">
       <c r="A812" s="1">
         <v>0</v>
       </c>
@@ -26441,7 +26437,7 @@
       </c>
       <c r="E814" s="6"/>
     </row>
-    <row r="815" hidden="1" spans="1:5">
+    <row r="815" spans="1:5">
       <c r="A815" s="1">
         <v>0</v>
       </c>
@@ -26516,7 +26512,7 @@
       </c>
       <c r="E820" s="6"/>
     </row>
-    <row r="821" hidden="1" spans="1:5">
+    <row r="821" spans="1:5">
       <c r="A821" s="1">
         <v>0</v>
       </c>
@@ -26531,7 +26527,7 @@
       </c>
       <c r="E821" s="6"/>
     </row>
-    <row r="822" hidden="1" spans="1:5">
+    <row r="822" spans="1:5">
       <c r="A822" s="1">
         <v>0</v>
       </c>
@@ -26558,7 +26554,7 @@
       </c>
       <c r="E823" s="6"/>
     </row>
-    <row r="824" hidden="1" spans="1:5">
+    <row r="824" spans="1:5">
       <c r="A824" s="1">
         <v>0</v>
       </c>
@@ -26573,7 +26569,7 @@
       </c>
       <c r="E824" s="6"/>
     </row>
-    <row r="825" hidden="1" spans="1:4">
+    <row r="825" spans="1:4">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -26611,7 +26607,7 @@
       </c>
       <c r="E827" s="6"/>
     </row>
-    <row r="828" hidden="1" spans="1:5">
+    <row r="828" spans="1:5">
       <c r="A828" s="1">
         <v>0</v>
       </c>
@@ -26628,7 +26624,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="829" hidden="1" spans="1:5">
+    <row r="829" spans="1:5">
       <c r="A829" s="1">
         <v>0</v>
       </c>
@@ -26643,7 +26639,7 @@
       </c>
       <c r="E829" s="6"/>
     </row>
-    <row r="830" hidden="1" spans="1:4">
+    <row r="830" spans="1:4">
       <c r="A830" s="1">
         <v>0</v>
       </c>
@@ -26669,7 +26665,7 @@
       </c>
       <c r="E831" s="6"/>
     </row>
-    <row r="832" hidden="1" spans="1:4">
+    <row r="832" spans="1:4">
       <c r="A832" s="1">
         <v>0</v>
       </c>
@@ -26695,7 +26691,7 @@
       </c>
       <c r="E833" s="6"/>
     </row>
-    <row r="834" hidden="1" spans="1:5">
+    <row r="834" spans="1:5">
       <c r="A834" s="1">
         <v>0</v>
       </c>
@@ -26734,7 +26730,7 @@
       </c>
       <c r="E836" s="6"/>
     </row>
-    <row r="837" hidden="1" spans="1:4">
+    <row r="837" spans="1:4">
       <c r="A837" s="1">
         <v>0</v>
       </c>
@@ -26772,7 +26768,7 @@
       </c>
       <c r="E839" s="6"/>
     </row>
-    <row r="840" hidden="1" spans="1:5">
+    <row r="840" spans="1:5">
       <c r="A840" s="1">
         <v>0</v>
       </c>
@@ -26835,7 +26831,7 @@
       </c>
       <c r="E844" s="6"/>
     </row>
-    <row r="845" hidden="1" spans="1:5">
+    <row r="845" spans="1:5">
       <c r="A845" s="1">
         <v>0</v>
       </c>
@@ -26850,7 +26846,7 @@
       </c>
       <c r="E845" s="6"/>
     </row>
-    <row r="846" hidden="1" spans="1:5">
+    <row r="846" spans="1:5">
       <c r="A846" s="1">
         <v>0</v>
       </c>
@@ -26925,7 +26921,7 @@
       </c>
       <c r="E851" s="6"/>
     </row>
-    <row r="852" hidden="1" spans="1:5">
+    <row r="852" spans="1:5">
       <c r="A852" s="1">
         <v>0</v>
       </c>
@@ -26942,7 +26938,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="853" hidden="1" spans="1:5">
+    <row r="853" spans="1:5">
       <c r="A853" s="1">
         <v>0</v>
       </c>
@@ -27041,7 +27037,7 @@
       </c>
       <c r="E860" s="6"/>
     </row>
-    <row r="861" ht="48" hidden="1" spans="2:5">
+    <row r="861" hidden="1" spans="2:5">
       <c r="B861" s="1" t="s">
         <v>2710</v>
       </c>
@@ -27101,7 +27097,7 @@
       </c>
       <c r="E865" s="6"/>
     </row>
-    <row r="866" hidden="1" spans="1:5">
+    <row r="866" spans="1:5">
       <c r="A866" s="1">
         <v>0</v>
       </c>
@@ -27128,7 +27124,7 @@
       </c>
       <c r="E867" s="6"/>
     </row>
-    <row r="868" hidden="1" spans="1:5">
+    <row r="868" spans="1:5">
       <c r="A868" s="1">
         <v>0</v>
       </c>
@@ -27143,7 +27139,7 @@
       </c>
       <c r="E868" s="6"/>
     </row>
-    <row r="869" hidden="1" spans="1:4">
+    <row r="869" spans="1:4">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -27157,7 +27153,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="870" hidden="1" spans="1:4">
+    <row r="870" spans="1:4">
       <c r="A870" s="1">
         <v>0</v>
       </c>
@@ -27207,7 +27203,7 @@
       </c>
       <c r="E873" s="6"/>
     </row>
-    <row r="874" ht="48" hidden="1" spans="2:5">
+    <row r="874" hidden="1" spans="2:5">
       <c r="B874" s="1" t="s">
         <v>2749</v>
       </c>
@@ -27219,7 +27215,7 @@
       </c>
       <c r="E874" s="6"/>
     </row>
-    <row r="875" hidden="1" spans="1:5">
+    <row r="875" spans="1:5">
       <c r="A875" s="1">
         <v>0</v>
       </c>
@@ -27282,7 +27278,7 @@
       </c>
       <c r="E879" s="6"/>
     </row>
-    <row r="880" hidden="1" spans="1:5">
+    <row r="880" spans="1:5">
       <c r="A880" s="1">
         <v>0</v>
       </c>
@@ -27297,7 +27293,7 @@
       </c>
       <c r="E880" s="6"/>
     </row>
-    <row r="881" hidden="1" spans="1:5">
+    <row r="881" spans="1:5">
       <c r="A881" s="1">
         <v>0</v>
       </c>
@@ -27312,7 +27308,7 @@
       </c>
       <c r="E881" s="6"/>
     </row>
-    <row r="882" hidden="1" spans="1:4">
+    <row r="882" spans="1:4">
       <c r="A882" s="1">
         <v>0</v>
       </c>
@@ -27350,7 +27346,7 @@
       </c>
       <c r="E884" s="6"/>
     </row>
-    <row r="885" hidden="1" spans="1:5">
+    <row r="885" spans="1:5">
       <c r="A885" s="1">
         <v>0</v>
       </c>
@@ -27415,7 +27411,7 @@
       </c>
       <c r="E889" s="6"/>
     </row>
-    <row r="890" hidden="1" spans="1:4">
+    <row r="890" spans="1:4">
       <c r="A890" s="1">
         <v>0</v>
       </c>
@@ -27525,7 +27521,7 @@
       </c>
       <c r="E898" s="6"/>
     </row>
-    <row r="899" hidden="1" spans="1:5">
+    <row r="899" spans="1:5">
       <c r="A899" s="1">
         <v>0</v>
       </c>
@@ -27576,7 +27572,7 @@
       </c>
       <c r="E902" s="6"/>
     </row>
-    <row r="903" hidden="1" spans="1:5">
+    <row r="903" spans="1:5">
       <c r="A903" s="1">
         <v>0</v>
       </c>
@@ -27723,7 +27719,7 @@
       </c>
       <c r="E914" s="6"/>
     </row>
-    <row r="915" hidden="1" spans="1:5">
+    <row r="915" spans="1:5">
       <c r="A915" s="1">
         <v>0</v>
       </c>
@@ -27740,7 +27736,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="916" hidden="1" spans="1:5">
+    <row r="916" spans="1:5">
       <c r="A916" s="1">
         <v>0</v>
       </c>
@@ -27827,7 +27823,7 @@
       </c>
       <c r="E922" s="6"/>
     </row>
-    <row r="923" hidden="1" spans="1:5">
+    <row r="923" spans="1:5">
       <c r="A923" s="1">
         <v>0</v>
       </c>
@@ -27866,7 +27862,7 @@
       </c>
       <c r="E925" s="6"/>
     </row>
-    <row r="926" hidden="1" spans="1:4">
+    <row r="926" spans="1:4">
       <c r="A926" s="1">
         <v>0</v>
       </c>
@@ -27880,7 +27876,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="927" hidden="1" spans="1:5">
+    <row r="927" spans="1:5">
       <c r="A927" s="1">
         <v>0</v>
       </c>
@@ -27895,7 +27891,7 @@
       </c>
       <c r="E927" s="6"/>
     </row>
-    <row r="928" hidden="1" spans="1:4">
+    <row r="928" spans="1:4">
       <c r="A928" s="1">
         <v>0</v>
       </c>
@@ -27957,7 +27953,7 @@
       </c>
       <c r="E932" s="6"/>
     </row>
-    <row r="933" hidden="1" spans="1:5">
+    <row r="933" spans="1:5">
       <c r="A933" s="1">
         <v>0</v>
       </c>
@@ -27986,7 +27982,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="935" ht="48" hidden="1" spans="1:5">
+    <row r="935" ht="37.5" spans="1:5">
       <c r="A935" s="1">
         <v>0</v>
       </c>
@@ -28013,7 +28009,7 @@
       </c>
       <c r="E936" s="6"/>
     </row>
-    <row r="937" hidden="1" spans="1:5">
+    <row r="937" spans="1:5">
       <c r="A937" s="1">
         <v>0</v>
       </c>
@@ -28078,7 +28074,7 @@
       </c>
       <c r="E941" s="6"/>
     </row>
-    <row r="942" hidden="1" spans="1:5">
+    <row r="942" spans="1:5">
       <c r="A942" s="1">
         <v>0</v>
       </c>
@@ -28105,7 +28101,7 @@
       </c>
       <c r="E943" s="6"/>
     </row>
-    <row r="944" hidden="1" spans="1:5">
+    <row r="944" spans="1:5">
       <c r="A944" s="1">
         <v>0</v>
       </c>
@@ -28122,7 +28118,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="945" hidden="1" spans="1:5">
+    <row r="945" spans="1:5">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -28137,7 +28133,7 @@
       </c>
       <c r="E945" s="6"/>
     </row>
-    <row r="946" hidden="1" spans="1:5">
+    <row r="946" spans="1:5">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -28152,7 +28148,7 @@
       </c>
       <c r="E946" s="6"/>
     </row>
-    <row r="947" hidden="1" spans="1:5">
+    <row r="947" spans="1:5">
       <c r="A947" s="1">
         <v>0</v>
       </c>
@@ -28227,7 +28223,7 @@
       </c>
       <c r="E952" s="6"/>
     </row>
-    <row r="953" hidden="1" spans="1:5">
+    <row r="953" spans="1:5">
       <c r="A953" s="1">
         <v>0</v>
       </c>
@@ -28242,7 +28238,7 @@
       </c>
       <c r="E953" s="6"/>
     </row>
-    <row r="954" hidden="1" spans="1:5">
+    <row r="954" spans="1:5">
       <c r="A954" s="1">
         <v>0</v>
       </c>
@@ -28269,7 +28265,7 @@
       </c>
       <c r="E955" s="6"/>
     </row>
-    <row r="956" hidden="1" spans="1:5">
+    <row r="956" spans="1:5">
       <c r="A956" s="1">
         <v>0</v>
       </c>
@@ -28296,7 +28292,7 @@
       </c>
       <c r="E957" s="6"/>
     </row>
-    <row r="958" hidden="1" spans="1:5">
+    <row r="958" spans="1:5">
       <c r="A958" s="1">
         <v>0</v>
       </c>
@@ -28371,7 +28367,7 @@
       </c>
       <c r="E963" s="6"/>
     </row>
-    <row r="964" hidden="1" spans="1:5">
+    <row r="964" spans="1:5">
       <c r="A964" s="1">
         <v>0</v>
       </c>
@@ -28386,7 +28382,7 @@
       </c>
       <c r="E964" s="6"/>
     </row>
-    <row r="965" ht="48" hidden="1" spans="1:5">
+    <row r="965" spans="1:5">
       <c r="A965" s="1">
         <v>0</v>
       </c>
@@ -28401,7 +28397,7 @@
       </c>
       <c r="E965" s="6"/>
     </row>
-    <row r="966" hidden="1" spans="1:5">
+    <row r="966" spans="1:5">
       <c r="A966" s="1">
         <v>0</v>
       </c>
@@ -28538,7 +28534,7 @@
       </c>
       <c r="E976" s="6"/>
     </row>
-    <row r="977" ht="48" hidden="1" spans="2:5">
+    <row r="977" hidden="1" spans="2:5">
       <c r="B977" s="1" t="s">
         <v>3060</v>
       </c>
@@ -28586,7 +28582,7 @@
       </c>
       <c r="E980" s="6"/>
     </row>
-    <row r="981" hidden="1" spans="1:5">
+    <row r="981" spans="1:5">
       <c r="A981" s="1">
         <v>0</v>
       </c>
@@ -28601,7 +28597,7 @@
       </c>
       <c r="E981" s="6"/>
     </row>
-    <row r="982" hidden="1" spans="1:5">
+    <row r="982" spans="1:5">
       <c r="A982" s="1">
         <v>0</v>
       </c>
@@ -28640,7 +28636,7 @@
       </c>
       <c r="E984" s="6"/>
     </row>
-    <row r="985" hidden="1" spans="1:4">
+    <row r="985" spans="1:4">
       <c r="A985" s="1">
         <v>0</v>
       </c>
@@ -28702,7 +28698,7 @@
       </c>
       <c r="E989" s="6"/>
     </row>
-    <row r="990" hidden="1" spans="1:5">
+    <row r="990" spans="1:5">
       <c r="A990" s="1">
         <v>0</v>
       </c>
@@ -28729,7 +28725,7 @@
       </c>
       <c r="E991" s="6"/>
     </row>
-    <row r="992" hidden="1" spans="1:5">
+    <row r="992" spans="1:5">
       <c r="A992" s="1">
         <v>0</v>
       </c>
@@ -28876,7 +28872,7 @@
       </c>
       <c r="E1003" s="6"/>
     </row>
-    <row r="1004" ht="48" hidden="1" spans="1:4">
+    <row r="1004" spans="1:4">
       <c r="A1004" s="1">
         <v>0</v>
       </c>
@@ -28926,7 +28922,7 @@
       </c>
       <c r="E1007" s="6"/>
     </row>
-    <row r="1008" hidden="1" spans="1:4">
+    <row r="1008" spans="1:4">
       <c r="A1008" s="1">
         <v>0</v>
       </c>
@@ -29024,7 +29020,7 @@
       </c>
       <c r="E1015" s="6"/>
     </row>
-    <row r="1016" ht="48" hidden="1" spans="2:5">
+    <row r="1016" ht="37.5" hidden="1" spans="2:5">
       <c r="B1016" s="1" t="s">
         <v>3177</v>
       </c>
@@ -29048,7 +29044,7 @@
       </c>
       <c r="E1017" s="6"/>
     </row>
-    <row r="1018" ht="48" hidden="1" spans="1:5">
+    <row r="1018" ht="37.5" spans="1:5">
       <c r="A1018" s="1">
         <v>0</v>
       </c>
@@ -29101,7 +29097,7 @@
       </c>
       <c r="E1021" s="6"/>
     </row>
-    <row r="1022" hidden="1" spans="1:4">
+    <row r="1022" spans="1:4">
       <c r="A1022" s="1">
         <v>0</v>
       </c>
@@ -29139,7 +29135,7 @@
       </c>
       <c r="E1024" s="6"/>
     </row>
-    <row r="1025" hidden="1" spans="1:4">
+    <row r="1025" spans="1:4">
       <c r="A1025" s="1">
         <v>0</v>
       </c>
@@ -29165,7 +29161,7 @@
       </c>
       <c r="E1026" s="6"/>
     </row>
-    <row r="1027" hidden="1" spans="1:5">
+    <row r="1027" spans="1:5">
       <c r="A1027" s="1">
         <v>0</v>
       </c>
@@ -29182,7 +29178,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="1028" hidden="1" spans="1:4">
+    <row r="1028" spans="1:4">
       <c r="A1028" s="1">
         <v>0</v>
       </c>
@@ -29270,7 +29266,7 @@
       </c>
       <c r="E1034" s="6"/>
     </row>
-    <row r="1035" hidden="1" spans="1:4">
+    <row r="1035" spans="1:4">
       <c r="A1035" s="1">
         <v>0</v>
       </c>
@@ -29284,7 +29280,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="1036" hidden="1" spans="1:4">
+    <row r="1036" spans="1:4">
       <c r="A1036" s="1">
         <v>0</v>
       </c>
@@ -29298,7 +29294,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="1037" hidden="1" spans="1:4">
+    <row r="1037" spans="1:4">
       <c r="A1037" s="1">
         <v>0</v>
       </c>
@@ -29312,7 +29308,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="1038" hidden="1" spans="1:4">
+    <row r="1038" spans="1:4">
       <c r="A1038" s="1">
         <v>0</v>
       </c>
@@ -29398,7 +29394,7 @@
       </c>
       <c r="E1044" s="6"/>
     </row>
-    <row r="1045" hidden="1" spans="1:4">
+    <row r="1045" spans="1:4">
       <c r="A1045" s="1">
         <v>0</v>
       </c>
@@ -29460,7 +29456,7 @@
       </c>
       <c r="E1049" s="6"/>
     </row>
-    <row r="1050" hidden="1" spans="1:4">
+    <row r="1050" spans="1:4">
       <c r="A1050" s="1">
         <v>0</v>
       </c>
@@ -29474,7 +29470,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="1051" hidden="1" spans="1:4">
+    <row r="1051" spans="1:4">
       <c r="A1051" s="1">
         <v>0</v>
       </c>
@@ -29488,7 +29484,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="1052" hidden="1" spans="1:4">
+    <row r="1052" spans="1:4">
       <c r="A1052" s="1">
         <v>0</v>
       </c>
@@ -29516,7 +29512,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="1054" hidden="1" spans="1:4">
+    <row r="1054" spans="1:4">
       <c r="A1054" s="1">
         <v>0</v>
       </c>
@@ -29530,7 +29526,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="1055" hidden="1" spans="1:4">
+    <row r="1055" spans="1:4">
       <c r="A1055" s="1">
         <v>0</v>
       </c>
@@ -29592,7 +29588,7 @@
       </c>
       <c r="E1059" s="6"/>
     </row>
-    <row r="1060" hidden="1" spans="1:4">
+    <row r="1060" spans="1:4">
       <c r="A1060" s="1">
         <v>0</v>
       </c>
@@ -29726,7 +29722,7 @@
       </c>
       <c r="E1070" s="6"/>
     </row>
-    <row r="1071" hidden="1" spans="1:4">
+    <row r="1071" spans="1:4">
       <c r="A1071" s="1">
         <v>0</v>
       </c>
@@ -29752,7 +29748,7 @@
       </c>
       <c r="E1072" s="6"/>
     </row>
-    <row r="1073" hidden="1" spans="1:4">
+    <row r="1073" spans="1:4">
       <c r="A1073" s="1">
         <v>0</v>
       </c>
@@ -29766,7 +29762,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="1074" hidden="1" spans="1:4">
+    <row r="1074" spans="1:4">
       <c r="A1074" s="1">
         <v>0</v>
       </c>
@@ -29792,7 +29788,7 @@
       </c>
       <c r="E1075" s="6"/>
     </row>
-    <row r="1076" hidden="1" spans="1:5">
+    <row r="1076" spans="1:5">
       <c r="A1076" s="1">
         <v>0</v>
       </c>
@@ -29881,7 +29877,7 @@
       </c>
       <c r="E1082" s="6"/>
     </row>
-    <row r="1083" hidden="1" spans="1:4">
+    <row r="1083" spans="1:4">
       <c r="A1083" s="1">
         <v>0</v>
       </c>
@@ -29907,7 +29903,7 @@
       </c>
       <c r="E1084" s="6"/>
     </row>
-    <row r="1085" hidden="1" spans="1:5">
+    <row r="1085" spans="1:5">
       <c r="A1085" s="1">
         <v>0</v>
       </c>
@@ -29924,7 +29920,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="1086" hidden="1" spans="1:5">
+    <row r="1086" spans="1:5">
       <c r="A1086" s="1">
         <v>0</v>
       </c>
@@ -29941,7 +29937,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="1087" hidden="1" spans="1:4">
+    <row r="1087" spans="1:4">
       <c r="A1087" s="1">
         <v>0</v>
       </c>
@@ -29979,7 +29975,7 @@
       </c>
       <c r="E1089" s="6"/>
     </row>
-    <row r="1090" hidden="1" spans="1:4">
+    <row r="1090" spans="1:4">
       <c r="A1090" s="1">
         <v>0</v>
       </c>
@@ -29993,7 +29989,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="1091" hidden="1" spans="1:4">
+    <row r="1091" spans="1:4">
       <c r="A1091" s="1">
         <v>0</v>
       </c>
@@ -30007,7 +30003,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="1092" hidden="1" spans="1:4">
+    <row r="1092" spans="1:4">
       <c r="A1092" s="1">
         <v>0</v>
       </c>
@@ -30033,7 +30029,7 @@
       </c>
       <c r="E1093" s="6"/>
     </row>
-    <row r="1094" hidden="1" spans="1:4">
+    <row r="1094" spans="1:4">
       <c r="A1094" s="1">
         <v>0</v>
       </c>
@@ -30047,7 +30043,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="1095" hidden="1" spans="1:4">
+    <row r="1095" spans="1:4">
       <c r="A1095" s="1">
         <v>0</v>
       </c>
@@ -30061,7 +30057,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="1096" hidden="1" spans="1:4">
+    <row r="1096" spans="1:4">
       <c r="A1096" s="1">
         <v>0</v>
       </c>
@@ -30099,7 +30095,7 @@
       </c>
       <c r="E1098" s="6"/>
     </row>
-    <row r="1099" hidden="1" spans="1:4">
+    <row r="1099" spans="1:4">
       <c r="A1099" s="1">
         <v>0</v>
       </c>
@@ -30113,7 +30109,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1100" hidden="1" spans="1:5">
+    <row r="1100" spans="1:5">
       <c r="A1100" s="1">
         <v>0</v>
       </c>
@@ -30130,7 +30126,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="1101" hidden="1" spans="1:5">
+    <row r="1101" spans="1:5">
       <c r="A1101" s="1">
         <v>0</v>
       </c>
@@ -30193,7 +30189,7 @@
       </c>
       <c r="E1105" s="6"/>
     </row>
-    <row r="1106" hidden="1" spans="1:5">
+    <row r="1106" spans="1:5">
       <c r="A1106" s="1">
         <v>0</v>
       </c>
@@ -30208,7 +30204,7 @@
       </c>
       <c r="E1106" s="6"/>
     </row>
-    <row r="1107" ht="48" hidden="1" spans="2:5">
+    <row r="1107" hidden="1" spans="2:5">
       <c r="B1107" s="1" t="s">
         <v>3456</v>
       </c>
@@ -30220,7 +30216,7 @@
       </c>
       <c r="E1107" s="6"/>
     </row>
-    <row r="1108" ht="48" hidden="1" spans="1:5">
+    <row r="1108" spans="1:5">
       <c r="A1108" s="1">
         <v>0</v>
       </c>
@@ -30247,7 +30243,7 @@
       </c>
       <c r="E1109" s="6"/>
     </row>
-    <row r="1110" hidden="1" spans="1:5">
+    <row r="1110" spans="1:5">
       <c r="A1110" s="1">
         <v>0</v>
       </c>
@@ -30262,7 +30258,7 @@
       </c>
       <c r="E1110" s="6"/>
     </row>
-    <row r="1111" hidden="1" spans="1:5">
+    <row r="1111" spans="1:5">
       <c r="A1111" s="1">
         <v>0</v>
       </c>
@@ -30313,7 +30309,7 @@
       </c>
       <c r="E1114" s="6"/>
     </row>
-    <row r="1115" ht="48" hidden="1" spans="1:5">
+    <row r="1115" ht="37.5" spans="1:5">
       <c r="A1115" s="1">
         <v>0</v>
       </c>
@@ -30392,7 +30388,7 @@
       </c>
       <c r="E1120" s="6"/>
     </row>
-    <row r="1121" hidden="1" spans="1:5">
+    <row r="1121" spans="1:5">
       <c r="A1121" s="1">
         <v>0</v>
       </c>
@@ -30431,7 +30427,7 @@
       </c>
       <c r="E1123" s="6"/>
     </row>
-    <row r="1124" ht="48" hidden="1" spans="2:5">
+    <row r="1124" hidden="1" spans="2:5">
       <c r="B1124" s="1" t="s">
         <v>3508</v>
       </c>
@@ -30443,7 +30439,7 @@
       </c>
       <c r="E1124" s="6"/>
     </row>
-    <row r="1125" hidden="1" spans="1:5">
+    <row r="1125" spans="1:5">
       <c r="A1125" s="1">
         <v>0</v>
       </c>
@@ -30458,7 +30454,7 @@
       </c>
       <c r="E1125" s="6"/>
     </row>
-    <row r="1126" hidden="1" spans="1:5">
+    <row r="1126" spans="1:5">
       <c r="A1126" s="1">
         <v>0</v>
       </c>
@@ -30497,7 +30493,7 @@
       </c>
       <c r="E1128" s="6"/>
     </row>
-    <row r="1129" ht="48" hidden="1" spans="2:5">
+    <row r="1129" hidden="1" spans="2:5">
       <c r="B1129" s="1" t="s">
         <v>3523</v>
       </c>
@@ -30509,7 +30505,7 @@
       </c>
       <c r="E1129" s="6"/>
     </row>
-    <row r="1130" hidden="1" spans="1:5">
+    <row r="1130" spans="1:5">
       <c r="A1130" s="1">
         <v>0</v>
       </c>
@@ -30561,7 +30557,7 @@
       </c>
       <c r="E1133" s="6"/>
     </row>
-    <row r="1134" hidden="1" spans="1:5">
+    <row r="1134" spans="1:5">
       <c r="A1134" s="1">
         <v>0</v>
       </c>
@@ -30600,7 +30596,7 @@
       </c>
       <c r="E1136" s="6"/>
     </row>
-    <row r="1137" hidden="1" spans="1:5">
+    <row r="1137" spans="1:5">
       <c r="A1137" s="1">
         <v>0</v>
       </c>
@@ -30615,7 +30611,7 @@
       </c>
       <c r="E1137" s="6"/>
     </row>
-    <row r="1138" hidden="1" spans="1:5">
+    <row r="1138" spans="1:5">
       <c r="A1138" s="1">
         <v>0</v>
       </c>
@@ -30630,7 +30626,7 @@
       </c>
       <c r="E1138" s="6"/>
     </row>
-    <row r="1139" hidden="1" spans="1:5">
+    <row r="1139" spans="1:5">
       <c r="A1139" s="1">
         <v>0</v>
       </c>
@@ -30681,7 +30677,7 @@
       </c>
       <c r="E1142" s="6"/>
     </row>
-    <row r="1143" hidden="1" spans="1:5">
+    <row r="1143" spans="1:5">
       <c r="A1143" s="1">
         <v>0</v>
       </c>
@@ -30732,7 +30728,7 @@
       </c>
       <c r="E1146" s="6"/>
     </row>
-    <row r="1147" hidden="1" spans="1:5">
+    <row r="1147" spans="1:5">
       <c r="A1147" s="1">
         <v>0</v>
       </c>
@@ -30747,7 +30743,7 @@
       </c>
       <c r="E1147" s="6"/>
     </row>
-    <row r="1148" hidden="1" spans="1:5">
+    <row r="1148" spans="1:5">
       <c r="A1148" s="1">
         <v>0</v>
       </c>
@@ -30762,7 +30758,7 @@
       </c>
       <c r="E1148" s="6"/>
     </row>
-    <row r="1149" hidden="1" spans="1:5">
+    <row r="1149" spans="1:5">
       <c r="A1149" s="1">
         <v>0</v>
       </c>
@@ -30777,7 +30773,7 @@
       </c>
       <c r="E1149" s="6"/>
     </row>
-    <row r="1150" hidden="1" spans="1:5">
+    <row r="1150" spans="1:5">
       <c r="A1150" s="1">
         <v>0</v>
       </c>
@@ -30816,7 +30812,7 @@
       </c>
       <c r="E1152" s="6"/>
     </row>
-    <row r="1153" hidden="1" spans="1:5">
+    <row r="1153" spans="1:5">
       <c r="A1153" s="1">
         <v>0</v>
       </c>
@@ -30855,7 +30851,7 @@
       </c>
       <c r="E1155" s="6"/>
     </row>
-    <row r="1156" ht="48" hidden="1" spans="1:5">
+    <row r="1156" spans="1:5">
       <c r="A1156" s="1">
         <v>0</v>
       </c>
@@ -30870,7 +30866,7 @@
       </c>
       <c r="E1156" s="6"/>
     </row>
-    <row r="1157" ht="48" hidden="1" spans="1:5">
+    <row r="1157" spans="1:5">
       <c r="A1157" s="1">
         <v>0</v>
       </c>
@@ -30981,7 +30977,7 @@
       </c>
       <c r="E1165" s="6"/>
     </row>
-    <row r="1166" hidden="1" spans="1:5">
+    <row r="1166" spans="1:5">
       <c r="A1166" s="1">
         <v>0</v>
       </c>
@@ -30996,7 +30992,7 @@
       </c>
       <c r="E1166" s="6"/>
     </row>
-    <row r="1167" hidden="1" spans="1:5">
+    <row r="1167" spans="1:5">
       <c r="A1167" s="1">
         <v>0</v>
       </c>
@@ -31011,7 +31007,7 @@
       </c>
       <c r="E1167" s="6"/>
     </row>
-    <row r="1168" hidden="1" spans="1:5">
+    <row r="1168" spans="1:5">
       <c r="A1168" s="1">
         <v>0</v>
       </c>
@@ -31026,7 +31022,7 @@
       </c>
       <c r="E1168" s="6"/>
     </row>
-    <row r="1169" hidden="1" spans="1:5">
+    <row r="1169" spans="1:5">
       <c r="A1169" s="1">
         <v>0</v>
       </c>
@@ -31077,7 +31073,7 @@
       </c>
       <c r="E1172" s="6"/>
     </row>
-    <row r="1173" hidden="1" spans="1:5">
+    <row r="1173" spans="1:5">
       <c r="A1173" s="1">
         <v>0</v>
       </c>
@@ -31200,7 +31196,7 @@
       </c>
       <c r="E1182" s="6"/>
     </row>
-    <row r="1183" hidden="1" spans="1:5">
+    <row r="1183" spans="1:5">
       <c r="A1183" s="1">
         <v>0</v>
       </c>
@@ -31215,7 +31211,7 @@
       </c>
       <c r="E1183" s="6"/>
     </row>
-    <row r="1184" hidden="1" spans="1:5">
+    <row r="1184" spans="1:5">
       <c r="A1184" s="1">
         <v>0</v>
       </c>
@@ -31242,7 +31238,7 @@
       </c>
       <c r="E1185" s="6"/>
     </row>
-    <row r="1186" hidden="1" spans="1:5">
+    <row r="1186" spans="1:5">
       <c r="A1186" s="1">
         <v>0</v>
       </c>
@@ -31257,7 +31253,7 @@
       </c>
       <c r="E1186" s="6"/>
     </row>
-    <row r="1187" hidden="1" spans="1:5">
+    <row r="1187" spans="1:5">
       <c r="A1187" s="1">
         <v>0</v>
       </c>
@@ -31272,7 +31268,7 @@
       </c>
       <c r="E1187" s="6"/>
     </row>
-    <row r="1188" hidden="1" spans="1:5">
+    <row r="1188" spans="1:5">
       <c r="A1188" s="1">
         <v>0</v>
       </c>
@@ -31299,7 +31295,7 @@
       </c>
       <c r="E1189" s="6"/>
     </row>
-    <row r="1190" hidden="1" spans="1:5">
+    <row r="1190" spans="1:5">
       <c r="A1190" s="1">
         <v>0</v>
       </c>
@@ -31338,7 +31334,7 @@
       </c>
       <c r="E1192" s="6"/>
     </row>
-    <row r="1193" hidden="1" spans="1:5">
+    <row r="1193" spans="1:5">
       <c r="A1193" s="1">
         <v>0</v>
       </c>
@@ -31365,7 +31361,7 @@
       </c>
       <c r="E1194" s="6"/>
     </row>
-    <row r="1195" hidden="1" spans="1:5">
+    <row r="1195" spans="1:5">
       <c r="A1195" s="1">
         <v>0</v>
       </c>
@@ -31404,7 +31400,7 @@
       </c>
       <c r="E1197" s="6"/>
     </row>
-    <row r="1198" hidden="1" spans="1:5">
+    <row r="1198" spans="1:5">
       <c r="A1198" s="1">
         <v>0</v>
       </c>
@@ -31421,7 +31417,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="1199" hidden="1" spans="1:5">
+    <row r="1199" spans="1:5">
       <c r="A1199" s="1">
         <v>0</v>
       </c>
@@ -31450,7 +31446,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="1201" hidden="1" spans="1:5">
+    <row r="1201" spans="1:5">
       <c r="A1201" s="1">
         <v>0</v>
       </c>
@@ -31489,7 +31485,7 @@
       </c>
       <c r="E1203" s="6"/>
     </row>
-    <row r="1204" hidden="1" spans="1:5">
+    <row r="1204" spans="1:5">
       <c r="A1204" s="1">
         <v>0</v>
       </c>
@@ -31504,7 +31500,7 @@
       </c>
       <c r="E1204" s="6"/>
     </row>
-    <row r="1205" hidden="1" spans="1:5">
+    <row r="1205" spans="1:5">
       <c r="A1205" s="1">
         <v>0</v>
       </c>
@@ -31531,7 +31527,7 @@
       </c>
       <c r="E1206" s="6"/>
     </row>
-    <row r="1207" hidden="1" spans="1:5">
+    <row r="1207" spans="1:5">
       <c r="A1207" s="1">
         <v>0</v>
       </c>
@@ -31582,7 +31578,7 @@
       </c>
       <c r="E1210" s="6"/>
     </row>
-    <row r="1211" hidden="1" spans="1:5">
+    <row r="1211" spans="1:5">
       <c r="A1211" s="1">
         <v>0</v>
       </c>
@@ -31597,7 +31593,7 @@
       </c>
       <c r="E1211" s="6"/>
     </row>
-    <row r="1212" hidden="1" spans="1:5">
+    <row r="1212" spans="1:5">
       <c r="A1212" s="1">
         <v>0</v>
       </c>
@@ -31612,7 +31608,7 @@
       </c>
       <c r="E1212" s="6"/>
     </row>
-    <row r="1213" hidden="1" spans="1:5">
+    <row r="1213" spans="1:5">
       <c r="A1213" s="1">
         <v>0</v>
       </c>
@@ -31651,7 +31647,7 @@
       </c>
       <c r="E1215" s="6"/>
     </row>
-    <row r="1216" hidden="1" spans="1:5">
+    <row r="1216" spans="1:5">
       <c r="A1216" s="1">
         <v>0</v>
       </c>
@@ -31666,7 +31662,7 @@
       </c>
       <c r="E1216" s="6"/>
     </row>
-    <row r="1217" hidden="1" spans="1:5">
+    <row r="1217" spans="1:5">
       <c r="A1217" s="1">
         <v>0</v>
       </c>
@@ -31681,7 +31677,7 @@
       </c>
       <c r="E1217" s="6"/>
     </row>
-    <row r="1218" hidden="1" spans="1:5">
+    <row r="1218" spans="1:5">
       <c r="A1218" s="1">
         <v>0</v>
       </c>
@@ -31696,7 +31692,7 @@
       </c>
       <c r="E1218" s="6"/>
     </row>
-    <row r="1219" hidden="1" spans="1:5">
+    <row r="1219" spans="1:5">
       <c r="A1219" s="1">
         <v>0</v>
       </c>
@@ -31747,7 +31743,7 @@
       </c>
       <c r="E1222" s="6"/>
     </row>
-    <row r="1223" hidden="1" spans="1:5">
+    <row r="1223" spans="1:5">
       <c r="A1223" s="1">
         <v>0</v>
       </c>
@@ -31786,7 +31782,7 @@
       </c>
       <c r="E1225" s="6"/>
     </row>
-    <row r="1226" hidden="1" spans="1:5">
+    <row r="1226" spans="1:5">
       <c r="A1226" s="1">
         <v>0</v>
       </c>
@@ -31801,7 +31797,7 @@
       </c>
       <c r="E1226" s="6"/>
     </row>
-    <row r="1227" hidden="1" spans="1:5">
+    <row r="1227" spans="1:5">
       <c r="A1227" s="1">
         <v>0</v>
       </c>
@@ -31816,7 +31812,7 @@
       </c>
       <c r="E1227" s="6"/>
     </row>
-    <row r="1228" hidden="1" spans="1:5">
+    <row r="1228" spans="1:5">
       <c r="A1228" s="1">
         <v>0</v>
       </c>
@@ -31857,7 +31853,7 @@
       </c>
       <c r="E1230" s="6"/>
     </row>
-    <row r="1231" hidden="1" spans="1:5">
+    <row r="1231" spans="1:5">
       <c r="A1231" s="1">
         <v>0</v>
       </c>
@@ -31896,7 +31892,7 @@
       </c>
       <c r="E1233" s="6"/>
     </row>
-    <row r="1234" hidden="1" spans="1:5">
+    <row r="1234" spans="1:5">
       <c r="A1234" s="1">
         <v>0</v>
       </c>
@@ -31983,7 +31979,7 @@
       </c>
       <c r="E1240" s="6"/>
     </row>
-    <row r="1241" hidden="1" spans="1:5">
+    <row r="1241" spans="1:5">
       <c r="A1241" s="1">
         <v>0</v>
       </c>
@@ -31998,7 +31994,7 @@
       </c>
       <c r="E1241" s="6"/>
     </row>
-    <row r="1242" hidden="1" spans="1:5">
+    <row r="1242" spans="1:5">
       <c r="A1242" s="1">
         <v>0</v>
       </c>
@@ -32053,7 +32049,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="1246" hidden="1" spans="1:5">
+    <row r="1246" spans="1:5">
       <c r="A1246" s="1">
         <v>0</v>
       </c>
@@ -32080,7 +32076,7 @@
       </c>
       <c r="E1247" s="6"/>
     </row>
-    <row r="1248" ht="48" hidden="1" spans="1:5">
+    <row r="1248" ht="37.5" spans="1:5">
       <c r="A1248" s="1">
         <v>0</v>
       </c>
@@ -32095,7 +32091,7 @@
       </c>
       <c r="E1248" s="6"/>
     </row>
-    <row r="1249" hidden="1" spans="1:5">
+    <row r="1249" spans="1:5">
       <c r="A1249" s="1">
         <v>0</v>
       </c>
@@ -32110,7 +32106,7 @@
       </c>
       <c r="E1249" s="6"/>
     </row>
-    <row r="1250" hidden="1" spans="1:5">
+    <row r="1250" spans="1:5">
       <c r="A1250" s="1">
         <v>0</v>
       </c>
@@ -32139,7 +32135,7 @@
       </c>
       <c r="E1251" s="6"/>
     </row>
-    <row r="1252" ht="38" hidden="1" spans="2:5">
+    <row r="1252" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>3897</v>
       </c>
@@ -32153,7 +32149,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="1253" hidden="1" spans="1:5">
+    <row r="1253" spans="1:5">
       <c r="A1253" s="1">
         <v>0</v>
       </c>
@@ -32180,7 +32176,7 @@
       </c>
       <c r="E1254" s="6"/>
     </row>
-    <row r="1255" ht="48" hidden="1" spans="1:5">
+    <row r="1255" spans="1:5">
       <c r="A1255" s="1">
         <v>0</v>
       </c>
@@ -32207,7 +32203,7 @@
       </c>
       <c r="E1256" s="6"/>
     </row>
-    <row r="1257" hidden="1" spans="1:5">
+    <row r="1257" spans="1:5">
       <c r="A1257" s="1">
         <v>0</v>
       </c>
@@ -32222,7 +32218,7 @@
       </c>
       <c r="E1257" s="6"/>
     </row>
-    <row r="1258" hidden="1" spans="1:5">
+    <row r="1258" spans="1:5">
       <c r="A1258" s="1">
         <v>0</v>
       </c>
@@ -32237,7 +32233,7 @@
       </c>
       <c r="E1258" s="6"/>
     </row>
-    <row r="1259" hidden="1" spans="1:5">
+    <row r="1259" spans="1:5">
       <c r="A1259" s="1">
         <v>0</v>
       </c>
@@ -32252,7 +32248,7 @@
       </c>
       <c r="E1259" s="6"/>
     </row>
-    <row r="1260" hidden="1" spans="1:5">
+    <row r="1260" spans="1:5">
       <c r="A1260" s="1">
         <v>0</v>
       </c>
@@ -32267,7 +32263,7 @@
       </c>
       <c r="E1260" s="6"/>
     </row>
-    <row r="1261" ht="48" hidden="1" spans="2:5">
+    <row r="1261" ht="37.5" hidden="1" spans="2:5">
       <c r="B1261" s="1" t="s">
         <v>3925</v>
       </c>
@@ -32291,7 +32287,7 @@
       </c>
       <c r="E1262" s="6"/>
     </row>
-    <row r="1263" hidden="1" spans="1:5">
+    <row r="1263" spans="1:5">
       <c r="A1263" s="1">
         <v>0</v>
       </c>
@@ -32320,7 +32316,7 @@
       </c>
       <c r="E1264" s="6"/>
     </row>
-    <row r="1265" hidden="1" spans="1:5">
+    <row r="1265" spans="1:5">
       <c r="A1265" s="1">
         <v>0</v>
       </c>
@@ -32347,7 +32343,7 @@
       </c>
       <c r="E1266" s="6"/>
     </row>
-    <row r="1267" hidden="1" spans="1:5">
+    <row r="1267" spans="1:5">
       <c r="A1267" s="1">
         <v>0</v>
       </c>
@@ -32422,7 +32418,7 @@
       </c>
       <c r="E1272" s="6"/>
     </row>
-    <row r="1273" hidden="1" spans="1:5">
+    <row r="1273" spans="1:5">
       <c r="A1273" s="1">
         <v>0</v>
       </c>
@@ -32497,7 +32493,7 @@
       </c>
       <c r="E1278" s="6"/>
     </row>
-    <row r="1279" hidden="1" spans="1:5">
+    <row r="1279" spans="1:5">
       <c r="A1279" s="1">
         <v>0</v>
       </c>
@@ -32548,7 +32544,7 @@
       </c>
       <c r="E1282" s="6"/>
     </row>
-    <row r="1283" hidden="1" spans="1:5">
+    <row r="1283" spans="1:5">
       <c r="A1283" s="1">
         <v>0</v>
       </c>
@@ -32563,7 +32559,7 @@
       </c>
       <c r="E1283" s="6"/>
     </row>
-    <row r="1284" hidden="1" spans="1:5">
+    <row r="1284" spans="1:5">
       <c r="A1284" s="1">
         <v>0</v>
       </c>
@@ -32578,7 +32574,7 @@
       </c>
       <c r="E1284" s="6"/>
     </row>
-    <row r="1285" hidden="1" spans="1:5">
+    <row r="1285" spans="1:5">
       <c r="A1285" s="1">
         <v>0</v>
       </c>
@@ -32656,7 +32652,7 @@
       </c>
       <c r="E1290" s="6"/>
     </row>
-    <row r="1291" ht="48" hidden="1" spans="1:5">
+    <row r="1291" spans="1:5">
       <c r="A1291" s="1">
         <v>0</v>
       </c>
@@ -32697,7 +32693,7 @@
       </c>
       <c r="E1293" s="6"/>
     </row>
-    <row r="1294" hidden="1" spans="1:5">
+    <row r="1294" spans="1:5">
       <c r="A1294" s="1">
         <v>0</v>
       </c>
@@ -32712,7 +32708,7 @@
       </c>
       <c r="E1294" s="6"/>
     </row>
-    <row r="1295" hidden="1" spans="1:5">
+    <row r="1295" spans="1:5">
       <c r="A1295" s="1">
         <v>0</v>
       </c>
@@ -32739,7 +32735,7 @@
       </c>
       <c r="E1296" s="6"/>
     </row>
-    <row r="1297" hidden="1" spans="1:5">
+    <row r="1297" spans="1:5">
       <c r="A1297" s="1">
         <v>0</v>
       </c>
@@ -32754,7 +32750,7 @@
       </c>
       <c r="E1297" s="6"/>
     </row>
-    <row r="1298" hidden="1" spans="1:5">
+    <row r="1298" spans="1:5">
       <c r="A1298" s="1">
         <v>0</v>
       </c>
@@ -32820,7 +32816,7 @@
       </c>
       <c r="E1302" s="1"/>
     </row>
-    <row r="1303" hidden="1" spans="1:5">
+    <row r="1303" spans="1:5">
       <c r="A1303" s="1">
         <v>0</v>
       </c>
@@ -32861,7 +32857,7 @@
       </c>
       <c r="E1305" s="6"/>
     </row>
-    <row r="1306" ht="72" hidden="1" spans="2:5">
+    <row r="1306" ht="56.25" hidden="1" spans="2:5">
       <c r="B1306" s="1" t="s">
         <v>4062</v>
       </c>
@@ -32957,7 +32953,7 @@
       </c>
       <c r="E1313" s="1"/>
     </row>
-    <row r="1314" hidden="1" spans="1:5">
+    <row r="1314" spans="1:5">
       <c r="A1314" s="1">
         <v>0</v>
       </c>
@@ -32972,7 +32968,7 @@
       </c>
       <c r="E1314" s="6"/>
     </row>
-    <row r="1315" hidden="1" spans="1:5">
+    <row r="1315" spans="1:5">
       <c r="A1315" s="1">
         <v>0</v>
       </c>
@@ -33025,7 +33021,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="1319" ht="48" hidden="1" spans="2:5">
+    <row r="1319" ht="37.5" hidden="1" spans="2:5">
       <c r="B1319" s="1" t="s">
         <v>4101</v>
       </c>
@@ -33076,7 +33072,7 @@
       </c>
       <c r="E1322" s="1"/>
     </row>
-    <row r="1323" hidden="1" spans="1:5">
+    <row r="1323" spans="1:5">
       <c r="A1323" s="1">
         <v>0</v>
       </c>
@@ -33101,6 +33097,7 @@
   <autoFilter ref="A1:A1324">
     <filterColumn colId="0">
       <filters>
+        <filter val="0"/>
         <filter val="1"/>
         <filter val="3"/>
         <filter val="4"/>

--- a/Level 2.xlsx
+++ b/Level 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1160,13 +1160,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简"/>
-        <charset val="134"/>
-      </rPr>
       <t>con</t>
     </r>
     <r>
@@ -14446,8 +14439,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -14496,6 +14489,120 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="手札体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -14511,56 +14618,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14572,69 +14633,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14654,13 +14654,6 @@
       <sz val="12"/>
       <name val="手札体-简 常规体"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="手札体-简"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -14728,13 +14721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14746,7 +14739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14758,7 +14751,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14770,49 +14859,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14824,85 +14889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14913,30 +14906,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -14958,6 +14927,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -14968,6 +14946,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -14999,169 +14992,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -15182,6 +15175,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -15240,6 +15236,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -15279,8 +15280,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17866360" y="238125"/>
-          <a:ext cx="5440045" cy="1689735"/>
+          <a:off x="15918815" y="238125"/>
+          <a:ext cx="4839970" cy="2527935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15297,7 +15298,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -15544,7 +15545,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -15553,17 +15553,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1342" sqref="C1342"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="O390" sqref="A396 O390"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.575" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5037037037037" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="37.5" hidden="1" spans="2:5">
+    <row r="3" ht="48" hidden="1" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -15608,7 +15608,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="37.5" spans="1:5">
+    <row r="4" ht="48" spans="1:5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="48" spans="1:5">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -15642,9 +15642,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="37.5" spans="1:5">
+    <row r="6" ht="48" spans="1:5">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="37.5" hidden="1" spans="2:5">
+    <row r="7" ht="48" hidden="1" spans="2:5">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="37.5" hidden="1" spans="2:5">
+    <row r="8" ht="48" hidden="1" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="37.5" hidden="1" spans="2:5">
+    <row r="9" ht="48" hidden="1" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -15693,9 +15693,9 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="37.5" spans="1:5">
+    <row r="10" ht="48" spans="1:5">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -15708,7 +15708,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="37.5" hidden="1" spans="2:5">
+    <row r="11" ht="48" hidden="1" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -15720,7 +15720,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="37.5" hidden="1" spans="2:9">
+    <row r="12" ht="48" hidden="1" spans="2:9">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -15736,7 +15736,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" ht="37.5" hidden="1" spans="2:9">
+    <row r="13" ht="48" hidden="1" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -15752,7 +15752,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" ht="37.5" hidden="1" spans="2:5">
+    <row r="14" ht="48" hidden="1" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -15764,9 +15764,9 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="37.5" spans="1:5">
+    <row r="15" ht="48" spans="1:5">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -15781,7 +15781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" ht="37.5" hidden="1" spans="2:5">
+    <row r="16" ht="48" hidden="1" spans="2:5">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -15793,9 +15793,9 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="37.5" spans="1:5">
+    <row r="17" ht="48" spans="1:5">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>53</v>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="37.5" hidden="1" spans="2:5">
+    <row r="18" ht="48" hidden="1" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -15820,7 +15820,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="48" spans="1:5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -15849,7 +15849,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>65</v>
@@ -15862,9 +15862,9 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="37.5" spans="1:5">
+    <row r="22" ht="48" spans="1:5">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>68</v>
@@ -15944,7 +15944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" ht="48" spans="1:5">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -15975,9 +15975,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" ht="48" spans="1:5">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>96</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>103</v>
@@ -16023,7 +16023,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>107</v>
@@ -16077,7 +16077,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>119</v>
@@ -16090,7 +16090,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" ht="37.5" hidden="1" spans="2:5">
+    <row r="38" ht="48" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>122</v>
       </c>
@@ -16166,9 +16166,9 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" ht="37.5" spans="1:5">
+    <row r="44" ht="48" spans="1:5">
       <c r="A44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>140</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>156</v>
@@ -16296,9 +16296,9 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" ht="37.5" spans="1:5">
+    <row r="53" ht="43" spans="1:5">
       <c r="A53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>169</v>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" ht="37.5" hidden="1" spans="2:5">
+    <row r="55" ht="48" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>176</v>
       </c>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" ht="48" spans="1:5">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" hidden="1" spans="2:5">
+    <row r="62" ht="48" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>197</v>
       </c>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" hidden="1" spans="2:5">
+    <row r="64" ht="48" hidden="1" spans="2:5">
       <c r="B64" s="1" t="s">
         <v>203</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" ht="56.25" hidden="1" spans="2:5">
+    <row r="67" ht="62" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>215</v>
       </c>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" ht="48" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" ht="48" spans="1:5">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -16680,7 +16680,7 @@
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" hidden="1" spans="2:5">
+    <row r="81" ht="48" hidden="1" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>262</v>
       </c>
@@ -16748,7 +16748,7 @@
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" hidden="1" spans="2:5">
+    <row r="86" ht="48" hidden="1" spans="2:5">
       <c r="B86" s="1" t="s">
         <v>278</v>
       </c>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" hidden="1" spans="2:5">
+    <row r="101" ht="48" hidden="1" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>326</v>
       </c>
@@ -16961,7 +16961,7 @@
       <c r="A102" s="1">
         <v>0</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="8" t="s">
         <v>329</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" hidden="1" spans="2:5">
+    <row r="105" ht="48" hidden="1" spans="2:5">
       <c r="B105" s="1" t="s">
         <v>340</v>
       </c>
@@ -17017,7 +17017,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>343</v>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" hidden="1" spans="2:5">
+    <row r="111" ht="48" hidden="1" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>358</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="115" ht="37.5" hidden="1" spans="2:5">
+    <row r="115" ht="48" hidden="1" spans="2:5">
       <c r="B115" s="1" t="s">
         <v>373</v>
       </c>
@@ -17187,7 +17187,7 @@
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" ht="37.5" hidden="1" spans="2:5">
+    <row r="119" ht="48" hidden="1" spans="2:5">
       <c r="B119" s="1" t="s">
         <v>386</v>
       </c>
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" hidden="1" spans="2:5">
+    <row r="127" ht="48" hidden="1" spans="2:5">
       <c r="B127" s="1" t="s">
         <v>412</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="2:5">
+    <row r="129" ht="48" hidden="1" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>419</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="135" ht="37.5" hidden="1" spans="2:5">
+    <row r="135" ht="48" hidden="1" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>439</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="2:5">
+    <row r="136" ht="48" hidden="1" spans="2:5">
       <c r="B136" s="1" t="s">
         <v>443</v>
       </c>
@@ -17480,7 +17480,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>461</v>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" ht="37.5" hidden="1" spans="2:5">
+    <row r="142" ht="48" hidden="1" spans="2:5">
       <c r="B142" s="1" t="s">
         <v>464</v>
       </c>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>470</v>
@@ -17534,7 +17534,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>473</v>
@@ -17625,7 +17625,7 @@
       </c>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" ht="37.5" hidden="1" spans="2:5">
+    <row r="152" ht="48" hidden="1" spans="2:5">
       <c r="B152" s="1" t="s">
         <v>494</v>
       </c>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" ht="37.5" hidden="1" spans="2:5">
+    <row r="153" ht="48" hidden="1" spans="2:5">
       <c r="B153" s="1" t="s">
         <v>497</v>
       </c>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" ht="37.5" hidden="1" spans="2:5">
+    <row r="157" ht="43" hidden="1" spans="2:5">
       <c r="B157" s="1" t="s">
         <v>509</v>
       </c>
@@ -17738,9 +17738,9 @@
       </c>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" ht="37.5" spans="1:5">
+    <row r="161" ht="48" spans="1:5">
       <c r="A161" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>522</v>
@@ -17753,9 +17753,9 @@
       </c>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" ht="37.5" spans="1:5">
+    <row r="162" ht="48" spans="1:5">
       <c r="A162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>525</v>
@@ -17798,7 +17798,7 @@
       </c>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" hidden="1" spans="2:5">
+    <row r="165" ht="38" hidden="1" spans="2:5">
       <c r="B165" s="1" t="s">
         <v>534</v>
       </c>
@@ -17824,7 +17824,7 @@
       </c>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" ht="37.5" hidden="1" spans="2:5">
+    <row r="167" ht="48" hidden="1" spans="2:5">
       <c r="B167" s="1" t="s">
         <v>541</v>
       </c>
@@ -17848,7 +17848,7 @@
       </c>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" ht="37.5" spans="1:5">
+    <row r="169" ht="48" spans="1:5">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -17863,7 +17863,7 @@
       </c>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" ht="48" spans="1:5">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -17878,7 +17878,7 @@
       </c>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" ht="37.5" hidden="1" spans="2:5">
+    <row r="171" ht="48" hidden="1" spans="2:5">
       <c r="B171" s="1" t="s">
         <v>553</v>
       </c>
@@ -18117,7 +18117,7 @@
       </c>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" ht="48" spans="1:5">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="193" ht="37.5" hidden="1" spans="2:5">
+    <row r="193" ht="48" hidden="1" spans="2:5">
       <c r="B193" s="1" t="s">
         <v>621</v>
       </c>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>646</v>
@@ -18295,7 +18295,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>652</v>
@@ -18310,7 +18310,7 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>655</v>
@@ -18381,7 +18381,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>670</v>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" ht="37.5" spans="1:5">
+    <row r="211" ht="62" spans="1:5">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" ht="48" spans="1:5">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>696</v>
@@ -18534,9 +18534,9 @@
       </c>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" ht="48" spans="1:5">
       <c r="A220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>706</v>
@@ -18568,7 +18568,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>713</v>
@@ -18604,7 +18604,7 @@
       </c>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" hidden="1" spans="2:5">
+    <row r="225" ht="48" hidden="1" spans="2:5">
       <c r="B225" s="1" t="s">
         <v>722</v>
       </c>
@@ -18618,7 +18618,7 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>725</v>
@@ -18687,7 +18687,7 @@
       </c>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" ht="37.5" spans="1:5">
+    <row r="231" ht="48" spans="1:5">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -18706,7 +18706,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>745</v>
@@ -18736,7 +18736,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>751</v>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>775</v>
@@ -18937,7 +18937,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>799</v>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" ht="48" spans="1:5">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -19066,7 +19066,7 @@
       </c>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" ht="48" spans="1:5">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -19097,7 +19097,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>836</v>
@@ -19208,7 +19208,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="270" ht="37.5" spans="1:5">
+    <row r="270" ht="48" spans="1:5">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -19252,7 +19252,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>873</v>
@@ -19265,7 +19265,7 @@
       </c>
       <c r="E273" s="6"/>
     </row>
-    <row r="274" hidden="1" spans="2:5">
+    <row r="274" ht="48" hidden="1" spans="2:5">
       <c r="B274" s="1" t="s">
         <v>876</v>
       </c>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>879</v>
@@ -19318,7 +19318,7 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>888</v>
@@ -19333,7 +19333,7 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>891</v>
@@ -19372,7 +19372,7 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>900</v>
@@ -19387,7 +19387,7 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>903</v>
@@ -19424,7 +19424,7 @@
       </c>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" hidden="1" spans="2:5">
+    <row r="286" ht="48" hidden="1" spans="2:5">
       <c r="B286" s="1" t="s">
         <v>912</v>
       </c>
@@ -19436,9 +19436,9 @@
       </c>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" ht="48" spans="1:5">
       <c r="A287" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>915</v>
@@ -19463,7 +19463,7 @@
       </c>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" ht="48" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" ht="48" spans="1:5">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -19668,7 +19668,7 @@
       </c>
       <c r="E303" s="6"/>
     </row>
-    <row r="304" ht="56.25" spans="1:5">
+    <row r="304" ht="76" spans="1:5">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -19740,7 +19740,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>985</v>
@@ -19781,7 +19781,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="312" ht="37.5" hidden="1" spans="2:5">
+    <row r="312" ht="43" hidden="1" spans="2:5">
       <c r="B312" s="1" t="s">
         <v>995</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" ht="48" spans="1:4">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -19848,7 +19848,7 @@
       </c>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" hidden="1" spans="2:5">
+    <row r="317" ht="48" hidden="1" spans="2:5">
       <c r="B317" s="1" t="s">
         <v>1011</v>
       </c>
@@ -19930,7 +19930,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>1029</v>
@@ -20030,9 +20030,9 @@
       </c>
       <c r="E330" s="6"/>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" ht="48" spans="1:4">
       <c r="A331" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1053</v>
@@ -20046,7 +20046,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>1056</v>
@@ -20138,7 +20138,7 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>1078</v>
@@ -20155,7 +20155,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>1082</v>
@@ -20167,7 +20167,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" ht="38" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="349" ht="56.25" hidden="1" spans="2:5">
+    <row r="349" ht="76" hidden="1" spans="2:5">
       <c r="B349" s="1" t="s">
         <v>1111</v>
       </c>
@@ -20289,7 +20289,7 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1115</v>
@@ -20314,10 +20314,7 @@
       </c>
       <c r="E351" s="6"/>
     </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="1">
-        <v>0</v>
-      </c>
+    <row r="352" spans="2:5">
       <c r="B352" s="1" t="s">
         <v>1121</v>
       </c>
@@ -20526,7 +20523,7 @@
       </c>
       <c r="E367" s="6"/>
     </row>
-    <row r="368" hidden="1" spans="2:5">
+    <row r="368" ht="38" hidden="1" spans="2:5">
       <c r="B368" s="1" t="s">
         <v>1169</v>
       </c>
@@ -20540,7 +20537,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" ht="48" spans="1:5">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -20569,7 +20566,7 @@
       </c>
       <c r="E370" s="6"/>
     </row>
-    <row r="371" ht="37.5" hidden="1" spans="2:5">
+    <row r="371" ht="48" hidden="1" spans="2:5">
       <c r="B371" s="1" t="s">
         <v>1180</v>
       </c>
@@ -20690,7 +20687,7 @@
       </c>
       <c r="E379" s="6"/>
     </row>
-    <row r="380" ht="37.5" hidden="1" spans="2:5">
+    <row r="380" ht="48" hidden="1" spans="2:5">
       <c r="B380" s="1" t="s">
         <v>1208</v>
       </c>
@@ -20753,7 +20750,7 @@
       </c>
       <c r="E384" s="6"/>
     </row>
-    <row r="385" ht="37.5" spans="1:5">
+    <row r="385" ht="48" spans="1:5">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -20809,7 +20806,7 @@
       </c>
       <c r="E388" s="6"/>
     </row>
-    <row r="389" ht="75" spans="1:5">
+    <row r="389" ht="120" spans="1:5">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -20921,7 +20918,7 @@
       </c>
       <c r="E396" s="6"/>
     </row>
-    <row r="397" ht="37.5" spans="1:5">
+    <row r="397" ht="48" spans="1:5">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -20950,7 +20947,7 @@
       </c>
       <c r="E398" s="6"/>
     </row>
-    <row r="399" ht="37.5" hidden="1" spans="2:5">
+    <row r="399" ht="38" hidden="1" spans="2:5">
       <c r="B399" s="1" t="s">
         <v>1268</v>
       </c>
@@ -21154,7 +21151,7 @@
       </c>
       <c r="E413" s="6"/>
     </row>
-    <row r="414" ht="37.5" hidden="1" spans="2:5">
+    <row r="414" ht="48" hidden="1" spans="2:5">
       <c r="B414" s="1" t="s">
         <v>1316</v>
       </c>
@@ -21202,7 +21199,7 @@
       </c>
       <c r="E417" s="6"/>
     </row>
-    <row r="418" hidden="1" spans="2:5">
+    <row r="418" ht="48" hidden="1" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>1328</v>
       </c>
@@ -21353,7 +21350,7 @@
       </c>
       <c r="E429" s="6"/>
     </row>
-    <row r="430" ht="37.5" spans="1:5">
+    <row r="430" ht="48" spans="1:5">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -21492,7 +21489,7 @@
       </c>
       <c r="E440" s="6"/>
     </row>
-    <row r="441" hidden="1" spans="2:4">
+    <row r="441" ht="48" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1400</v>
       </c>
@@ -21531,7 +21528,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="444" ht="37.5" hidden="1" spans="2:5">
+    <row r="444" ht="62" hidden="1" spans="2:5">
       <c r="B444" s="1" t="s">
         <v>1410</v>
       </c>
@@ -21634,7 +21631,7 @@
       </c>
       <c r="E451" s="6"/>
     </row>
-    <row r="452" ht="37.5" hidden="1" spans="2:5">
+    <row r="452" ht="48" hidden="1" spans="2:5">
       <c r="B452" s="1" t="s">
         <v>1435</v>
       </c>
@@ -21862,7 +21859,7 @@
       </c>
       <c r="E468" s="6"/>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" ht="48" spans="1:4">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -22005,7 +22002,7 @@
       </c>
       <c r="E479" s="6"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" ht="48" spans="1:5">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -22649,7 +22646,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" ht="48" spans="1:4">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -22675,7 +22672,7 @@
       </c>
       <c r="E529" s="6"/>
     </row>
-    <row r="530" hidden="1" spans="2:5">
+    <row r="530" ht="48" hidden="1" spans="2:5">
       <c r="B530" s="1" t="s">
         <v>1677</v>
       </c>
@@ -23170,7 +23167,7 @@
       </c>
       <c r="E566" s="6"/>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" ht="48" spans="1:4">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -23208,7 +23205,7 @@
       </c>
       <c r="E569" s="6"/>
     </row>
-    <row r="570" ht="37.5" spans="1:5">
+    <row r="570" ht="48" spans="1:5">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -23270,7 +23267,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="2:5">
+    <row r="574" ht="48" hidden="1" spans="2:5">
       <c r="B574" s="1" t="s">
         <v>1815</v>
       </c>
@@ -23337,7 +23334,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="579" ht="37.5" hidden="1" spans="2:5">
+    <row r="579" ht="48" hidden="1" spans="2:5">
       <c r="B579" s="1" t="s">
         <v>1832</v>
       </c>
@@ -23809,7 +23806,7 @@
       </c>
       <c r="E614" s="6"/>
     </row>
-    <row r="615" ht="37.5" hidden="1" spans="2:5">
+    <row r="615" ht="48" hidden="1" spans="2:5">
       <c r="B615" s="1" t="s">
         <v>1943</v>
       </c>
@@ -23879,7 +23876,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="620" hidden="1" spans="2:5">
+    <row r="620" ht="48" hidden="1" spans="2:5">
       <c r="B620" s="1" t="s">
         <v>1958</v>
       </c>
@@ -23891,7 +23888,7 @@
       </c>
       <c r="E620" s="6"/>
     </row>
-    <row r="621" ht="37.5" spans="1:5">
+    <row r="621" ht="72" spans="1:5">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -23956,7 +23953,7 @@
       </c>
       <c r="E625" s="6"/>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" ht="48" spans="1:5">
       <c r="A626" s="1">
         <v>0</v>
       </c>
@@ -24128,7 +24125,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="639" ht="112.5" spans="1:5">
+    <row r="639" ht="143" spans="1:5">
       <c r="A639" s="1">
         <v>0</v>
       </c>
@@ -24449,7 +24446,7 @@
       </c>
       <c r="E662" s="6"/>
     </row>
-    <row r="663" ht="37.5" hidden="1" spans="2:5">
+    <row r="663" ht="62" hidden="1" spans="2:5">
       <c r="B663" s="1" t="s">
         <v>2092</v>
       </c>
@@ -24527,7 +24524,7 @@
       </c>
       <c r="E668" s="6"/>
     </row>
-    <row r="669" ht="37.5" hidden="1" spans="2:5">
+    <row r="669" ht="38" hidden="1" spans="2:5">
       <c r="B669" s="1" t="s">
         <v>2113</v>
       </c>
@@ -24553,7 +24550,7 @@
       </c>
       <c r="E670" s="6"/>
     </row>
-    <row r="671" ht="75" spans="1:5">
+    <row r="671" ht="96" spans="1:5">
       <c r="A671" s="1">
         <v>0</v>
       </c>
@@ -24797,7 +24794,7 @@
       </c>
       <c r="E688" s="6"/>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" ht="48" spans="1:4">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -24826,7 +24823,7 @@
       </c>
       <c r="E690" s="6"/>
     </row>
-    <row r="691" hidden="1" spans="2:5">
+    <row r="691" ht="48" hidden="1" spans="2:5">
       <c r="B691" s="1" t="s">
         <v>2184</v>
       </c>
@@ -25018,7 +25015,7 @@
       </c>
       <c r="E704" s="6"/>
     </row>
-    <row r="705" hidden="1" spans="2:5">
+    <row r="705" ht="48" hidden="1" spans="2:5">
       <c r="B705" s="1" t="s">
         <v>2229</v>
       </c>
@@ -25112,7 +25109,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="712" ht="93.75" spans="1:5">
+    <row r="712" ht="120" spans="1:5">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -26054,7 +26051,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="2:5">
+    <row r="785" ht="48" hidden="1" spans="2:5">
       <c r="B785" s="1" t="s">
         <v>2476</v>
       </c>
@@ -27037,7 +27034,7 @@
       </c>
       <c r="E860" s="6"/>
     </row>
-    <row r="861" hidden="1" spans="2:5">
+    <row r="861" ht="48" hidden="1" spans="2:5">
       <c r="B861" s="1" t="s">
         <v>2710</v>
       </c>
@@ -27203,7 +27200,7 @@
       </c>
       <c r="E873" s="6"/>
     </row>
-    <row r="874" hidden="1" spans="2:5">
+    <row r="874" ht="48" hidden="1" spans="2:5">
       <c r="B874" s="1" t="s">
         <v>2749</v>
       </c>
@@ -27982,7 +27979,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="935" ht="37.5" spans="1:5">
+    <row r="935" ht="48" spans="1:5">
       <c r="A935" s="1">
         <v>0</v>
       </c>
@@ -28382,7 +28379,7 @@
       </c>
       <c r="E964" s="6"/>
     </row>
-    <row r="965" spans="1:5">
+    <row r="965" ht="48" spans="1:5">
       <c r="A965" s="1">
         <v>0</v>
       </c>
@@ -28534,7 +28531,7 @@
       </c>
       <c r="E976" s="6"/>
     </row>
-    <row r="977" hidden="1" spans="2:5">
+    <row r="977" ht="48" hidden="1" spans="2:5">
       <c r="B977" s="1" t="s">
         <v>3060</v>
       </c>
@@ -28872,7 +28869,7 @@
       </c>
       <c r="E1003" s="6"/>
     </row>
-    <row r="1004" spans="1:4">
+    <row r="1004" ht="48" spans="1:4">
       <c r="A1004" s="1">
         <v>0</v>
       </c>
@@ -29020,7 +29017,7 @@
       </c>
       <c r="E1015" s="6"/>
     </row>
-    <row r="1016" ht="37.5" hidden="1" spans="2:5">
+    <row r="1016" ht="48" hidden="1" spans="2:5">
       <c r="B1016" s="1" t="s">
         <v>3177</v>
       </c>
@@ -29044,7 +29041,7 @@
       </c>
       <c r="E1017" s="6"/>
     </row>
-    <row r="1018" ht="37.5" spans="1:5">
+    <row r="1018" ht="48" spans="1:5">
       <c r="A1018" s="1">
         <v>0</v>
       </c>
@@ -30204,7 +30201,7 @@
       </c>
       <c r="E1106" s="6"/>
     </row>
-    <row r="1107" hidden="1" spans="2:5">
+    <row r="1107" ht="48" hidden="1" spans="2:5">
       <c r="B1107" s="1" t="s">
         <v>3456</v>
       </c>
@@ -30216,7 +30213,7 @@
       </c>
       <c r="E1107" s="6"/>
     </row>
-    <row r="1108" spans="1:5">
+    <row r="1108" ht="48" spans="1:5">
       <c r="A1108" s="1">
         <v>0</v>
       </c>
@@ -30309,7 +30306,7 @@
       </c>
       <c r="E1114" s="6"/>
     </row>
-    <row r="1115" ht="37.5" spans="1:5">
+    <row r="1115" ht="48" spans="1:5">
       <c r="A1115" s="1">
         <v>0</v>
       </c>
@@ -30427,7 +30424,7 @@
       </c>
       <c r="E1123" s="6"/>
     </row>
-    <row r="1124" hidden="1" spans="2:5">
+    <row r="1124" ht="48" hidden="1" spans="2:5">
       <c r="B1124" s="1" t="s">
         <v>3508</v>
       </c>
@@ -30493,7 +30490,7 @@
       </c>
       <c r="E1128" s="6"/>
     </row>
-    <row r="1129" hidden="1" spans="2:5">
+    <row r="1129" ht="48" hidden="1" spans="2:5">
       <c r="B1129" s="1" t="s">
         <v>3523</v>
       </c>
@@ -30545,7 +30542,7 @@
       <c r="E1132" s="6"/>
     </row>
     <row r="1133" hidden="1" spans="1:5">
-      <c r="A1133" s="8"/>
+      <c r="A1133" s="9"/>
       <c r="B1133" s="1" t="s">
         <v>3535</v>
       </c>
@@ -30851,7 +30848,7 @@
       </c>
       <c r="E1155" s="6"/>
     </row>
-    <row r="1156" spans="1:5">
+    <row r="1156" ht="48" spans="1:5">
       <c r="A1156" s="1">
         <v>0</v>
       </c>
@@ -30866,7 +30863,7 @@
       </c>
       <c r="E1156" s="6"/>
     </row>
-    <row r="1157" spans="1:5">
+    <row r="1157" ht="48" spans="1:5">
       <c r="A1157" s="1">
         <v>0</v>
       </c>
@@ -32076,7 +32073,7 @@
       </c>
       <c r="E1247" s="6"/>
     </row>
-    <row r="1248" ht="37.5" spans="1:5">
+    <row r="1248" ht="48" spans="1:5">
       <c r="A1248" s="1">
         <v>0</v>
       </c>
@@ -32135,7 +32132,7 @@
       </c>
       <c r="E1251" s="6"/>
     </row>
-    <row r="1252" hidden="1" spans="2:5">
+    <row r="1252" ht="38" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>3897</v>
       </c>
@@ -32176,7 +32173,7 @@
       </c>
       <c r="E1254" s="6"/>
     </row>
-    <row r="1255" spans="1:5">
+    <row r="1255" ht="48" spans="1:5">
       <c r="A1255" s="1">
         <v>0</v>
       </c>
@@ -32263,7 +32260,7 @@
       </c>
       <c r="E1260" s="6"/>
     </row>
-    <row r="1261" ht="37.5" hidden="1" spans="2:5">
+    <row r="1261" ht="48" hidden="1" spans="2:5">
       <c r="B1261" s="1" t="s">
         <v>3925</v>
       </c>
@@ -32652,7 +32649,7 @@
       </c>
       <c r="E1290" s="6"/>
     </row>
-    <row r="1291" spans="1:5">
+    <row r="1291" ht="48" spans="1:5">
       <c r="A1291" s="1">
         <v>0</v>
       </c>
@@ -32857,7 +32854,7 @@
       </c>
       <c r="E1305" s="6"/>
     </row>
-    <row r="1306" ht="56.25" hidden="1" spans="2:5">
+    <row r="1306" ht="72" hidden="1" spans="2:5">
       <c r="B1306" s="1" t="s">
         <v>4062</v>
       </c>
@@ -33021,7 +33018,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="1319" ht="37.5" hidden="1" spans="2:5">
+    <row r="1319" ht="48" hidden="1" spans="2:5">
       <c r="B1319" s="1" t="s">
         <v>4101</v>
       </c>
